--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="643">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2434,6 +2434,42 @@
   </si>
   <si>
     <t>QUESOS-POLLO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>POLLO-JAMONES-QUESO</t>
+  </si>
+  <si>
+    <t>ENCHILADA-POLLO-LONGANIZA-SALSAS</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-JAMONES-CHISTORRA-SALSAS-ROASF BEFF -ARABE-PASTOR</t>
+  </si>
+  <si>
+    <t>NOMINA # 15</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-QUESOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>LONGANIZA-JAMONES-PAPAS-SALMON-POLLO-</t>
+  </si>
+  <si>
+    <t>POLLO-CHORIZO-QUESOS-JAMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESOS-JAMONES-QUESOS </t>
+  </si>
+  <si>
+    <t>QUESOS-LONGANIZA-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>CHORIZO-LONGANIZA-QUESOS</t>
+  </si>
+  <si>
+    <t>NOMINA # 16</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -5254,6 +5290,10 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="21" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5566,10 +5606,6 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8993,23 +9029,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="529"/>
-      <c r="C1" s="531" t="s">
+      <c r="B1" s="533"/>
+      <c r="C1" s="535" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="532"/>
-      <c r="E1" s="532"/>
-      <c r="F1" s="532"/>
-      <c r="G1" s="532"/>
-      <c r="H1" s="532"/>
-      <c r="I1" s="532"/>
-      <c r="J1" s="532"/>
-      <c r="K1" s="532"/>
-      <c r="L1" s="532"/>
-      <c r="M1" s="532"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
+      <c r="M1" s="536"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="530"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9019,17 +9055,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="533" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="534"/>
+      <c r="B3" s="537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="538"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="535"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9043,14 +9079,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="536" t="s">
+      <c r="E4" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="537"/>
-      <c r="H4" s="538" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="539"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9060,10 +9096,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="510" t="s">
+      <c r="P4" s="514" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="511"/>
+      <c r="Q4" s="515"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10504,11 +10540,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="512">
+      <c r="M39" s="516">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="514">
+      <c r="N39" s="518">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10534,8 +10570,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="513"/>
-      <c r="N40" s="515"/>
+      <c r="M40" s="517"/>
+      <c r="N40" s="519"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10750,29 +10786,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="516" t="s">
+      <c r="H52" s="520" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="517"/>
+      <c r="I52" s="521"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="518">
+      <c r="K52" s="522">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="519"/>
-      <c r="M52" s="520">
+      <c r="L52" s="523"/>
+      <c r="M52" s="524">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="521"/>
+      <c r="N52" s="525"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="522" t="s">
+      <c r="D53" s="526" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="522"/>
+      <c r="E53" s="526"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10783,22 +10819,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="522" t="s">
+      <c r="D54" s="526" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="522"/>
+      <c r="E54" s="526"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="523" t="s">
+      <c r="I54" s="527" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="524"/>
-      <c r="K54" s="525">
+      <c r="J54" s="528"/>
+      <c r="K54" s="529">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="526"/>
+      <c r="L54" s="530"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10831,11 +10867,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="527">
+      <c r="K56" s="531">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="528"/>
+      <c r="L56" s="532"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10852,22 +10888,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="505" t="s">
+      <c r="D58" s="509" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="506"/>
+      <c r="E58" s="510"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="507" t="s">
+      <c r="I58" s="511" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="508"/>
-      <c r="K58" s="509">
+      <c r="J58" s="512"/>
+      <c r="K58" s="513">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="509"/>
+      <c r="L58" s="513"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13491,10 +13527,10 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I76" s="601" t="s">
+      <c r="I76" s="605" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="602"/>
+      <c r="J76" s="606"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13513,8 +13549,8 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I77" s="603"/>
-      <c r="J77" s="604"/>
+      <c r="I77" s="607"/>
+      <c r="J77" s="608"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -13581,7 +13617,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="567" t="s">
+      <c r="F80" s="571" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -13596,7 +13632,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="568"/>
+      <c r="F81" s="572"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13604,10 +13640,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="600" t="s">
+      <c r="B82" s="604" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="600"/>
+      <c r="C82" s="604"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -13889,23 +13925,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="529"/>
-      <c r="C1" s="571" t="s">
+      <c r="B1" s="533"/>
+      <c r="C1" s="575" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="572"/>
-      <c r="G1" s="572"/>
-      <c r="H1" s="572"/>
-      <c r="I1" s="572"/>
-      <c r="J1" s="572"/>
-      <c r="K1" s="572"/>
-      <c r="L1" s="572"/>
-      <c r="M1" s="572"/>
+      <c r="D1" s="576"/>
+      <c r="E1" s="576"/>
+      <c r="F1" s="576"/>
+      <c r="G1" s="576"/>
+      <c r="H1" s="576"/>
+      <c r="I1" s="576"/>
+      <c r="J1" s="576"/>
+      <c r="K1" s="576"/>
+      <c r="L1" s="576"/>
+      <c r="M1" s="576"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="530"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13915,24 +13951,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="533" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="534"/>
+      <c r="B3" s="537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="538"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="535"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="559" t="s">
+      <c r="P3" s="563" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="569" t="s">
+      <c r="R3" s="573" t="s">
         <v>216</v>
       </c>
     </row>
@@ -13947,14 +13983,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="536" t="s">
+      <c r="E4" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="537"/>
-      <c r="H4" s="538" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="539"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13964,15 +14000,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="560"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="570"/>
-      <c r="W4" s="542" t="s">
+      <c r="R4" s="574"/>
+      <c r="W4" s="546" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="542"/>
+      <c r="X4" s="546"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14023,8 +14059,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="542"/>
-      <c r="X5" s="542"/>
+      <c r="W5" s="546"/>
+      <c r="X5" s="546"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14787,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="546">
+      <c r="W19" s="550">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14839,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="547"/>
+      <c r="W20" s="551"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14888,8 +14924,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="548"/>
-      <c r="X21" s="548"/>
+      <c r="W21" s="552"/>
+      <c r="X21" s="552"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -14989,8 +15025,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="549"/>
-      <c r="X23" s="549"/>
+      <c r="W23" s="553"/>
+      <c r="X23" s="553"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15045,8 +15081,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="549"/>
-      <c r="X24" s="549"/>
+      <c r="W24" s="553"/>
+      <c r="X24" s="553"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15094,8 +15130,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="550"/>
-      <c r="X25" s="550"/>
+      <c r="W25" s="554"/>
+      <c r="X25" s="554"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15144,8 +15180,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="550"/>
-      <c r="X26" s="550"/>
+      <c r="W26" s="554"/>
+      <c r="X26" s="554"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15193,9 +15229,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="543"/>
-      <c r="X27" s="544"/>
-      <c r="Y27" s="545"/>
+      <c r="W27" s="547"/>
+      <c r="X27" s="548"/>
+      <c r="Y27" s="549"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15243,9 +15279,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="544"/>
-      <c r="X28" s="544"/>
-      <c r="Y28" s="545"/>
+      <c r="W28" s="548"/>
+      <c r="X28" s="548"/>
+      <c r="Y28" s="549"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15577,11 +15613,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="561">
+      <c r="M36" s="565">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="563">
+      <c r="N36" s="567">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15589,7 +15625,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="596">
+      <c r="Q36" s="600">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -15614,13 +15650,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="562"/>
-      <c r="N37" s="564"/>
+      <c r="M37" s="566"/>
+      <c r="N37" s="568"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="597"/>
+      <c r="Q37" s="601"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -15665,11 +15701,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="598">
+      <c r="M39" s="602">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="599"/>
+      <c r="N39" s="603"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -15929,26 +15965,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="516" t="s">
+      <c r="H52" s="520" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="517"/>
+      <c r="I52" s="521"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="518">
+      <c r="K52" s="522">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="551"/>
+      <c r="L52" s="555"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="522" t="s">
+      <c r="D53" s="526" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="522"/>
+      <c r="E53" s="526"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -15957,22 +15993,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="552" t="s">
+      <c r="D54" s="556" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="552"/>
+      <c r="E54" s="556"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="523" t="s">
+      <c r="I54" s="527" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="524"/>
-      <c r="K54" s="525">
+      <c r="J54" s="528"/>
+      <c r="K54" s="529">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="525"/>
+      <c r="L54" s="529"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16013,11 +16049,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="527">
+      <c r="K56" s="531">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="528"/>
+      <c r="L56" s="532"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16034,22 +16070,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="505" t="s">
+      <c r="D58" s="509" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="506"/>
+      <c r="E58" s="510"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="507" t="s">
+      <c r="I58" s="511" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="508"/>
-      <c r="K58" s="509">
+      <c r="J58" s="512"/>
+      <c r="K58" s="513">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="509"/>
+      <c r="L58" s="513"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18401,7 +18437,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="567" t="s">
+      <c r="F80" s="571" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18414,7 +18450,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="568"/>
+      <c r="F81" s="572"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18434,16 +18470,16 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="605" t="s">
+      <c r="I83" s="609" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="606"/>
+      <c r="J83" s="610"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="442"/>
-      <c r="I84" s="607"/>
-      <c r="J84" s="608"/>
+      <c r="I84" s="611"/>
+      <c r="J84" s="612"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -18710,8 +18746,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18740,23 +18776,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="529"/>
-      <c r="C1" s="571" t="s">
+      <c r="B1" s="533"/>
+      <c r="C1" s="575" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="572"/>
-      <c r="G1" s="572"/>
-      <c r="H1" s="572"/>
-      <c r="I1" s="572"/>
-      <c r="J1" s="572"/>
-      <c r="K1" s="572"/>
-      <c r="L1" s="572"/>
-      <c r="M1" s="572"/>
+      <c r="D1" s="576"/>
+      <c r="E1" s="576"/>
+      <c r="F1" s="576"/>
+      <c r="G1" s="576"/>
+      <c r="H1" s="576"/>
+      <c r="I1" s="576"/>
+      <c r="J1" s="576"/>
+      <c r="K1" s="576"/>
+      <c r="L1" s="576"/>
+      <c r="M1" s="576"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="530"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18766,24 +18802,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="533" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="534"/>
+      <c r="B3" s="537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="538"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="535"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="559" t="s">
+      <c r="P3" s="563" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="569" t="s">
+      <c r="R3" s="573" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18798,14 +18834,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="536" t="s">
+      <c r="E4" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="537"/>
-      <c r="H4" s="538" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="539"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18815,15 +18851,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="560"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="570"/>
-      <c r="W4" s="542" t="s">
+      <c r="R4" s="574"/>
+      <c r="W4" s="546" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="542"/>
+      <c r="X4" s="546"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18874,8 +18910,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="542"/>
-      <c r="X5" s="542"/>
+      <c r="W5" s="546"/>
+      <c r="X5" s="546"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19022,7 +19058,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="39">
-        <f t="shared" ref="P7:P32" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P32" si="1">N8+M8+L8+I8+C8</f>
         <v>76401</v>
       </c>
       <c r="Q8" s="325">
@@ -19081,7 +19117,7 @@
         <f t="shared" si="1"/>
         <v>101171.5</v>
       </c>
-      <c r="Q9" s="325">
+      <c r="Q9" s="317">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
@@ -19332,33 +19368,44 @@
       <c r="B14" s="24">
         <v>44657</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="25">
+        <v>11860</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>631</v>
+      </c>
       <c r="E14" s="27">
         <v>44657</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>92801</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="36">
         <v>44657</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>4649</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
+      <c r="M14" s="32">
+        <v>53976</v>
+      </c>
+      <c r="N14" s="33">
+        <v>32114</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102599</v>
       </c>
       <c r="Q14" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="319">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R14" s="388">
+        <v>9798</v>
       </c>
       <c r="S14" s="147"/>
       <c r="W14" s="234">
@@ -19372,25 +19419,37 @@
       <c r="B15" s="24">
         <v>44658</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="25">
+        <v>8090</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>237</v>
+      </c>
       <c r="E15" s="27">
         <v>44658</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>75862</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="36">
         <v>44658</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>1192</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
+      <c r="M15" s="32">
+        <v>44706</v>
+      </c>
+      <c r="N15" s="33">
+        <v>21874</v>
+      </c>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75862</v>
       </c>
       <c r="Q15" s="325">
         <f t="shared" si="0"/>
@@ -19411,26 +19470,38 @@
       <c r="B16" s="24">
         <v>44659</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="25">
+        <v>17672</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>632</v>
+      </c>
       <c r="E16" s="27">
         <v>44659</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>106532</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="36">
         <v>44659</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>10802.5</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
+      <c r="M16" s="32">
+        <v>46655.5</v>
+      </c>
+      <c r="N16" s="33">
+        <v>31402</v>
+      </c>
       <c r="O16" s="330"/>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>106532</v>
       </c>
       <c r="Q16" s="325">
         <f t="shared" si="0"/>
@@ -19451,25 +19522,43 @@
       <c r="B17" s="24">
         <v>44660</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="25">
+        <v>20121</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>633</v>
+      </c>
       <c r="E17" s="27">
         <v>44660</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>123571</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="36">
         <v>44660</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="I17" s="30">
+        <v>7186.5</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44660</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="L17" s="45">
+        <v>20363</v>
+      </c>
+      <c r="M17" s="32">
+        <v>31634.5</v>
+      </c>
+      <c r="N17" s="33">
+        <v>44266</v>
+      </c>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>123571</v>
       </c>
       <c r="Q17" s="325">
         <f t="shared" si="0"/>
@@ -19490,29 +19579,41 @@
       <c r="B18" s="24">
         <v>44661</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="25">
+        <v>19394</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>635</v>
+      </c>
       <c r="E18" s="27">
         <v>44661</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>78602</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="36">
         <v>44661</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>2156.5</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="170"/>
       <c r="L18" s="39"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
+      <c r="M18" s="32">
+        <v>32400</v>
+      </c>
+      <c r="N18" s="33">
+        <v>24653</v>
+      </c>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78603.5</v>
       </c>
       <c r="Q18" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R18" s="319">
         <v>0</v>
@@ -19529,25 +19630,37 @@
       <c r="B19" s="24">
         <v>44662</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="25">
+        <v>37019.5</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>636</v>
+      </c>
       <c r="E19" s="27">
         <v>44662</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>99617</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="36">
         <v>44662</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>899.5</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="M19" s="32">
+        <v>19790</v>
+      </c>
+      <c r="N19" s="33">
+        <v>41908</v>
+      </c>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99617</v>
       </c>
       <c r="Q19" s="325">
         <f t="shared" si="0"/>
@@ -19557,7 +19670,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="546">
+      <c r="W19" s="550">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19569,35 +19682,47 @@
       <c r="B20" s="24">
         <v>44663</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>13442</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>637</v>
+      </c>
       <c r="E20" s="27">
         <v>44663</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>90870</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="36">
         <v>44663</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>1715</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="M20" s="32">
+        <v>36429</v>
+      </c>
+      <c r="N20" s="33">
+        <v>39283</v>
+      </c>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90869</v>
+      </c>
+      <c r="Q20" s="317">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
       <c r="R20" s="319">
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="547"/>
+      <c r="W20" s="551"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19606,25 +19731,37 @@
       <c r="B21" s="24">
         <v>44664</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>8539</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>638</v>
+      </c>
       <c r="E21" s="27">
         <v>44664</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>95475</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="36">
         <v>44664</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>2376.5</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="48"/>
       <c r="L21" s="45"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
+      <c r="M21" s="32">
+        <v>55154.5</v>
+      </c>
+      <c r="N21" s="33">
+        <v>29405</v>
+      </c>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>95475</v>
       </c>
       <c r="Q21" s="325">
         <f t="shared" si="0"/>
@@ -19634,8 +19771,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="548"/>
-      <c r="X21" s="548"/>
+      <c r="W21" s="552"/>
+      <c r="X21" s="552"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19644,25 +19781,37 @@
       <c r="B22" s="24">
         <v>44665</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="25">
+        <v>17441</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>639</v>
+      </c>
       <c r="E22" s="27">
         <v>44665</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>136630</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="36">
         <v>44665</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <v>2063</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
+      <c r="M22" s="32">
+        <v>84420</v>
+      </c>
+      <c r="N22" s="33">
+        <v>32706</v>
+      </c>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>136630</v>
       </c>
       <c r="Q22" s="325">
         <f t="shared" si="0"/>
@@ -19682,25 +19831,35 @@
       <c r="B23" s="24">
         <v>44666</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
       <c r="D23" s="35"/>
       <c r="E23" s="27">
         <v>44666</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>87396</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="36">
         <v>44666</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>1960</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
+      <c r="M23" s="32">
+        <v>53912</v>
+      </c>
+      <c r="N23" s="33">
+        <v>31524</v>
+      </c>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87396</v>
       </c>
       <c r="Q23" s="325">
         <f t="shared" si="0"/>
@@ -19710,8 +19869,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="549"/>
-      <c r="X23" s="549"/>
+      <c r="W23" s="553"/>
+      <c r="X23" s="553"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19720,36 +19879,54 @@
       <c r="B24" s="24">
         <v>44667</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="25">
+        <v>13715</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>640</v>
+      </c>
       <c r="E24" s="27">
         <v>44667</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>149665</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="36">
         <v>44667</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
+      <c r="I24" s="30">
+        <v>3412</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44667</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>641</v>
+      </c>
+      <c r="L24" s="52">
+        <v>18095</v>
+      </c>
+      <c r="M24" s="32">
+        <v>65743</v>
+      </c>
+      <c r="N24" s="33">
+        <v>48700</v>
+      </c>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>149665</v>
       </c>
       <c r="Q24" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="319">
-        <v>0</v>
+      <c r="R24" s="319" t="s">
+        <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="549"/>
-      <c r="X24" s="549"/>
+      <c r="W24" s="553"/>
+      <c r="X24" s="553"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19785,8 +19962,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="550"/>
-      <c r="X25" s="550"/>
+      <c r="W25" s="554"/>
+      <c r="X25" s="554"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -19823,8 +20000,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="550"/>
-      <c r="X26" s="550"/>
+      <c r="W26" s="554"/>
+      <c r="X26" s="554"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -19861,9 +20038,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="543"/>
-      <c r="X27" s="544"/>
-      <c r="Y27" s="545"/>
+      <c r="W27" s="547"/>
+      <c r="X27" s="548"/>
+      <c r="Y27" s="549"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19899,9 +20076,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="544"/>
-      <c r="X28" s="544"/>
-      <c r="Y28" s="545"/>
+      <c r="W28" s="548"/>
+      <c r="X28" s="548"/>
+      <c r="Y28" s="549"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20085,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="111">
-        <f t="shared" ref="Q8:Q35" si="2">P33-F33</f>
+        <f t="shared" ref="Q33:Q35" si="2">P33-F33</f>
         <v>0</v>
       </c>
       <c r="R33" s="228"/>
@@ -20176,21 +20353,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="561">
+      <c r="M36" s="565">
         <f>SUM(M5:M35)</f>
-        <v>445109</v>
-      </c>
-      <c r="N36" s="563">
+        <v>969929.5</v>
+      </c>
+      <c r="N36" s="567">
         <f>SUM(N5:N35)</f>
-        <v>290987</v>
+        <v>668822</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="596">
+      <c r="Q36" s="600">
         <f>SUM(Q5:Q35)</f>
-        <v>2.4799999999959255</v>
+        <v>2.9799999999959255</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -20213,13 +20390,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="562"/>
-      <c r="N37" s="564"/>
+      <c r="M37" s="566"/>
+      <c r="N37" s="568"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="597"/>
+      <c r="Q37" s="601"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20269,14 +20446,14 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="598">
+      <c r="M39" s="602">
         <f>M36+N36</f>
-        <v>736096</v>
-      </c>
-      <c r="N39" s="599"/>
+        <v>1638751.5</v>
+      </c>
+      <c r="N39" s="603"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>894114.48</v>
+        <v>2040933.98</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -20332,9 +20509,15 @@
       <c r="G42" s="2"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="52"/>
+      <c r="J42" s="51">
+        <v>44660</v>
+      </c>
+      <c r="K42" s="173" t="s">
+        <v>634</v>
+      </c>
+      <c r="L42" s="52">
+        <v>15298.5</v>
+      </c>
       <c r="M42" s="269"/>
       <c r="N42" s="269"/>
       <c r="P42" s="34"/>
@@ -20350,9 +20533,15 @@
       <c r="G43" s="2"/>
       <c r="H43" s="76"/>
       <c r="I43" s="77"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="54"/>
+      <c r="J43" s="50">
+        <v>44667</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="L43" s="54">
+        <v>14698.79</v>
+      </c>
       <c r="M43" s="269"/>
       <c r="N43" s="269"/>
       <c r="P43" s="34"/>
@@ -20473,7 +20662,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>113825</v>
+        <v>281118.5</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -20481,7 +20670,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>864419</v>
+        <v>2001440</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -20489,7 +20678,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>25467.5</v>
+        <v>63880</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -20497,7 +20686,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>34524.479999999996</v>
+        <v>102979.76999999999</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -20515,50 +20704,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="516" t="s">
+      <c r="H52" s="520" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="517"/>
+      <c r="I52" s="521"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="518">
+      <c r="K52" s="522">
         <f>I50+L50</f>
-        <v>59991.979999999996</v>
-      </c>
-      <c r="L52" s="551"/>
+        <v>166859.76999999999</v>
+      </c>
+      <c r="L52" s="555"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="522" t="s">
+      <c r="D53" s="526" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="522"/>
+      <c r="E53" s="526"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>690602.02</v>
+        <v>1553461.73</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="552" t="s">
+      <c r="D54" s="556" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="552"/>
+      <c r="E54" s="556"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="523" t="s">
+      <c r="I54" s="527" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="524"/>
-      <c r="K54" s="525">
+      <c r="J54" s="528"/>
+      <c r="K54" s="529">
         <f>F56+F57+F58</f>
-        <v>690602.02</v>
-      </c>
-      <c r="L54" s="525"/>
+        <v>1553461.73</v>
+      </c>
+      <c r="L54" s="529"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -20592,18 +20781,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>690602.02</v>
+        <v>1553461.73</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="527">
+      <c r="K56" s="531">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="528"/>
+      <c r="L56" s="532"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -20618,22 +20807,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="505" t="s">
+      <c r="D58" s="509" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="506"/>
+      <c r="E58" s="510"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="507" t="s">
+      <c r="I58" s="511" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="508"/>
-      <c r="K58" s="509">
+      <c r="J58" s="512"/>
+      <c r="K58" s="513">
         <f>K54+K56</f>
-        <v>-1102215.6599999999</v>
-      </c>
-      <c r="L58" s="509"/>
+        <v>-239355.94999999995</v>
+      </c>
+      <c r="L58" s="513"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -20777,7 +20966,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -20787,11 +20975,11 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="W27:X28"/>
     <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="N36:N37"/>
     <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="W4:X5"/>
     <mergeCell ref="W19:W20"/>
@@ -20799,12 +20987,13 @@
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="W27:X28"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
@@ -20905,7 +21094,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="611"/>
+      <c r="A3" s="507"/>
       <c r="B3" s="438"/>
       <c r="C3" s="410"/>
       <c r="D3" s="411"/>
@@ -21190,7 +21379,7 @@
       <c r="A17" s="454"/>
       <c r="B17" s="246"/>
       <c r="C17" s="111"/>
-      <c r="D17" s="612"/>
+      <c r="D17" s="508"/>
       <c r="E17" s="111"/>
       <c r="F17" s="111">
         <f t="shared" si="0"/>
@@ -21391,7 +21580,7 @@
       <c r="A27" s="454"/>
       <c r="B27" s="246"/>
       <c r="C27" s="111"/>
-      <c r="D27" s="612"/>
+      <c r="D27" s="508"/>
       <c r="E27" s="111"/>
       <c r="F27" s="111">
         <f t="shared" si="0"/>
@@ -22468,7 +22657,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="567" t="s">
+      <c r="F80" s="571" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22481,7 +22670,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="568"/>
+      <c r="F81" s="572"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22492,24 +22681,24 @@
       <c r="B82" s="442"/>
       <c r="H82" s="2"/>
       <c r="I82" s="14"/>
-      <c r="J82" s="609"/>
+      <c r="J82" s="505"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="610"/>
+      <c r="L82" s="506"/>
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="605" t="s">
+      <c r="I83" s="609" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="606"/>
+      <c r="J83" s="610"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="442"/>
-      <c r="I84" s="607"/>
-      <c r="J84" s="608"/>
+      <c r="I84" s="611"/>
+      <c r="J84" s="612"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24126,7 +24315,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="540" t="s">
+      <c r="B41" s="544" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -24158,7 +24347,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="541"/>
+      <c r="B42" s="545"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -25754,23 +25943,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="529"/>
-      <c r="C1" s="531" t="s">
+      <c r="B1" s="533"/>
+      <c r="C1" s="535" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="532"/>
-      <c r="E1" s="532"/>
-      <c r="F1" s="532"/>
-      <c r="G1" s="532"/>
-      <c r="H1" s="532"/>
-      <c r="I1" s="532"/>
-      <c r="J1" s="532"/>
-      <c r="K1" s="532"/>
-      <c r="L1" s="532"/>
-      <c r="M1" s="532"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
+      <c r="M1" s="536"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="530"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25780,21 +25969,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="533" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="534"/>
+      <c r="B3" s="537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="538"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="535"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="559" t="s">
+      <c r="P3" s="563" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25809,14 +25998,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="536" t="s">
+      <c r="E4" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="537"/>
-      <c r="H4" s="538" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="539"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25826,14 +26015,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="560"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="542" t="s">
+      <c r="W4" s="546" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="542"/>
+      <c r="X4" s="546"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25884,8 +26073,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="542"/>
-      <c r="X5" s="542"/>
+      <c r="W5" s="546"/>
+      <c r="X5" s="546"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26656,7 +26845,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="546">
+      <c r="W19" s="550">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -26708,7 +26897,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="547"/>
+      <c r="W20" s="551"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26757,8 +26946,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="548"/>
-      <c r="X21" s="548"/>
+      <c r="W21" s="552"/>
+      <c r="X21" s="552"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26859,8 +27048,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="549"/>
-      <c r="X23" s="549"/>
+      <c r="W23" s="553"/>
+      <c r="X23" s="553"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26914,8 +27103,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="549"/>
-      <c r="X24" s="549"/>
+      <c r="W24" s="553"/>
+      <c r="X24" s="553"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26961,8 +27150,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="550"/>
-      <c r="X25" s="550"/>
+      <c r="W25" s="554"/>
+      <c r="X25" s="554"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27013,8 +27202,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="550"/>
-      <c r="X26" s="550"/>
+      <c r="W26" s="554"/>
+      <c r="X26" s="554"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27062,9 +27251,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="543"/>
-      <c r="X27" s="544"/>
-      <c r="Y27" s="545"/>
+      <c r="W27" s="547"/>
+      <c r="X27" s="548"/>
+      <c r="Y27" s="549"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27114,9 +27303,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="544"/>
-      <c r="X28" s="544"/>
-      <c r="Y28" s="545"/>
+      <c r="W28" s="548"/>
+      <c r="X28" s="548"/>
+      <c r="Y28" s="549"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27451,11 +27640,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="561">
+      <c r="M36" s="565">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="563">
+      <c r="N36" s="567">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -27463,7 +27652,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="565">
+      <c r="Q36" s="569">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -27498,13 +27687,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="562"/>
-      <c r="N37" s="564"/>
+      <c r="M37" s="566"/>
+      <c r="N37" s="568"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="566"/>
+      <c r="Q37" s="570"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -27794,26 +27983,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="516" t="s">
+      <c r="H52" s="520" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="517"/>
+      <c r="I52" s="521"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="518">
+      <c r="K52" s="522">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="551"/>
+      <c r="L52" s="555"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="522" t="s">
+      <c r="D53" s="526" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="522"/>
+      <c r="E53" s="526"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -27822,29 +28011,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="552" t="s">
+      <c r="D54" s="556" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="552"/>
+      <c r="E54" s="556"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="523" t="s">
+      <c r="I54" s="527" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="524"/>
-      <c r="K54" s="525">
+      <c r="J54" s="528"/>
+      <c r="K54" s="529">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="525"/>
-      <c r="M54" s="553" t="s">
+      <c r="L54" s="529"/>
+      <c r="M54" s="557" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="554"/>
-      <c r="O54" s="554"/>
-      <c r="P54" s="554"/>
-      <c r="Q54" s="555"/>
+      <c r="N54" s="558"/>
+      <c r="O54" s="558"/>
+      <c r="P54" s="558"/>
+      <c r="Q54" s="559"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -27858,11 +28047,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="556"/>
-      <c r="N55" s="557"/>
-      <c r="O55" s="557"/>
-      <c r="P55" s="557"/>
-      <c r="Q55" s="558"/>
+      <c r="M55" s="560"/>
+      <c r="N55" s="561"/>
+      <c r="O55" s="561"/>
+      <c r="P55" s="561"/>
+      <c r="Q55" s="562"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -27880,11 +28069,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="527">
+      <c r="K56" s="531">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="528"/>
+      <c r="L56" s="532"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -27901,22 +28090,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="505" t="s">
+      <c r="D58" s="509" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="506"/>
+      <c r="E58" s="510"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="507" t="s">
+      <c r="I58" s="511" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="508"/>
-      <c r="K58" s="509">
+      <c r="J58" s="512"/>
+      <c r="K58" s="513">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="509"/>
+      <c r="L58" s="513"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -30506,7 +30695,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="567" t="s">
+      <c r="F87" s="571" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -30519,7 +30708,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="568"/>
+      <c r="F88" s="572"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -30831,23 +31020,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="529"/>
-      <c r="C1" s="531" t="s">
+      <c r="B1" s="533"/>
+      <c r="C1" s="535" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="532"/>
-      <c r="E1" s="532"/>
-      <c r="F1" s="532"/>
-      <c r="G1" s="532"/>
-      <c r="H1" s="532"/>
-      <c r="I1" s="532"/>
-      <c r="J1" s="532"/>
-      <c r="K1" s="532"/>
-      <c r="L1" s="532"/>
-      <c r="M1" s="532"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
+      <c r="M1" s="536"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="530"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30857,24 +31046,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="533" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="534"/>
+      <c r="B3" s="537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="538"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="535"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="559" t="s">
+      <c r="P3" s="563" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="569" t="s">
+      <c r="R3" s="573" t="s">
         <v>216</v>
       </c>
     </row>
@@ -30889,14 +31078,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="536" t="s">
+      <c r="E4" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="537"/>
-      <c r="H4" s="538" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="539"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -30906,15 +31095,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="560"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="570"/>
-      <c r="W4" s="542" t="s">
+      <c r="R4" s="574"/>
+      <c r="W4" s="546" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="542"/>
+      <c r="X4" s="546"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30975,8 +31164,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="542"/>
-      <c r="X5" s="542"/>
+      <c r="W5" s="546"/>
+      <c r="X5" s="546"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31733,7 +31922,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="546">
+      <c r="W19" s="550">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -31785,7 +31974,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="547"/>
+      <c r="W20" s="551"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31834,8 +32023,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="548"/>
-      <c r="X21" s="548"/>
+      <c r="W21" s="552"/>
+      <c r="X21" s="552"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31936,8 +32125,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="549"/>
-      <c r="X23" s="549"/>
+      <c r="W23" s="553"/>
+      <c r="X23" s="553"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31988,8 +32177,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="549"/>
-      <c r="X24" s="549"/>
+      <c r="W24" s="553"/>
+      <c r="X24" s="553"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32035,8 +32224,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="550"/>
-      <c r="X25" s="550"/>
+      <c r="W25" s="554"/>
+      <c r="X25" s="554"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32084,8 +32273,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="550"/>
-      <c r="X26" s="550"/>
+      <c r="W26" s="554"/>
+      <c r="X26" s="554"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32145,9 +32334,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="543"/>
-      <c r="X27" s="544"/>
-      <c r="Y27" s="545"/>
+      <c r="W27" s="547"/>
+      <c r="X27" s="548"/>
+      <c r="Y27" s="549"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32201,9 +32390,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="544"/>
-      <c r="X28" s="544"/>
-      <c r="Y28" s="545"/>
+      <c r="W28" s="548"/>
+      <c r="X28" s="548"/>
+      <c r="Y28" s="549"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32519,11 +32708,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="561">
+      <c r="M36" s="565">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="563">
+      <c r="N36" s="567">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -32531,7 +32720,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="565">
+      <c r="Q36" s="569">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -32550,13 +32739,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="562"/>
-      <c r="N37" s="564"/>
+      <c r="M37" s="566"/>
+      <c r="N37" s="568"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="566"/>
+      <c r="Q37" s="570"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -32830,26 +33019,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="516" t="s">
+      <c r="H52" s="520" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="517"/>
+      <c r="I52" s="521"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="518">
+      <c r="K52" s="522">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="551"/>
+      <c r="L52" s="555"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="522" t="s">
+      <c r="D53" s="526" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="522"/>
+      <c r="E53" s="526"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -32858,29 +33047,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="552" t="s">
+      <c r="D54" s="556" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="552"/>
+      <c r="E54" s="556"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="523" t="s">
+      <c r="I54" s="527" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="524"/>
-      <c r="K54" s="525">
+      <c r="J54" s="528"/>
+      <c r="K54" s="529">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="525"/>
-      <c r="M54" s="553" t="s">
+      <c r="L54" s="529"/>
+      <c r="M54" s="557" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="554"/>
-      <c r="O54" s="554"/>
-      <c r="P54" s="554"/>
-      <c r="Q54" s="555"/>
+      <c r="N54" s="558"/>
+      <c r="O54" s="558"/>
+      <c r="P54" s="558"/>
+      <c r="Q54" s="559"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -32894,11 +33083,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="556"/>
-      <c r="N55" s="557"/>
-      <c r="O55" s="557"/>
-      <c r="P55" s="557"/>
-      <c r="Q55" s="558"/>
+      <c r="M55" s="560"/>
+      <c r="N55" s="561"/>
+      <c r="O55" s="561"/>
+      <c r="P55" s="561"/>
+      <c r="Q55" s="562"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -32916,11 +33105,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="527">
+      <c r="K56" s="531">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="528"/>
+      <c r="L56" s="532"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -32937,22 +33126,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="505" t="s">
+      <c r="D58" s="509" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="506"/>
+      <c r="E58" s="510"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="507" t="s">
+      <c r="I58" s="511" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="508"/>
-      <c r="K58" s="509">
+      <c r="J58" s="512"/>
+      <c r="K58" s="513">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="509"/>
+      <c r="L58" s="513"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -35515,7 +35704,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="567" t="s">
+      <c r="F75" s="571" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -35528,7 +35717,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="568"/>
+      <c r="F76" s="572"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -35820,23 +36009,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="529"/>
-      <c r="C1" s="571" t="s">
+      <c r="B1" s="533"/>
+      <c r="C1" s="575" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="572"/>
-      <c r="G1" s="572"/>
-      <c r="H1" s="572"/>
-      <c r="I1" s="572"/>
-      <c r="J1" s="572"/>
-      <c r="K1" s="572"/>
-      <c r="L1" s="572"/>
-      <c r="M1" s="572"/>
+      <c r="D1" s="576"/>
+      <c r="E1" s="576"/>
+      <c r="F1" s="576"/>
+      <c r="G1" s="576"/>
+      <c r="H1" s="576"/>
+      <c r="I1" s="576"/>
+      <c r="J1" s="576"/>
+      <c r="K1" s="576"/>
+      <c r="L1" s="576"/>
+      <c r="M1" s="576"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="530"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35846,24 +36035,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="533" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="534"/>
+      <c r="B3" s="537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="538"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="535"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="559" t="s">
+      <c r="P3" s="563" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="569" t="s">
+      <c r="R3" s="573" t="s">
         <v>216</v>
       </c>
     </row>
@@ -35878,14 +36067,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="536" t="s">
+      <c r="E4" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="537"/>
-      <c r="H4" s="538" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="539"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -35895,15 +36084,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="560"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="570"/>
-      <c r="W4" s="542" t="s">
+      <c r="R4" s="574"/>
+      <c r="W4" s="546" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="542"/>
+      <c r="X4" s="546"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35954,8 +36143,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="542"/>
-      <c r="X5" s="542"/>
+      <c r="W5" s="546"/>
+      <c r="X5" s="546"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36719,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="546">
+      <c r="W19" s="550">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -36772,7 +36961,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="547"/>
+      <c r="W20" s="551"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -36821,8 +37010,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="548"/>
-      <c r="X21" s="548"/>
+      <c r="W21" s="552"/>
+      <c r="X21" s="552"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -36922,8 +37111,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="549"/>
-      <c r="X23" s="549"/>
+      <c r="W23" s="553"/>
+      <c r="X23" s="553"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -36978,8 +37167,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="549"/>
-      <c r="X24" s="549"/>
+      <c r="W24" s="553"/>
+      <c r="X24" s="553"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37024,8 +37213,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="550"/>
-      <c r="X25" s="550"/>
+      <c r="W25" s="554"/>
+      <c r="X25" s="554"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37073,8 +37262,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="550"/>
-      <c r="X26" s="550"/>
+      <c r="W26" s="554"/>
+      <c r="X26" s="554"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37128,9 +37317,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="543"/>
-      <c r="X27" s="544"/>
-      <c r="Y27" s="545"/>
+      <c r="W27" s="547"/>
+      <c r="X27" s="548"/>
+      <c r="Y27" s="549"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37184,9 +37373,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="544"/>
-      <c r="X28" s="544"/>
-      <c r="Y28" s="545"/>
+      <c r="W28" s="548"/>
+      <c r="X28" s="548"/>
+      <c r="Y28" s="549"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37497,11 +37686,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="561">
+      <c r="M36" s="565">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="563">
+      <c r="N36" s="567">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -37509,7 +37698,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="565">
+      <c r="Q36" s="569">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -37534,13 +37723,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="562"/>
-      <c r="N37" s="564"/>
+      <c r="M37" s="566"/>
+      <c r="N37" s="568"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="566"/>
+      <c r="Q37" s="570"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -37833,26 +38022,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="516" t="s">
+      <c r="H52" s="520" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="517"/>
+      <c r="I52" s="521"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="518">
+      <c r="K52" s="522">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="551"/>
+      <c r="L52" s="555"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="522" t="s">
+      <c r="D53" s="526" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="522"/>
+      <c r="E53" s="526"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -37861,22 +38050,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="552" t="s">
+      <c r="D54" s="556" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="552"/>
+      <c r="E54" s="556"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="523" t="s">
+      <c r="I54" s="527" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="524"/>
-      <c r="K54" s="525">
+      <c r="J54" s="528"/>
+      <c r="K54" s="529">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="525"/>
+      <c r="L54" s="529"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -37917,11 +38106,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="527">
+      <c r="K56" s="531">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="528"/>
+      <c r="L56" s="532"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -37938,22 +38127,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="505" t="s">
+      <c r="D58" s="509" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="506"/>
+      <c r="E58" s="510"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="507" t="s">
+      <c r="I58" s="511" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="508"/>
-      <c r="K58" s="509">
+      <c r="J58" s="512"/>
+      <c r="K58" s="513">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="509"/>
+      <c r="L58" s="513"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -39822,12 +40011,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="573" t="s">
+      <c r="B43" s="577" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="574"/>
-      <c r="D43" s="574"/>
-      <c r="E43" s="575"/>
+      <c r="C43" s="578"/>
+      <c r="D43" s="578"/>
+      <c r="E43" s="579"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39855,10 +40044,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="576"/>
-      <c r="C44" s="577"/>
-      <c r="D44" s="577"/>
-      <c r="E44" s="578"/>
+      <c r="B44" s="580"/>
+      <c r="C44" s="581"/>
+      <c r="D44" s="581"/>
+      <c r="E44" s="582"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39886,10 +40075,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="579"/>
-      <c r="C45" s="580"/>
-      <c r="D45" s="580"/>
-      <c r="E45" s="581"/>
+      <c r="B45" s="583"/>
+      <c r="C45" s="584"/>
+      <c r="D45" s="584"/>
+      <c r="E45" s="585"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39932,10 +40121,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="588" t="s">
+      <c r="B47" s="592" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="589"/>
+      <c r="C47" s="593"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -39957,8 +40146,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="590"/>
-      <c r="C48" s="591"/>
+      <c r="B48" s="594"/>
+      <c r="C48" s="595"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -39966,11 +40155,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="582" t="s">
+      <c r="J48" s="586" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="583"/>
-      <c r="L48" s="584"/>
+      <c r="K48" s="587"/>
+      <c r="L48" s="588"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -39988,9 +40177,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="585"/>
-      <c r="K49" s="586"/>
-      <c r="L49" s="587"/>
+      <c r="J49" s="589"/>
+      <c r="K49" s="590"/>
+      <c r="L49" s="591"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -40007,10 +40196,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="592" t="s">
+      <c r="I50" s="596" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="593"/>
+      <c r="J50" s="597"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -40031,8 +40220,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="592"/>
-      <c r="J51" s="593"/>
+      <c r="I51" s="596"/>
+      <c r="J51" s="597"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -40051,8 +40240,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="592"/>
-      <c r="J52" s="593"/>
+      <c r="I52" s="596"/>
+      <c r="J52" s="597"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -40071,8 +40260,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="592"/>
-      <c r="J53" s="593"/>
+      <c r="I53" s="596"/>
+      <c r="J53" s="597"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -40091,8 +40280,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="592"/>
-      <c r="J54" s="593"/>
+      <c r="I54" s="596"/>
+      <c r="J54" s="597"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -40111,8 +40300,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="592"/>
-      <c r="J55" s="593"/>
+      <c r="I55" s="596"/>
+      <c r="J55" s="597"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -40131,8 +40320,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="592"/>
-      <c r="J56" s="593"/>
+      <c r="I56" s="596"/>
+      <c r="J56" s="597"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -40151,8 +40340,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="592"/>
-      <c r="J57" s="593"/>
+      <c r="I57" s="596"/>
+      <c r="J57" s="597"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -40171,8 +40360,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="592"/>
-      <c r="J58" s="593"/>
+      <c r="I58" s="596"/>
+      <c r="J58" s="597"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -40191,8 +40380,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="592"/>
-      <c r="J59" s="593"/>
+      <c r="I59" s="596"/>
+      <c r="J59" s="597"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -40211,8 +40400,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="592"/>
-      <c r="J60" s="593"/>
+      <c r="I60" s="596"/>
+      <c r="J60" s="597"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -40231,8 +40420,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="592"/>
-      <c r="J61" s="593"/>
+      <c r="I61" s="596"/>
+      <c r="J61" s="597"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -40251,8 +40440,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="592"/>
-      <c r="J62" s="593"/>
+      <c r="I62" s="596"/>
+      <c r="J62" s="597"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -40271,8 +40460,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="592"/>
-      <c r="J63" s="593"/>
+      <c r="I63" s="596"/>
+      <c r="J63" s="597"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -40291,8 +40480,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="592"/>
-      <c r="J64" s="593"/>
+      <c r="I64" s="596"/>
+      <c r="J64" s="597"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -40311,8 +40500,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="592"/>
-      <c r="J65" s="593"/>
+      <c r="I65" s="596"/>
+      <c r="J65" s="597"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -40331,8 +40520,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="592"/>
-      <c r="J66" s="593"/>
+      <c r="I66" s="596"/>
+      <c r="J66" s="597"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -40351,8 +40540,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="592"/>
-      <c r="J67" s="593"/>
+      <c r="I67" s="596"/>
+      <c r="J67" s="597"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -40371,8 +40560,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="592"/>
-      <c r="J68" s="593"/>
+      <c r="I68" s="596"/>
+      <c r="J68" s="597"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -40391,8 +40580,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="592"/>
-      <c r="J69" s="593"/>
+      <c r="I69" s="596"/>
+      <c r="J69" s="597"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -40411,8 +40600,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="592"/>
-      <c r="J70" s="593"/>
+      <c r="I70" s="596"/>
+      <c r="J70" s="597"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -40431,8 +40620,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="592"/>
-      <c r="J71" s="593"/>
+      <c r="I71" s="596"/>
+      <c r="J71" s="597"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -40451,8 +40640,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="592"/>
-      <c r="J72" s="593"/>
+      <c r="I72" s="596"/>
+      <c r="J72" s="597"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -40471,8 +40660,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="592"/>
-      <c r="J73" s="593"/>
+      <c r="I73" s="596"/>
+      <c r="J73" s="597"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -40491,8 +40680,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="592"/>
-      <c r="J74" s="593"/>
+      <c r="I74" s="596"/>
+      <c r="J74" s="597"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -40511,8 +40700,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="592"/>
-      <c r="J75" s="593"/>
+      <c r="I75" s="596"/>
+      <c r="J75" s="597"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -40531,8 +40720,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="592"/>
-      <c r="J76" s="593"/>
+      <c r="I76" s="596"/>
+      <c r="J76" s="597"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -40551,8 +40740,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="592"/>
-      <c r="J77" s="593"/>
+      <c r="I77" s="596"/>
+      <c r="J77" s="597"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -40573,8 +40762,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="594"/>
-      <c r="J78" s="595"/>
+      <c r="I78" s="598"/>
+      <c r="J78" s="599"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -40619,7 +40808,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="567" t="s">
+      <c r="F80" s="571" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -40631,7 +40820,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="568"/>
+      <c r="F81" s="572"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -40919,23 +41108,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="529"/>
-      <c r="C1" s="571" t="s">
+      <c r="B1" s="533"/>
+      <c r="C1" s="575" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="572"/>
-      <c r="G1" s="572"/>
-      <c r="H1" s="572"/>
-      <c r="I1" s="572"/>
-      <c r="J1" s="572"/>
-      <c r="K1" s="572"/>
-      <c r="L1" s="572"/>
-      <c r="M1" s="572"/>
+      <c r="D1" s="576"/>
+      <c r="E1" s="576"/>
+      <c r="F1" s="576"/>
+      <c r="G1" s="576"/>
+      <c r="H1" s="576"/>
+      <c r="I1" s="576"/>
+      <c r="J1" s="576"/>
+      <c r="K1" s="576"/>
+      <c r="L1" s="576"/>
+      <c r="M1" s="576"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="530"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -40945,24 +41134,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="533" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="534"/>
+      <c r="B3" s="537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="538"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="535"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="559" t="s">
+      <c r="P3" s="563" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="569" t="s">
+      <c r="R3" s="573" t="s">
         <v>216</v>
       </c>
     </row>
@@ -40977,14 +41166,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="536" t="s">
+      <c r="E4" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="537"/>
-      <c r="H4" s="538" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="539"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -40994,15 +41183,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="560"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="570"/>
-      <c r="W4" s="542" t="s">
+      <c r="R4" s="574"/>
+      <c r="W4" s="546" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="542"/>
+      <c r="X4" s="546"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41053,8 +41242,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="542"/>
-      <c r="X5" s="542"/>
+      <c r="W5" s="546"/>
+      <c r="X5" s="546"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41815,7 +42004,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="546">
+      <c r="W19" s="550">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -41867,7 +42056,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="547"/>
+      <c r="W20" s="551"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -41916,8 +42105,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="548"/>
-      <c r="X21" s="548"/>
+      <c r="W21" s="552"/>
+      <c r="X21" s="552"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42016,8 +42205,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="549"/>
-      <c r="X23" s="549"/>
+      <c r="W23" s="553"/>
+      <c r="X23" s="553"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42072,8 +42261,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="549"/>
-      <c r="X24" s="549"/>
+      <c r="W24" s="553"/>
+      <c r="X24" s="553"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42121,8 +42310,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="550"/>
-      <c r="X25" s="550"/>
+      <c r="W25" s="554"/>
+      <c r="X25" s="554"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42170,8 +42359,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="550"/>
-      <c r="X26" s="550"/>
+      <c r="W26" s="554"/>
+      <c r="X26" s="554"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42219,9 +42408,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="543"/>
-      <c r="X27" s="544"/>
-      <c r="Y27" s="545"/>
+      <c r="W27" s="547"/>
+      <c r="X27" s="548"/>
+      <c r="Y27" s="549"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42269,9 +42458,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="544"/>
-      <c r="X28" s="544"/>
-      <c r="Y28" s="545"/>
+      <c r="W28" s="548"/>
+      <c r="X28" s="548"/>
+      <c r="Y28" s="549"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42612,11 +42801,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="561">
+      <c r="M36" s="565">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="563">
+      <c r="N36" s="567">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -42624,7 +42813,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="596">
+      <c r="Q36" s="600">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -42649,13 +42838,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="562"/>
-      <c r="N37" s="564"/>
+      <c r="M37" s="566"/>
+      <c r="N37" s="568"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="597"/>
+      <c r="Q37" s="601"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -42705,11 +42894,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="598">
+      <c r="M39" s="602">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="599"/>
+      <c r="N39" s="603"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -42957,26 +43146,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="516" t="s">
+      <c r="H52" s="520" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="517"/>
+      <c r="I52" s="521"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="518">
+      <c r="K52" s="522">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="551"/>
+      <c r="L52" s="555"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="522" t="s">
+      <c r="D53" s="526" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="522"/>
+      <c r="E53" s="526"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -42985,22 +43174,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="552" t="s">
+      <c r="D54" s="556" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="552"/>
+      <c r="E54" s="556"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="523" t="s">
+      <c r="I54" s="527" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="524"/>
-      <c r="K54" s="525">
+      <c r="J54" s="528"/>
+      <c r="K54" s="529">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="525"/>
+      <c r="L54" s="529"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -43041,11 +43230,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="527">
+      <c r="K56" s="531">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="528"/>
+      <c r="L56" s="532"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43062,22 +43251,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="505" t="s">
+      <c r="D58" s="509" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="506"/>
+      <c r="E58" s="510"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="507" t="s">
+      <c r="I58" s="511" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="508"/>
-      <c r="K58" s="509">
+      <c r="J58" s="512"/>
+      <c r="K58" s="513">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="509"/>
+      <c r="L58" s="513"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="646">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2470,6 +2470,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>CREMA-LONGANIZA-POLLO-CHISTORRA ETC</t>
+  </si>
+  <si>
+    <t>PIÑON-NUEZ-QUESOS-POLLO-MIXIOTES-CHISTORRA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-SALCHICHONERIA</t>
   </si>
 </sst>
 </file>
@@ -5294,6 +5303,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5366,76 +5408,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5479,6 +5455,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9029,23 +9038,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="533"/>
-      <c r="C1" s="535" t="s">
+      <c r="B1" s="509"/>
+      <c r="C1" s="511" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
-      <c r="L1" s="536"/>
-      <c r="M1" s="536"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="534"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9055,17 +9064,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="538"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="515" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9079,14 +9088,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="516" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="517"/>
+      <c r="H4" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9096,10 +9105,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="514" t="s">
+      <c r="P4" s="525" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="515"/>
+      <c r="Q4" s="526"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10540,11 +10549,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="516">
+      <c r="M39" s="527">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="518">
+      <c r="N39" s="529">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10570,8 +10579,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="517"/>
-      <c r="N40" s="519"/>
+      <c r="M40" s="528"/>
+      <c r="N40" s="530"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10786,29 +10795,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="520" t="s">
+      <c r="H52" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="521"/>
+      <c r="I52" s="532"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="522">
+      <c r="K52" s="533">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="523"/>
-      <c r="M52" s="524">
+      <c r="L52" s="534"/>
+      <c r="M52" s="535">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="525"/>
+      <c r="N52" s="536"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="526" t="s">
+      <c r="D53" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="526"/>
+      <c r="E53" s="537"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10819,22 +10828,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="526" t="s">
+      <c r="D54" s="537" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="526"/>
+      <c r="E54" s="537"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="527" t="s">
+      <c r="I54" s="538" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="528"/>
-      <c r="K54" s="529">
+      <c r="J54" s="539"/>
+      <c r="K54" s="540">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="530"/>
+      <c r="L54" s="541"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10867,11 +10876,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="531">
+      <c r="K56" s="542">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="532"/>
+      <c r="L56" s="543"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10888,22 +10897,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="509" t="s">
+      <c r="D58" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="510"/>
+      <c r="E58" s="521"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="511" t="s">
+      <c r="I58" s="522" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="512"/>
-      <c r="K58" s="513">
+      <c r="J58" s="523"/>
+      <c r="K58" s="524">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="513"/>
+      <c r="L58" s="524"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -11047,12 +11056,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -11067,6 +11070,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13925,7 +13934,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="533"/>
+      <c r="B1" s="509"/>
       <c r="C1" s="575" t="s">
         <v>451</v>
       </c>
@@ -13941,7 +13950,7 @@
       <c r="M1" s="576"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="534"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13951,21 +13960,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="538"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="515" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="552" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="573" t="s">
@@ -13983,14 +13992,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="516" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="517"/>
+      <c r="H4" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14000,15 +14009,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="553"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="574"/>
-      <c r="W4" s="546" t="s">
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="546"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14059,8 +14068,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="546"/>
-      <c r="X5" s="546"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14823,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="550">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14875,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="551"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14924,8 +14933,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="552"/>
-      <c r="X21" s="552"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15025,8 +15034,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="553"/>
-      <c r="X23" s="553"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15081,8 +15090,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="553"/>
-      <c r="X24" s="553"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15130,8 +15139,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="554"/>
-      <c r="X25" s="554"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15180,8 +15189,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="554"/>
-      <c r="X26" s="554"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15229,9 +15238,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="547"/>
-      <c r="X27" s="548"/>
-      <c r="Y27" s="549"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15279,9 +15288,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="548"/>
-      <c r="X28" s="548"/>
-      <c r="Y28" s="549"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15613,11 +15622,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="565">
+      <c r="M36" s="554">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="567">
+      <c r="N36" s="556">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15650,8 +15659,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="566"/>
-      <c r="N37" s="568"/>
+      <c r="M37" s="555"/>
+      <c r="N37" s="557"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -15965,26 +15974,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="520" t="s">
+      <c r="H52" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="521"/>
+      <c r="I52" s="532"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="522">
+      <c r="K52" s="533">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="555"/>
+      <c r="L52" s="560"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="526" t="s">
+      <c r="D53" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="526"/>
+      <c r="E53" s="537"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -15993,22 +16002,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="556" t="s">
+      <c r="D54" s="561" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="556"/>
+      <c r="E54" s="561"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="527" t="s">
+      <c r="I54" s="538" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="528"/>
-      <c r="K54" s="529">
+      <c r="J54" s="539"/>
+      <c r="K54" s="540">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="529"/>
+      <c r="L54" s="540"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16049,11 +16058,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="531">
+      <c r="K56" s="542">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="532"/>
+      <c r="L56" s="543"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16070,22 +16079,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="509" t="s">
+      <c r="D58" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="510"/>
+      <c r="E58" s="521"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="511" t="s">
+      <c r="I58" s="522" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="512"/>
-      <c r="K58" s="513">
+      <c r="J58" s="523"/>
+      <c r="K58" s="524">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="513"/>
+      <c r="L58" s="524"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16229,21 +16238,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -16259,6 +16253,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18746,8 +18755,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18776,7 +18785,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="533"/>
+      <c r="B1" s="509"/>
       <c r="C1" s="575" t="s">
         <v>620</v>
       </c>
@@ -18792,7 +18801,7 @@
       <c r="M1" s="576"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="534"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18802,21 +18811,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="538"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="515" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="552" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="573" t="s">
@@ -18834,14 +18843,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="516" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="517"/>
+      <c r="H4" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18851,15 +18860,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="553"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="574"/>
-      <c r="W4" s="546" t="s">
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="546"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18910,8 +18919,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="546"/>
-      <c r="X5" s="546"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19670,7 +19679,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="550">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19722,7 +19731,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="551"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19771,8 +19780,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="552"/>
-      <c r="X21" s="552"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19869,8 +19878,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="553"/>
-      <c r="X23" s="553"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19925,8 +19934,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="553"/>
-      <c r="X24" s="553"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19935,25 +19944,35 @@
       <c r="B25" s="24">
         <v>44668</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
       <c r="D25" s="35"/>
       <c r="E25" s="27">
         <v>44668</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>72012</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="36">
         <v>44668</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>925</v>
+      </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
+      <c r="M25" s="32">
+        <v>43037</v>
+      </c>
+      <c r="N25" s="33">
+        <v>28050</v>
+      </c>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72012</v>
       </c>
       <c r="Q25" s="325">
         <f t="shared" si="0"/>
@@ -19962,8 +19981,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="554"/>
-      <c r="X25" s="554"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -19972,36 +19991,48 @@
       <c r="B26" s="24">
         <v>44669</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>29211.5</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>643</v>
+      </c>
       <c r="E26" s="27">
         <v>44669</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>646290</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="36">
         <v>44669</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30">
+        <v>806.5</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="182">
+        <f>26691+51054.31+554929.3</f>
+        <v>632674.6100000001</v>
+      </c>
+      <c r="N26" s="33">
+        <v>57122</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="284">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>719814.6100000001</v>
       </c>
       <c r="Q26" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="319">
-        <v>0</v>
-      </c>
-      <c r="W26" s="554"/>
-      <c r="X26" s="554"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="388">
+        <v>73524.61</v>
+      </c>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20010,26 +20041,38 @@
       <c r="B27" s="24">
         <v>44670</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>20144</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>644</v>
+      </c>
       <c r="E27" s="27">
         <v>44670</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>87344</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="36">
         <v>44670</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>2012</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
+      <c r="M27" s="182">
+        <v>40223</v>
+      </c>
+      <c r="N27" s="33">
+        <v>24965</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87344</v>
       </c>
       <c r="Q27" s="325">
         <f t="shared" si="0"/>
@@ -20038,9 +20081,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="547"/>
-      <c r="X27" s="548"/>
-      <c r="Y27" s="549"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20048,26 +20091,38 @@
       <c r="B28" s="24">
         <v>44671</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>6094</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="27">
         <v>44671</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>83354</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="36">
         <v>44671</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>2846.5</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="33"/>
+      <c r="M28" s="182">
+        <v>46851.5</v>
+      </c>
+      <c r="N28" s="33">
+        <v>27562</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83354</v>
       </c>
       <c r="Q28" s="325">
         <f t="shared" si="0"/>
@@ -20076,9 +20131,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="548"/>
-      <c r="X28" s="548"/>
-      <c r="Y28" s="549"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20086,30 +20141,42 @@
       <c r="B29" s="24">
         <v>44672</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>7741</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>645</v>
+      </c>
       <c r="E29" s="27">
         <v>44672</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>88318</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="36">
         <v>44672</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>2742</v>
+      </c>
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33"/>
+      <c r="M29" s="182">
+        <v>55917</v>
+      </c>
+      <c r="N29" s="33">
+        <v>22200</v>
+      </c>
       <c r="O29" s="425"/>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88600</v>
       </c>
       <c r="Q29" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="R29" s="319">
         <v>0</v>
@@ -20353,13 +20420,13 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="565">
+      <c r="M36" s="554">
         <f>SUM(M5:M35)</f>
-        <v>969929.5</v>
-      </c>
-      <c r="N36" s="567">
+        <v>1788632.61</v>
+      </c>
+      <c r="N36" s="556">
         <f>SUM(N5:N35)</f>
-        <v>668822</v>
+        <v>828721</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
@@ -20367,7 +20434,7 @@
       </c>
       <c r="Q36" s="600">
         <f>SUM(Q5:Q35)</f>
-        <v>2.9799999999959255</v>
+        <v>284.97999999999593</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -20390,8 +20457,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="566"/>
-      <c r="N37" s="568"/>
+      <c r="M37" s="555"/>
+      <c r="N37" s="557"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -20448,12 +20515,12 @@
       <c r="L39" s="61"/>
       <c r="M39" s="602">
         <f>M36+N36</f>
-        <v>1638751.5</v>
+        <v>2617353.6100000003</v>
       </c>
       <c r="N39" s="603"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>2040933.98</v>
+        <v>3092058.59</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -20662,7 +20729,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>281118.5</v>
+        <v>344309</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -20670,7 +20737,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>2001440</v>
+        <v>2978758</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -20678,7 +20745,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>63880</v>
+        <v>73212</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -20704,50 +20771,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="520" t="s">
+      <c r="H52" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="521"/>
+      <c r="I52" s="532"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="522">
+      <c r="K52" s="533">
         <f>I50+L50</f>
-        <v>166859.76999999999</v>
-      </c>
-      <c r="L52" s="555"/>
+        <v>176191.77</v>
+      </c>
+      <c r="L52" s="560"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="526" t="s">
+      <c r="D53" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="526"/>
+      <c r="E53" s="537"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>1553461.73</v>
+        <v>2458257.23</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="556" t="s">
+      <c r="D54" s="561" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="556"/>
+      <c r="E54" s="561"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="527" t="s">
+      <c r="I54" s="538" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="528"/>
-      <c r="K54" s="529">
+      <c r="J54" s="539"/>
+      <c r="K54" s="540">
         <f>F56+F57+F58</f>
-        <v>1553461.73</v>
-      </c>
-      <c r="L54" s="529"/>
+        <v>2458257.23</v>
+      </c>
+      <c r="L54" s="540"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -20781,18 +20848,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1553461.73</v>
+        <v>2458257.23</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="531">
+      <c r="K56" s="542">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="532"/>
+      <c r="L56" s="543"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -20807,22 +20874,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="509" t="s">
+      <c r="D58" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="510"/>
+      <c r="E58" s="521"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="511" t="s">
+      <c r="I58" s="522" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="512"/>
-      <c r="K58" s="513">
+      <c r="J58" s="523"/>
+      <c r="K58" s="524">
         <f>K54+K56</f>
-        <v>-239355.94999999995</v>
-      </c>
-      <c r="L58" s="513"/>
+        <v>665439.55000000005</v>
+      </c>
+      <c r="L58" s="524"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -20966,26 +21033,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -20996,6 +21043,26 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25943,23 +26010,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="533"/>
-      <c r="C1" s="535" t="s">
+      <c r="B1" s="509"/>
+      <c r="C1" s="511" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
-      <c r="L1" s="536"/>
-      <c r="M1" s="536"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="534"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25969,21 +26036,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="538"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="515" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="552" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25998,14 +26065,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="516" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="517"/>
+      <c r="H4" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -26015,14 +26082,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="553"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="546" t="s">
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="546"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26073,8 +26140,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="546"/>
-      <c r="X5" s="546"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26845,7 +26912,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="550">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -26897,7 +26964,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="551"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26946,8 +27013,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="552"/>
-      <c r="X21" s="552"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27048,8 +27115,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="553"/>
-      <c r="X23" s="553"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27103,8 +27170,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="553"/>
-      <c r="X24" s="553"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27150,8 +27217,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="554"/>
-      <c r="X25" s="554"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27202,8 +27269,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="554"/>
-      <c r="X26" s="554"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27251,9 +27318,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="547"/>
-      <c r="X27" s="548"/>
-      <c r="Y27" s="549"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27303,9 +27370,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="548"/>
-      <c r="X28" s="548"/>
-      <c r="Y28" s="549"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27640,11 +27707,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="565">
+      <c r="M36" s="554">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="567">
+      <c r="N36" s="556">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -27652,7 +27719,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="569">
+      <c r="Q36" s="558">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -27687,13 +27754,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="566"/>
-      <c r="N37" s="568"/>
+      <c r="M37" s="555"/>
+      <c r="N37" s="557"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="570"/>
+      <c r="Q37" s="559"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -27983,26 +28050,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="520" t="s">
+      <c r="H52" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="521"/>
+      <c r="I52" s="532"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="522">
+      <c r="K52" s="533">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="555"/>
+      <c r="L52" s="560"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="526" t="s">
+      <c r="D53" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="526"/>
+      <c r="E53" s="537"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -28011,29 +28078,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="556" t="s">
+      <c r="D54" s="561" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="556"/>
+      <c r="E54" s="561"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="527" t="s">
+      <c r="I54" s="538" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="528"/>
-      <c r="K54" s="529">
+      <c r="J54" s="539"/>
+      <c r="K54" s="540">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="529"/>
-      <c r="M54" s="557" t="s">
+      <c r="L54" s="540"/>
+      <c r="M54" s="546" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="558"/>
-      <c r="O54" s="558"/>
-      <c r="P54" s="558"/>
-      <c r="Q54" s="559"/>
+      <c r="N54" s="547"/>
+      <c r="O54" s="547"/>
+      <c r="P54" s="547"/>
+      <c r="Q54" s="548"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -28047,11 +28114,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="560"/>
-      <c r="N55" s="561"/>
-      <c r="O55" s="561"/>
-      <c r="P55" s="561"/>
-      <c r="Q55" s="562"/>
+      <c r="M55" s="549"/>
+      <c r="N55" s="550"/>
+      <c r="O55" s="550"/>
+      <c r="P55" s="550"/>
+      <c r="Q55" s="551"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -28069,11 +28136,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="531">
+      <c r="K56" s="542">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="532"/>
+      <c r="L56" s="543"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28090,22 +28157,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="509" t="s">
+      <c r="D58" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="510"/>
+      <c r="E58" s="521"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="511" t="s">
+      <c r="I58" s="522" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="512"/>
-      <c r="K58" s="513">
+      <c r="J58" s="523"/>
+      <c r="K58" s="524">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="513"/>
+      <c r="L58" s="524"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28249,17 +28316,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -28270,14 +28334,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31020,23 +31087,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="533"/>
-      <c r="C1" s="535" t="s">
+      <c r="B1" s="509"/>
+      <c r="C1" s="511" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
-      <c r="L1" s="536"/>
-      <c r="M1" s="536"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="534"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31046,21 +31113,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="538"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="515" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="552" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="573" t="s">
@@ -31078,14 +31145,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="516" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="517"/>
+      <c r="H4" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -31095,15 +31162,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="553"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="574"/>
-      <c r="W4" s="546" t="s">
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="546"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31164,8 +31231,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="546"/>
-      <c r="X5" s="546"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31922,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="550">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -31974,7 +32041,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="551"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32023,8 +32090,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="552"/>
-      <c r="X21" s="552"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32125,8 +32192,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="553"/>
-      <c r="X23" s="553"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32177,8 +32244,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="553"/>
-      <c r="X24" s="553"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32224,8 +32291,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="554"/>
-      <c r="X25" s="554"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32273,8 +32340,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="554"/>
-      <c r="X26" s="554"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32334,9 +32401,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="547"/>
-      <c r="X27" s="548"/>
-      <c r="Y27" s="549"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32390,9 +32457,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="548"/>
-      <c r="X28" s="548"/>
-      <c r="Y28" s="549"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32708,11 +32775,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="565">
+      <c r="M36" s="554">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="567">
+      <c r="N36" s="556">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -32720,7 +32787,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="569">
+      <c r="Q36" s="558">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -32739,13 +32806,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="566"/>
-      <c r="N37" s="568"/>
+      <c r="M37" s="555"/>
+      <c r="N37" s="557"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="570"/>
+      <c r="Q37" s="559"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -33019,26 +33086,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="520" t="s">
+      <c r="H52" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="521"/>
+      <c r="I52" s="532"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="522">
+      <c r="K52" s="533">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="555"/>
+      <c r="L52" s="560"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="526" t="s">
+      <c r="D53" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="526"/>
+      <c r="E53" s="537"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -33047,29 +33114,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="556" t="s">
+      <c r="D54" s="561" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="556"/>
+      <c r="E54" s="561"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="527" t="s">
+      <c r="I54" s="538" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="528"/>
-      <c r="K54" s="529">
+      <c r="J54" s="539"/>
+      <c r="K54" s="540">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="529"/>
-      <c r="M54" s="557" t="s">
+      <c r="L54" s="540"/>
+      <c r="M54" s="546" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="558"/>
-      <c r="O54" s="558"/>
-      <c r="P54" s="558"/>
-      <c r="Q54" s="559"/>
+      <c r="N54" s="547"/>
+      <c r="O54" s="547"/>
+      <c r="P54" s="547"/>
+      <c r="Q54" s="548"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -33083,11 +33150,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="560"/>
-      <c r="N55" s="561"/>
-      <c r="O55" s="561"/>
-      <c r="P55" s="561"/>
-      <c r="Q55" s="562"/>
+      <c r="M55" s="549"/>
+      <c r="N55" s="550"/>
+      <c r="O55" s="550"/>
+      <c r="P55" s="550"/>
+      <c r="Q55" s="551"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -33105,11 +33172,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="531">
+      <c r="K56" s="542">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="532"/>
+      <c r="L56" s="543"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -33126,22 +33193,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="509" t="s">
+      <c r="D58" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="510"/>
+      <c r="E58" s="521"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="511" t="s">
+      <c r="I58" s="522" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="512"/>
-      <c r="K58" s="513">
+      <c r="J58" s="523"/>
+      <c r="K58" s="524">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="513"/>
+      <c r="L58" s="524"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -33285,13 +33352,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -33301,20 +33375,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36009,7 +36076,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="533"/>
+      <c r="B1" s="509"/>
       <c r="C1" s="575" t="s">
         <v>316</v>
       </c>
@@ -36025,7 +36092,7 @@
       <c r="M1" s="576"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="534"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36035,21 +36102,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="538"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="515" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="552" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="573" t="s">
@@ -36067,14 +36134,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="516" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="517"/>
+      <c r="H4" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -36084,15 +36151,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="553"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="574"/>
-      <c r="W4" s="546" t="s">
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="546"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36143,8 +36210,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="546"/>
-      <c r="X5" s="546"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36908,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="550">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -36961,7 +37028,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="551"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -37010,8 +37077,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="552"/>
-      <c r="X21" s="552"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -37111,8 +37178,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="553"/>
-      <c r="X23" s="553"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -37167,8 +37234,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="553"/>
-      <c r="X24" s="553"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37213,8 +37280,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="554"/>
-      <c r="X25" s="554"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37262,8 +37329,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="554"/>
-      <c r="X26" s="554"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37317,9 +37384,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="547"/>
-      <c r="X27" s="548"/>
-      <c r="Y27" s="549"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37373,9 +37440,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="548"/>
-      <c r="X28" s="548"/>
-      <c r="Y28" s="549"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37686,11 +37753,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="565">
+      <c r="M36" s="554">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="567">
+      <c r="N36" s="556">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -37698,7 +37765,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="569">
+      <c r="Q36" s="558">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -37723,13 +37790,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="566"/>
-      <c r="N37" s="568"/>
+      <c r="M37" s="555"/>
+      <c r="N37" s="557"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="570"/>
+      <c r="Q37" s="559"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -38022,26 +38089,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="520" t="s">
+      <c r="H52" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="521"/>
+      <c r="I52" s="532"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="522">
+      <c r="K52" s="533">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="555"/>
+      <c r="L52" s="560"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="526" t="s">
+      <c r="D53" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="526"/>
+      <c r="E53" s="537"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -38050,22 +38117,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="556" t="s">
+      <c r="D54" s="561" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="556"/>
+      <c r="E54" s="561"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="527" t="s">
+      <c r="I54" s="538" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="528"/>
-      <c r="K54" s="529">
+      <c r="J54" s="539"/>
+      <c r="K54" s="540">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="529"/>
+      <c r="L54" s="540"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -38106,11 +38173,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="531">
+      <c r="K56" s="542">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="532"/>
+      <c r="L56" s="543"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -38127,22 +38194,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="509" t="s">
+      <c r="D58" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="510"/>
+      <c r="E58" s="521"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="511" t="s">
+      <c r="I58" s="522" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="512"/>
-      <c r="K58" s="513">
+      <c r="J58" s="523"/>
+      <c r="K58" s="524">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="513"/>
+      <c r="L58" s="524"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -38286,6 +38353,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -38301,20 +38382,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41108,7 +41175,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="533"/>
+      <c r="B1" s="509"/>
       <c r="C1" s="575" t="s">
         <v>316</v>
       </c>
@@ -41124,7 +41191,7 @@
       <c r="M1" s="576"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="534"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41134,21 +41201,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="538"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="515" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="552" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="573" t="s">
@@ -41166,14 +41233,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="516" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="517"/>
+      <c r="H4" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41183,15 +41250,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="553"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="574"/>
-      <c r="W4" s="546" t="s">
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="546"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41242,8 +41309,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="546"/>
-      <c r="X5" s="546"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42004,7 +42071,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="550">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -42056,7 +42123,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="551"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42105,8 +42172,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="552"/>
-      <c r="X21" s="552"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42205,8 +42272,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="553"/>
-      <c r="X23" s="553"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42261,8 +42328,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="553"/>
-      <c r="X24" s="553"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42310,8 +42377,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="554"/>
-      <c r="X25" s="554"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42359,8 +42426,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="554"/>
-      <c r="X26" s="554"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42408,9 +42475,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="547"/>
-      <c r="X27" s="548"/>
-      <c r="Y27" s="549"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42458,9 +42525,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="548"/>
-      <c r="X28" s="548"/>
-      <c r="Y28" s="549"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42801,11 +42868,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="565">
+      <c r="M36" s="554">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="567">
+      <c r="N36" s="556">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -42838,8 +42905,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="566"/>
-      <c r="N37" s="568"/>
+      <c r="M37" s="555"/>
+      <c r="N37" s="557"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -43146,26 +43213,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="520" t="s">
+      <c r="H52" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="521"/>
+      <c r="I52" s="532"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="522">
+      <c r="K52" s="533">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="555"/>
+      <c r="L52" s="560"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="526" t="s">
+      <c r="D53" s="537" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="526"/>
+      <c r="E53" s="537"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -43174,22 +43241,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="556" t="s">
+      <c r="D54" s="561" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="556"/>
+      <c r="E54" s="561"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="527" t="s">
+      <c r="I54" s="538" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="528"/>
-      <c r="K54" s="529">
+      <c r="J54" s="539"/>
+      <c r="K54" s="540">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="529"/>
+      <c r="L54" s="540"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -43230,11 +43297,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="531">
+      <c r="K56" s="542">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="532"/>
+      <c r="L56" s="543"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43251,22 +43318,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="509" t="s">
+      <c r="D58" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="510"/>
+      <c r="E58" s="521"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="511" t="s">
+      <c r="I58" s="522" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="512"/>
-      <c r="K58" s="513">
+      <c r="J58" s="523"/>
+      <c r="K58" s="524">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="513"/>
+      <c r="L58" s="524"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43410,20 +43477,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43440,6 +43493,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="651">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2479,6 +2479,21 @@
   </si>
   <si>
     <t>POLLO-QUESOS-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      FEBRERO           2 0 2 2</t>
+  </si>
+  <si>
+    <t>QUESOS-ENCHILADA-LONGANIZA</t>
+  </si>
+  <si>
+    <t>QUESO-POLLO-JAMON-ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 17  y vacaciones Pedro</t>
+  </si>
+  <si>
+    <t>Nomina # 17 y vacaciones Pedro</t>
   </si>
 </sst>
 </file>
@@ -4285,7 +4300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="613">
+  <cellXfs count="614">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5298,7 +5313,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="21" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5614,6 +5628,12 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9038,23 +9058,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="511" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9064,17 +9084,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9088,14 +9108,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="516" t="s">
+      <c r="E4" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="517"/>
-      <c r="H4" s="518" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="519"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9105,10 +9125,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="525" t="s">
+      <c r="P4" s="524" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="526"/>
+      <c r="Q4" s="525"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10549,11 +10569,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="527">
+      <c r="M39" s="526">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="529">
+      <c r="N39" s="528">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10579,8 +10599,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="528"/>
-      <c r="N40" s="530"/>
+      <c r="M40" s="527"/>
+      <c r="N40" s="529"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10795,29 +10815,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="531" t="s">
+      <c r="H52" s="530" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="532"/>
+      <c r="I52" s="531"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="533">
+      <c r="K52" s="532">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="534"/>
-      <c r="M52" s="535">
+      <c r="L52" s="533"/>
+      <c r="M52" s="534">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="536"/>
+      <c r="N52" s="535"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="537" t="s">
+      <c r="D53" s="536" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="537"/>
+      <c r="E53" s="536"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10828,22 +10848,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="537" t="s">
+      <c r="D54" s="536" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="537"/>
+      <c r="E54" s="536"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="538" t="s">
+      <c r="I54" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="539"/>
-      <c r="K54" s="540">
+      <c r="J54" s="538"/>
+      <c r="K54" s="539">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="541"/>
+      <c r="L54" s="540"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10876,11 +10896,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="542">
+      <c r="K56" s="541">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="543"/>
+      <c r="L56" s="542"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10897,22 +10917,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="520" t="s">
+      <c r="D58" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="521"/>
+      <c r="E58" s="520"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="522" t="s">
+      <c r="I58" s="521" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="523"/>
-      <c r="K58" s="524">
+      <c r="J58" s="522"/>
+      <c r="K58" s="523">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="524"/>
+      <c r="L58" s="523"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13536,10 +13556,10 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I76" s="605" t="s">
+      <c r="I76" s="604" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="606"/>
+      <c r="J76" s="605"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13558,8 +13578,8 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I77" s="607"/>
-      <c r="J77" s="608"/>
+      <c r="I77" s="606"/>
+      <c r="J77" s="607"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -13626,7 +13646,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="571" t="s">
+      <c r="F80" s="570" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -13641,7 +13661,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="572"/>
+      <c r="F81" s="571"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13649,10 +13669,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="604" t="s">
+      <c r="B82" s="603" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="604"/>
+      <c r="C82" s="603"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -13904,8 +13924,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13934,23 +13954,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="575" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="574" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="576"/>
-      <c r="E1" s="576"/>
-      <c r="F1" s="576"/>
-      <c r="G1" s="576"/>
-      <c r="H1" s="576"/>
-      <c r="I1" s="576"/>
-      <c r="J1" s="576"/>
-      <c r="K1" s="576"/>
-      <c r="L1" s="576"/>
-      <c r="M1" s="576"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13960,24 +13980,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="552" t="s">
+      <c r="P3" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="573" t="s">
+      <c r="R3" s="572" t="s">
         <v>216</v>
       </c>
     </row>
@@ -13992,14 +14012,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="516" t="s">
+      <c r="E4" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="517"/>
-      <c r="H4" s="518" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="519"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14009,15 +14029,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="553"/>
+      <c r="P4" s="552"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="574"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="573"/>
+      <c r="W4" s="561" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="561"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14049,7 +14069,7 @@
       <c r="J5" s="37"/>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="504">
+      <c r="M5" s="32">
         <v>52267</v>
       </c>
       <c r="N5" s="33">
@@ -14068,8 +14088,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="561"/>
+      <c r="X5" s="561"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14099,7 +14119,7 @@
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="504">
+      <c r="M6" s="32">
         <v>33586.5</v>
       </c>
       <c r="N6" s="33">
@@ -14153,7 +14173,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="504">
+      <c r="M7" s="32">
         <v>38157</v>
       </c>
       <c r="N7" s="33">
@@ -14208,7 +14228,7 @@
       <c r="J8" s="43"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="504">
+      <c r="M8" s="32">
         <f>31611+1120</f>
         <v>32731</v>
       </c>
@@ -14265,7 +14285,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="223"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="504">
+      <c r="M9" s="32">
         <v>57014</v>
       </c>
       <c r="N9" s="33">
@@ -14326,7 +14346,7 @@
       <c r="L10" s="45">
         <v>12109.41</v>
       </c>
-      <c r="M10" s="504">
+      <c r="M10" s="32">
         <v>38720</v>
       </c>
       <c r="N10" s="33">
@@ -14382,7 +14402,7 @@
       <c r="J11" s="43"/>
       <c r="K11" s="168"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="504">
+      <c r="M11" s="32">
         <v>62058</v>
       </c>
       <c r="N11" s="33">
@@ -14438,7 +14458,7 @@
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="504">
+      <c r="M12" s="32">
         <v>20493.5</v>
       </c>
       <c r="N12" s="33">
@@ -14495,7 +14515,7 @@
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="504">
+      <c r="M13" s="32">
         <v>41442.5</v>
       </c>
       <c r="N13" s="33">
@@ -14549,7 +14569,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="504">
+      <c r="M14" s="32">
         <f>70135.5+580.16+6869</f>
         <v>77584.66</v>
       </c>
@@ -14602,7 +14622,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="504">
+      <c r="M15" s="32">
         <v>47170</v>
       </c>
       <c r="N15" s="33">
@@ -14653,7 +14673,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="504">
+      <c r="M16" s="32">
         <v>60292.5</v>
       </c>
       <c r="N16" s="33">
@@ -14711,7 +14731,7 @@
       <c r="L17" s="45">
         <v>18054.02</v>
       </c>
-      <c r="M17" s="504">
+      <c r="M17" s="32">
         <v>55203</v>
       </c>
       <c r="N17" s="33">
@@ -14762,7 +14782,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="170"/>
       <c r="L18" s="39"/>
-      <c r="M18" s="504">
+      <c r="M18" s="32">
         <v>47814</v>
       </c>
       <c r="N18" s="33">
@@ -14813,7 +14833,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="504">
+      <c r="M19" s="32">
         <f>30013+8142</f>
         <v>38155</v>
       </c>
@@ -14832,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="565">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14866,7 +14886,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
-      <c r="M20" s="504">
+      <c r="M20" s="32">
         <v>33949</v>
       </c>
       <c r="N20" s="33">
@@ -14884,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="566"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14915,7 +14935,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="48"/>
       <c r="L21" s="45"/>
-      <c r="M21" s="504">
+      <c r="M21" s="32">
         <v>65434</v>
       </c>
       <c r="N21" s="33">
@@ -14933,8 +14953,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="567"/>
+      <c r="X21" s="567"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -14965,7 +14985,7 @@
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="504">
+      <c r="M22" s="32">
         <f>642+62879</f>
         <v>63521</v>
       </c>
@@ -15016,7 +15036,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
-      <c r="M23" s="504">
+      <c r="M23" s="32">
         <v>53950</v>
       </c>
       <c r="N23" s="33">
@@ -15034,8 +15054,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="568"/>
+      <c r="X23" s="568"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15072,7 +15092,7 @@
       <c r="L24" s="52">
         <v>20799.990000000002</v>
       </c>
-      <c r="M24" s="504">
+      <c r="M24" s="32">
         <v>28076</v>
       </c>
       <c r="N24" s="33">
@@ -15090,8 +15110,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="568"/>
+      <c r="X24" s="568"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15122,7 +15142,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
-      <c r="M25" s="504">
+      <c r="M25" s="32">
         <v>47560.5</v>
       </c>
       <c r="N25" s="33">
@@ -15139,8 +15159,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="569"/>
+      <c r="X25" s="569"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15171,7 +15191,7 @@
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="504">
+      <c r="M26" s="32">
         <v>36536</v>
       </c>
       <c r="N26" s="33">
@@ -15189,8 +15209,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="569"/>
+      <c r="X26" s="569"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15221,7 +15241,7 @@
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="504">
+      <c r="M27" s="32">
         <v>42310.5</v>
       </c>
       <c r="N27" s="33">
@@ -15238,9 +15258,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="562"/>
+      <c r="X27" s="563"/>
+      <c r="Y27" s="564"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15270,7 +15290,7 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="504">
+      <c r="M28" s="32">
         <f>49352+673725.34+200000+33828.02</f>
         <v>956905.36</v>
       </c>
@@ -15288,9 +15308,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="563"/>
+      <c r="X28" s="563"/>
+      <c r="Y28" s="564"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15320,7 +15340,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
-      <c r="M29" s="504">
+      <c r="M29" s="32">
         <f>642+79978</f>
         <v>80620</v>
       </c>
@@ -15375,7 +15395,7 @@
       <c r="J30" s="60"/>
       <c r="K30" s="41"/>
       <c r="L30" s="61"/>
-      <c r="M30" s="504">
+      <c r="M30" s="32">
         <v>48450</v>
       </c>
       <c r="N30" s="33">
@@ -15432,7 +15452,7 @@
       <c r="L31" s="460">
         <v>19492.72</v>
       </c>
-      <c r="M31" s="504">
+      <c r="M31" s="32">
         <v>28431</v>
       </c>
       <c r="N31" s="33">
@@ -15481,7 +15501,7 @@
       <c r="J32" s="60"/>
       <c r="K32" s="41"/>
       <c r="L32" s="61"/>
-      <c r="M32" s="504">
+      <c r="M32" s="32">
         <v>32180</v>
       </c>
       <c r="N32" s="33">
@@ -15622,11 +15642,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="554">
+      <c r="M36" s="553">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="556">
+      <c r="N36" s="555">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15634,7 +15654,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="600">
+      <c r="Q36" s="599">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -15659,13 +15679,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="555"/>
-      <c r="N37" s="557"/>
+      <c r="M37" s="554"/>
+      <c r="N37" s="556"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="601"/>
+      <c r="Q37" s="600"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -15710,11 +15730,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="602">
+      <c r="M39" s="601">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="603"/>
+      <c r="N39" s="602"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -15974,26 +15994,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="531" t="s">
+      <c r="H52" s="530" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="532"/>
+      <c r="I52" s="531"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="533">
+      <c r="K52" s="532">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="560"/>
+      <c r="L52" s="559"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="537" t="s">
+      <c r="D53" s="536" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="537"/>
+      <c r="E53" s="536"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -16002,22 +16022,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="561" t="s">
+      <c r="D54" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="561"/>
+      <c r="E54" s="560"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="538" t="s">
+      <c r="I54" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="539"/>
-      <c r="K54" s="540">
+      <c r="J54" s="538"/>
+      <c r="K54" s="539">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="540"/>
+      <c r="L54" s="539"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16058,11 +16078,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="542">
+      <c r="K56" s="541">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="543"/>
+      <c r="L56" s="542"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16079,22 +16099,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="520" t="s">
+      <c r="D58" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="521"/>
+      <c r="E58" s="520"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="522" t="s">
+      <c r="I58" s="521" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="523"/>
-      <c r="K58" s="524">
+      <c r="J58" s="522"/>
+      <c r="K58" s="523">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="524"/>
+      <c r="L58" s="523"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16284,7 +16304,7 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18446,7 +18466,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="571" t="s">
+      <c r="F80" s="570" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18459,7 +18479,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="572"/>
+      <c r="F81" s="571"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18479,16 +18499,16 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="609" t="s">
+      <c r="I83" s="608" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="610"/>
+      <c r="J83" s="609"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="442"/>
-      <c r="I84" s="611"/>
-      <c r="J84" s="612"/>
+      <c r="I84" s="610"/>
+      <c r="J84" s="611"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -18755,8 +18775,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18785,23 +18805,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="575" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="574" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="576"/>
-      <c r="E1" s="576"/>
-      <c r="F1" s="576"/>
-      <c r="G1" s="576"/>
-      <c r="H1" s="576"/>
-      <c r="I1" s="576"/>
-      <c r="J1" s="576"/>
-      <c r="K1" s="576"/>
-      <c r="L1" s="576"/>
-      <c r="M1" s="576"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18811,24 +18831,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="552" t="s">
+      <c r="P3" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="573" t="s">
+      <c r="R3" s="572" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18843,14 +18863,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="516" t="s">
+      <c r="E4" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="517"/>
-      <c r="H4" s="518" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="519"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18860,15 +18880,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="553"/>
+      <c r="P4" s="552"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="574"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="573"/>
+      <c r="W4" s="561" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="561"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18919,8 +18939,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="561"/>
+      <c r="X5" s="561"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19679,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="565">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19731,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="566"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19780,8 +19800,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="567"/>
+      <c r="X21" s="567"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19878,8 +19898,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="568"/>
+      <c r="X23" s="568"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19934,8 +19954,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="568"/>
+      <c r="X24" s="568"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19981,8 +20001,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="569"/>
+      <c r="X25" s="569"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20013,7 +20033,7 @@
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="182">
+      <c r="M26" s="32">
         <f>26691+51054.31+554929.3</f>
         <v>632674.6100000001</v>
       </c>
@@ -20031,8 +20051,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="569"/>
+      <c r="X26" s="569"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20063,8 +20083,8 @@
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="182">
-        <v>40223</v>
+      <c r="M27" s="32">
+        <v>39942</v>
       </c>
       <c r="N27" s="33">
         <v>24965</v>
@@ -20072,18 +20092,18 @@
       <c r="O27" s="2"/>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
-        <v>87344</v>
+        <v>87063</v>
       </c>
       <c r="Q27" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-281</v>
       </c>
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="562"/>
+      <c r="X27" s="563"/>
+      <c r="Y27" s="564"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20113,7 +20133,7 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="182">
+      <c r="M28" s="32">
         <v>46851.5</v>
       </c>
       <c r="N28" s="33">
@@ -20131,9 +20151,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="563"/>
+      <c r="X28" s="563"/>
+      <c r="Y28" s="564"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20163,7 +20183,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
-      <c r="M29" s="182">
+      <c r="M29" s="32">
         <v>55917</v>
       </c>
       <c r="N29" s="33">
@@ -20195,26 +20215,38 @@
       <c r="B30" s="24">
         <v>44673</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="25">
+        <v>7157</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>647</v>
+      </c>
       <c r="E30" s="27">
         <v>44673</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>146405</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="36">
         <v>44673</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <v>3389.5</v>
+      </c>
       <c r="J30" s="60"/>
       <c r="K30" s="41"/>
       <c r="L30" s="61"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
+      <c r="M30" s="32">
+        <v>95058.5</v>
+      </c>
+      <c r="N30" s="33">
+        <v>40800</v>
+      </c>
       <c r="O30" s="426"/>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>146405</v>
       </c>
       <c r="Q30" s="325">
         <f t="shared" si="0"/>
@@ -20229,35 +20261,50 @@
       <c r="X30" s="225"/>
       <c r="Y30" s="227"/>
     </row>
-    <row r="31" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="24">
         <v>44674</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="65"/>
+      <c r="C31" s="25">
+        <v>12849.5</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>648</v>
+      </c>
       <c r="E31" s="27">
         <v>44674</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>128304</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="36">
         <v>44674</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="63"/>
+      <c r="I31" s="30">
+        <v>4268.5</v>
+      </c>
+      <c r="J31" s="60">
+        <v>44674</v>
+      </c>
+      <c r="K31" s="613" t="s">
+        <v>649</v>
+      </c>
+      <c r="L31" s="63">
+        <f>19296.22+4821.43</f>
+        <v>24117.65</v>
+      </c>
       <c r="M31" s="32"/>
       <c r="N31" s="33"/>
       <c r="O31" s="425"/>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41235.65</v>
       </c>
       <c r="Q31" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-87068.35</v>
       </c>
       <c r="R31" s="319">
         <v>0</v>
@@ -20420,21 +20467,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="554">
+      <c r="M36" s="553">
         <f>SUM(M5:M35)</f>
-        <v>1788632.61</v>
-      </c>
-      <c r="N36" s="556">
+        <v>1883410.11</v>
+      </c>
+      <c r="N36" s="555">
         <f>SUM(N5:N35)</f>
-        <v>828721</v>
+        <v>869521</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="600">
+      <c r="Q36" s="599">
         <f>SUM(Q5:Q35)</f>
-        <v>284.97999999999593</v>
+        <v>-87064.37000000001</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -20457,13 +20504,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="555"/>
-      <c r="N37" s="557"/>
+      <c r="M37" s="554"/>
+      <c r="N37" s="556"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="601"/>
+      <c r="Q37" s="600"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20513,14 +20560,14 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="602">
+      <c r="M39" s="601">
         <f>M36+N36</f>
-        <v>2617353.6100000003</v>
-      </c>
-      <c r="N39" s="603"/>
+        <v>2752931.1100000003</v>
+      </c>
+      <c r="N39" s="602"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>3092058.59</v>
+        <v>3279418.2399999998</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -20624,9 +20671,16 @@
       <c r="G44" s="2"/>
       <c r="H44" s="76"/>
       <c r="I44" s="77"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="61"/>
+      <c r="J44" s="60">
+        <v>44674</v>
+      </c>
+      <c r="K44" s="612" t="s">
+        <v>650</v>
+      </c>
+      <c r="L44" s="61">
+        <f>15598.49+4821.43</f>
+        <v>20419.919999999998</v>
+      </c>
       <c r="M44" s="269"/>
       <c r="N44" s="269"/>
       <c r="P44" s="34"/>
@@ -20729,7 +20783,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>344309</v>
+        <v>364315.5</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -20737,7 +20791,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>2978758</v>
+        <v>3253467</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -20745,7 +20799,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>73212</v>
+        <v>80870</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -20753,7 +20807,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>102979.76999999999</v>
+        <v>147517.34000000003</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -20771,50 +20825,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="531" t="s">
+      <c r="H52" s="530" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="532"/>
+      <c r="I52" s="531"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="533">
+      <c r="K52" s="532">
         <f>I50+L50</f>
-        <v>176191.77</v>
-      </c>
-      <c r="L52" s="560"/>
+        <v>228387.34000000003</v>
+      </c>
+      <c r="L52" s="559"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="537" t="s">
+      <c r="D53" s="536" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="537"/>
+      <c r="E53" s="536"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>2458257.23</v>
+        <v>2660764.16</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="561" t="s">
+      <c r="D54" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="561"/>
+      <c r="E54" s="560"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="538" t="s">
+      <c r="I54" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="539"/>
-      <c r="K54" s="540">
+      <c r="J54" s="538"/>
+      <c r="K54" s="539">
         <f>F56+F57+F58</f>
-        <v>2458257.23</v>
-      </c>
-      <c r="L54" s="540"/>
+        <v>2660764.16</v>
+      </c>
+      <c r="L54" s="539"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -20848,18 +20902,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>2458257.23</v>
+        <v>2660764.16</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="542">
+      <c r="K56" s="541">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="543"/>
+      <c r="L56" s="542"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -20874,22 +20928,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="520" t="s">
+      <c r="D58" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="521"/>
+      <c r="E58" s="520"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="522" t="s">
+      <c r="I58" s="521" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="523"/>
-      <c r="K58" s="524">
+      <c r="J58" s="522"/>
+      <c r="K58" s="523">
         <f>K54+K56</f>
-        <v>665439.55000000005</v>
-      </c>
-      <c r="L58" s="524"/>
+        <v>867946.48000000021</v>
+      </c>
+      <c r="L58" s="523"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21161,7 +21215,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="507"/>
+      <c r="A3" s="506"/>
       <c r="B3" s="438"/>
       <c r="C3" s="410"/>
       <c r="D3" s="411"/>
@@ -21446,7 +21500,7 @@
       <c r="A17" s="454"/>
       <c r="B17" s="246"/>
       <c r="C17" s="111"/>
-      <c r="D17" s="508"/>
+      <c r="D17" s="507"/>
       <c r="E17" s="111"/>
       <c r="F17" s="111">
         <f t="shared" si="0"/>
@@ -21647,7 +21701,7 @@
       <c r="A27" s="454"/>
       <c r="B27" s="246"/>
       <c r="C27" s="111"/>
-      <c r="D27" s="508"/>
+      <c r="D27" s="507"/>
       <c r="E27" s="111"/>
       <c r="F27" s="111">
         <f t="shared" si="0"/>
@@ -22724,7 +22778,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="571" t="s">
+      <c r="F80" s="570" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22737,7 +22791,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="572"/>
+      <c r="F81" s="571"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22748,24 +22802,24 @@
       <c r="B82" s="442"/>
       <c r="H82" s="2"/>
       <c r="I82" s="14"/>
-      <c r="J82" s="505"/>
+      <c r="J82" s="504"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="506"/>
+      <c r="L82" s="505"/>
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="609" t="s">
+      <c r="I83" s="608" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="610"/>
+      <c r="J83" s="609"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="442"/>
-      <c r="I84" s="611"/>
-      <c r="J84" s="612"/>
+      <c r="I84" s="610"/>
+      <c r="J84" s="611"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24382,7 +24436,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="544" t="s">
+      <c r="B41" s="543" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -24414,7 +24468,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="545"/>
+      <c r="B42" s="544"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -26010,23 +26064,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="511" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26036,21 +26090,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="552" t="s">
+      <c r="P3" s="551" t="s">
         <v>6</v>
       </c>
     </row>
@@ -26065,14 +26119,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="516" t="s">
+      <c r="E4" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="517"/>
-      <c r="H4" s="518" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="519"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -26082,14 +26136,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="553"/>
+      <c r="P4" s="552"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="562" t="s">
+      <c r="W4" s="561" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="561"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26140,8 +26194,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="561"/>
+      <c r="X5" s="561"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26912,7 +26966,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="565">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -26964,7 +27018,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="566"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -27013,8 +27067,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="567"/>
+      <c r="X21" s="567"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27115,8 +27169,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="568"/>
+      <c r="X23" s="568"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27170,8 +27224,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="568"/>
+      <c r="X24" s="568"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27217,8 +27271,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="569"/>
+      <c r="X25" s="569"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27269,8 +27323,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="569"/>
+      <c r="X26" s="569"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27318,9 +27372,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="562"/>
+      <c r="X27" s="563"/>
+      <c r="Y27" s="564"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27370,9 +27424,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="563"/>
+      <c r="X28" s="563"/>
+      <c r="Y28" s="564"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27707,11 +27761,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="554">
+      <c r="M36" s="553">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="556">
+      <c r="N36" s="555">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -27719,7 +27773,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="558">
+      <c r="Q36" s="557">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -27754,13 +27808,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="555"/>
-      <c r="N37" s="557"/>
+      <c r="M37" s="554"/>
+      <c r="N37" s="556"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="559"/>
+      <c r="Q37" s="558"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -28050,26 +28104,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="531" t="s">
+      <c r="H52" s="530" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="532"/>
+      <c r="I52" s="531"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="533">
+      <c r="K52" s="532">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="560"/>
+      <c r="L52" s="559"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="537" t="s">
+      <c r="D53" s="536" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="537"/>
+      <c r="E53" s="536"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -28078,29 +28132,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="561" t="s">
+      <c r="D54" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="561"/>
+      <c r="E54" s="560"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="538" t="s">
+      <c r="I54" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="539"/>
-      <c r="K54" s="540">
+      <c r="J54" s="538"/>
+      <c r="K54" s="539">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="540"/>
-      <c r="M54" s="546" t="s">
+      <c r="L54" s="539"/>
+      <c r="M54" s="545" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="547"/>
-      <c r="O54" s="547"/>
-      <c r="P54" s="547"/>
-      <c r="Q54" s="548"/>
+      <c r="N54" s="546"/>
+      <c r="O54" s="546"/>
+      <c r="P54" s="546"/>
+      <c r="Q54" s="547"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -28114,11 +28168,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="549"/>
-      <c r="N55" s="550"/>
-      <c r="O55" s="550"/>
-      <c r="P55" s="550"/>
-      <c r="Q55" s="551"/>
+      <c r="M55" s="548"/>
+      <c r="N55" s="549"/>
+      <c r="O55" s="549"/>
+      <c r="P55" s="549"/>
+      <c r="Q55" s="550"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -28136,11 +28190,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="542">
+      <c r="K56" s="541">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="543"/>
+      <c r="L56" s="542"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28157,22 +28211,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="520" t="s">
+      <c r="D58" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="521"/>
+      <c r="E58" s="520"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="522" t="s">
+      <c r="I58" s="521" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="523"/>
-      <c r="K58" s="524">
+      <c r="J58" s="522"/>
+      <c r="K58" s="523">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="524"/>
+      <c r="L58" s="523"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -30762,7 +30816,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="571" t="s">
+      <c r="F87" s="570" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -30775,7 +30829,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="572"/>
+      <c r="F88" s="571"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -31087,23 +31141,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="511" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31113,24 +31167,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="552" t="s">
+      <c r="P3" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="573" t="s">
+      <c r="R3" s="572" t="s">
         <v>216</v>
       </c>
     </row>
@@ -31145,14 +31199,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="516" t="s">
+      <c r="E4" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="517"/>
-      <c r="H4" s="518" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="519"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -31162,15 +31216,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="553"/>
+      <c r="P4" s="552"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="574"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="573"/>
+      <c r="W4" s="561" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="561"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31231,8 +31285,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="561"/>
+      <c r="X5" s="561"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31989,7 +32043,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="565">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -32041,7 +32095,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="566"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32090,8 +32144,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="567"/>
+      <c r="X21" s="567"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32192,8 +32246,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="568"/>
+      <c r="X23" s="568"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32244,8 +32298,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="568"/>
+      <c r="X24" s="568"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32291,8 +32345,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="569"/>
+      <c r="X25" s="569"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32340,8 +32394,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="569"/>
+      <c r="X26" s="569"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32401,9 +32455,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="562"/>
+      <c r="X27" s="563"/>
+      <c r="Y27" s="564"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32457,9 +32511,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="563"/>
+      <c r="X28" s="563"/>
+      <c r="Y28" s="564"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32775,11 +32829,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="554">
+      <c r="M36" s="553">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="556">
+      <c r="N36" s="555">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -32787,7 +32841,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="558">
+      <c r="Q36" s="557">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -32806,13 +32860,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="555"/>
-      <c r="N37" s="557"/>
+      <c r="M37" s="554"/>
+      <c r="N37" s="556"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="559"/>
+      <c r="Q37" s="558"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -33086,26 +33140,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="531" t="s">
+      <c r="H52" s="530" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="532"/>
+      <c r="I52" s="531"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="533">
+      <c r="K52" s="532">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="560"/>
+      <c r="L52" s="559"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="537" t="s">
+      <c r="D53" s="536" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="537"/>
+      <c r="E53" s="536"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -33114,29 +33168,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="561" t="s">
+      <c r="D54" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="561"/>
+      <c r="E54" s="560"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="538" t="s">
+      <c r="I54" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="539"/>
-      <c r="K54" s="540">
+      <c r="J54" s="538"/>
+      <c r="K54" s="539">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="540"/>
-      <c r="M54" s="546" t="s">
+      <c r="L54" s="539"/>
+      <c r="M54" s="545" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="547"/>
-      <c r="O54" s="547"/>
-      <c r="P54" s="547"/>
-      <c r="Q54" s="548"/>
+      <c r="N54" s="546"/>
+      <c r="O54" s="546"/>
+      <c r="P54" s="546"/>
+      <c r="Q54" s="547"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -33150,11 +33204,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="549"/>
-      <c r="N55" s="550"/>
-      <c r="O55" s="550"/>
-      <c r="P55" s="550"/>
-      <c r="Q55" s="551"/>
+      <c r="M55" s="548"/>
+      <c r="N55" s="549"/>
+      <c r="O55" s="549"/>
+      <c r="P55" s="549"/>
+      <c r="Q55" s="550"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -33172,11 +33226,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="542">
+      <c r="K56" s="541">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="543"/>
+      <c r="L56" s="542"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -33193,22 +33247,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="520" t="s">
+      <c r="D58" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="521"/>
+      <c r="E58" s="520"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="522" t="s">
+      <c r="I58" s="521" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="523"/>
-      <c r="K58" s="524">
+      <c r="J58" s="522"/>
+      <c r="K58" s="523">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="524"/>
+      <c r="L58" s="523"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -35771,7 +35825,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="571" t="s">
+      <c r="F75" s="570" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -35784,7 +35838,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="572"/>
+      <c r="F76" s="571"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -36046,7 +36100,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -36076,23 +36130,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="575" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="574" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="576"/>
-      <c r="E1" s="576"/>
-      <c r="F1" s="576"/>
-      <c r="G1" s="576"/>
-      <c r="H1" s="576"/>
-      <c r="I1" s="576"/>
-      <c r="J1" s="576"/>
-      <c r="K1" s="576"/>
-      <c r="L1" s="576"/>
-      <c r="M1" s="576"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36102,24 +36156,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="552" t="s">
+      <c r="P3" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="573" t="s">
+      <c r="R3" s="572" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36134,14 +36188,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="516" t="s">
+      <c r="E4" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="517"/>
-      <c r="H4" s="518" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="519"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -36151,15 +36205,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="553"/>
+      <c r="P4" s="552"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="574"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="573"/>
+      <c r="W4" s="561" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="561"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36210,8 +36264,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="561"/>
+      <c r="X5" s="561"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36975,7 +37029,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="565">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -37028,7 +37082,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="566"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -37077,8 +37131,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="567"/>
+      <c r="X21" s="567"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -37178,8 +37232,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="568"/>
+      <c r="X23" s="568"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -37234,8 +37288,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="568"/>
+      <c r="X24" s="568"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37280,8 +37334,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="569"/>
+      <c r="X25" s="569"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37329,8 +37383,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="569"/>
+      <c r="X26" s="569"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37384,9 +37438,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="562"/>
+      <c r="X27" s="563"/>
+      <c r="Y27" s="564"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37440,9 +37494,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="563"/>
+      <c r="X28" s="563"/>
+      <c r="Y28" s="564"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37753,11 +37807,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="554">
+      <c r="M36" s="553">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="556">
+      <c r="N36" s="555">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -37765,7 +37819,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="558">
+      <c r="Q36" s="557">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -37790,13 +37844,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="555"/>
-      <c r="N37" s="557"/>
+      <c r="M37" s="554"/>
+      <c r="N37" s="556"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="559"/>
+      <c r="Q37" s="558"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -38089,26 +38143,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="531" t="s">
+      <c r="H52" s="530" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="532"/>
+      <c r="I52" s="531"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="533">
+      <c r="K52" s="532">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="560"/>
+      <c r="L52" s="559"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="537" t="s">
+      <c r="D53" s="536" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="537"/>
+      <c r="E53" s="536"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -38117,22 +38171,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="561" t="s">
+      <c r="D54" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="561"/>
+      <c r="E54" s="560"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="538" t="s">
+      <c r="I54" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="539"/>
-      <c r="K54" s="540">
+      <c r="J54" s="538"/>
+      <c r="K54" s="539">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="540"/>
+      <c r="L54" s="539"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -38173,11 +38227,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="542">
+      <c r="K56" s="541">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="543"/>
+      <c r="L56" s="542"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -38194,22 +38248,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="520" t="s">
+      <c r="D58" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="521"/>
+      <c r="E58" s="520"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="522" t="s">
+      <c r="I58" s="521" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="523"/>
-      <c r="K58" s="524">
+      <c r="J58" s="522"/>
+      <c r="K58" s="523">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="524"/>
+      <c r="L58" s="523"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -40078,12 +40132,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="577" t="s">
+      <c r="B43" s="576" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="578"/>
-      <c r="D43" s="578"/>
-      <c r="E43" s="579"/>
+      <c r="C43" s="577"/>
+      <c r="D43" s="577"/>
+      <c r="E43" s="578"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40111,10 +40165,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="580"/>
-      <c r="C44" s="581"/>
-      <c r="D44" s="581"/>
-      <c r="E44" s="582"/>
+      <c r="B44" s="579"/>
+      <c r="C44" s="580"/>
+      <c r="D44" s="580"/>
+      <c r="E44" s="581"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40142,10 +40196,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="583"/>
-      <c r="C45" s="584"/>
-      <c r="D45" s="584"/>
-      <c r="E45" s="585"/>
+      <c r="B45" s="582"/>
+      <c r="C45" s="583"/>
+      <c r="D45" s="583"/>
+      <c r="E45" s="584"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40188,10 +40242,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="592" t="s">
+      <c r="B47" s="591" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="593"/>
+      <c r="C47" s="592"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -40213,8 +40267,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="594"/>
-      <c r="C48" s="595"/>
+      <c r="B48" s="593"/>
+      <c r="C48" s="594"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -40222,11 +40276,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="586" t="s">
+      <c r="J48" s="585" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="587"/>
-      <c r="L48" s="588"/>
+      <c r="K48" s="586"/>
+      <c r="L48" s="587"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -40244,9 +40298,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="589"/>
-      <c r="K49" s="590"/>
-      <c r="L49" s="591"/>
+      <c r="J49" s="588"/>
+      <c r="K49" s="589"/>
+      <c r="L49" s="590"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -40263,10 +40317,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="596" t="s">
+      <c r="I50" s="595" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="597"/>
+      <c r="J50" s="596"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -40287,8 +40341,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="596"/>
-      <c r="J51" s="597"/>
+      <c r="I51" s="595"/>
+      <c r="J51" s="596"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -40307,8 +40361,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="596"/>
-      <c r="J52" s="597"/>
+      <c r="I52" s="595"/>
+      <c r="J52" s="596"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -40327,8 +40381,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="596"/>
-      <c r="J53" s="597"/>
+      <c r="I53" s="595"/>
+      <c r="J53" s="596"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -40347,8 +40401,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="596"/>
-      <c r="J54" s="597"/>
+      <c r="I54" s="595"/>
+      <c r="J54" s="596"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -40367,8 +40421,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="596"/>
-      <c r="J55" s="597"/>
+      <c r="I55" s="595"/>
+      <c r="J55" s="596"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -40387,8 +40441,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="596"/>
-      <c r="J56" s="597"/>
+      <c r="I56" s="595"/>
+      <c r="J56" s="596"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -40407,8 +40461,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="596"/>
-      <c r="J57" s="597"/>
+      <c r="I57" s="595"/>
+      <c r="J57" s="596"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -40427,8 +40481,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="596"/>
-      <c r="J58" s="597"/>
+      <c r="I58" s="595"/>
+      <c r="J58" s="596"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -40447,8 +40501,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="596"/>
-      <c r="J59" s="597"/>
+      <c r="I59" s="595"/>
+      <c r="J59" s="596"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -40467,8 +40521,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="596"/>
-      <c r="J60" s="597"/>
+      <c r="I60" s="595"/>
+      <c r="J60" s="596"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -40487,8 +40541,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="596"/>
-      <c r="J61" s="597"/>
+      <c r="I61" s="595"/>
+      <c r="J61" s="596"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -40507,8 +40561,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="596"/>
-      <c r="J62" s="597"/>
+      <c r="I62" s="595"/>
+      <c r="J62" s="596"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -40527,8 +40581,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="596"/>
-      <c r="J63" s="597"/>
+      <c r="I63" s="595"/>
+      <c r="J63" s="596"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -40547,8 +40601,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="596"/>
-      <c r="J64" s="597"/>
+      <c r="I64" s="595"/>
+      <c r="J64" s="596"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -40567,8 +40621,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="596"/>
-      <c r="J65" s="597"/>
+      <c r="I65" s="595"/>
+      <c r="J65" s="596"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -40587,8 +40641,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="596"/>
-      <c r="J66" s="597"/>
+      <c r="I66" s="595"/>
+      <c r="J66" s="596"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -40607,8 +40661,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="596"/>
-      <c r="J67" s="597"/>
+      <c r="I67" s="595"/>
+      <c r="J67" s="596"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -40627,8 +40681,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="596"/>
-      <c r="J68" s="597"/>
+      <c r="I68" s="595"/>
+      <c r="J68" s="596"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -40647,8 +40701,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="596"/>
-      <c r="J69" s="597"/>
+      <c r="I69" s="595"/>
+      <c r="J69" s="596"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -40667,8 +40721,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="596"/>
-      <c r="J70" s="597"/>
+      <c r="I70" s="595"/>
+      <c r="J70" s="596"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -40687,8 +40741,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="596"/>
-      <c r="J71" s="597"/>
+      <c r="I71" s="595"/>
+      <c r="J71" s="596"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -40707,8 +40761,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="596"/>
-      <c r="J72" s="597"/>
+      <c r="I72" s="595"/>
+      <c r="J72" s="596"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -40727,8 +40781,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="596"/>
-      <c r="J73" s="597"/>
+      <c r="I73" s="595"/>
+      <c r="J73" s="596"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -40747,8 +40801,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="596"/>
-      <c r="J74" s="597"/>
+      <c r="I74" s="595"/>
+      <c r="J74" s="596"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -40767,8 +40821,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="596"/>
-      <c r="J75" s="597"/>
+      <c r="I75" s="595"/>
+      <c r="J75" s="596"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -40787,8 +40841,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="596"/>
-      <c r="J76" s="597"/>
+      <c r="I76" s="595"/>
+      <c r="J76" s="596"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -40807,8 +40861,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="596"/>
-      <c r="J77" s="597"/>
+      <c r="I77" s="595"/>
+      <c r="J77" s="596"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -40829,8 +40883,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="598"/>
-      <c r="J78" s="599"/>
+      <c r="I78" s="597"/>
+      <c r="J78" s="598"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -40875,7 +40929,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="571" t="s">
+      <c r="F80" s="570" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -40887,7 +40941,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="572"/>
+      <c r="F81" s="571"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -41145,8 +41199,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -41175,23 +41229,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="575" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" s="576"/>
-      <c r="E1" s="576"/>
-      <c r="F1" s="576"/>
-      <c r="G1" s="576"/>
-      <c r="H1" s="576"/>
-      <c r="I1" s="576"/>
-      <c r="J1" s="576"/>
-      <c r="K1" s="576"/>
-      <c r="L1" s="576"/>
-      <c r="M1" s="576"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="574" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41201,24 +41255,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="552" t="s">
+      <c r="P3" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="573" t="s">
+      <c r="R3" s="572" t="s">
         <v>216</v>
       </c>
     </row>
@@ -41233,14 +41287,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="516" t="s">
+      <c r="E4" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="517"/>
-      <c r="H4" s="518" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="519"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41250,15 +41304,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="553"/>
+      <c r="P4" s="552"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="574"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="573"/>
+      <c r="W4" s="561" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="561"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41309,8 +41363,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="561"/>
+      <c r="X5" s="561"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42071,7 +42125,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="565">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -42123,7 +42177,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="566"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42172,8 +42226,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="567"/>
+      <c r="X21" s="567"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42272,8 +42326,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="568"/>
+      <c r="X23" s="568"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42328,8 +42382,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="568"/>
+      <c r="X24" s="568"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42377,8 +42431,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="569"/>
+      <c r="X25" s="569"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42426,8 +42480,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="569"/>
+      <c r="X26" s="569"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42475,9 +42529,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="562"/>
+      <c r="X27" s="563"/>
+      <c r="Y27" s="564"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42525,9 +42579,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="563"/>
+      <c r="X28" s="563"/>
+      <c r="Y28" s="564"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42868,11 +42922,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="554">
+      <c r="M36" s="553">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="556">
+      <c r="N36" s="555">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -42880,7 +42934,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="600">
+      <c r="Q36" s="599">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -42905,13 +42959,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="555"/>
-      <c r="N37" s="557"/>
+      <c r="M37" s="554"/>
+      <c r="N37" s="556"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="601"/>
+      <c r="Q37" s="600"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -42961,11 +43015,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="602">
+      <c r="M39" s="601">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="603"/>
+      <c r="N39" s="602"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -43213,26 +43267,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="531" t="s">
+      <c r="H52" s="530" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="532"/>
+      <c r="I52" s="531"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="533">
+      <c r="K52" s="532">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="560"/>
+      <c r="L52" s="559"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="537" t="s">
+      <c r="D53" s="536" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="537"/>
+      <c r="E53" s="536"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -43241,22 +43295,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="561" t="s">
+      <c r="D54" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="561"/>
+      <c r="E54" s="560"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="538" t="s">
+      <c r="I54" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="539"/>
-      <c r="K54" s="540">
+      <c r="J54" s="538"/>
+      <c r="K54" s="539">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="540"/>
+      <c r="L54" s="539"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -43297,11 +43351,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="542">
+      <c r="K56" s="541">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="543"/>
+      <c r="L56" s="542"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43318,22 +43372,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="520" t="s">
+      <c r="D58" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="521"/>
+      <c r="E58" s="520"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="522" t="s">
+      <c r="I58" s="521" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="523"/>
-      <c r="K58" s="524">
+      <c r="J58" s="522"/>
+      <c r="K58" s="523">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="524"/>
+      <c r="L58" s="523"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="654">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2494,6 +2494,15 @@
   </si>
   <si>
     <t>Nomina # 17 y vacaciones Pedro</t>
+  </si>
+  <si>
+    <t>QUESOS-CHORIZO-LONGANIZA-TOCINETA-CHISTORRA</t>
+  </si>
+  <si>
+    <t>POLLO-CHORIZO-CHISTORRA-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-JAMON-</t>
   </si>
 </sst>
 </file>
@@ -4300,7 +4309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="614">
+  <cellXfs count="624">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5317,38 +5326,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5422,10 +5404,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5469,39 +5517,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5629,12 +5644,20 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9058,23 +9081,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9084,17 +9107,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9108,14 +9131,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="515" t="s">
+      <c r="E4" s="541" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="516"/>
-      <c r="H4" s="517" t="s">
+      <c r="F4" s="542"/>
+      <c r="H4" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="518"/>
+      <c r="I4" s="544"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9125,10 +9148,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="524" t="s">
+      <c r="P4" s="515" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="525"/>
+      <c r="Q4" s="516"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10569,11 +10592,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="526">
+      <c r="M39" s="517">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="528">
+      <c r="N39" s="519">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10599,8 +10622,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="527"/>
-      <c r="N40" s="529"/>
+      <c r="M40" s="518"/>
+      <c r="N40" s="520"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10815,29 +10838,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="530" t="s">
+      <c r="H52" s="521" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="531"/>
+      <c r="I52" s="522"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="532">
+      <c r="K52" s="523">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="533"/>
-      <c r="M52" s="534">
+      <c r="L52" s="524"/>
+      <c r="M52" s="525">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="535"/>
+      <c r="N52" s="526"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="536" t="s">
+      <c r="D53" s="527" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="536"/>
+      <c r="E53" s="527"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10848,22 +10871,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="536" t="s">
+      <c r="D54" s="527" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="536"/>
+      <c r="E54" s="527"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="537" t="s">
+      <c r="I54" s="528" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="538"/>
-      <c r="K54" s="539">
+      <c r="J54" s="529"/>
+      <c r="K54" s="530">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="540"/>
+      <c r="L54" s="531"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10896,11 +10919,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="541">
+      <c r="K56" s="532">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="542"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10917,22 +10940,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="519" t="s">
+      <c r="D58" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="520"/>
+      <c r="E58" s="511"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="521" t="s">
+      <c r="I58" s="512" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="522"/>
-      <c r="K58" s="523">
+      <c r="J58" s="513"/>
+      <c r="K58" s="514">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="523"/>
+      <c r="L58" s="514"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -11076,6 +11099,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -11090,12 +11119,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13556,10 +13579,10 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I76" s="604" t="s">
+      <c r="I76" s="606" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="605"/>
+      <c r="J76" s="607"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13578,8 +13601,8 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I77" s="606"/>
-      <c r="J77" s="607"/>
+      <c r="I77" s="608"/>
+      <c r="J77" s="609"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -13646,7 +13669,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="570" t="s">
+      <c r="F80" s="572" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -13661,7 +13684,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="571"/>
+      <c r="F81" s="573"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13669,10 +13692,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="603" t="s">
+      <c r="B82" s="605" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="603"/>
+      <c r="C82" s="605"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -13954,23 +13977,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="576" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13980,24 +14003,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="551" t="s">
+      <c r="P3" s="564" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="572" t="s">
+      <c r="R3" s="574" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14012,14 +14035,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="515" t="s">
+      <c r="E4" s="541" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="516"/>
-      <c r="H4" s="517" t="s">
+      <c r="F4" s="542"/>
+      <c r="H4" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="518"/>
+      <c r="I4" s="544"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14029,15 +14052,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="552"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="573"/>
-      <c r="W4" s="561" t="s">
+      <c r="R4" s="575"/>
+      <c r="W4" s="547" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="561"/>
+      <c r="X4" s="547"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14088,8 +14111,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="561"/>
-      <c r="X5" s="561"/>
+      <c r="W5" s="547"/>
+      <c r="X5" s="547"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14852,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="565">
+      <c r="W19" s="551">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14904,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="566"/>
+      <c r="W20" s="552"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14953,8 +14976,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="567"/>
-      <c r="X21" s="567"/>
+      <c r="W21" s="553"/>
+      <c r="X21" s="553"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15054,8 +15077,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="568"/>
-      <c r="X23" s="568"/>
+      <c r="W23" s="554"/>
+      <c r="X23" s="554"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15110,8 +15133,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="568"/>
-      <c r="X24" s="568"/>
+      <c r="W24" s="554"/>
+      <c r="X24" s="554"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15159,8 +15182,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="569"/>
-      <c r="X25" s="569"/>
+      <c r="W25" s="555"/>
+      <c r="X25" s="555"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15209,8 +15232,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="569"/>
-      <c r="X26" s="569"/>
+      <c r="W26" s="555"/>
+      <c r="X26" s="555"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15258,9 +15281,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="562"/>
-      <c r="X27" s="563"/>
-      <c r="Y27" s="564"/>
+      <c r="W27" s="548"/>
+      <c r="X27" s="549"/>
+      <c r="Y27" s="550"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15308,9 +15331,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="563"/>
-      <c r="X28" s="563"/>
-      <c r="Y28" s="564"/>
+      <c r="W28" s="549"/>
+      <c r="X28" s="549"/>
+      <c r="Y28" s="550"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15642,11 +15665,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="553">
+      <c r="M36" s="566">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="555">
+      <c r="N36" s="568">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15654,7 +15677,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="599">
+      <c r="Q36" s="601">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -15679,13 +15702,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="554"/>
-      <c r="N37" s="556"/>
+      <c r="M37" s="567"/>
+      <c r="N37" s="569"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="600"/>
+      <c r="Q37" s="602"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -15730,11 +15753,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="601">
+      <c r="M39" s="603">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="602"/>
+      <c r="N39" s="604"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -15994,26 +16017,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="530" t="s">
+      <c r="H52" s="521" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="531"/>
+      <c r="I52" s="522"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="532">
+      <c r="K52" s="523">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="559"/>
+      <c r="L52" s="556"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="536" t="s">
+      <c r="D53" s="527" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="536"/>
+      <c r="E53" s="527"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -16022,22 +16045,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="560" t="s">
+      <c r="D54" s="557" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="560"/>
+      <c r="E54" s="557"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="537" t="s">
+      <c r="I54" s="528" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="538"/>
-      <c r="K54" s="539">
+      <c r="J54" s="529"/>
+      <c r="K54" s="530">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="539"/>
+      <c r="L54" s="530"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16078,11 +16101,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="541">
+      <c r="K56" s="532">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="542"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16099,22 +16122,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="519" t="s">
+      <c r="D58" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="520"/>
+      <c r="E58" s="511"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="521" t="s">
+      <c r="I58" s="512" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="522"/>
-      <c r="K58" s="523">
+      <c r="J58" s="513"/>
+      <c r="K58" s="514">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="523"/>
+      <c r="L58" s="514"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16258,6 +16281,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -16273,21 +16311,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18466,7 +18489,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="570" t="s">
+      <c r="F80" s="572" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18479,7 +18502,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="571"/>
+      <c r="F81" s="573"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18499,16 +18522,16 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="608" t="s">
+      <c r="I83" s="610" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="609"/>
+      <c r="J83" s="611"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="442"/>
-      <c r="I84" s="610"/>
-      <c r="J84" s="611"/>
+      <c r="I84" s="612"/>
+      <c r="J84" s="613"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -18775,8 +18798,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18805,23 +18828,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="576" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18831,24 +18854,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="551" t="s">
+      <c r="P3" s="564" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="572" t="s">
+      <c r="R3" s="574" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18863,14 +18886,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="515" t="s">
+      <c r="E4" s="541" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="516"/>
-      <c r="H4" s="517" t="s">
+      <c r="F4" s="542"/>
+      <c r="H4" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="518"/>
+      <c r="I4" s="544"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18880,15 +18903,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="552"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="573"/>
-      <c r="W4" s="561" t="s">
+      <c r="R4" s="575"/>
+      <c r="W4" s="547" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="561"/>
+      <c r="X4" s="547"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18939,8 +18962,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="561"/>
-      <c r="X5" s="561"/>
+      <c r="W5" s="547"/>
+      <c r="X5" s="547"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19087,7 +19110,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="39">
-        <f t="shared" ref="P8:P32" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
         <v>76401</v>
       </c>
       <c r="Q8" s="325">
@@ -19699,7 +19722,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="565">
+      <c r="W19" s="551">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19751,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="566"/>
+      <c r="W20" s="552"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19800,8 +19823,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="567"/>
-      <c r="X21" s="567"/>
+      <c r="W21" s="553"/>
+      <c r="X21" s="553"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19898,8 +19921,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="568"/>
-      <c r="X23" s="568"/>
+      <c r="W23" s="554"/>
+      <c r="X23" s="554"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19954,8 +19977,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="568"/>
-      <c r="X24" s="568"/>
+      <c r="W24" s="554"/>
+      <c r="X24" s="554"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20001,8 +20024,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="569"/>
-      <c r="X25" s="569"/>
+      <c r="W25" s="555"/>
+      <c r="X25" s="555"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20051,8 +20074,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="569"/>
-      <c r="X26" s="569"/>
+      <c r="W26" s="555"/>
+      <c r="X26" s="555"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20101,9 +20124,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="562"/>
-      <c r="X27" s="563"/>
-      <c r="Y27" s="564"/>
+      <c r="W27" s="548"/>
+      <c r="X27" s="549"/>
+      <c r="Y27" s="550"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20151,9 +20174,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="563"/>
-      <c r="X28" s="563"/>
-      <c r="Y28" s="564"/>
+      <c r="W28" s="549"/>
+      <c r="X28" s="549"/>
+      <c r="Y28" s="550"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20288,23 +20311,27 @@
       <c r="J31" s="60">
         <v>44674</v>
       </c>
-      <c r="K31" s="613" t="s">
+      <c r="K31" s="509" t="s">
         <v>649</v>
       </c>
       <c r="L31" s="63">
         <f>19296.22+4821.43</f>
         <v>24117.65</v>
       </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
+      <c r="M31" s="32">
+        <v>31075</v>
+      </c>
+      <c r="N31" s="33">
+        <v>55991</v>
+      </c>
       <c r="O31" s="425"/>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
-        <v>41235.65</v>
+        <v>128301.65</v>
       </c>
       <c r="Q31" s="325">
         <f t="shared" si="0"/>
-        <v>-87068.35</v>
+        <v>-2.3500000000058208</v>
       </c>
       <c r="R31" s="319">
         <v>0</v>
@@ -20318,26 +20345,38 @@
       <c r="B32" s="24">
         <v>44675</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="25">
+        <v>30785</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>651</v>
+      </c>
       <c r="E32" s="27">
         <v>44675</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>83944</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="36">
         <v>44675</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="30">
+        <v>812</v>
+      </c>
       <c r="J32" s="60"/>
       <c r="K32" s="41"/>
       <c r="L32" s="61"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="33"/>
+      <c r="M32" s="32">
+        <v>32579</v>
+      </c>
+      <c r="N32" s="33">
+        <v>19768</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83944</v>
       </c>
       <c r="Q32" s="325">
         <f t="shared" si="0"/>
@@ -20355,28 +20394,42 @@
       <c r="B33" s="24">
         <v>44676</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="25">
+        <v>6587</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>652</v>
+      </c>
       <c r="E33" s="27">
         <v>44676</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28">
+        <v>122505</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="36">
         <v>44676</v>
       </c>
-      <c r="I33" s="30"/>
+      <c r="I33" s="30">
+        <v>2206</v>
+      </c>
       <c r="J33" s="60"/>
       <c r="K33" s="247"/>
       <c r="L33" s="66"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
+      <c r="M33" s="32">
+        <f>69877+15079</f>
+        <v>84956</v>
+      </c>
+      <c r="N33" s="33">
+        <v>28756</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="34">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>122505</v>
       </c>
       <c r="Q33" s="111">
-        <f t="shared" ref="Q33:Q35" si="2">P33-F33</f>
+        <f t="shared" ref="Q33:Q40" si="2">P33-F33</f>
         <v>0</v>
       </c>
       <c r="R33" s="228"/>
@@ -20390,24 +20443,29 @@
       <c r="B34" s="24">
         <v>44677</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="27">
+      <c r="C34" s="617"/>
+      <c r="D34" s="618"/>
+      <c r="E34" s="619">
         <v>44677</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="36">
+      <c r="F34" s="620"/>
+      <c r="G34" s="621"/>
+      <c r="H34" s="622">
         <v>44677</v>
       </c>
-      <c r="I34" s="30"/>
+      <c r="I34" s="623"/>
       <c r="J34" s="266"/>
       <c r="K34" s="248"/>
       <c r="L34" s="44"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="33"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="111">
@@ -20421,34 +20479,45 @@
       <c r="B35" s="24">
         <v>44678</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="65"/>
+      <c r="C35" s="25">
+        <v>16685</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>653</v>
+      </c>
       <c r="E35" s="27">
         <v>44678</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="28">
+        <v>88630</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="36">
         <v>44678</v>
       </c>
-      <c r="I35" s="30"/>
+      <c r="I35" s="30">
+        <v>3261.5</v>
+      </c>
       <c r="J35" s="266"/>
       <c r="K35" s="249"/>
       <c r="L35" s="66"/>
       <c r="M35" s="267">
-        <v>0</v>
+        <v>46181.5</v>
       </c>
       <c r="N35" s="268">
-        <v>0</v>
-      </c>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="111">
+        <v>22500</v>
+      </c>
+      <c r="P35" s="34">
+        <f t="shared" si="1"/>
+        <v>88628</v>
+      </c>
+      <c r="Q35" s="287">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R35" s="228"/>
     </row>
-    <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="24">
         <v>44679</v>
@@ -20467,25 +20536,24 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="553">
-        <f>SUM(M5:M35)</f>
-        <v>1883410.11</v>
-      </c>
-      <c r="N36" s="555">
-        <f>SUM(N5:N35)</f>
-        <v>869521</v>
+      <c r="M36" s="267">
+        <v>0</v>
+      </c>
+      <c r="N36" s="268">
+        <v>0</v>
       </c>
       <c r="O36" s="276"/>
-      <c r="P36" s="277">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="599">
-        <f>SUM(Q5:Q35)</f>
-        <v>-87064.37000000001</v>
+      <c r="P36" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R36" s="228"/>
     </row>
-    <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="24">
         <v>44680</v>
@@ -20504,13 +20572,21 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="554"/>
-      <c r="N37" s="556"/>
+      <c r="M37" s="267">
+        <v>0</v>
+      </c>
+      <c r="N37" s="268">
+        <v>0</v>
+      </c>
       <c r="O37" s="276"/>
-      <c r="P37" s="277">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="600"/>
+      <c r="P37" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20534,14 +20610,22 @@
       <c r="J38" s="60"/>
       <c r="K38" s="177"/>
       <c r="L38" s="61"/>
-      <c r="M38" s="270"/>
-      <c r="N38" s="271"/>
-      <c r="P38" s="151">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="274"/>
-    </row>
-    <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="267">
+        <v>0</v>
+      </c>
+      <c r="N38" s="268">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="24">
         <v>44682</v>
@@ -20560,16 +20644,20 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="601">
-        <f>M36+N36</f>
-        <v>2752931.1100000003</v>
-      </c>
-      <c r="N39" s="602"/>
+      <c r="M39" s="267">
+        <v>0</v>
+      </c>
+      <c r="N39" s="268">
+        <v>0</v>
+      </c>
       <c r="P39" s="34">
-        <f>SUM(P5:P38)</f>
-        <v>3279418.2399999998</v>
-      </c>
-      <c r="Q39" s="275"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
@@ -20584,10 +20672,20 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="278"/>
-      <c r="N40" s="278"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="13"/>
+      <c r="M40" s="267">
+        <v>0</v>
+      </c>
+      <c r="N40" s="268">
+        <v>0</v>
+      </c>
+      <c r="P40" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
@@ -20608,10 +20706,22 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="269"/>
-      <c r="N41" s="269"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="13"/>
+      <c r="M41" s="566">
+        <f>SUM(M5:M40)</f>
+        <v>2078201.61</v>
+      </c>
+      <c r="N41" s="566">
+        <f>SUM(N5:N40)</f>
+        <v>996536</v>
+      </c>
+      <c r="P41" s="616">
+        <f>SUM(P5:P40)</f>
+        <v>3661561.2399999998</v>
+      </c>
+      <c r="Q41" s="601">
+        <f>SUM(Q5:Q40)</f>
+        <v>-0.3700000000098953</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
@@ -20632,10 +20742,10 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="269"/>
-      <c r="N42" s="269"/>
+      <c r="M42" s="567"/>
+      <c r="N42" s="567"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="13"/>
+      <c r="Q42" s="602"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -20674,7 +20784,7 @@
       <c r="J44" s="60">
         <v>44674</v>
       </c>
-      <c r="K44" s="612" t="s">
+      <c r="K44" s="508" t="s">
         <v>650</v>
       </c>
       <c r="L44" s="61">
@@ -20699,8 +20809,11 @@
       <c r="J45" s="60"/>
       <c r="K45" s="41"/>
       <c r="L45" s="61"/>
-      <c r="M45" s="269"/>
-      <c r="N45" s="269"/>
+      <c r="M45" s="614">
+        <f>M41+N41</f>
+        <v>3074737.6100000003</v>
+      </c>
+      <c r="N45" s="615"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -20783,7 +20896,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>364315.5</v>
+        <v>418372.5</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -20791,7 +20904,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>3253467</v>
+        <v>3548546</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -20799,7 +20912,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>80870</v>
+        <v>87149.5</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -20825,50 +20938,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="530" t="s">
+      <c r="H52" s="521" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="531"/>
+      <c r="I52" s="522"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="532">
+      <c r="K52" s="523">
         <f>I50+L50</f>
-        <v>228387.34000000003</v>
-      </c>
-      <c r="L52" s="559"/>
+        <v>234666.84000000003</v>
+      </c>
+      <c r="L52" s="556"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="536" t="s">
+      <c r="D53" s="527" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="536"/>
+      <c r="E53" s="527"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>2660764.16</v>
+        <v>2895506.66</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="560" t="s">
+      <c r="D54" s="557" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="560"/>
+      <c r="E54" s="557"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="537" t="s">
+      <c r="I54" s="528" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="538"/>
-      <c r="K54" s="539">
+      <c r="J54" s="529"/>
+      <c r="K54" s="530">
         <f>F56+F57+F58</f>
-        <v>2660764.16</v>
-      </c>
-      <c r="L54" s="539"/>
+        <v>2895506.66</v>
+      </c>
+      <c r="L54" s="530"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -20902,18 +21015,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>2660764.16</v>
+        <v>2895506.66</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="541">
+      <c r="K56" s="532">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="542"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -20928,22 +21041,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="519" t="s">
+      <c r="D58" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="520"/>
+      <c r="E58" s="511"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="521" t="s">
+      <c r="I58" s="512" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="522"/>
-      <c r="K58" s="523">
+      <c r="J58" s="513"/>
+      <c r="K58" s="514">
         <f>K54+K56</f>
-        <v>867946.48000000021</v>
-      </c>
-      <c r="L58" s="523"/>
+        <v>1102688.9800000002</v>
+      </c>
+      <c r="L58" s="514"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21087,6 +21200,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -21102,21 +21230,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22778,7 +22891,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="570" t="s">
+      <c r="F80" s="572" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22791,7 +22904,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="571"/>
+      <c r="F81" s="573"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22810,16 +22923,16 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="608" t="s">
+      <c r="I83" s="610" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="609"/>
+      <c r="J83" s="611"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="442"/>
-      <c r="I84" s="610"/>
-      <c r="J84" s="611"/>
+      <c r="I84" s="612"/>
+      <c r="J84" s="613"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24436,7 +24549,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="543" t="s">
+      <c r="B41" s="545" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -24468,7 +24581,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="544"/>
+      <c r="B42" s="546"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -26064,23 +26177,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26090,21 +26203,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="551" t="s">
+      <c r="P3" s="564" t="s">
         <v>6</v>
       </c>
     </row>
@@ -26119,14 +26232,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="515" t="s">
+      <c r="E4" s="541" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="516"/>
-      <c r="H4" s="517" t="s">
+      <c r="F4" s="542"/>
+      <c r="H4" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="518"/>
+      <c r="I4" s="544"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -26136,14 +26249,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="552"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="561" t="s">
+      <c r="W4" s="547" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="561"/>
+      <c r="X4" s="547"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26194,8 +26307,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="561"/>
-      <c r="X5" s="561"/>
+      <c r="W5" s="547"/>
+      <c r="X5" s="547"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26966,7 +27079,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="565">
+      <c r="W19" s="551">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -27018,7 +27131,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="566"/>
+      <c r="W20" s="552"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -27067,8 +27180,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="567"/>
-      <c r="X21" s="567"/>
+      <c r="W21" s="553"/>
+      <c r="X21" s="553"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27169,8 +27282,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="568"/>
-      <c r="X23" s="568"/>
+      <c r="W23" s="554"/>
+      <c r="X23" s="554"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27224,8 +27337,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="568"/>
-      <c r="X24" s="568"/>
+      <c r="W24" s="554"/>
+      <c r="X24" s="554"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27271,8 +27384,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="569"/>
-      <c r="X25" s="569"/>
+      <c r="W25" s="555"/>
+      <c r="X25" s="555"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27323,8 +27436,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="569"/>
-      <c r="X26" s="569"/>
+      <c r="W26" s="555"/>
+      <c r="X26" s="555"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27372,9 +27485,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="562"/>
-      <c r="X27" s="563"/>
-      <c r="Y27" s="564"/>
+      <c r="W27" s="548"/>
+      <c r="X27" s="549"/>
+      <c r="Y27" s="550"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27424,9 +27537,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="563"/>
-      <c r="X28" s="563"/>
-      <c r="Y28" s="564"/>
+      <c r="W28" s="549"/>
+      <c r="X28" s="549"/>
+      <c r="Y28" s="550"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27761,11 +27874,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="553">
+      <c r="M36" s="566">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="555">
+      <c r="N36" s="568">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -27773,7 +27886,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="557">
+      <c r="Q36" s="570">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -27808,13 +27921,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="554"/>
-      <c r="N37" s="556"/>
+      <c r="M37" s="567"/>
+      <c r="N37" s="569"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="558"/>
+      <c r="Q37" s="571"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -28104,26 +28217,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="530" t="s">
+      <c r="H52" s="521" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="531"/>
+      <c r="I52" s="522"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="532">
+      <c r="K52" s="523">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="559"/>
+      <c r="L52" s="556"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="536" t="s">
+      <c r="D53" s="527" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="536"/>
+      <c r="E53" s="527"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -28132,29 +28245,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="560" t="s">
+      <c r="D54" s="557" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="560"/>
+      <c r="E54" s="557"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="537" t="s">
+      <c r="I54" s="528" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="538"/>
-      <c r="K54" s="539">
+      <c r="J54" s="529"/>
+      <c r="K54" s="530">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="539"/>
-      <c r="M54" s="545" t="s">
+      <c r="L54" s="530"/>
+      <c r="M54" s="558" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="546"/>
-      <c r="O54" s="546"/>
-      <c r="P54" s="546"/>
-      <c r="Q54" s="547"/>
+      <c r="N54" s="559"/>
+      <c r="O54" s="559"/>
+      <c r="P54" s="559"/>
+      <c r="Q54" s="560"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -28168,11 +28281,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="548"/>
-      <c r="N55" s="549"/>
-      <c r="O55" s="549"/>
-      <c r="P55" s="549"/>
-      <c r="Q55" s="550"/>
+      <c r="M55" s="561"/>
+      <c r="N55" s="562"/>
+      <c r="O55" s="562"/>
+      <c r="P55" s="562"/>
+      <c r="Q55" s="563"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -28190,11 +28303,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="541">
+      <c r="K56" s="532">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="542"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28211,22 +28324,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="519" t="s">
+      <c r="D58" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="520"/>
+      <c r="E58" s="511"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="521" t="s">
+      <c r="I58" s="512" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="522"/>
-      <c r="K58" s="523">
+      <c r="J58" s="513"/>
+      <c r="K58" s="514">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="523"/>
+      <c r="L58" s="514"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28370,14 +28483,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -28388,17 +28504,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30816,7 +30929,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="570" t="s">
+      <c r="F87" s="572" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -30829,7 +30942,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="571"/>
+      <c r="F88" s="573"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -31141,23 +31254,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31167,24 +31280,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="551" t="s">
+      <c r="P3" s="564" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="572" t="s">
+      <c r="R3" s="574" t="s">
         <v>216</v>
       </c>
     </row>
@@ -31199,14 +31312,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="515" t="s">
+      <c r="E4" s="541" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="516"/>
-      <c r="H4" s="517" t="s">
+      <c r="F4" s="542"/>
+      <c r="H4" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="518"/>
+      <c r="I4" s="544"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -31216,15 +31329,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="552"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="573"/>
-      <c r="W4" s="561" t="s">
+      <c r="R4" s="575"/>
+      <c r="W4" s="547" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="561"/>
+      <c r="X4" s="547"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31285,8 +31398,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="561"/>
-      <c r="X5" s="561"/>
+      <c r="W5" s="547"/>
+      <c r="X5" s="547"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32043,7 +32156,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="565">
+      <c r="W19" s="551">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -32095,7 +32208,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="566"/>
+      <c r="W20" s="552"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32144,8 +32257,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="567"/>
-      <c r="X21" s="567"/>
+      <c r="W21" s="553"/>
+      <c r="X21" s="553"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32246,8 +32359,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="568"/>
-      <c r="X23" s="568"/>
+      <c r="W23" s="554"/>
+      <c r="X23" s="554"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32298,8 +32411,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="568"/>
-      <c r="X24" s="568"/>
+      <c r="W24" s="554"/>
+      <c r="X24" s="554"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32345,8 +32458,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="569"/>
-      <c r="X25" s="569"/>
+      <c r="W25" s="555"/>
+      <c r="X25" s="555"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32394,8 +32507,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="569"/>
-      <c r="X26" s="569"/>
+      <c r="W26" s="555"/>
+      <c r="X26" s="555"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32455,9 +32568,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="562"/>
-      <c r="X27" s="563"/>
-      <c r="Y27" s="564"/>
+      <c r="W27" s="548"/>
+      <c r="X27" s="549"/>
+      <c r="Y27" s="550"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32511,9 +32624,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="563"/>
-      <c r="X28" s="563"/>
-      <c r="Y28" s="564"/>
+      <c r="W28" s="549"/>
+      <c r="X28" s="549"/>
+      <c r="Y28" s="550"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32829,11 +32942,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="553">
+      <c r="M36" s="566">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="555">
+      <c r="N36" s="568">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -32841,7 +32954,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="557">
+      <c r="Q36" s="570">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -32860,13 +32973,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="554"/>
-      <c r="N37" s="556"/>
+      <c r="M37" s="567"/>
+      <c r="N37" s="569"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="558"/>
+      <c r="Q37" s="571"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -33140,26 +33253,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="530" t="s">
+      <c r="H52" s="521" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="531"/>
+      <c r="I52" s="522"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="532">
+      <c r="K52" s="523">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="559"/>
+      <c r="L52" s="556"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="536" t="s">
+      <c r="D53" s="527" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="536"/>
+      <c r="E53" s="527"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -33168,29 +33281,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="560" t="s">
+      <c r="D54" s="557" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="560"/>
+      <c r="E54" s="557"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="537" t="s">
+      <c r="I54" s="528" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="538"/>
-      <c r="K54" s="539">
+      <c r="J54" s="529"/>
+      <c r="K54" s="530">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="539"/>
-      <c r="M54" s="545" t="s">
+      <c r="L54" s="530"/>
+      <c r="M54" s="558" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="546"/>
-      <c r="O54" s="546"/>
-      <c r="P54" s="546"/>
-      <c r="Q54" s="547"/>
+      <c r="N54" s="559"/>
+      <c r="O54" s="559"/>
+      <c r="P54" s="559"/>
+      <c r="Q54" s="560"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -33204,11 +33317,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="548"/>
-      <c r="N55" s="549"/>
-      <c r="O55" s="549"/>
-      <c r="P55" s="549"/>
-      <c r="Q55" s="550"/>
+      <c r="M55" s="561"/>
+      <c r="N55" s="562"/>
+      <c r="O55" s="562"/>
+      <c r="P55" s="562"/>
+      <c r="Q55" s="563"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -33226,11 +33339,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="541">
+      <c r="K56" s="532">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="542"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -33247,22 +33360,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="519" t="s">
+      <c r="D58" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="520"/>
+      <c r="E58" s="511"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="521" t="s">
+      <c r="I58" s="512" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="522"/>
-      <c r="K58" s="523">
+      <c r="J58" s="513"/>
+      <c r="K58" s="514">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="523"/>
+      <c r="L58" s="514"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -33406,20 +33519,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -33429,13 +33535,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35825,7 +35938,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="570" t="s">
+      <c r="F75" s="572" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -35838,7 +35951,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="571"/>
+      <c r="F76" s="573"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -36130,23 +36243,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="576" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36156,24 +36269,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="551" t="s">
+      <c r="P3" s="564" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="572" t="s">
+      <c r="R3" s="574" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36188,14 +36301,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="515" t="s">
+      <c r="E4" s="541" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="516"/>
-      <c r="H4" s="517" t="s">
+      <c r="F4" s="542"/>
+      <c r="H4" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="518"/>
+      <c r="I4" s="544"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -36205,15 +36318,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="552"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="573"/>
-      <c r="W4" s="561" t="s">
+      <c r="R4" s="575"/>
+      <c r="W4" s="547" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="561"/>
+      <c r="X4" s="547"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36264,8 +36377,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="561"/>
-      <c r="X5" s="561"/>
+      <c r="W5" s="547"/>
+      <c r="X5" s="547"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37029,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="565">
+      <c r="W19" s="551">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -37082,7 +37195,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="566"/>
+      <c r="W20" s="552"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -37131,8 +37244,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="567"/>
-      <c r="X21" s="567"/>
+      <c r="W21" s="553"/>
+      <c r="X21" s="553"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -37232,8 +37345,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="568"/>
-      <c r="X23" s="568"/>
+      <c r="W23" s="554"/>
+      <c r="X23" s="554"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -37288,8 +37401,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="568"/>
-      <c r="X24" s="568"/>
+      <c r="W24" s="554"/>
+      <c r="X24" s="554"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37334,8 +37447,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="569"/>
-      <c r="X25" s="569"/>
+      <c r="W25" s="555"/>
+      <c r="X25" s="555"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37383,8 +37496,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="569"/>
-      <c r="X26" s="569"/>
+      <c r="W26" s="555"/>
+      <c r="X26" s="555"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37438,9 +37551,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="562"/>
-      <c r="X27" s="563"/>
-      <c r="Y27" s="564"/>
+      <c r="W27" s="548"/>
+      <c r="X27" s="549"/>
+      <c r="Y27" s="550"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37494,9 +37607,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="563"/>
-      <c r="X28" s="563"/>
-      <c r="Y28" s="564"/>
+      <c r="W28" s="549"/>
+      <c r="X28" s="549"/>
+      <c r="Y28" s="550"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37807,11 +37920,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="553">
+      <c r="M36" s="566">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="555">
+      <c r="N36" s="568">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -37819,7 +37932,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="557">
+      <c r="Q36" s="570">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -37844,13 +37957,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="554"/>
-      <c r="N37" s="556"/>
+      <c r="M37" s="567"/>
+      <c r="N37" s="569"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="558"/>
+      <c r="Q37" s="571"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -38143,26 +38256,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="530" t="s">
+      <c r="H52" s="521" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="531"/>
+      <c r="I52" s="522"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="532">
+      <c r="K52" s="523">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="559"/>
+      <c r="L52" s="556"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="536" t="s">
+      <c r="D53" s="527" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="536"/>
+      <c r="E53" s="527"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -38171,22 +38284,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="560" t="s">
+      <c r="D54" s="557" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="560"/>
+      <c r="E54" s="557"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="537" t="s">
+      <c r="I54" s="528" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="538"/>
-      <c r="K54" s="539">
+      <c r="J54" s="529"/>
+      <c r="K54" s="530">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="539"/>
+      <c r="L54" s="530"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -38227,11 +38340,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="541">
+      <c r="K56" s="532">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="542"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -38248,22 +38361,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="519" t="s">
+      <c r="D58" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="520"/>
+      <c r="E58" s="511"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="521" t="s">
+      <c r="I58" s="512" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="522"/>
-      <c r="K58" s="523">
+      <c r="J58" s="513"/>
+      <c r="K58" s="514">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="523"/>
+      <c r="L58" s="514"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -38407,20 +38520,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -38436,6 +38535,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40132,12 +40245,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="576" t="s">
+      <c r="B43" s="578" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="577"/>
-      <c r="D43" s="577"/>
-      <c r="E43" s="578"/>
+      <c r="C43" s="579"/>
+      <c r="D43" s="579"/>
+      <c r="E43" s="580"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40165,10 +40278,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="579"/>
-      <c r="C44" s="580"/>
-      <c r="D44" s="580"/>
-      <c r="E44" s="581"/>
+      <c r="B44" s="581"/>
+      <c r="C44" s="582"/>
+      <c r="D44" s="582"/>
+      <c r="E44" s="583"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40196,10 +40309,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="582"/>
-      <c r="C45" s="583"/>
-      <c r="D45" s="583"/>
-      <c r="E45" s="584"/>
+      <c r="B45" s="584"/>
+      <c r="C45" s="585"/>
+      <c r="D45" s="585"/>
+      <c r="E45" s="586"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40242,10 +40355,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="591" t="s">
+      <c r="B47" s="593" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="592"/>
+      <c r="C47" s="594"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -40267,8 +40380,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="593"/>
-      <c r="C48" s="594"/>
+      <c r="B48" s="595"/>
+      <c r="C48" s="596"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -40276,11 +40389,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="585" t="s">
+      <c r="J48" s="587" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="586"/>
-      <c r="L48" s="587"/>
+      <c r="K48" s="588"/>
+      <c r="L48" s="589"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -40298,9 +40411,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="588"/>
-      <c r="K49" s="589"/>
-      <c r="L49" s="590"/>
+      <c r="J49" s="590"/>
+      <c r="K49" s="591"/>
+      <c r="L49" s="592"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -40317,10 +40430,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="595" t="s">
+      <c r="I50" s="597" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="596"/>
+      <c r="J50" s="598"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -40341,8 +40454,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="595"/>
-      <c r="J51" s="596"/>
+      <c r="I51" s="597"/>
+      <c r="J51" s="598"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -40361,8 +40474,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="595"/>
-      <c r="J52" s="596"/>
+      <c r="I52" s="597"/>
+      <c r="J52" s="598"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -40381,8 +40494,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="595"/>
-      <c r="J53" s="596"/>
+      <c r="I53" s="597"/>
+      <c r="J53" s="598"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -40401,8 +40514,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="595"/>
-      <c r="J54" s="596"/>
+      <c r="I54" s="597"/>
+      <c r="J54" s="598"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -40421,8 +40534,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="595"/>
-      <c r="J55" s="596"/>
+      <c r="I55" s="597"/>
+      <c r="J55" s="598"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -40441,8 +40554,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="595"/>
-      <c r="J56" s="596"/>
+      <c r="I56" s="597"/>
+      <c r="J56" s="598"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -40461,8 +40574,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="595"/>
-      <c r="J57" s="596"/>
+      <c r="I57" s="597"/>
+      <c r="J57" s="598"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -40481,8 +40594,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="595"/>
-      <c r="J58" s="596"/>
+      <c r="I58" s="597"/>
+      <c r="J58" s="598"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -40501,8 +40614,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="595"/>
-      <c r="J59" s="596"/>
+      <c r="I59" s="597"/>
+      <c r="J59" s="598"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -40521,8 +40634,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="595"/>
-      <c r="J60" s="596"/>
+      <c r="I60" s="597"/>
+      <c r="J60" s="598"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -40541,8 +40654,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="595"/>
-      <c r="J61" s="596"/>
+      <c r="I61" s="597"/>
+      <c r="J61" s="598"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -40561,8 +40674,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="595"/>
-      <c r="J62" s="596"/>
+      <c r="I62" s="597"/>
+      <c r="J62" s="598"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -40581,8 +40694,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="595"/>
-      <c r="J63" s="596"/>
+      <c r="I63" s="597"/>
+      <c r="J63" s="598"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -40601,8 +40714,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="595"/>
-      <c r="J64" s="596"/>
+      <c r="I64" s="597"/>
+      <c r="J64" s="598"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -40621,8 +40734,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="595"/>
-      <c r="J65" s="596"/>
+      <c r="I65" s="597"/>
+      <c r="J65" s="598"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -40641,8 +40754,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="595"/>
-      <c r="J66" s="596"/>
+      <c r="I66" s="597"/>
+      <c r="J66" s="598"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -40661,8 +40774,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="595"/>
-      <c r="J67" s="596"/>
+      <c r="I67" s="597"/>
+      <c r="J67" s="598"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -40681,8 +40794,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="595"/>
-      <c r="J68" s="596"/>
+      <c r="I68" s="597"/>
+      <c r="J68" s="598"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -40701,8 +40814,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="595"/>
-      <c r="J69" s="596"/>
+      <c r="I69" s="597"/>
+      <c r="J69" s="598"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -40721,8 +40834,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="595"/>
-      <c r="J70" s="596"/>
+      <c r="I70" s="597"/>
+      <c r="J70" s="598"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -40741,8 +40854,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="595"/>
-      <c r="J71" s="596"/>
+      <c r="I71" s="597"/>
+      <c r="J71" s="598"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -40761,8 +40874,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="595"/>
-      <c r="J72" s="596"/>
+      <c r="I72" s="597"/>
+      <c r="J72" s="598"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -40781,8 +40894,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="595"/>
-      <c r="J73" s="596"/>
+      <c r="I73" s="597"/>
+      <c r="J73" s="598"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -40801,8 +40914,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="595"/>
-      <c r="J74" s="596"/>
+      <c r="I74" s="597"/>
+      <c r="J74" s="598"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -40821,8 +40934,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="595"/>
-      <c r="J75" s="596"/>
+      <c r="I75" s="597"/>
+      <c r="J75" s="598"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -40841,8 +40954,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="595"/>
-      <c r="J76" s="596"/>
+      <c r="I76" s="597"/>
+      <c r="J76" s="598"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -40861,8 +40974,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="595"/>
-      <c r="J77" s="596"/>
+      <c r="I77" s="597"/>
+      <c r="J77" s="598"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -40883,8 +40996,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="597"/>
-      <c r="J78" s="598"/>
+      <c r="I78" s="599"/>
+      <c r="J78" s="600"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -40929,7 +41042,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="570" t="s">
+      <c r="F80" s="572" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -40941,7 +41054,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="571"/>
+      <c r="F81" s="573"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -41229,23 +41342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="576" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41255,24 +41368,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="551" t="s">
+      <c r="P3" s="564" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="572" t="s">
+      <c r="R3" s="574" t="s">
         <v>216</v>
       </c>
     </row>
@@ -41287,14 +41400,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="515" t="s">
+      <c r="E4" s="541" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="516"/>
-      <c r="H4" s="517" t="s">
+      <c r="F4" s="542"/>
+      <c r="H4" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="518"/>
+      <c r="I4" s="544"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41304,15 +41417,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="552"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="573"/>
-      <c r="W4" s="561" t="s">
+      <c r="R4" s="575"/>
+      <c r="W4" s="547" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="561"/>
+      <c r="X4" s="547"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41363,8 +41476,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="561"/>
-      <c r="X5" s="561"/>
+      <c r="W5" s="547"/>
+      <c r="X5" s="547"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42125,7 +42238,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="565">
+      <c r="W19" s="551">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -42177,7 +42290,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="566"/>
+      <c r="W20" s="552"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42226,8 +42339,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="567"/>
-      <c r="X21" s="567"/>
+      <c r="W21" s="553"/>
+      <c r="X21" s="553"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42326,8 +42439,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="568"/>
-      <c r="X23" s="568"/>
+      <c r="W23" s="554"/>
+      <c r="X23" s="554"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42382,8 +42495,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="568"/>
-      <c r="X24" s="568"/>
+      <c r="W24" s="554"/>
+      <c r="X24" s="554"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42431,8 +42544,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="569"/>
-      <c r="X25" s="569"/>
+      <c r="W25" s="555"/>
+      <c r="X25" s="555"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42480,8 +42593,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="569"/>
-      <c r="X26" s="569"/>
+      <c r="W26" s="555"/>
+      <c r="X26" s="555"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42529,9 +42642,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="562"/>
-      <c r="X27" s="563"/>
-      <c r="Y27" s="564"/>
+      <c r="W27" s="548"/>
+      <c r="X27" s="549"/>
+      <c r="Y27" s="550"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42579,9 +42692,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="563"/>
-      <c r="X28" s="563"/>
-      <c r="Y28" s="564"/>
+      <c r="W28" s="549"/>
+      <c r="X28" s="549"/>
+      <c r="Y28" s="550"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42922,11 +43035,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="553">
+      <c r="M36" s="566">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="555">
+      <c r="N36" s="568">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -42934,7 +43047,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="599">
+      <c r="Q36" s="601">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -42959,13 +43072,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="554"/>
-      <c r="N37" s="556"/>
+      <c r="M37" s="567"/>
+      <c r="N37" s="569"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="600"/>
+      <c r="Q37" s="602"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -43015,11 +43128,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="601">
+      <c r="M39" s="603">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="602"/>
+      <c r="N39" s="604"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -43267,26 +43380,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="530" t="s">
+      <c r="H52" s="521" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="531"/>
+      <c r="I52" s="522"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="532">
+      <c r="K52" s="523">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="559"/>
+      <c r="L52" s="556"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="536" t="s">
+      <c r="D53" s="527" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="536"/>
+      <c r="E53" s="527"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -43295,22 +43408,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="560" t="s">
+      <c r="D54" s="557" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="560"/>
+      <c r="E54" s="557"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="537" t="s">
+      <c r="I54" s="528" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="538"/>
-      <c r="K54" s="539">
+      <c r="J54" s="529"/>
+      <c r="K54" s="530">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="539"/>
+      <c r="L54" s="530"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -43351,11 +43464,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="541">
+      <c r="K56" s="532">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="542"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43372,22 +43485,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="519" t="s">
+      <c r="D58" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="520"/>
+      <c r="E58" s="511"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="521" t="s">
+      <c r="I58" s="512" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="522"/>
-      <c r="K58" s="523">
+      <c r="J58" s="513"/>
+      <c r="K58" s="514">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="523"/>
+      <c r="L58" s="514"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43531,6 +43644,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43547,20 +43674,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="659">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2503,6 +2503,21 @@
   </si>
   <si>
     <t>POLLO-QUESOS-JAMON-</t>
+  </si>
+  <si>
+    <t>Jamon-Pollo-Chorizo-Longaniza-Queso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCHILADA-POLLO-LONGANIZA  </t>
+  </si>
+  <si>
+    <t>Longaniza --QUESOS</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-CREMA</t>
+  </si>
+  <si>
+    <t>NOMINA # 18</t>
   </si>
 </sst>
 </file>
@@ -4309,7 +4324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="624">
+  <cellXfs count="620">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5332,6 +5347,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5650,14 +5667,8 @@
     <xf numFmtId="166" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9081,23 +9092,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9107,17 +9118,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9131,14 +9142,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="541" t="s">
+      <c r="E4" s="543" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="542"/>
-      <c r="H4" s="543" t="s">
+      <c r="F4" s="544"/>
+      <c r="H4" s="545" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="544"/>
+      <c r="I4" s="546"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9148,10 +9159,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="515" t="s">
+      <c r="P4" s="517" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="516"/>
+      <c r="Q4" s="518"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10592,11 +10603,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="517">
+      <c r="M39" s="519">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="519">
+      <c r="N39" s="521">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10622,8 +10633,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="518"/>
-      <c r="N40" s="520"/>
+      <c r="M40" s="520"/>
+      <c r="N40" s="522"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10838,29 +10849,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="521" t="s">
+      <c r="H52" s="523" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="522"/>
+      <c r="I52" s="524"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="523">
+      <c r="K52" s="525">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="524"/>
-      <c r="M52" s="525">
+      <c r="L52" s="526"/>
+      <c r="M52" s="527">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="526"/>
+      <c r="N52" s="528"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="527" t="s">
+      <c r="D53" s="529" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="527"/>
+      <c r="E53" s="529"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10871,22 +10882,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="527" t="s">
+      <c r="D54" s="529" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="527"/>
+      <c r="E54" s="529"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="528" t="s">
+      <c r="I54" s="530" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="529"/>
-      <c r="K54" s="530">
+      <c r="J54" s="531"/>
+      <c r="K54" s="532">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="531"/>
+      <c r="L54" s="533"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10919,11 +10930,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="532">
+      <c r="K56" s="534">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="535"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10940,22 +10951,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="510" t="s">
+      <c r="D58" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="511"/>
+      <c r="E58" s="513"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="512" t="s">
+      <c r="I58" s="514" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="513"/>
-      <c r="K58" s="514">
+      <c r="J58" s="515"/>
+      <c r="K58" s="516">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="514"/>
+      <c r="L58" s="516"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13579,10 +13590,10 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I76" s="606" t="s">
+      <c r="I76" s="608" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="607"/>
+      <c r="J76" s="609"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13601,8 +13612,8 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I77" s="608"/>
-      <c r="J77" s="609"/>
+      <c r="I77" s="610"/>
+      <c r="J77" s="611"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -13669,7 +13680,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="572" t="s">
+      <c r="F80" s="574" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -13684,7 +13695,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="573"/>
+      <c r="F81" s="575"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13692,10 +13703,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="605" t="s">
+      <c r="B82" s="607" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="605"/>
+      <c r="C82" s="607"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -13977,23 +13988,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="578" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="579"/>
+      <c r="E1" s="579"/>
+      <c r="F1" s="579"/>
+      <c r="G1" s="579"/>
+      <c r="H1" s="579"/>
+      <c r="I1" s="579"/>
+      <c r="J1" s="579"/>
+      <c r="K1" s="579"/>
+      <c r="L1" s="579"/>
+      <c r="M1" s="579"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14003,24 +14014,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="566" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="574" t="s">
+      <c r="R3" s="576" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14035,14 +14046,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="541" t="s">
+      <c r="E4" s="543" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="542"/>
-      <c r="H4" s="543" t="s">
+      <c r="F4" s="544"/>
+      <c r="H4" s="545" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="544"/>
+      <c r="I4" s="546"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14052,15 +14063,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="567"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="575"/>
-      <c r="W4" s="547" t="s">
+      <c r="R4" s="577"/>
+      <c r="W4" s="549" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="547"/>
+      <c r="X4" s="549"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14111,8 +14122,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="547"/>
-      <c r="X5" s="547"/>
+      <c r="W5" s="549"/>
+      <c r="X5" s="549"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14875,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="551">
+      <c r="W19" s="553">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14927,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="552"/>
+      <c r="W20" s="554"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14976,8 +14987,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="553"/>
-      <c r="X21" s="553"/>
+      <c r="W21" s="555"/>
+      <c r="X21" s="555"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15077,8 +15088,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="554"/>
-      <c r="X23" s="554"/>
+      <c r="W23" s="556"/>
+      <c r="X23" s="556"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15133,8 +15144,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="554"/>
-      <c r="X24" s="554"/>
+      <c r="W24" s="556"/>
+      <c r="X24" s="556"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15182,8 +15193,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="555"/>
-      <c r="X25" s="555"/>
+      <c r="W25" s="557"/>
+      <c r="X25" s="557"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15232,8 +15243,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="555"/>
-      <c r="X26" s="555"/>
+      <c r="W26" s="557"/>
+      <c r="X26" s="557"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15281,9 +15292,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="548"/>
-      <c r="X27" s="549"/>
-      <c r="Y27" s="550"/>
+      <c r="W27" s="550"/>
+      <c r="X27" s="551"/>
+      <c r="Y27" s="552"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15331,9 +15342,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="549"/>
-      <c r="X28" s="549"/>
-      <c r="Y28" s="550"/>
+      <c r="W28" s="551"/>
+      <c r="X28" s="551"/>
+      <c r="Y28" s="552"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15665,11 +15676,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="566">
+      <c r="M36" s="568">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="568">
+      <c r="N36" s="570">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15677,7 +15688,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="601">
+      <c r="Q36" s="603">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -15702,13 +15713,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="567"/>
-      <c r="N37" s="569"/>
+      <c r="M37" s="569"/>
+      <c r="N37" s="571"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="602"/>
+      <c r="Q37" s="604"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -15753,11 +15764,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="603">
+      <c r="M39" s="605">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="604"/>
+      <c r="N39" s="606"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -16017,26 +16028,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="521" t="s">
+      <c r="H52" s="523" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="522"/>
+      <c r="I52" s="524"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="523">
+      <c r="K52" s="525">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="556"/>
+      <c r="L52" s="558"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="527" t="s">
+      <c r="D53" s="529" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="527"/>
+      <c r="E53" s="529"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -16045,22 +16056,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="557" t="s">
+      <c r="D54" s="559" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="557"/>
+      <c r="E54" s="559"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="528" t="s">
+      <c r="I54" s="530" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="529"/>
-      <c r="K54" s="530">
+      <c r="J54" s="531"/>
+      <c r="K54" s="532">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="530"/>
+      <c r="L54" s="532"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16101,11 +16112,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="532">
+      <c r="K56" s="534">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="535"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16122,22 +16133,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="510" t="s">
+      <c r="D58" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="511"/>
+      <c r="E58" s="513"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="512" t="s">
+      <c r="I58" s="514" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="513"/>
-      <c r="K58" s="514">
+      <c r="J58" s="515"/>
+      <c r="K58" s="516">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="514"/>
+      <c r="L58" s="516"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18489,7 +18500,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="572" t="s">
+      <c r="F80" s="574" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18502,7 +18513,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="573"/>
+      <c r="F81" s="575"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18522,16 +18533,16 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="610" t="s">
+      <c r="I83" s="612" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="611"/>
+      <c r="J83" s="613"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="442"/>
-      <c r="I84" s="612"/>
-      <c r="J84" s="613"/>
+      <c r="I84" s="614"/>
+      <c r="J84" s="615"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -18798,8 +18809,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18816,7 +18827,7 @@
     <col min="11" max="11" width="14.42578125" style="162" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
     <col min="17" max="17" width="21.28515625" style="225" customWidth="1"/>
@@ -18828,23 +18839,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="578" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="579"/>
+      <c r="E1" s="579"/>
+      <c r="F1" s="579"/>
+      <c r="G1" s="579"/>
+      <c r="H1" s="579"/>
+      <c r="I1" s="579"/>
+      <c r="J1" s="579"/>
+      <c r="K1" s="579"/>
+      <c r="L1" s="579"/>
+      <c r="M1" s="579"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18854,24 +18865,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="566" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="574" t="s">
+      <c r="R3" s="576" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18886,14 +18897,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="541" t="s">
+      <c r="E4" s="543" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="542"/>
-      <c r="H4" s="543" t="s">
+      <c r="F4" s="544"/>
+      <c r="H4" s="545" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="544"/>
+      <c r="I4" s="546"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18903,15 +18914,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="567"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="575"/>
-      <c r="W4" s="547" t="s">
+      <c r="R4" s="577"/>
+      <c r="W4" s="549" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="547"/>
+      <c r="X4" s="549"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18962,8 +18973,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="547"/>
-      <c r="X5" s="547"/>
+      <c r="W5" s="549"/>
+      <c r="X5" s="549"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19722,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="551">
+      <c r="W19" s="553">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19774,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="552"/>
+      <c r="W20" s="554"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19823,8 +19834,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="553"/>
-      <c r="X21" s="553"/>
+      <c r="W21" s="555"/>
+      <c r="X21" s="555"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19921,8 +19932,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="554"/>
-      <c r="X23" s="554"/>
+      <c r="W23" s="556"/>
+      <c r="X23" s="556"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19977,8 +19988,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="554"/>
-      <c r="X24" s="554"/>
+      <c r="W24" s="556"/>
+      <c r="X24" s="556"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20024,8 +20035,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="555"/>
-      <c r="X25" s="555"/>
+      <c r="W25" s="557"/>
+      <c r="X25" s="557"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20074,8 +20085,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="555"/>
-      <c r="X26" s="555"/>
+      <c r="W26" s="557"/>
+      <c r="X26" s="557"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20124,9 +20135,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="548"/>
-      <c r="X27" s="549"/>
-      <c r="Y27" s="550"/>
+      <c r="W27" s="550"/>
+      <c r="X27" s="551"/>
+      <c r="Y27" s="552"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20174,9 +20185,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="549"/>
-      <c r="X28" s="549"/>
-      <c r="Y28" s="550"/>
+      <c r="W28" s="551"/>
+      <c r="X28" s="551"/>
+      <c r="Y28" s="552"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20432,7 +20443,9 @@
         <f t="shared" ref="Q33:Q40" si="2">P33-F33</f>
         <v>0</v>
       </c>
-      <c r="R33" s="228"/>
+      <c r="R33" s="319">
+        <v>0</v>
+      </c>
       <c r="T33" s="424">
         <f>SUM(T29:T32)</f>
         <v>44254</v>
@@ -20443,36 +20456,46 @@
       <c r="B34" s="24">
         <v>44677</v>
       </c>
-      <c r="C34" s="617"/>
-      <c r="D34" s="618"/>
-      <c r="E34" s="619">
+      <c r="C34" s="25">
+        <v>13489</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>654</v>
+      </c>
+      <c r="E34" s="27">
         <v>44677</v>
       </c>
-      <c r="F34" s="620"/>
-      <c r="G34" s="621"/>
-      <c r="H34" s="622">
+      <c r="F34" s="28">
+        <v>77669</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="36">
         <v>44677</v>
       </c>
-      <c r="I34" s="623"/>
+      <c r="I34" s="30">
+        <v>879.5</v>
+      </c>
       <c r="J34" s="266"/>
       <c r="K34" s="248"/>
       <c r="L34" s="44"/>
       <c r="M34" s="32">
-        <v>0</v>
+        <f>40390+4760</f>
+        <v>45150</v>
       </c>
       <c r="N34" s="33">
-        <v>0</v>
+        <v>22911</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82429.5</v>
       </c>
       <c r="Q34" s="111">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="228"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="388">
+        <v>4760</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
@@ -20515,80 +20538,100 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="R35" s="228"/>
+      <c r="R35" s="319">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="24">
         <v>44679</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="25">
+        <v>16710</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>655</v>
+      </c>
       <c r="E36" s="27">
         <v>44679</v>
       </c>
-      <c r="F36" s="28"/>
+      <c r="F36" s="28">
+        <v>149331</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="36">
         <v>44679</v>
       </c>
-      <c r="I36" s="30"/>
+      <c r="I36" s="30">
+        <v>3361</v>
+      </c>
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
       <c r="M36" s="267">
-        <v>0</v>
+        <v>99132</v>
       </c>
       <c r="N36" s="268">
-        <v>0</v>
+        <v>29993</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="111">
+        <v>149196</v>
+      </c>
+      <c r="Q36" s="511">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="228"/>
+        <v>-135</v>
+      </c>
+      <c r="R36" s="319">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="24">
         <v>44680</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="65"/>
+      <c r="C37" s="25">
+        <v>10619</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>656</v>
+      </c>
       <c r="E37" s="27">
         <v>44680</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="28">
+        <v>134928</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="36">
         <v>44680</v>
       </c>
-      <c r="I37" s="30"/>
+      <c r="I37" s="30">
+        <v>3150</v>
+      </c>
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
       <c r="M37" s="267">
-        <v>0</v>
+        <v>73283</v>
       </c>
       <c r="N37" s="268">
-        <v>0</v>
+        <v>47876</v>
       </c>
       <c r="O37" s="276"/>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>134928</v>
       </c>
       <c r="Q37" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R37" s="227" t="s">
-        <v>7</v>
+      <c r="R37" s="319">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20596,32 +20639,49 @@
       <c r="B38" s="24">
         <v>44681</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="25">
+        <v>9895</v>
+      </c>
+      <c r="D38" s="618" t="s">
+        <v>657</v>
+      </c>
       <c r="E38" s="27">
         <v>44681</v>
       </c>
-      <c r="F38" s="28"/>
+      <c r="F38" s="28">
+        <v>148944</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="36">
         <v>44681</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="61"/>
+      <c r="I38" s="30">
+        <v>4895</v>
+      </c>
+      <c r="J38" s="60">
+        <v>44681</v>
+      </c>
+      <c r="K38" s="177" t="s">
+        <v>658</v>
+      </c>
+      <c r="L38" s="61">
+        <v>20352</v>
+      </c>
       <c r="M38" s="267">
-        <v>0</v>
+        <v>51036</v>
       </c>
       <c r="N38" s="268">
-        <v>0</v>
+        <v>62766</v>
       </c>
       <c r="P38" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>N38+M38+L38+I38+C38</f>
+        <v>148944</v>
       </c>
       <c r="Q38" s="111">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="319">
         <v>0</v>
       </c>
     </row>
@@ -20631,7 +20691,7 @@
         <v>44682</v>
       </c>
       <c r="C39" s="69"/>
-      <c r="D39" s="62"/>
+      <c r="D39" s="618"/>
       <c r="E39" s="27">
         <v>44682</v>
       </c>
@@ -20658,12 +20718,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="R39" s="319">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="69"/>
-      <c r="D40" s="62"/>
+      <c r="D40" s="618"/>
       <c r="E40" s="27"/>
       <c r="F40" s="70"/>
       <c r="G40" s="2"/>
@@ -20686,12 +20749,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="R40" s="319">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
+      <c r="D41" s="619"/>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
       <c r="G41" s="2"/>
@@ -20706,28 +20772,28 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="566">
+      <c r="M41" s="568">
         <f>SUM(M5:M40)</f>
-        <v>2078201.61</v>
-      </c>
-      <c r="N41" s="566">
+        <v>2346802.6100000003</v>
+      </c>
+      <c r="N41" s="568">
         <f>SUM(N5:N40)</f>
-        <v>996536</v>
-      </c>
-      <c r="P41" s="616">
+        <v>1160082</v>
+      </c>
+      <c r="P41" s="510">
         <f>SUM(P5:P40)</f>
-        <v>3661561.2399999998</v>
-      </c>
-      <c r="Q41" s="601">
+        <v>4177058.7399999998</v>
+      </c>
+      <c r="Q41" s="603">
         <f>SUM(Q5:Q40)</f>
-        <v>-0.3700000000098953</v>
+        <v>-135.3700000000099</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
+      <c r="D42" s="619"/>
       <c r="E42" s="74"/>
       <c r="F42" s="75"/>
       <c r="G42" s="2"/>
@@ -20742,16 +20808,16 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="567"/>
-      <c r="N42" s="567"/>
+      <c r="M42" s="569"/>
+      <c r="N42" s="569"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="602"/>
+      <c r="Q42" s="604"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
+      <c r="D43" s="619"/>
       <c r="E43" s="74"/>
       <c r="F43" s="75"/>
       <c r="G43" s="2"/>
@@ -20775,7 +20841,7 @@
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
+      <c r="D44" s="619"/>
       <c r="E44" s="74"/>
       <c r="F44" s="75"/>
       <c r="G44" s="2"/>
@@ -20800,20 +20866,26 @@
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
+      <c r="D45" s="619"/>
       <c r="E45" s="74"/>
       <c r="F45" s="75"/>
       <c r="G45" s="2"/>
       <c r="H45" s="76"/>
       <c r="I45" s="77"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="614">
+      <c r="J45" s="60">
+        <v>44681</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="L45" s="61">
+        <v>18269.490000000002</v>
+      </c>
+      <c r="M45" s="616">
         <f>M41+N41</f>
-        <v>3074737.6100000003</v>
-      </c>
-      <c r="N45" s="615"/>
+        <v>3506884.6100000003</v>
+      </c>
+      <c r="N45" s="617"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -20821,7 +20893,7 @@
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="72"/>
-      <c r="D46" s="73"/>
+      <c r="D46" s="619"/>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
       <c r="G46" s="2"/>
@@ -20839,7 +20911,7 @@
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="72"/>
-      <c r="D47" s="73"/>
+      <c r="D47" s="619"/>
       <c r="E47" s="74"/>
       <c r="F47" s="75"/>
       <c r="G47" s="2"/>
@@ -20896,7 +20968,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>418372.5</v>
+        <v>469085.5</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -20904,7 +20976,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>3548546</v>
+        <v>4059418</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -20912,7 +20984,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>87149.5</v>
+        <v>99435</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -20920,7 +20992,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>147517.34000000003</v>
+        <v>186138.83000000002</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -20938,50 +21010,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="521" t="s">
+      <c r="H52" s="523" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="522"/>
+      <c r="I52" s="524"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="523">
+      <c r="K52" s="525">
         <f>I50+L50</f>
-        <v>234666.84000000003</v>
-      </c>
-      <c r="L52" s="556"/>
+        <v>285573.83</v>
+      </c>
+      <c r="L52" s="558"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="527" t="s">
+      <c r="D53" s="529" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="527"/>
+      <c r="E53" s="529"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>2895506.66</v>
+        <v>3304758.67</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="557" t="s">
+      <c r="D54" s="559" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="557"/>
+      <c r="E54" s="559"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="528" t="s">
+      <c r="I54" s="530" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="529"/>
-      <c r="K54" s="530">
+      <c r="J54" s="531"/>
+      <c r="K54" s="532">
         <f>F56+F57+F58</f>
-        <v>2895506.66</v>
-      </c>
-      <c r="L54" s="530"/>
+        <v>3304758.67</v>
+      </c>
+      <c r="L54" s="532"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -21015,18 +21087,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>2895506.66</v>
+        <v>3304758.67</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="532">
+      <c r="K56" s="534">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="535"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21041,22 +21113,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="510" t="s">
+      <c r="D58" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="511"/>
+      <c r="E58" s="513"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="512" t="s">
+      <c r="I58" s="514" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="513"/>
-      <c r="K58" s="514">
+      <c r="J58" s="515"/>
+      <c r="K58" s="516">
         <f>K54+K56</f>
-        <v>1102688.9800000002</v>
-      </c>
-      <c r="L58" s="514"/>
+        <v>1511940.99</v>
+      </c>
+      <c r="L58" s="516"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -22891,7 +22963,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="572" t="s">
+      <c r="F80" s="574" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22904,7 +22976,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="573"/>
+      <c r="F81" s="575"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22923,16 +22995,16 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="610" t="s">
+      <c r="I83" s="612" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="611"/>
+      <c r="J83" s="613"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="442"/>
-      <c r="I84" s="612"/>
-      <c r="J84" s="613"/>
+      <c r="I84" s="614"/>
+      <c r="J84" s="615"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24549,7 +24621,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="545" t="s">
+      <c r="B41" s="547" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -24581,7 +24653,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="546"/>
+      <c r="B42" s="548"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -26177,23 +26249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26203,21 +26275,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="566" t="s">
         <v>6</v>
       </c>
     </row>
@@ -26232,14 +26304,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="541" t="s">
+      <c r="E4" s="543" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="542"/>
-      <c r="H4" s="543" t="s">
+      <c r="F4" s="544"/>
+      <c r="H4" s="545" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="544"/>
+      <c r="I4" s="546"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -26249,14 +26321,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="567"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="547" t="s">
+      <c r="W4" s="549" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="547"/>
+      <c r="X4" s="549"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26307,8 +26379,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="547"/>
-      <c r="X5" s="547"/>
+      <c r="W5" s="549"/>
+      <c r="X5" s="549"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27079,7 +27151,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="551">
+      <c r="W19" s="553">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -27131,7 +27203,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="552"/>
+      <c r="W20" s="554"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -27180,8 +27252,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="553"/>
-      <c r="X21" s="553"/>
+      <c r="W21" s="555"/>
+      <c r="X21" s="555"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27282,8 +27354,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="554"/>
-      <c r="X23" s="554"/>
+      <c r="W23" s="556"/>
+      <c r="X23" s="556"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27337,8 +27409,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="554"/>
-      <c r="X24" s="554"/>
+      <c r="W24" s="556"/>
+      <c r="X24" s="556"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27384,8 +27456,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="555"/>
-      <c r="X25" s="555"/>
+      <c r="W25" s="557"/>
+      <c r="X25" s="557"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27436,8 +27508,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="555"/>
-      <c r="X26" s="555"/>
+      <c r="W26" s="557"/>
+      <c r="X26" s="557"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27485,9 +27557,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="548"/>
-      <c r="X27" s="549"/>
-      <c r="Y27" s="550"/>
+      <c r="W27" s="550"/>
+      <c r="X27" s="551"/>
+      <c r="Y27" s="552"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27537,9 +27609,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="549"/>
-      <c r="X28" s="549"/>
-      <c r="Y28" s="550"/>
+      <c r="W28" s="551"/>
+      <c r="X28" s="551"/>
+      <c r="Y28" s="552"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27874,11 +27946,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="566">
+      <c r="M36" s="568">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="568">
+      <c r="N36" s="570">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -27886,7 +27958,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="570">
+      <c r="Q36" s="572">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -27921,13 +27993,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="567"/>
-      <c r="N37" s="569"/>
+      <c r="M37" s="569"/>
+      <c r="N37" s="571"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="571"/>
+      <c r="Q37" s="573"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -28217,26 +28289,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="521" t="s">
+      <c r="H52" s="523" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="522"/>
+      <c r="I52" s="524"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="523">
+      <c r="K52" s="525">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="556"/>
+      <c r="L52" s="558"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="527" t="s">
+      <c r="D53" s="529" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="527"/>
+      <c r="E53" s="529"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -28245,29 +28317,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="557" t="s">
+      <c r="D54" s="559" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="557"/>
+      <c r="E54" s="559"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="528" t="s">
+      <c r="I54" s="530" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="529"/>
-      <c r="K54" s="530">
+      <c r="J54" s="531"/>
+      <c r="K54" s="532">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="530"/>
-      <c r="M54" s="558" t="s">
+      <c r="L54" s="532"/>
+      <c r="M54" s="560" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="559"/>
-      <c r="O54" s="559"/>
-      <c r="P54" s="559"/>
-      <c r="Q54" s="560"/>
+      <c r="N54" s="561"/>
+      <c r="O54" s="561"/>
+      <c r="P54" s="561"/>
+      <c r="Q54" s="562"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -28281,11 +28353,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="561"/>
-      <c r="N55" s="562"/>
-      <c r="O55" s="562"/>
-      <c r="P55" s="562"/>
-      <c r="Q55" s="563"/>
+      <c r="M55" s="563"/>
+      <c r="N55" s="564"/>
+      <c r="O55" s="564"/>
+      <c r="P55" s="564"/>
+      <c r="Q55" s="565"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -28303,11 +28375,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="532">
+      <c r="K56" s="534">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="535"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28324,22 +28396,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="510" t="s">
+      <c r="D58" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="511"/>
+      <c r="E58" s="513"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="512" t="s">
+      <c r="I58" s="514" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="513"/>
-      <c r="K58" s="514">
+      <c r="J58" s="515"/>
+      <c r="K58" s="516">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="514"/>
+      <c r="L58" s="516"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -30929,7 +31001,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="572" t="s">
+      <c r="F87" s="574" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -30942,7 +31014,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="573"/>
+      <c r="F88" s="575"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -31254,23 +31326,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31280,24 +31352,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="566" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="574" t="s">
+      <c r="R3" s="576" t="s">
         <v>216</v>
       </c>
     </row>
@@ -31312,14 +31384,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="541" t="s">
+      <c r="E4" s="543" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="542"/>
-      <c r="H4" s="543" t="s">
+      <c r="F4" s="544"/>
+      <c r="H4" s="545" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="544"/>
+      <c r="I4" s="546"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -31329,15 +31401,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="567"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="575"/>
-      <c r="W4" s="547" t="s">
+      <c r="R4" s="577"/>
+      <c r="W4" s="549" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="547"/>
+      <c r="X4" s="549"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31398,8 +31470,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="547"/>
-      <c r="X5" s="547"/>
+      <c r="W5" s="549"/>
+      <c r="X5" s="549"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32156,7 +32228,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="551">
+      <c r="W19" s="553">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -32208,7 +32280,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="552"/>
+      <c r="W20" s="554"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32257,8 +32329,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="553"/>
-      <c r="X21" s="553"/>
+      <c r="W21" s="555"/>
+      <c r="X21" s="555"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32359,8 +32431,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="554"/>
-      <c r="X23" s="554"/>
+      <c r="W23" s="556"/>
+      <c r="X23" s="556"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32411,8 +32483,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="554"/>
-      <c r="X24" s="554"/>
+      <c r="W24" s="556"/>
+      <c r="X24" s="556"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32458,8 +32530,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="555"/>
-      <c r="X25" s="555"/>
+      <c r="W25" s="557"/>
+      <c r="X25" s="557"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32507,8 +32579,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="555"/>
-      <c r="X26" s="555"/>
+      <c r="W26" s="557"/>
+      <c r="X26" s="557"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32568,9 +32640,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="548"/>
-      <c r="X27" s="549"/>
-      <c r="Y27" s="550"/>
+      <c r="W27" s="550"/>
+      <c r="X27" s="551"/>
+      <c r="Y27" s="552"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32624,9 +32696,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="549"/>
-      <c r="X28" s="549"/>
-      <c r="Y28" s="550"/>
+      <c r="W28" s="551"/>
+      <c r="X28" s="551"/>
+      <c r="Y28" s="552"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32942,11 +33014,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="566">
+      <c r="M36" s="568">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="568">
+      <c r="N36" s="570">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -32954,7 +33026,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="570">
+      <c r="Q36" s="572">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -32973,13 +33045,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="567"/>
-      <c r="N37" s="569"/>
+      <c r="M37" s="569"/>
+      <c r="N37" s="571"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="571"/>
+      <c r="Q37" s="573"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -33253,26 +33325,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="521" t="s">
+      <c r="H52" s="523" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="522"/>
+      <c r="I52" s="524"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="523">
+      <c r="K52" s="525">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="556"/>
+      <c r="L52" s="558"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="527" t="s">
+      <c r="D53" s="529" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="527"/>
+      <c r="E53" s="529"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -33281,29 +33353,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="557" t="s">
+      <c r="D54" s="559" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="557"/>
+      <c r="E54" s="559"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="528" t="s">
+      <c r="I54" s="530" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="529"/>
-      <c r="K54" s="530">
+      <c r="J54" s="531"/>
+      <c r="K54" s="532">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="530"/>
-      <c r="M54" s="558" t="s">
+      <c r="L54" s="532"/>
+      <c r="M54" s="560" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="559"/>
-      <c r="O54" s="559"/>
-      <c r="P54" s="559"/>
-      <c r="Q54" s="560"/>
+      <c r="N54" s="561"/>
+      <c r="O54" s="561"/>
+      <c r="P54" s="561"/>
+      <c r="Q54" s="562"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -33317,11 +33389,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="561"/>
-      <c r="N55" s="562"/>
-      <c r="O55" s="562"/>
-      <c r="P55" s="562"/>
-      <c r="Q55" s="563"/>
+      <c r="M55" s="563"/>
+      <c r="N55" s="564"/>
+      <c r="O55" s="564"/>
+      <c r="P55" s="564"/>
+      <c r="Q55" s="565"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -33339,11 +33411,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="532">
+      <c r="K56" s="534">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="535"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -33360,22 +33432,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="510" t="s">
+      <c r="D58" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="511"/>
+      <c r="E58" s="513"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="512" t="s">
+      <c r="I58" s="514" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="513"/>
-      <c r="K58" s="514">
+      <c r="J58" s="515"/>
+      <c r="K58" s="516">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="514"/>
+      <c r="L58" s="516"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -35938,7 +36010,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="572" t="s">
+      <c r="F75" s="574" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -35951,7 +36023,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="573"/>
+      <c r="F76" s="575"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -36243,23 +36315,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="578" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="579"/>
+      <c r="E1" s="579"/>
+      <c r="F1" s="579"/>
+      <c r="G1" s="579"/>
+      <c r="H1" s="579"/>
+      <c r="I1" s="579"/>
+      <c r="J1" s="579"/>
+      <c r="K1" s="579"/>
+      <c r="L1" s="579"/>
+      <c r="M1" s="579"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36269,24 +36341,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="566" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="574" t="s">
+      <c r="R3" s="576" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36301,14 +36373,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="541" t="s">
+      <c r="E4" s="543" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="542"/>
-      <c r="H4" s="543" t="s">
+      <c r="F4" s="544"/>
+      <c r="H4" s="545" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="544"/>
+      <c r="I4" s="546"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -36318,15 +36390,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="567"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="575"/>
-      <c r="W4" s="547" t="s">
+      <c r="R4" s="577"/>
+      <c r="W4" s="549" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="547"/>
+      <c r="X4" s="549"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36377,8 +36449,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="547"/>
-      <c r="X5" s="547"/>
+      <c r="W5" s="549"/>
+      <c r="X5" s="549"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37142,7 +37214,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="551">
+      <c r="W19" s="553">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -37195,7 +37267,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="552"/>
+      <c r="W20" s="554"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -37244,8 +37316,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="553"/>
-      <c r="X21" s="553"/>
+      <c r="W21" s="555"/>
+      <c r="X21" s="555"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -37345,8 +37417,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="554"/>
-      <c r="X23" s="554"/>
+      <c r="W23" s="556"/>
+      <c r="X23" s="556"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -37401,8 +37473,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="554"/>
-      <c r="X24" s="554"/>
+      <c r="W24" s="556"/>
+      <c r="X24" s="556"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37447,8 +37519,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="555"/>
-      <c r="X25" s="555"/>
+      <c r="W25" s="557"/>
+      <c r="X25" s="557"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37496,8 +37568,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="555"/>
-      <c r="X26" s="555"/>
+      <c r="W26" s="557"/>
+      <c r="X26" s="557"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37551,9 +37623,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="548"/>
-      <c r="X27" s="549"/>
-      <c r="Y27" s="550"/>
+      <c r="W27" s="550"/>
+      <c r="X27" s="551"/>
+      <c r="Y27" s="552"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37607,9 +37679,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="549"/>
-      <c r="X28" s="549"/>
-      <c r="Y28" s="550"/>
+      <c r="W28" s="551"/>
+      <c r="X28" s="551"/>
+      <c r="Y28" s="552"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37920,11 +37992,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="566">
+      <c r="M36" s="568">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="568">
+      <c r="N36" s="570">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -37932,7 +38004,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="570">
+      <c r="Q36" s="572">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -37957,13 +38029,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="567"/>
-      <c r="N37" s="569"/>
+      <c r="M37" s="569"/>
+      <c r="N37" s="571"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="571"/>
+      <c r="Q37" s="573"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -38256,26 +38328,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="521" t="s">
+      <c r="H52" s="523" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="522"/>
+      <c r="I52" s="524"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="523">
+      <c r="K52" s="525">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="556"/>
+      <c r="L52" s="558"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="527" t="s">
+      <c r="D53" s="529" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="527"/>
+      <c r="E53" s="529"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -38284,22 +38356,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="557" t="s">
+      <c r="D54" s="559" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="557"/>
+      <c r="E54" s="559"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="528" t="s">
+      <c r="I54" s="530" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="529"/>
-      <c r="K54" s="530">
+      <c r="J54" s="531"/>
+      <c r="K54" s="532">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="530"/>
+      <c r="L54" s="532"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -38340,11 +38412,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="532">
+      <c r="K56" s="534">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="535"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -38361,22 +38433,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="510" t="s">
+      <c r="D58" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="511"/>
+      <c r="E58" s="513"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="512" t="s">
+      <c r="I58" s="514" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="513"/>
-      <c r="K58" s="514">
+      <c r="J58" s="515"/>
+      <c r="K58" s="516">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="514"/>
+      <c r="L58" s="516"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -40245,12 +40317,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="578" t="s">
+      <c r="B43" s="580" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="579"/>
-      <c r="D43" s="579"/>
-      <c r="E43" s="580"/>
+      <c r="C43" s="581"/>
+      <c r="D43" s="581"/>
+      <c r="E43" s="582"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40278,10 +40350,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="581"/>
-      <c r="C44" s="582"/>
-      <c r="D44" s="582"/>
-      <c r="E44" s="583"/>
+      <c r="B44" s="583"/>
+      <c r="C44" s="584"/>
+      <c r="D44" s="584"/>
+      <c r="E44" s="585"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40309,10 +40381,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="584"/>
-      <c r="C45" s="585"/>
-      <c r="D45" s="585"/>
-      <c r="E45" s="586"/>
+      <c r="B45" s="586"/>
+      <c r="C45" s="587"/>
+      <c r="D45" s="587"/>
+      <c r="E45" s="588"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40355,10 +40427,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="593" t="s">
+      <c r="B47" s="595" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="594"/>
+      <c r="C47" s="596"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -40380,8 +40452,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="595"/>
-      <c r="C48" s="596"/>
+      <c r="B48" s="597"/>
+      <c r="C48" s="598"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -40389,11 +40461,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="587" t="s">
+      <c r="J48" s="589" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="588"/>
-      <c r="L48" s="589"/>
+      <c r="K48" s="590"/>
+      <c r="L48" s="591"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -40411,9 +40483,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="590"/>
-      <c r="K49" s="591"/>
-      <c r="L49" s="592"/>
+      <c r="J49" s="592"/>
+      <c r="K49" s="593"/>
+      <c r="L49" s="594"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -40430,10 +40502,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="597" t="s">
+      <c r="I50" s="599" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="598"/>
+      <c r="J50" s="600"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -40454,8 +40526,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="597"/>
-      <c r="J51" s="598"/>
+      <c r="I51" s="599"/>
+      <c r="J51" s="600"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -40474,8 +40546,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="597"/>
-      <c r="J52" s="598"/>
+      <c r="I52" s="599"/>
+      <c r="J52" s="600"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -40494,8 +40566,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="597"/>
-      <c r="J53" s="598"/>
+      <c r="I53" s="599"/>
+      <c r="J53" s="600"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -40514,8 +40586,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="597"/>
-      <c r="J54" s="598"/>
+      <c r="I54" s="599"/>
+      <c r="J54" s="600"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -40534,8 +40606,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="597"/>
-      <c r="J55" s="598"/>
+      <c r="I55" s="599"/>
+      <c r="J55" s="600"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -40554,8 +40626,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="597"/>
-      <c r="J56" s="598"/>
+      <c r="I56" s="599"/>
+      <c r="J56" s="600"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -40574,8 +40646,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="597"/>
-      <c r="J57" s="598"/>
+      <c r="I57" s="599"/>
+      <c r="J57" s="600"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -40594,8 +40666,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="597"/>
-      <c r="J58" s="598"/>
+      <c r="I58" s="599"/>
+      <c r="J58" s="600"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -40614,8 +40686,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="597"/>
-      <c r="J59" s="598"/>
+      <c r="I59" s="599"/>
+      <c r="J59" s="600"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -40634,8 +40706,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="597"/>
-      <c r="J60" s="598"/>
+      <c r="I60" s="599"/>
+      <c r="J60" s="600"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -40654,8 +40726,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="597"/>
-      <c r="J61" s="598"/>
+      <c r="I61" s="599"/>
+      <c r="J61" s="600"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -40674,8 +40746,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="597"/>
-      <c r="J62" s="598"/>
+      <c r="I62" s="599"/>
+      <c r="J62" s="600"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -40694,8 +40766,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="597"/>
-      <c r="J63" s="598"/>
+      <c r="I63" s="599"/>
+      <c r="J63" s="600"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -40714,8 +40786,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="597"/>
-      <c r="J64" s="598"/>
+      <c r="I64" s="599"/>
+      <c r="J64" s="600"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -40734,8 +40806,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="597"/>
-      <c r="J65" s="598"/>
+      <c r="I65" s="599"/>
+      <c r="J65" s="600"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -40754,8 +40826,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="597"/>
-      <c r="J66" s="598"/>
+      <c r="I66" s="599"/>
+      <c r="J66" s="600"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -40774,8 +40846,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="597"/>
-      <c r="J67" s="598"/>
+      <c r="I67" s="599"/>
+      <c r="J67" s="600"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -40794,8 +40866,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="597"/>
-      <c r="J68" s="598"/>
+      <c r="I68" s="599"/>
+      <c r="J68" s="600"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -40814,8 +40886,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="597"/>
-      <c r="J69" s="598"/>
+      <c r="I69" s="599"/>
+      <c r="J69" s="600"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -40834,8 +40906,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="597"/>
-      <c r="J70" s="598"/>
+      <c r="I70" s="599"/>
+      <c r="J70" s="600"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -40854,8 +40926,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="597"/>
-      <c r="J71" s="598"/>
+      <c r="I71" s="599"/>
+      <c r="J71" s="600"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -40874,8 +40946,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="597"/>
-      <c r="J72" s="598"/>
+      <c r="I72" s="599"/>
+      <c r="J72" s="600"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -40894,8 +40966,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="597"/>
-      <c r="J73" s="598"/>
+      <c r="I73" s="599"/>
+      <c r="J73" s="600"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -40914,8 +40986,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="597"/>
-      <c r="J74" s="598"/>
+      <c r="I74" s="599"/>
+      <c r="J74" s="600"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -40934,8 +41006,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="597"/>
-      <c r="J75" s="598"/>
+      <c r="I75" s="599"/>
+      <c r="J75" s="600"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -40954,8 +41026,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="597"/>
-      <c r="J76" s="598"/>
+      <c r="I76" s="599"/>
+      <c r="J76" s="600"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -40974,8 +41046,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="597"/>
-      <c r="J77" s="598"/>
+      <c r="I77" s="599"/>
+      <c r="J77" s="600"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -40996,8 +41068,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="599"/>
-      <c r="J78" s="600"/>
+      <c r="I78" s="601"/>
+      <c r="J78" s="602"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -41042,7 +41114,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="572" t="s">
+      <c r="F80" s="574" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -41054,7 +41126,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="573"/>
+      <c r="F81" s="575"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -41342,23 +41414,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="578" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="579"/>
+      <c r="E1" s="579"/>
+      <c r="F1" s="579"/>
+      <c r="G1" s="579"/>
+      <c r="H1" s="579"/>
+      <c r="I1" s="579"/>
+      <c r="J1" s="579"/>
+      <c r="K1" s="579"/>
+      <c r="L1" s="579"/>
+      <c r="M1" s="579"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41368,24 +41440,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="566" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="574" t="s">
+      <c r="R3" s="576" t="s">
         <v>216</v>
       </c>
     </row>
@@ -41400,14 +41472,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="541" t="s">
+      <c r="E4" s="543" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="542"/>
-      <c r="H4" s="543" t="s">
+      <c r="F4" s="544"/>
+      <c r="H4" s="545" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="544"/>
+      <c r="I4" s="546"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41417,15 +41489,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="567"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="575"/>
-      <c r="W4" s="547" t="s">
+      <c r="R4" s="577"/>
+      <c r="W4" s="549" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="547"/>
+      <c r="X4" s="549"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41476,8 +41548,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="547"/>
-      <c r="X5" s="547"/>
+      <c r="W5" s="549"/>
+      <c r="X5" s="549"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42238,7 +42310,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="551">
+      <c r="W19" s="553">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -42290,7 +42362,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="552"/>
+      <c r="W20" s="554"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42339,8 +42411,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="553"/>
-      <c r="X21" s="553"/>
+      <c r="W21" s="555"/>
+      <c r="X21" s="555"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42439,8 +42511,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="554"/>
-      <c r="X23" s="554"/>
+      <c r="W23" s="556"/>
+      <c r="X23" s="556"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42495,8 +42567,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="554"/>
-      <c r="X24" s="554"/>
+      <c r="W24" s="556"/>
+      <c r="X24" s="556"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42544,8 +42616,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="555"/>
-      <c r="X25" s="555"/>
+      <c r="W25" s="557"/>
+      <c r="X25" s="557"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42593,8 +42665,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="555"/>
-      <c r="X26" s="555"/>
+      <c r="W26" s="557"/>
+      <c r="X26" s="557"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42642,9 +42714,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="548"/>
-      <c r="X27" s="549"/>
-      <c r="Y27" s="550"/>
+      <c r="W27" s="550"/>
+      <c r="X27" s="551"/>
+      <c r="Y27" s="552"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42692,9 +42764,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="549"/>
-      <c r="X28" s="549"/>
-      <c r="Y28" s="550"/>
+      <c r="W28" s="551"/>
+      <c r="X28" s="551"/>
+      <c r="Y28" s="552"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43035,11 +43107,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="566">
+      <c r="M36" s="568">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="568">
+      <c r="N36" s="570">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -43047,7 +43119,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="601">
+      <c r="Q36" s="603">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -43072,13 +43144,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="567"/>
-      <c r="N37" s="569"/>
+      <c r="M37" s="569"/>
+      <c r="N37" s="571"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="602"/>
+      <c r="Q37" s="604"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -43128,11 +43200,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="603">
+      <c r="M39" s="605">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="604"/>
+      <c r="N39" s="606"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -43380,26 +43452,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="521" t="s">
+      <c r="H52" s="523" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="522"/>
+      <c r="I52" s="524"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="523">
+      <c r="K52" s="525">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="556"/>
+      <c r="L52" s="558"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="527" t="s">
+      <c r="D53" s="529" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="527"/>
+      <c r="E53" s="529"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -43408,22 +43480,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="557" t="s">
+      <c r="D54" s="559" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="557"/>
+      <c r="E54" s="559"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="528" t="s">
+      <c r="I54" s="530" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="529"/>
-      <c r="K54" s="530">
+      <c r="J54" s="531"/>
+      <c r="K54" s="532">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="530"/>
+      <c r="L54" s="532"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -43464,11 +43536,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="532">
+      <c r="K56" s="534">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="535"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43485,22 +43557,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="510" t="s">
+      <c r="D58" s="512" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="511"/>
+      <c r="E58" s="513"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="512" t="s">
+      <c r="I58" s="514" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="513"/>
-      <c r="K58" s="514">
+      <c r="J58" s="515"/>
+      <c r="K58" s="516">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="514"/>
+      <c r="L58" s="516"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="729">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2518,6 +2518,216 @@
   </si>
   <si>
     <t>NOMINA # 18</t>
+  </si>
+  <si>
+    <t>QUESO  MIXIOTES--CHISTORRA</t>
+  </si>
+  <si>
+    <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>C-17257</t>
+  </si>
+  <si>
+    <t>C-17311</t>
+  </si>
+  <si>
+    <t>02/04/2022</t>
+  </si>
+  <si>
+    <t>C-17399</t>
+  </si>
+  <si>
+    <t>C-17461</t>
+  </si>
+  <si>
+    <t>04/04/2022</t>
+  </si>
+  <si>
+    <t>C-17601</t>
+  </si>
+  <si>
+    <t>05/04/2022</t>
+  </si>
+  <si>
+    <t>C-17720</t>
+  </si>
+  <si>
+    <t>C-17721</t>
+  </si>
+  <si>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>C-17789</t>
+  </si>
+  <si>
+    <t>C-17835</t>
+  </si>
+  <si>
+    <t>C-17838</t>
+  </si>
+  <si>
+    <t>07/04/2022</t>
+  </si>
+  <si>
+    <t>C-17959</t>
+  </si>
+  <si>
+    <t>08/04/2022</t>
+  </si>
+  <si>
+    <t>C-18050</t>
+  </si>
+  <si>
+    <t>C-18101</t>
+  </si>
+  <si>
+    <t>09/04/2022</t>
+  </si>
+  <si>
+    <t>C-18193</t>
+  </si>
+  <si>
+    <t>C-18265</t>
+  </si>
+  <si>
+    <t>11/04/2022</t>
+  </si>
+  <si>
+    <t>C-18374</t>
+  </si>
+  <si>
+    <t>C-18375</t>
+  </si>
+  <si>
+    <t>12/04/2022</t>
+  </si>
+  <si>
+    <t>C-18521</t>
+  </si>
+  <si>
+    <t>13/04/2022</t>
+  </si>
+  <si>
+    <t>C-18625</t>
+  </si>
+  <si>
+    <t>14/04/2022</t>
+  </si>
+  <si>
+    <t>C-18733</t>
+  </si>
+  <si>
+    <t>C-18776</t>
+  </si>
+  <si>
+    <t>16/04/2022</t>
+  </si>
+  <si>
+    <t>C-18883</t>
+  </si>
+  <si>
+    <t>18/04/2022</t>
+  </si>
+  <si>
+    <t>C-19081</t>
+  </si>
+  <si>
+    <t>19/04/2022</t>
+  </si>
+  <si>
+    <t>C-19160</t>
+  </si>
+  <si>
+    <t>C-19170</t>
+  </si>
+  <si>
+    <t>C-19216</t>
+  </si>
+  <si>
+    <t>20/04/2022</t>
+  </si>
+  <si>
+    <t>C-19283</t>
+  </si>
+  <si>
+    <t>C-19315</t>
+  </si>
+  <si>
+    <t>21/04/2022</t>
+  </si>
+  <si>
+    <t>C-19425</t>
+  </si>
+  <si>
+    <t>22/04/2022</t>
+  </si>
+  <si>
+    <t>C-19561</t>
+  </si>
+  <si>
+    <t>C-19605</t>
+  </si>
+  <si>
+    <t>23/04/2022</t>
+  </si>
+  <si>
+    <t>C-19642</t>
+  </si>
+  <si>
+    <t>C-19644</t>
+  </si>
+  <si>
+    <t>C-19690</t>
+  </si>
+  <si>
+    <t>25/04/2022</t>
+  </si>
+  <si>
+    <t>C-19847</t>
+  </si>
+  <si>
+    <t>26/04/2022</t>
+  </si>
+  <si>
+    <t>C-20001</t>
+  </si>
+  <si>
+    <t>C-20007</t>
+  </si>
+  <si>
+    <t>C-20038</t>
+  </si>
+  <si>
+    <t>27/04/2022</t>
+  </si>
+  <si>
+    <t>C-20106</t>
+  </si>
+  <si>
+    <t>28/04/2022</t>
+  </si>
+  <si>
+    <t>C-20208</t>
+  </si>
+  <si>
+    <t>29/04/2022</t>
+  </si>
+  <si>
+    <t>C-20353</t>
+  </si>
+  <si>
+    <t>30/04/2022</t>
+  </si>
+  <si>
+    <t>C-20502</t>
+  </si>
+  <si>
+    <t>23-Mar-22---19-Abr-22</t>
+  </si>
+  <si>
+    <t>PAGO EL 19 DE ABRIL POR   $  1,740,651.32</t>
   </si>
 </sst>
 </file>
@@ -2533,7 +2743,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3020,6 +3230,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="22">
     <fill>
@@ -3149,7 +3367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="95">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -4308,23 +4526,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="620">
+  <cellXfs count="633">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5339,7 +5546,6 @@
     <xf numFmtId="44" fontId="3" fillId="21" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5349,6 +5555,26 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="47" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5661,14 +5887,24 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="61" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="61" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="18" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5678,6 +5914,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF66"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC3399"/>
@@ -5685,7 +5922,6 @@
       <color rgb="FF0000FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF800000"/>
-      <color rgb="FFCCFF66"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF6600FF"/>
     </mruColors>
@@ -9092,23 +9328,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="547" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
+      <c r="M1" s="548"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9118,17 +9354,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9142,14 +9378,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="543" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="544"/>
-      <c r="H4" s="545" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="546"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9159,10 +9395,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="517" t="s">
+      <c r="P4" s="526" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="518"/>
+      <c r="Q4" s="527"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10603,11 +10839,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="519">
+      <c r="M39" s="528">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="521">
+      <c r="N39" s="530">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10633,8 +10869,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="520"/>
-      <c r="N40" s="522"/>
+      <c r="M40" s="529"/>
+      <c r="N40" s="531"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10849,29 +11085,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="523" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="524"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="525">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="526"/>
-      <c r="M52" s="527">
+      <c r="L52" s="535"/>
+      <c r="M52" s="536">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="528"/>
+      <c r="N52" s="537"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="529" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="529"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10882,22 +11118,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="529" t="s">
+      <c r="D54" s="538" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="529"/>
+      <c r="E54" s="538"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="530" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="531"/>
-      <c r="K54" s="532">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="533"/>
+      <c r="L54" s="542"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10930,11 +11166,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="534">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="535"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10951,22 +11187,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="512" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="513"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="514" t="s">
+      <c r="I58" s="523" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="515"/>
-      <c r="K58" s="516">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="516"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -11146,7 +11382,7 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="A75" sqref="A75:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11283,7 +11519,7 @@
         <v>139150.76</v>
       </c>
       <c r="F4" s="392">
-        <f t="shared" ref="F4:F47" si="0">C4-E4</f>
+        <f t="shared" ref="F4:F67" si="0">C4-E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
@@ -12887,7 +13123,7 @@
         <v>49782.6</v>
       </c>
       <c r="F46" s="392">
-        <f t="shared" si="0"/>
+        <f>C46-E46</f>
         <v>0</v>
       </c>
       <c r="I46" s="288"/>
@@ -12947,8 +13183,8 @@
         <v>145889.51999999999</v>
       </c>
       <c r="F48" s="392">
-        <f t="shared" ref="F48:F68" si="2">F47+C48</f>
-        <v>145889.51999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I48" s="348"/>
       <c r="J48" s="414"/>
@@ -12977,8 +13213,8 @@
         <v>200</v>
       </c>
       <c r="F49" s="392">
-        <f t="shared" si="2"/>
-        <v>146089.51999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I49" s="348"/>
       <c r="J49" s="414"/>
@@ -13007,8 +13243,8 @@
         <v>2373.8000000000002</v>
       </c>
       <c r="F50" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I50" s="134"/>
       <c r="J50" s="408"/>
@@ -13031,8 +13267,8 @@
       </c>
       <c r="E51" s="489"/>
       <c r="F51" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I51" s="134"/>
       <c r="J51" s="139"/>
@@ -13053,8 +13289,8 @@
       </c>
       <c r="E52" s="489"/>
       <c r="F52" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I52" s="134"/>
       <c r="J52" s="139"/>
@@ -13075,8 +13311,8 @@
       </c>
       <c r="E53" s="489"/>
       <c r="F53" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I53" s="134"/>
       <c r="J53" s="139"/>
@@ -13097,8 +13333,8 @@
       </c>
       <c r="E54" s="489"/>
       <c r="F54" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I54" s="134"/>
       <c r="J54" s="139"/>
@@ -13119,8 +13355,8 @@
       </c>
       <c r="E55" s="489"/>
       <c r="F55" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I55" s="134"/>
       <c r="J55" s="139"/>
@@ -13141,8 +13377,8 @@
       </c>
       <c r="E56" s="489"/>
       <c r="F56" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I56" s="134"/>
       <c r="J56" s="139"/>
@@ -13163,8 +13399,8 @@
       </c>
       <c r="E57" s="489"/>
       <c r="F57" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I57" s="134"/>
       <c r="J57" s="139"/>
@@ -13185,8 +13421,8 @@
       </c>
       <c r="E58" s="489"/>
       <c r="F58" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I58" s="134"/>
       <c r="J58" s="139"/>
@@ -13207,8 +13443,8 @@
       </c>
       <c r="E59" s="489"/>
       <c r="F59" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I59" s="134"/>
       <c r="J59" s="139"/>
@@ -13229,8 +13465,8 @@
       </c>
       <c r="E60" s="489"/>
       <c r="F60" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I60" s="134"/>
       <c r="J60" s="139"/>
@@ -13251,8 +13487,8 @@
       </c>
       <c r="E61" s="489"/>
       <c r="F61" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I61" s="134"/>
       <c r="J61" s="139"/>
@@ -13273,8 +13509,8 @@
       </c>
       <c r="E62" s="489"/>
       <c r="F62" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I62" s="356"/>
       <c r="J62" s="357"/>
@@ -13295,8 +13531,8 @@
       </c>
       <c r="E63" s="489"/>
       <c r="F63" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I63" s="356"/>
       <c r="J63" s="357"/>
@@ -13317,8 +13553,8 @@
       </c>
       <c r="E64" s="489"/>
       <c r="F64" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I64" s="356"/>
       <c r="J64" s="357"/>
@@ -13339,8 +13575,8 @@
       </c>
       <c r="E65" s="489"/>
       <c r="F65" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I65" s="356"/>
       <c r="J65" s="357"/>
@@ -13361,8 +13597,8 @@
       </c>
       <c r="E66" s="489"/>
       <c r="F66" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I66" s="356"/>
       <c r="J66" s="357"/>
@@ -13383,8 +13619,8 @@
       </c>
       <c r="E67" s="490"/>
       <c r="F67" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I67" s="356"/>
       <c r="J67" s="357"/>
@@ -13405,8 +13641,8 @@
       </c>
       <c r="E68" s="489"/>
       <c r="F68" s="392">
-        <f t="shared" si="2"/>
-        <v>148463.31999999998</v>
+        <f t="shared" ref="F68:F77" si="2">C68-E68</f>
+        <v>0</v>
       </c>
       <c r="I68" s="134"/>
       <c r="J68" s="139"/>
@@ -13427,8 +13663,8 @@
       </c>
       <c r="E69" s="489"/>
       <c r="F69" s="392">
-        <f t="shared" ref="F69:F78" si="3">F68+C69</f>
-        <v>148463.31999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I69" s="134"/>
       <c r="J69" s="139"/>
@@ -13436,7 +13672,7 @@
       <c r="L69" s="148"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
-        <f t="shared" ref="N69:N78" si="4">N68+K69-M69</f>
+        <f t="shared" ref="N69:N78" si="3">N68+K69-M69</f>
         <v>0</v>
       </c>
     </row>
@@ -13449,8 +13685,8 @@
       </c>
       <c r="E70" s="489"/>
       <c r="F70" s="392">
-        <f t="shared" si="3"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I70" s="134"/>
       <c r="J70" s="139"/>
@@ -13458,7 +13694,7 @@
       <c r="L70" s="148"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13471,8 +13707,8 @@
       </c>
       <c r="E71" s="489"/>
       <c r="F71" s="392">
-        <f t="shared" si="3"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I71" s="134"/>
       <c r="J71" s="139"/>
@@ -13480,7 +13716,7 @@
       <c r="L71" s="148"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13493,8 +13729,8 @@
       </c>
       <c r="E72" s="489"/>
       <c r="F72" s="392">
-        <f t="shared" si="3"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I72" s="134"/>
       <c r="J72" s="139"/>
@@ -13502,7 +13738,7 @@
       <c r="L72" s="148"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13515,8 +13751,8 @@
       </c>
       <c r="E73" s="489"/>
       <c r="F73" s="392">
-        <f t="shared" si="3"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I73" s="134"/>
       <c r="J73" s="139"/>
@@ -13524,7 +13760,7 @@
       <c r="L73" s="148"/>
       <c r="M73" s="69"/>
       <c r="N73" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13537,8 +13773,8 @@
       </c>
       <c r="E74" s="489"/>
       <c r="F74" s="392">
-        <f t="shared" si="3"/>
-        <v>148463.31999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I74" s="134"/>
       <c r="J74" s="139"/>
@@ -13546,7 +13782,7 @@
       <c r="L74" s="148"/>
       <c r="M74" s="69"/>
       <c r="N74" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13567,8 +13803,8 @@
         <v>40377.15</v>
       </c>
       <c r="F75" s="392">
-        <f t="shared" si="3"/>
-        <v>188840.46999999997</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I75" s="134"/>
       <c r="J75" s="139"/>
@@ -13576,7 +13812,7 @@
       <c r="L75" s="148"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13587,18 +13823,18 @@
       <c r="D76" s="254"/>
       <c r="E76" s="69"/>
       <c r="F76" s="392">
-        <f t="shared" si="3"/>
-        <v>188840.46999999997</v>
-      </c>
-      <c r="I76" s="608" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="617" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="609"/>
+      <c r="J76" s="618"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13609,16 +13845,16 @@
       <c r="D77" s="254"/>
       <c r="E77" s="69"/>
       <c r="F77" s="392">
-        <f t="shared" si="3"/>
-        <v>188840.46999999997</v>
-      </c>
-      <c r="I77" s="610"/>
-      <c r="J77" s="611"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="619"/>
+      <c r="J77" s="620"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13631,8 +13867,8 @@
       <c r="D78" s="255"/>
       <c r="E78" s="151"/>
       <c r="F78" s="392">
-        <f t="shared" si="3"/>
-        <v>188840.46999999997</v>
+        <f t="shared" ref="F78" si="4">F77+C78</f>
+        <v>0</v>
       </c>
       <c r="I78" s="149"/>
       <c r="J78" s="150"/>
@@ -13642,7 +13878,7 @@
       <c r="L78" s="152"/>
       <c r="M78" s="151"/>
       <c r="N78" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13680,7 +13916,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="574" t="s">
+      <c r="F80" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -13695,7 +13931,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="575"/>
+      <c r="F81" s="584"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13703,10 +13939,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="607" t="s">
+      <c r="B82" s="616" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="607"/>
+      <c r="C82" s="616"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -13958,7 +14194,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
+    <sheetView topLeftCell="C37" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -13988,23 +14224,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="578" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="587" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="579"/>
-      <c r="E1" s="579"/>
-      <c r="F1" s="579"/>
-      <c r="G1" s="579"/>
-      <c r="H1" s="579"/>
-      <c r="I1" s="579"/>
-      <c r="J1" s="579"/>
-      <c r="K1" s="579"/>
-      <c r="L1" s="579"/>
-      <c r="M1" s="579"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="588"/>
+      <c r="L1" s="588"/>
+      <c r="M1" s="588"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14014,24 +14250,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="566" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="576" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14046,14 +14282,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="543" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="544"/>
-      <c r="H4" s="545" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="546"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14063,15 +14299,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="567"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="577"/>
-      <c r="W4" s="549" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="549"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14122,8 +14358,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="549"/>
-      <c r="X5" s="549"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14886,7 +15122,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="553">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14938,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="554"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14987,8 +15223,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="555"/>
-      <c r="X21" s="555"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15088,8 +15324,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="556"/>
-      <c r="X23" s="556"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15144,8 +15380,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="556"/>
-      <c r="X24" s="556"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15193,8 +15429,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="557"/>
-      <c r="X25" s="557"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15243,8 +15479,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="557"/>
-      <c r="X26" s="557"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15292,9 +15528,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="550"/>
-      <c r="X27" s="551"/>
-      <c r="Y27" s="552"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15342,9 +15578,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="551"/>
-      <c r="X28" s="551"/>
-      <c r="Y28" s="552"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15676,11 +15912,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="568">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="570">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15688,7 +15924,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="603">
+      <c r="Q36" s="612">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -15713,13 +15949,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="569"/>
-      <c r="N37" s="571"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="604"/>
+      <c r="Q37" s="613"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -15764,11 +16000,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="605">
+      <c r="M39" s="614">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="606"/>
+      <c r="N39" s="615"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -16028,26 +16264,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="523" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="524"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="525">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="558"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="529" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="529"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -16056,22 +16292,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="559" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="559"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="530" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="531"/>
-      <c r="K54" s="532">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="532"/>
+      <c r="L54" s="541"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16112,11 +16348,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="534">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="535"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16133,22 +16369,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="512" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="513"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="514" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="515"/>
-      <c r="K58" s="516">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="516"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16337,8 +16573,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16910,15 +17146,16 @@
       <c r="C15" s="392">
         <v>76124.3</v>
       </c>
-      <c r="D15" s="486">
-        <v>44643</v>
+      <c r="D15" s="486" t="s">
+        <v>727</v>
       </c>
       <c r="E15" s="487">
-        <v>61979.8</v>
+        <f>61979.8+14144.5</f>
+        <v>76124.3</v>
       </c>
       <c r="F15" s="392">
         <f t="shared" si="0"/>
-        <v>14144.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="370">
         <v>44631</v>
@@ -16950,11 +17187,15 @@
       <c r="C16" s="392">
         <v>50443.9</v>
       </c>
-      <c r="D16" s="405"/>
-      <c r="E16" s="392"/>
+      <c r="D16" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E16" s="392">
+        <v>50443.9</v>
+      </c>
       <c r="F16" s="392">
         <f t="shared" si="0"/>
-        <v>50443.9</v>
+        <v>0</v>
       </c>
       <c r="I16" s="370">
         <v>44632</v>
@@ -16986,11 +17227,15 @@
       <c r="C17" s="392">
         <v>94092.05</v>
       </c>
-      <c r="D17" s="406"/>
-      <c r="E17" s="392"/>
+      <c r="D17" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E17" s="392">
+        <v>94092.05</v>
+      </c>
       <c r="F17" s="392">
         <f t="shared" si="0"/>
-        <v>94092.05</v>
+        <v>0</v>
       </c>
       <c r="I17" s="370">
         <v>44634</v>
@@ -17022,11 +17267,15 @@
       <c r="C18" s="392">
         <v>8163.9</v>
       </c>
-      <c r="D18" s="405"/>
-      <c r="E18" s="392"/>
+      <c r="D18" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E18" s="392">
+        <v>8163.9</v>
+      </c>
       <c r="F18" s="392">
         <f t="shared" si="0"/>
-        <v>8163.9</v>
+        <v>0</v>
       </c>
       <c r="I18" s="370">
         <v>44635</v>
@@ -17058,11 +17307,15 @@
       <c r="C19" s="392">
         <v>57174.8</v>
       </c>
-      <c r="D19" s="405"/>
-      <c r="E19" s="392"/>
+      <c r="D19" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E19" s="392">
+        <v>57174.8</v>
+      </c>
       <c r="F19" s="392">
         <f t="shared" si="0"/>
-        <v>57174.8</v>
+        <v>0</v>
       </c>
       <c r="I19" s="370">
         <v>44636</v>
@@ -17094,11 +17347,15 @@
       <c r="C20" s="392">
         <v>9004.7999999999993</v>
       </c>
-      <c r="D20" s="405"/>
-      <c r="E20" s="392"/>
+      <c r="D20" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E20" s="392">
+        <v>9004.7999999999993</v>
+      </c>
       <c r="F20" s="392">
         <f t="shared" si="0"/>
-        <v>9004.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="I20" s="370">
         <v>44638</v>
@@ -17130,11 +17387,15 @@
       <c r="C21" s="392">
         <v>80090.45</v>
       </c>
-      <c r="D21" s="405"/>
-      <c r="E21" s="392"/>
+      <c r="D21" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E21" s="392">
+        <v>80090.45</v>
+      </c>
       <c r="F21" s="392">
         <f t="shared" si="0"/>
-        <v>80090.45</v>
+        <v>0</v>
       </c>
       <c r="I21" s="370">
         <v>44639</v>
@@ -17166,11 +17427,15 @@
       <c r="C22" s="392">
         <v>7015.6</v>
       </c>
-      <c r="D22" s="405"/>
-      <c r="E22" s="392"/>
+      <c r="D22" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E22" s="392">
+        <v>7015.6</v>
+      </c>
       <c r="F22" s="392">
         <f t="shared" si="0"/>
-        <v>7015.6</v>
+        <v>0</v>
       </c>
       <c r="G22" s="138"/>
       <c r="I22" s="370">
@@ -17203,11 +17468,15 @@
       <c r="C23" s="392">
         <v>2559.1999999999998</v>
       </c>
-      <c r="D23" s="405"/>
-      <c r="E23" s="392"/>
+      <c r="D23" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E23" s="392">
+        <v>2559.1999999999998</v>
+      </c>
       <c r="F23" s="392">
         <f t="shared" si="0"/>
-        <v>2559.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="I23" s="370">
         <v>44641</v>
@@ -17239,11 +17508,15 @@
       <c r="C24" s="392">
         <v>11187.2</v>
       </c>
-      <c r="D24" s="405"/>
-      <c r="E24" s="392"/>
+      <c r="D24" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E24" s="392">
+        <v>11187.2</v>
+      </c>
       <c r="F24" s="392">
         <f t="shared" si="0"/>
-        <v>11187.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="370">
         <v>44642</v>
@@ -17275,11 +17548,15 @@
       <c r="C25" s="392">
         <v>51776.46</v>
       </c>
-      <c r="D25" s="405"/>
-      <c r="E25" s="392"/>
+      <c r="D25" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E25" s="392">
+        <v>51776.46</v>
+      </c>
       <c r="F25" s="392">
         <f t="shared" si="0"/>
-        <v>51776.46</v>
+        <v>0</v>
       </c>
       <c r="I25" s="498" t="s">
         <v>615</v>
@@ -17307,11 +17584,15 @@
       <c r="C26" s="392">
         <v>87124.5</v>
       </c>
-      <c r="D26" s="405"/>
-      <c r="E26" s="392"/>
+      <c r="D26" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E26" s="392">
+        <v>87124.5</v>
+      </c>
       <c r="F26" s="392">
         <f t="shared" si="0"/>
-        <v>87124.5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="501" t="s">
         <v>615</v>
@@ -17339,11 +17620,15 @@
       <c r="C27" s="392">
         <v>67449.740000000005</v>
       </c>
-      <c r="D27" s="406"/>
-      <c r="E27" s="392"/>
+      <c r="D27" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E27" s="392">
+        <v>67449.740000000005</v>
+      </c>
       <c r="F27" s="392">
         <f t="shared" si="0"/>
-        <v>67449.740000000005</v>
+        <v>0</v>
       </c>
       <c r="I27" s="501" t="s">
         <v>616</v>
@@ -17371,11 +17656,15 @@
       <c r="C28" s="392">
         <v>4430.8</v>
       </c>
-      <c r="D28" s="405"/>
-      <c r="E28" s="392"/>
+      <c r="D28" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E28" s="392">
+        <v>4430.8</v>
+      </c>
       <c r="F28" s="392">
         <f t="shared" si="0"/>
-        <v>4430.8</v>
+        <v>0</v>
       </c>
       <c r="I28" s="498" t="s">
         <v>617</v>
@@ -17403,11 +17692,15 @@
       <c r="C29" s="392">
         <v>6400</v>
       </c>
-      <c r="D29" s="405"/>
-      <c r="E29" s="392"/>
+      <c r="D29" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E29" s="392">
+        <v>6400</v>
+      </c>
       <c r="F29" s="392">
         <f t="shared" si="0"/>
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="I29" s="498" t="s">
         <v>618</v>
@@ -17435,11 +17728,15 @@
       <c r="C30" s="392">
         <v>129051.65</v>
       </c>
-      <c r="D30" s="405"/>
-      <c r="E30" s="392"/>
+      <c r="D30" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E30" s="392">
+        <v>129051.65</v>
+      </c>
       <c r="F30" s="392">
         <f t="shared" si="0"/>
-        <v>129051.65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="138"/>
       <c r="I30" s="501" t="s">
@@ -17468,11 +17765,15 @@
       <c r="C31" s="392">
         <v>9483.7999999999993</v>
       </c>
-      <c r="D31" s="405"/>
-      <c r="E31" s="392"/>
+      <c r="D31" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E31" s="392">
+        <v>9483.7999999999993</v>
+      </c>
       <c r="F31" s="392">
         <f t="shared" si="0"/>
-        <v>9483.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="I31" s="370"/>
       <c r="J31" s="57"/>
@@ -17494,11 +17795,15 @@
       <c r="C32" s="392">
         <v>9623.1</v>
       </c>
-      <c r="D32" s="405"/>
-      <c r="E32" s="392"/>
+      <c r="D32" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E32" s="392">
+        <v>9623.1</v>
+      </c>
       <c r="F32" s="392">
         <f t="shared" si="0"/>
-        <v>9623.1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="370"/>
       <c r="J32" s="57"/>
@@ -17520,11 +17825,15 @@
       <c r="C33" s="392">
         <v>869.4</v>
       </c>
-      <c r="D33" s="405"/>
-      <c r="E33" s="392"/>
+      <c r="D33" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E33" s="392">
+        <v>869.4</v>
+      </c>
       <c r="F33" s="392">
         <f t="shared" si="0"/>
-        <v>869.4</v>
+        <v>0</v>
       </c>
       <c r="I33" s="370"/>
       <c r="J33" s="57"/>
@@ -17546,11 +17855,15 @@
       <c r="C34" s="392">
         <v>7771.4</v>
       </c>
-      <c r="D34" s="405"/>
-      <c r="E34" s="392"/>
+      <c r="D34" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E34" s="392">
+        <v>7771.4</v>
+      </c>
       <c r="F34" s="392">
         <f t="shared" si="0"/>
-        <v>7771.4</v>
+        <v>0</v>
       </c>
       <c r="I34" s="370"/>
       <c r="J34" s="57"/>
@@ -17572,11 +17885,15 @@
       <c r="C35" s="392">
         <v>46801.67</v>
       </c>
-      <c r="D35" s="405"/>
-      <c r="E35" s="392"/>
+      <c r="D35" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E35" s="392">
+        <v>46801.67</v>
+      </c>
       <c r="F35" s="392">
         <f t="shared" si="0"/>
-        <v>46801.67</v>
+        <v>0</v>
       </c>
       <c r="I35" s="370"/>
       <c r="J35" s="57"/>
@@ -17598,11 +17915,15 @@
       <c r="C36" s="392">
         <v>106305.33</v>
       </c>
-      <c r="D36" s="405"/>
-      <c r="E36" s="392"/>
+      <c r="D36" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E36" s="392">
+        <v>106305.33</v>
+      </c>
       <c r="F36" s="392">
         <f t="shared" si="0"/>
-        <v>106305.33</v>
+        <v>0</v>
       </c>
       <c r="I36" s="370"/>
       <c r="J36" s="57"/>
@@ -17624,11 +17945,15 @@
       <c r="C37" s="392">
         <v>49908.18</v>
       </c>
-      <c r="D37" s="405"/>
-      <c r="E37" s="392"/>
+      <c r="D37" s="405">
+        <v>44670</v>
+      </c>
+      <c r="E37" s="392">
+        <v>49908.18</v>
+      </c>
       <c r="F37" s="392">
         <f t="shared" si="0"/>
-        <v>49908.18</v>
+        <v>0</v>
       </c>
       <c r="I37" s="370"/>
       <c r="J37" s="57"/>
@@ -18475,11 +18800,11 @@
       <c r="D79" s="407"/>
       <c r="E79" s="395">
         <f>SUM(E3:E78)</f>
-        <v>449387.88999999996</v>
+        <v>1360260.3199999998</v>
       </c>
       <c r="F79" s="153">
         <f>SUM(F3:F78)</f>
-        <v>910872.43000000028</v>
+        <v>0</v>
       </c>
       <c r="K79" s="209">
         <f>SUM(K3:K78)</f>
@@ -18500,7 +18825,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="574" t="s">
+      <c r="F80" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18513,7 +18838,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="575"/>
+      <c r="F81" s="584"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18533,16 +18858,20 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="612" t="s">
+      <c r="I83" s="621" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="613"/>
-    </row>
-    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="456"/>
-      <c r="B84" s="442"/>
-      <c r="I84" s="614"/>
-      <c r="J84" s="615"/>
+      <c r="J83" s="622"/>
+    </row>
+    <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="518" t="s">
+        <v>598</v>
+      </c>
+      <c r="B84" s="519"/>
+      <c r="C84" s="520"/>
+      <c r="D84" s="492"/>
+      <c r="I84" s="623"/>
+      <c r="J84" s="624"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -18561,99 +18890,72 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="456"/>
-      <c r="B87" s="442"/>
+      <c r="A87" s="514"/>
+      <c r="B87" s="515"/>
+      <c r="C87" s="129"/>
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
       <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="456"/>
-      <c r="B88" s="442"/>
+      <c r="A88" s="514"/>
+      <c r="B88" s="515"/>
+      <c r="C88" s="129"/>
       <c r="F88"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="493">
-        <v>44648</v>
-      </c>
-      <c r="B89" s="494" t="s">
-        <v>610</v>
-      </c>
-      <c r="C89" s="495">
-        <v>10026.200000000001</v>
-      </c>
+      <c r="A89" s="516"/>
+      <c r="B89" s="517"/>
+      <c r="C89" s="233"/>
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="493">
-        <v>44649</v>
-      </c>
-      <c r="B90" s="496" t="s">
-        <v>611</v>
-      </c>
-      <c r="C90" s="489">
-        <v>94987.44</v>
-      </c>
+      <c r="A90" s="516"/>
+      <c r="B90" s="517"/>
+      <c r="C90" s="233"/>
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="493">
-        <v>44650</v>
-      </c>
-      <c r="B91" s="496" t="s">
-        <v>612</v>
-      </c>
-      <c r="C91" s="489">
-        <v>8900.25</v>
-      </c>
+      <c r="A91" s="516"/>
+      <c r="B91" s="517"/>
+      <c r="C91" s="233"/>
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="493">
-        <v>44650</v>
-      </c>
-      <c r="B92" s="496" t="s">
-        <v>613</v>
-      </c>
-      <c r="C92" s="489">
-        <v>8045.4</v>
-      </c>
+      <c r="A92" s="516"/>
+      <c r="B92" s="517"/>
+      <c r="C92" s="233"/>
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="497">
-        <v>44651</v>
-      </c>
-      <c r="B93" s="496" t="s">
-        <v>614</v>
-      </c>
-      <c r="C93" s="489">
-        <v>41855.9</v>
-      </c>
+      <c r="A93" s="516"/>
+      <c r="B93" s="517"/>
+      <c r="C93" s="233"/>
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="456"/>
-      <c r="B94" s="442"/>
+      <c r="A94" s="514"/>
+      <c r="B94" s="515"/>
+      <c r="C94" s="129"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="I94"/>
@@ -18662,8 +18964,9 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="456"/>
-      <c r="B95" s="442"/>
+      <c r="A95" s="514"/>
+      <c r="B95" s="515"/>
+      <c r="C95" s="129"/>
       <c r="E95"/>
       <c r="F95"/>
       <c r="I95"/>
@@ -18799,6 +19102,7 @@
     <mergeCell ref="I83:J84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18809,8 +19113,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18839,23 +19143,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="578" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="587" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="579"/>
-      <c r="E1" s="579"/>
-      <c r="F1" s="579"/>
-      <c r="G1" s="579"/>
-      <c r="H1" s="579"/>
-      <c r="I1" s="579"/>
-      <c r="J1" s="579"/>
-      <c r="K1" s="579"/>
-      <c r="L1" s="579"/>
-      <c r="M1" s="579"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="588"/>
+      <c r="L1" s="588"/>
+      <c r="M1" s="588"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18865,24 +19169,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="566" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="576" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18897,14 +19201,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="543" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="544"/>
-      <c r="H4" s="545" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="546"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18914,15 +19218,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="567"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="577"/>
-      <c r="W4" s="549" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="549"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18973,8 +19277,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="549"/>
-      <c r="X5" s="549"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19733,7 +20037,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="553">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19785,7 +20089,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="554"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19834,8 +20138,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="555"/>
-      <c r="X21" s="555"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19932,8 +20236,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="556"/>
-      <c r="X23" s="556"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19988,8 +20292,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="556"/>
-      <c r="X24" s="556"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20035,8 +20339,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="557"/>
-      <c r="X25" s="557"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20085,8 +20389,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="557"/>
-      <c r="X26" s="557"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20135,9 +20439,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="550"/>
-      <c r="X27" s="551"/>
-      <c r="Y27" s="552"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20185,9 +20489,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="551"/>
-      <c r="X28" s="551"/>
-      <c r="Y28" s="552"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20322,7 +20626,7 @@
       <c r="J31" s="60">
         <v>44674</v>
       </c>
-      <c r="K31" s="509" t="s">
+      <c r="K31" s="508" t="s">
         <v>649</v>
       </c>
       <c r="L31" s="63">
@@ -20580,7 +20884,7 @@
         <f t="shared" si="1"/>
         <v>149196</v>
       </c>
-      <c r="Q36" s="511">
+      <c r="Q36" s="510">
         <f t="shared" si="2"/>
         <v>-135</v>
       </c>
@@ -20642,7 +20946,7 @@
       <c r="C38" s="25">
         <v>9895</v>
       </c>
-      <c r="D38" s="618" t="s">
+      <c r="D38" s="511" t="s">
         <v>657</v>
       </c>
       <c r="E38" s="27">
@@ -20690,43 +20994,51 @@
       <c r="B39" s="24">
         <v>44682</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="618"/>
+      <c r="C39" s="69">
+        <v>6570</v>
+      </c>
+      <c r="D39" s="511" t="s">
+        <v>659</v>
+      </c>
       <c r="E39" s="27">
         <v>44682</v>
       </c>
-      <c r="F39" s="70"/>
+      <c r="F39" s="513">
+        <v>108254</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="36">
         <v>44682</v>
       </c>
-      <c r="I39" s="71"/>
+      <c r="I39" s="71">
+        <v>3548</v>
+      </c>
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
       <c r="M39" s="267">
-        <v>0</v>
+        <v>62551</v>
       </c>
       <c r="N39" s="268">
-        <v>0</v>
+        <v>35585</v>
       </c>
       <c r="P39" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108254</v>
       </c>
       <c r="Q39" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R39" s="319">
-        <v>0</v>
+      <c r="R39" s="319" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="69"/>
-      <c r="D40" s="618"/>
+      <c r="D40" s="511"/>
       <c r="E40" s="27"/>
       <c r="F40" s="70"/>
       <c r="G40" s="2"/>
@@ -20757,7 +21069,7 @@
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="72"/>
-      <c r="D41" s="619"/>
+      <c r="D41" s="512"/>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
       <c r="G41" s="2"/>
@@ -20772,19 +21084,19 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="568">
+      <c r="M41" s="577">
         <f>SUM(M5:M40)</f>
-        <v>2346802.6100000003</v>
-      </c>
-      <c r="N41" s="568">
+        <v>2409353.6100000003</v>
+      </c>
+      <c r="N41" s="577">
         <f>SUM(N5:N40)</f>
-        <v>1160082</v>
-      </c>
-      <c r="P41" s="510">
+        <v>1195667</v>
+      </c>
+      <c r="P41" s="509">
         <f>SUM(P5:P40)</f>
-        <v>4177058.7399999998</v>
-      </c>
-      <c r="Q41" s="603">
+        <v>4285312.74</v>
+      </c>
+      <c r="Q41" s="625">
         <f>SUM(Q5:Q40)</f>
         <v>-135.3700000000099</v>
       </c>
@@ -20793,7 +21105,7 @@
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="72"/>
-      <c r="D42" s="619"/>
+      <c r="D42" s="512"/>
       <c r="E42" s="74"/>
       <c r="F42" s="75"/>
       <c r="G42" s="2"/>
@@ -20808,16 +21120,16 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="569"/>
-      <c r="N42" s="569"/>
+      <c r="M42" s="578"/>
+      <c r="N42" s="578"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="604"/>
+      <c r="Q42" s="626"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="619"/>
+      <c r="D43" s="512"/>
       <c r="E43" s="74"/>
       <c r="F43" s="75"/>
       <c r="G43" s="2"/>
@@ -20841,7 +21153,7 @@
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="72"/>
-      <c r="D44" s="619"/>
+      <c r="D44" s="512"/>
       <c r="E44" s="74"/>
       <c r="F44" s="75"/>
       <c r="G44" s="2"/>
@@ -20850,7 +21162,7 @@
       <c r="J44" s="60">
         <v>44674</v>
       </c>
-      <c r="K44" s="508" t="s">
+      <c r="K44" s="507" t="s">
         <v>650</v>
       </c>
       <c r="L44" s="61">
@@ -20866,7 +21178,7 @@
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="72"/>
-      <c r="D45" s="619"/>
+      <c r="D45" s="512"/>
       <c r="E45" s="74"/>
       <c r="F45" s="75"/>
       <c r="G45" s="2"/>
@@ -20881,11 +21193,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="616">
+      <c r="M45" s="627">
         <f>M41+N41</f>
-        <v>3506884.6100000003</v>
-      </c>
-      <c r="N45" s="617"/>
+        <v>3605020.6100000003</v>
+      </c>
+      <c r="N45" s="628"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -20893,7 +21205,7 @@
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="72"/>
-      <c r="D46" s="619"/>
+      <c r="D46" s="512"/>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
       <c r="G46" s="2"/>
@@ -20911,7 +21223,7 @@
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="72"/>
-      <c r="D47" s="619"/>
+      <c r="D47" s="512"/>
       <c r="E47" s="74"/>
       <c r="F47" s="75"/>
       <c r="G47" s="2"/>
@@ -20968,7 +21280,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>469085.5</v>
+        <v>475655.5</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -20976,7 +21288,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>4059418</v>
+        <v>4167672</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -20984,7 +21296,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>99435</v>
+        <v>102983</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -21010,50 +21322,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="523" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="524"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="525">
+      <c r="K52" s="534">
         <f>I50+L50</f>
-        <v>285573.83</v>
-      </c>
-      <c r="L52" s="558"/>
+        <v>289121.83</v>
+      </c>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="529" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="529"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>3304758.67</v>
+        <v>3402894.67</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="559" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="559"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
-        <v>0</v>
-      </c>
-      <c r="I54" s="530" t="s">
+        <v>-1884975.46</v>
+      </c>
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="531"/>
-      <c r="K54" s="532">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
-        <v>3304758.67</v>
-      </c>
-      <c r="L54" s="532"/>
+        <v>1800993.21</v>
+      </c>
+      <c r="L54" s="541"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -21087,18 +21399,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>3304758.67</v>
+        <v>1517919.21</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="534">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="535"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21108,27 +21420,27 @@
         <v>17</v>
       </c>
       <c r="F57" s="111">
-        <v>0</v>
+        <v>283074</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="512" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="513"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="514" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="515"/>
-      <c r="K58" s="516">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
-        <v>1511940.99</v>
-      </c>
-      <c r="L58" s="516"/>
+        <v>8175.5300000000279</v>
+      </c>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21315,11 +21627,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21400,11 +21712,21 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="506"/>
-      <c r="B3" s="438"/>
-      <c r="C3" s="410"/>
-      <c r="D3" s="411"/>
-      <c r="E3" s="410"/>
+      <c r="A3" s="493">
+        <v>44648</v>
+      </c>
+      <c r="B3" s="494" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3" s="495">
+        <v>10026.200000000001</v>
+      </c>
+      <c r="D3" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E3" s="410">
+        <v>10026.200000000001</v>
+      </c>
       <c r="F3" s="410">
         <f>C3-E3</f>
         <v>0</v>
@@ -21420,13 +21742,23 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="454"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="412"/>
-      <c r="E4" s="111"/>
+      <c r="A4" s="493">
+        <v>44649</v>
+      </c>
+      <c r="B4" s="496" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="489">
+        <v>94987.44</v>
+      </c>
+      <c r="D4" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E4" s="111">
+        <v>94987.44</v>
+      </c>
       <c r="F4" s="111">
-        <f t="shared" ref="F4:F46" si="0">C4-E4</f>
+        <f t="shared" ref="F4:F67" si="0">C4-E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
@@ -21441,11 +21773,21 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="454"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="412"/>
-      <c r="E5" s="111"/>
+      <c r="A5" s="493">
+        <v>44650</v>
+      </c>
+      <c r="B5" s="496" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="489">
+        <v>8900.25</v>
+      </c>
+      <c r="D5" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E5" s="111">
+        <v>8900.25</v>
+      </c>
       <c r="F5" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21456,16 +21798,26 @@
       <c r="L5" s="476"/>
       <c r="M5" s="111"/>
       <c r="N5" s="137">
-        <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
+        <f t="shared" ref="N5:N78" si="1">N4+K5-M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="454"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="412"/>
-      <c r="E6" s="111"/>
+      <c r="A6" s="493">
+        <v>44650</v>
+      </c>
+      <c r="B6" s="496" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="489">
+        <v>8045.4</v>
+      </c>
+      <c r="D6" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E6" s="111">
+        <v>8045.4</v>
+      </c>
       <c r="F6" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21481,11 +21833,21 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="454"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="412"/>
-      <c r="E7" s="111"/>
+      <c r="A7" s="497">
+        <v>44651</v>
+      </c>
+      <c r="B7" s="496" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="489">
+        <v>41855.9</v>
+      </c>
+      <c r="D7" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E7" s="111">
+        <v>41855.9</v>
+      </c>
       <c r="F7" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21501,11 +21863,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="454"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="412"/>
-      <c r="E8" s="111"/>
+      <c r="A8" s="354" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="355" t="s">
+        <v>661</v>
+      </c>
+      <c r="C8" s="96">
+        <v>40594.699999999997</v>
+      </c>
+      <c r="D8" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E8" s="96">
+        <v>40594.699999999997</v>
+      </c>
       <c r="F8" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21521,11 +21893,21 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="454"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="412"/>
-      <c r="E9" s="111"/>
+      <c r="A9" s="354" t="s">
+        <v>660</v>
+      </c>
+      <c r="B9" s="355" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="96">
+        <v>33750.6</v>
+      </c>
+      <c r="D9" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E9" s="96">
+        <v>33750.6</v>
+      </c>
       <c r="F9" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21541,11 +21923,21 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="454"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="412"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="354" t="s">
+        <v>663</v>
+      </c>
+      <c r="B10" s="355" t="s">
+        <v>664</v>
+      </c>
+      <c r="C10" s="96">
+        <v>56947.7</v>
+      </c>
+      <c r="D10" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E10" s="96">
+        <v>56947.7</v>
+      </c>
       <c r="F10" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21562,11 +21954,21 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="454"/>
-      <c r="B11" s="246"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="354" t="s">
+        <v>663</v>
+      </c>
+      <c r="B11" s="355" t="s">
+        <v>665</v>
+      </c>
+      <c r="C11" s="96">
+        <v>41220.6</v>
+      </c>
+      <c r="D11" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E11" s="96">
+        <v>41220.6</v>
+      </c>
       <c r="F11" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21582,11 +21984,21 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="454"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="412"/>
-      <c r="E12" s="111"/>
+      <c r="A12" s="354" t="s">
+        <v>666</v>
+      </c>
+      <c r="B12" s="355" t="s">
+        <v>667</v>
+      </c>
+      <c r="C12" s="96">
+        <v>45972.7</v>
+      </c>
+      <c r="D12" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E12" s="96">
+        <v>45972.7</v>
+      </c>
       <c r="F12" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21602,11 +22014,21 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="454"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="412"/>
-      <c r="E13" s="111"/>
+      <c r="A13" s="354" t="s">
+        <v>668</v>
+      </c>
+      <c r="B13" s="355" t="s">
+        <v>669</v>
+      </c>
+      <c r="C13" s="96">
+        <v>0</v>
+      </c>
+      <c r="D13" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E13" s="96">
+        <v>0</v>
+      </c>
       <c r="F13" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21622,11 +22044,21 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="454"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="412"/>
-      <c r="E14" s="111"/>
+      <c r="A14" s="354" t="s">
+        <v>668</v>
+      </c>
+      <c r="B14" s="355" t="s">
+        <v>670</v>
+      </c>
+      <c r="C14" s="96">
+        <v>98237.45</v>
+      </c>
+      <c r="D14" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E14" s="96">
+        <v>98237.45</v>
+      </c>
       <c r="F14" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21642,11 +22074,21 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="454"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="412"/>
-      <c r="E15" s="111"/>
+      <c r="A15" s="354" t="s">
+        <v>671</v>
+      </c>
+      <c r="B15" s="355" t="s">
+        <v>672</v>
+      </c>
+      <c r="C15" s="96">
+        <v>113177.8</v>
+      </c>
+      <c r="D15" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E15" s="96">
+        <v>113177.8</v>
+      </c>
       <c r="F15" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21662,11 +22104,21 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="454"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="412"/>
-      <c r="E16" s="111"/>
+      <c r="A16" s="354" t="s">
+        <v>671</v>
+      </c>
+      <c r="B16" s="355" t="s">
+        <v>673</v>
+      </c>
+      <c r="C16" s="96">
+        <v>56460</v>
+      </c>
+      <c r="D16" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E16" s="96">
+        <v>56460</v>
+      </c>
       <c r="F16" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21682,11 +22134,21 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="454"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="507"/>
-      <c r="E17" s="111"/>
+      <c r="A17" s="354" t="s">
+        <v>671</v>
+      </c>
+      <c r="B17" s="355" t="s">
+        <v>674</v>
+      </c>
+      <c r="C17" s="96">
+        <v>704</v>
+      </c>
+      <c r="D17" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E17" s="96">
+        <v>704</v>
+      </c>
       <c r="F17" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21702,11 +22164,21 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="454"/>
-      <c r="B18" s="246"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="412"/>
-      <c r="E18" s="111"/>
+      <c r="A18" s="354" t="s">
+        <v>675</v>
+      </c>
+      <c r="B18" s="355" t="s">
+        <v>676</v>
+      </c>
+      <c r="C18" s="96">
+        <v>59508.4</v>
+      </c>
+      <c r="D18" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E18" s="96">
+        <v>59508.4</v>
+      </c>
       <c r="F18" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21722,11 +22194,21 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="454"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="412"/>
-      <c r="E19" s="111"/>
+      <c r="A19" s="354" t="s">
+        <v>677</v>
+      </c>
+      <c r="B19" s="355" t="s">
+        <v>678</v>
+      </c>
+      <c r="C19" s="96">
+        <v>69583.75</v>
+      </c>
+      <c r="D19" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E19" s="96">
+        <v>69583.75</v>
+      </c>
       <c r="F19" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21742,11 +22224,21 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="454"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="412"/>
-      <c r="E20" s="111"/>
+      <c r="A20" s="354" t="s">
+        <v>677</v>
+      </c>
+      <c r="B20" s="355" t="s">
+        <v>679</v>
+      </c>
+      <c r="C20" s="96">
+        <v>49806</v>
+      </c>
+      <c r="D20" s="411">
+        <v>44670</v>
+      </c>
+      <c r="E20" s="96">
+        <v>49806</v>
+      </c>
       <c r="F20" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21762,14 +22254,20 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="454"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="354" t="s">
+        <v>680</v>
+      </c>
+      <c r="B21" s="355" t="s">
+        <v>681</v>
+      </c>
+      <c r="C21" s="96">
+        <v>67001.67</v>
+      </c>
       <c r="D21" s="412"/>
       <c r="E21" s="111"/>
       <c r="F21" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67001.67</v>
       </c>
       <c r="I21" s="370"/>
       <c r="J21" s="57"/>
@@ -21782,14 +22280,20 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="454"/>
-      <c r="B22" s="246"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="354" t="s">
+        <v>680</v>
+      </c>
+      <c r="B22" s="355" t="s">
+        <v>682</v>
+      </c>
+      <c r="C22" s="96">
+        <v>5256</v>
+      </c>
       <c r="D22" s="412"/>
       <c r="E22" s="111"/>
       <c r="F22" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5256</v>
       </c>
       <c r="G22" s="138"/>
       <c r="I22" s="370"/>
@@ -21803,14 +22307,20 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="454"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="111"/>
+      <c r="A23" s="354" t="s">
+        <v>683</v>
+      </c>
+      <c r="B23" s="355" t="s">
+        <v>684</v>
+      </c>
+      <c r="C23" s="96">
+        <v>40472.6</v>
+      </c>
       <c r="D23" s="412"/>
       <c r="E23" s="111"/>
       <c r="F23" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40472.6</v>
       </c>
       <c r="I23" s="370"/>
       <c r="J23" s="57"/>
@@ -21823,14 +22333,20 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="454"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="111"/>
+      <c r="A24" s="354" t="s">
+        <v>683</v>
+      </c>
+      <c r="B24" s="355" t="s">
+        <v>685</v>
+      </c>
+      <c r="C24" s="96">
+        <v>3906</v>
+      </c>
       <c r="D24" s="412"/>
       <c r="E24" s="111"/>
       <c r="F24" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3906</v>
       </c>
       <c r="I24" s="370"/>
       <c r="J24" s="57"/>
@@ -21843,14 +22359,20 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="454"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="354" t="s">
+        <v>686</v>
+      </c>
+      <c r="B25" s="355" t="s">
+        <v>687</v>
+      </c>
+      <c r="C25" s="96">
+        <v>33820.800000000003</v>
+      </c>
       <c r="D25" s="412"/>
       <c r="E25" s="111"/>
       <c r="F25" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33820.800000000003</v>
       </c>
       <c r="I25" s="245"/>
       <c r="J25" s="57"/>
@@ -21863,14 +22385,20 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="454"/>
-      <c r="B26" s="246"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="354" t="s">
+        <v>688</v>
+      </c>
+      <c r="B26" s="355" t="s">
+        <v>689</v>
+      </c>
+      <c r="C26" s="96">
+        <v>36277.25</v>
+      </c>
       <c r="D26" s="412"/>
       <c r="E26" s="111"/>
       <c r="F26" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36277.25</v>
       </c>
       <c r="I26" s="245"/>
       <c r="J26" s="57"/>
@@ -21883,14 +22411,20 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="454"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="507"/>
+      <c r="A27" s="354" t="s">
+        <v>690</v>
+      </c>
+      <c r="B27" s="355" t="s">
+        <v>691</v>
+      </c>
+      <c r="C27" s="96">
+        <v>61531.34</v>
+      </c>
+      <c r="D27" s="506"/>
       <c r="E27" s="111"/>
       <c r="F27" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61531.34</v>
       </c>
       <c r="I27" s="245"/>
       <c r="J27" s="57"/>
@@ -21903,14 +22437,20 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="454"/>
-      <c r="B28" s="246"/>
-      <c r="C28" s="111"/>
+      <c r="A28" s="354" t="s">
+        <v>690</v>
+      </c>
+      <c r="B28" s="355" t="s">
+        <v>692</v>
+      </c>
+      <c r="C28" s="96">
+        <v>12189.9</v>
+      </c>
       <c r="D28" s="412"/>
       <c r="E28" s="111"/>
       <c r="F28" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12189.9</v>
       </c>
       <c r="I28" s="245"/>
       <c r="J28" s="57"/>
@@ -21923,14 +22463,20 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="454"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="111"/>
+      <c r="A29" s="354" t="s">
+        <v>693</v>
+      </c>
+      <c r="B29" s="355" t="s">
+        <v>694</v>
+      </c>
+      <c r="C29" s="96">
+        <v>64256.75</v>
+      </c>
       <c r="D29" s="412"/>
       <c r="E29" s="111"/>
       <c r="F29" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64256.75</v>
       </c>
       <c r="I29" s="245"/>
       <c r="J29" s="57"/>
@@ -21943,14 +22489,20 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="454"/>
-      <c r="B30" s="246"/>
-      <c r="C30" s="111"/>
+      <c r="A30" s="354" t="s">
+        <v>695</v>
+      </c>
+      <c r="B30" s="355" t="s">
+        <v>696</v>
+      </c>
+      <c r="C30" s="96">
+        <v>53375.8</v>
+      </c>
       <c r="D30" s="412"/>
       <c r="E30" s="111"/>
       <c r="F30" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53375.8</v>
       </c>
       <c r="G30" s="138"/>
       <c r="I30" s="245"/>
@@ -21964,14 +22516,20 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="454"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="111"/>
+      <c r="A31" s="354" t="s">
+        <v>697</v>
+      </c>
+      <c r="B31" s="355" t="s">
+        <v>698</v>
+      </c>
+      <c r="C31" s="96">
+        <v>126366.49</v>
+      </c>
       <c r="D31" s="412"/>
       <c r="E31" s="111"/>
       <c r="F31" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>126366.49</v>
       </c>
       <c r="I31" s="370"/>
       <c r="J31" s="57"/>
@@ -21984,14 +22542,20 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="454"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="111"/>
+      <c r="A32" s="354" t="s">
+        <v>697</v>
+      </c>
+      <c r="B32" s="355" t="s">
+        <v>699</v>
+      </c>
+      <c r="C32" s="96">
+        <v>6102</v>
+      </c>
       <c r="D32" s="412"/>
       <c r="E32" s="111"/>
       <c r="F32" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6102</v>
       </c>
       <c r="I32" s="370"/>
       <c r="J32" s="57"/>
@@ -22004,14 +22568,20 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="454"/>
-      <c r="B33" s="246"/>
-      <c r="C33" s="111"/>
+      <c r="A33" s="354" t="s">
+        <v>697</v>
+      </c>
+      <c r="B33" s="355" t="s">
+        <v>700</v>
+      </c>
+      <c r="C33" s="96">
+        <v>4812</v>
+      </c>
       <c r="D33" s="412"/>
       <c r="E33" s="111"/>
       <c r="F33" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4812</v>
       </c>
       <c r="I33" s="370"/>
       <c r="J33" s="57"/>
@@ -22024,14 +22594,20 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="454"/>
-      <c r="B34" s="246"/>
-      <c r="C34" s="111"/>
+      <c r="A34" s="354" t="s">
+        <v>701</v>
+      </c>
+      <c r="B34" s="355" t="s">
+        <v>702</v>
+      </c>
+      <c r="C34" s="96">
+        <v>10160.6</v>
+      </c>
       <c r="D34" s="412"/>
       <c r="E34" s="111"/>
       <c r="F34" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10160.6</v>
       </c>
       <c r="I34" s="370"/>
       <c r="J34" s="57"/>
@@ -22044,14 +22620,20 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="454"/>
-      <c r="B35" s="246"/>
-      <c r="C35" s="111"/>
+      <c r="A35" s="354" t="s">
+        <v>701</v>
+      </c>
+      <c r="B35" s="355" t="s">
+        <v>703</v>
+      </c>
+      <c r="C35" s="96">
+        <v>75337.5</v>
+      </c>
       <c r="D35" s="412"/>
       <c r="E35" s="111"/>
       <c r="F35" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75337.5</v>
       </c>
       <c r="I35" s="370"/>
       <c r="J35" s="57"/>
@@ -22064,14 +22646,20 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="454"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="354" t="s">
+        <v>704</v>
+      </c>
+      <c r="B36" s="355" t="s">
+        <v>705</v>
+      </c>
+      <c r="C36" s="96">
+        <v>29920.44</v>
+      </c>
       <c r="D36" s="412"/>
       <c r="E36" s="111"/>
       <c r="F36" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29920.44</v>
       </c>
       <c r="I36" s="370"/>
       <c r="J36" s="57"/>
@@ -22084,14 +22672,20 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="454"/>
-      <c r="B37" s="246"/>
-      <c r="C37" s="111"/>
+      <c r="A37" s="354" t="s">
+        <v>706</v>
+      </c>
+      <c r="B37" s="355" t="s">
+        <v>707</v>
+      </c>
+      <c r="C37" s="96">
+        <v>72246.7</v>
+      </c>
       <c r="D37" s="412"/>
       <c r="E37" s="111"/>
       <c r="F37" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72246.7</v>
       </c>
       <c r="I37" s="370"/>
       <c r="J37" s="57"/>
@@ -22104,14 +22698,20 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="454"/>
-      <c r="B38" s="246"/>
-      <c r="C38" s="111"/>
+      <c r="A38" s="354" t="s">
+        <v>706</v>
+      </c>
+      <c r="B38" s="355" t="s">
+        <v>708</v>
+      </c>
+      <c r="C38" s="96">
+        <v>3036</v>
+      </c>
       <c r="D38" s="412"/>
       <c r="E38" s="111"/>
       <c r="F38" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3036</v>
       </c>
       <c r="I38" s="288"/>
       <c r="J38" s="57"/>
@@ -22124,14 +22724,20 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="454"/>
-      <c r="B39" s="246"/>
-      <c r="C39" s="111"/>
+      <c r="A39" s="354" t="s">
+        <v>709</v>
+      </c>
+      <c r="B39" s="355" t="s">
+        <v>710</v>
+      </c>
+      <c r="C39" s="96">
+        <v>1627.2</v>
+      </c>
       <c r="D39" s="412"/>
       <c r="E39" s="111"/>
       <c r="F39" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1627.2</v>
       </c>
       <c r="I39" s="288"/>
       <c r="J39" s="57"/>
@@ -22144,14 +22750,20 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="454"/>
-      <c r="B40" s="246"/>
-      <c r="C40" s="111"/>
+      <c r="A40" s="354" t="s">
+        <v>709</v>
+      </c>
+      <c r="B40" s="355" t="s">
+        <v>711</v>
+      </c>
+      <c r="C40" s="96">
+        <v>1238.8</v>
+      </c>
       <c r="D40" s="412"/>
       <c r="E40" s="111"/>
       <c r="F40" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1238.8</v>
       </c>
       <c r="I40" s="288"/>
       <c r="J40" s="57"/>
@@ -22164,14 +22776,20 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="454"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="111"/>
+      <c r="A41" s="354" t="s">
+        <v>709</v>
+      </c>
+      <c r="B41" s="355" t="s">
+        <v>712</v>
+      </c>
+      <c r="C41" s="96">
+        <v>62762.55</v>
+      </c>
       <c r="D41" s="412"/>
       <c r="E41" s="111"/>
       <c r="F41" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62762.55</v>
       </c>
       <c r="I41" s="288"/>
       <c r="J41" s="57"/>
@@ -22184,14 +22802,20 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="454"/>
-      <c r="B42" s="246"/>
-      <c r="C42" s="111"/>
+      <c r="A42" s="354" t="s">
+        <v>713</v>
+      </c>
+      <c r="B42" s="355" t="s">
+        <v>714</v>
+      </c>
+      <c r="C42" s="96">
+        <v>46744.6</v>
+      </c>
       <c r="D42" s="253"/>
       <c r="E42" s="69"/>
       <c r="F42" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46744.6</v>
       </c>
       <c r="I42" s="288"/>
       <c r="J42" s="57"/>
@@ -22204,14 +22828,20 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="454"/>
-      <c r="B43" s="439"/>
-      <c r="C43" s="413"/>
+      <c r="A43" s="354" t="s">
+        <v>715</v>
+      </c>
+      <c r="B43" s="355" t="s">
+        <v>716</v>
+      </c>
+      <c r="C43" s="96">
+        <v>14500.7</v>
+      </c>
       <c r="D43" s="413"/>
       <c r="E43" s="413"/>
       <c r="F43" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14500.7</v>
       </c>
       <c r="I43" s="288"/>
       <c r="J43" s="57"/>
@@ -22223,347 +22853,330 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="454"/>
-      <c r="B44" s="439"/>
-      <c r="C44" s="413"/>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="354" t="s">
+        <v>715</v>
+      </c>
+      <c r="B44" s="355" t="s">
+        <v>717</v>
+      </c>
+      <c r="C44" s="96">
+        <v>41351.199999999997</v>
+      </c>
       <c r="D44" s="413"/>
       <c r="E44" s="413"/>
       <c r="F44" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41351.199999999997</v>
       </c>
       <c r="I44" s="288"/>
       <c r="J44" s="57"/>
       <c r="K44" s="111"/>
       <c r="L44" s="476"/>
       <c r="M44" s="69"/>
-      <c r="N44" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N44" s="137"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="454"/>
-      <c r="B45" s="439"/>
-      <c r="C45" s="413"/>
+      <c r="A45" s="354" t="s">
+        <v>715</v>
+      </c>
+      <c r="B45" s="355" t="s">
+        <v>718</v>
+      </c>
+      <c r="C45" s="96">
+        <v>5624</v>
+      </c>
       <c r="D45" s="413"/>
       <c r="E45" s="413"/>
       <c r="F45" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5624</v>
       </c>
       <c r="I45" s="288"/>
       <c r="J45" s="57"/>
       <c r="K45" s="111"/>
       <c r="L45" s="476"/>
       <c r="M45" s="69"/>
-      <c r="N45" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N45" s="137"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="454"/>
-      <c r="B46" s="246"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="253"/>
-      <c r="E46" s="69"/>
+      <c r="A46" s="354" t="s">
+        <v>719</v>
+      </c>
+      <c r="B46" s="355" t="s">
+        <v>720</v>
+      </c>
+      <c r="C46" s="96">
+        <v>45618</v>
+      </c>
+      <c r="D46" s="413"/>
+      <c r="E46" s="413"/>
       <c r="F46" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45618</v>
       </c>
       <c r="I46" s="288"/>
       <c r="J46" s="57"/>
       <c r="K46" s="111"/>
       <c r="L46" s="476"/>
       <c r="M46" s="69"/>
-      <c r="N46" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N46" s="137"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="454"/>
-      <c r="B47" s="246"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="253"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="363">
-        <f t="shared" ref="F47:F78" si="2">F46+C47-E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="350"/>
-      <c r="J47" s="415"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="416"/>
-      <c r="M47" s="215"/>
-      <c r="N47" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A47" s="354" t="s">
+        <v>721</v>
+      </c>
+      <c r="B47" s="355" t="s">
+        <v>722</v>
+      </c>
+      <c r="C47" s="96">
+        <v>35193.4</v>
+      </c>
+      <c r="D47" s="413"/>
+      <c r="E47" s="413"/>
+      <c r="F47" s="111">
+        <f t="shared" si="0"/>
+        <v>35193.4</v>
+      </c>
+      <c r="I47" s="288"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="476"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="137"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="454"/>
-      <c r="B48" s="246"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="253"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="363">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="348"/>
-      <c r="J48" s="414"/>
-      <c r="K48" s="414"/>
-      <c r="L48" s="477"/>
-      <c r="M48" s="206"/>
-      <c r="N48" s="137">
-        <f>N47+K48-M48</f>
-        <v>0</v>
-      </c>
+      <c r="A48" s="354" t="s">
+        <v>723</v>
+      </c>
+      <c r="B48" s="355" t="s">
+        <v>724</v>
+      </c>
+      <c r="C48" s="96">
+        <v>69268.88</v>
+      </c>
+      <c r="D48" s="413"/>
+      <c r="E48" s="413"/>
+      <c r="F48" s="111">
+        <f t="shared" si="0"/>
+        <v>69268.88</v>
+      </c>
+      <c r="I48" s="288"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="476"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="137"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="253"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="348"/>
-      <c r="J49" s="414"/>
-      <c r="K49" s="414"/>
-      <c r="L49" s="477"/>
-      <c r="M49" s="206"/>
-      <c r="N49" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A49" s="354" t="s">
+        <v>725</v>
+      </c>
+      <c r="B49" s="355" t="s">
+        <v>726</v>
+      </c>
+      <c r="C49" s="96">
+        <v>25197.4</v>
+      </c>
+      <c r="D49" s="413"/>
+      <c r="E49" s="413"/>
+      <c r="F49" s="111">
+        <f t="shared" si="0"/>
+        <v>25197.4</v>
+      </c>
+      <c r="I49" s="288"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="476"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="137"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="253"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="134"/>
-      <c r="J50" s="408"/>
-      <c r="K50" s="215">
-        <v>0</v>
-      </c>
-      <c r="L50" s="409"/>
+      <c r="A50" s="454"/>
+      <c r="B50" s="439"/>
+      <c r="C50" s="413"/>
+      <c r="D50" s="413"/>
+      <c r="E50" s="413"/>
+      <c r="F50" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="288"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="476"/>
       <c r="M50" s="69"/>
-      <c r="N50" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="253"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="134"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="140"/>
+      <c r="N50" s="137"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="454"/>
+      <c r="B51" s="439"/>
+      <c r="C51" s="413"/>
+      <c r="D51" s="413"/>
+      <c r="E51" s="413"/>
+      <c r="F51" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="288"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="476"/>
       <c r="M51" s="69"/>
-      <c r="N51" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="253"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="134"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="140"/>
+      <c r="N51" s="137"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="454"/>
+      <c r="B52" s="439"/>
+      <c r="C52" s="413"/>
+      <c r="D52" s="413"/>
+      <c r="E52" s="413"/>
+      <c r="F52" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="288"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="476"/>
       <c r="M52" s="69"/>
-      <c r="N52" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="134"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="134"/>
-      <c r="J53" s="139"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="140"/>
+      <c r="N52" s="137"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="454"/>
+      <c r="B53" s="439"/>
+      <c r="C53" s="413"/>
+      <c r="D53" s="413"/>
+      <c r="E53" s="413"/>
+      <c r="F53" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="288"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="476"/>
       <c r="M53" s="69"/>
-      <c r="N53" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="134"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="253"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="134"/>
-      <c r="J54" s="139"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="140"/>
+      <c r="N53" s="137"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="454"/>
+      <c r="B54" s="439"/>
+      <c r="C54" s="413"/>
+      <c r="D54" s="413"/>
+      <c r="E54" s="413"/>
+      <c r="F54" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="288"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="476"/>
       <c r="M54" s="69"/>
-      <c r="N54" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="134"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="253"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="134"/>
-      <c r="J55" s="139"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="140"/>
+      <c r="N54" s="137"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="454"/>
+      <c r="B55" s="439"/>
+      <c r="C55" s="413"/>
+      <c r="D55" s="413"/>
+      <c r="E55" s="413"/>
+      <c r="F55" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="288"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="476"/>
       <c r="M55" s="69"/>
-      <c r="N55" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="134"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="253"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="134"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="140"/>
+      <c r="N55" s="137"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="454"/>
+      <c r="B56" s="439"/>
+      <c r="C56" s="413"/>
+      <c r="D56" s="413"/>
+      <c r="E56" s="413"/>
+      <c r="F56" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="288"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="476"/>
       <c r="M56" s="69"/>
-      <c r="N56" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="134"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="253"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="134"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="140"/>
+      <c r="N56" s="137"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="454"/>
+      <c r="B57" s="439"/>
+      <c r="C57" s="413"/>
+      <c r="D57" s="413"/>
+      <c r="E57" s="413"/>
+      <c r="F57" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="288"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="476"/>
       <c r="M57" s="69"/>
-      <c r="N57" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="134"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="140"/>
+      <c r="N57" s="137"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="454"/>
+      <c r="B58" s="439"/>
+      <c r="C58" s="413"/>
+      <c r="D58" s="413"/>
+      <c r="E58" s="413"/>
+      <c r="F58" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="288"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="476"/>
       <c r="M58" s="69"/>
-      <c r="N58" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="134"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="253"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="134"/>
-      <c r="J59" s="139"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="140"/>
+      <c r="N58" s="137"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="454"/>
+      <c r="B59" s="439"/>
+      <c r="C59" s="413"/>
+      <c r="D59" s="413"/>
+      <c r="E59" s="413"/>
+      <c r="F59" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="288"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="476"/>
       <c r="M59" s="69"/>
-      <c r="N59" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="134"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="253"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="134"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="140"/>
+      <c r="N59" s="137"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="454"/>
+      <c r="B60" s="439"/>
+      <c r="C60" s="413"/>
+      <c r="D60" s="413"/>
+      <c r="E60" s="413"/>
+      <c r="F60" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="288"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="476"/>
       <c r="M60" s="69"/>
-      <c r="N60" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N60" s="137"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="134"/>
@@ -22571,8 +23184,8 @@
       <c r="C61" s="69"/>
       <c r="D61" s="253"/>
       <c r="E61" s="69"/>
-      <c r="F61" s="137">
-        <f t="shared" si="2"/>
+      <c r="F61" s="111">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I61" s="134"/>
@@ -22580,209 +23193,209 @@
       <c r="K61" s="69"/>
       <c r="L61" s="140"/>
       <c r="M61" s="69"/>
-      <c r="N61" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N61" s="137" t="e">
+        <f>#REF!+K61-M61</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="134"/>
       <c r="B62" s="139"/>
       <c r="C62" s="69"/>
-      <c r="D62" s="254"/>
+      <c r="D62" s="253"/>
       <c r="E62" s="69"/>
-      <c r="F62" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="356"/>
-      <c r="J62" s="357"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="147"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F62" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="134"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="134"/>
       <c r="B63" s="139"/>
       <c r="C63" s="69"/>
-      <c r="D63" s="254"/>
+      <c r="D63" s="253"/>
       <c r="E63" s="69"/>
-      <c r="F63" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="356"/>
-      <c r="J63" s="357"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="147"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F63" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="134"/>
+      <c r="J63" s="139"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="134"/>
       <c r="B64" s="139"/>
       <c r="C64" s="69"/>
-      <c r="D64" s="254"/>
+      <c r="D64" s="253"/>
       <c r="E64" s="69"/>
-      <c r="F64" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="356"/>
-      <c r="J64" s="357"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F64" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="134"/>
+      <c r="J64" s="139"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="134"/>
       <c r="B65" s="139"/>
       <c r="C65" s="69"/>
-      <c r="D65" s="254"/>
+      <c r="D65" s="253"/>
       <c r="E65" s="69"/>
-      <c r="F65" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="356"/>
-      <c r="J65" s="357"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="147"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F65" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="134"/>
+      <c r="J65" s="139"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="134"/>
       <c r="B66" s="139"/>
       <c r="C66" s="69"/>
-      <c r="D66" s="254"/>
+      <c r="D66" s="253"/>
       <c r="E66" s="69"/>
-      <c r="F66" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="356"/>
-      <c r="J66" s="357"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="147"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F66" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="134"/>
+      <c r="J66" s="139"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="356"/>
-      <c r="B67" s="357"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="356"/>
-      <c r="J67" s="357"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="147"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A67" s="134"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="253"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="134"/>
+      <c r="J67" s="139"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="134"/>
       <c r="B68" s="139"/>
       <c r="C68" s="69"/>
-      <c r="D68" s="254"/>
+      <c r="D68" s="253"/>
       <c r="E68" s="69"/>
-      <c r="F68" s="137">
-        <f t="shared" si="2"/>
+      <c r="F68" s="111">
+        <f t="shared" ref="F68:F87" si="2">C68-E68</f>
         <v>0</v>
       </c>
       <c r="I68" s="134"/>
       <c r="J68" s="139"/>
       <c r="K68" s="69"/>
-      <c r="L68" s="148"/>
+      <c r="L68" s="140"/>
       <c r="M68" s="69"/>
-      <c r="N68" s="137">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N68" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="134"/>
       <c r="B69" s="139"/>
       <c r="C69" s="69"/>
-      <c r="D69" s="254"/>
+      <c r="D69" s="253"/>
       <c r="E69" s="69"/>
-      <c r="F69" s="137">
+      <c r="F69" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I69" s="134"/>
       <c r="J69" s="139"/>
       <c r="K69" s="69"/>
-      <c r="L69" s="148"/>
+      <c r="L69" s="140"/>
       <c r="M69" s="69"/>
-      <c r="N69" s="137">
-        <f t="shared" ref="N69:N78" si="3">N68+K69-M69</f>
-        <v>0</v>
+      <c r="N69" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="134"/>
       <c r="B70" s="139"/>
       <c r="C70" s="69"/>
-      <c r="D70" s="254"/>
+      <c r="D70" s="253"/>
       <c r="E70" s="69"/>
-      <c r="F70" s="137">
+      <c r="F70" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I70" s="134"/>
       <c r="J70" s="139"/>
       <c r="K70" s="69"/>
-      <c r="L70" s="148"/>
+      <c r="L70" s="140"/>
       <c r="M70" s="69"/>
-      <c r="N70" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="N70" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="134"/>
       <c r="B71" s="139"/>
       <c r="C71" s="69"/>
-      <c r="D71" s="254"/>
+      <c r="D71" s="253"/>
       <c r="E71" s="69"/>
-      <c r="F71" s="137">
+      <c r="F71" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I71" s="134"/>
       <c r="J71" s="139"/>
       <c r="K71" s="69"/>
-      <c r="L71" s="148"/>
+      <c r="L71" s="140"/>
       <c r="M71" s="69"/>
-      <c r="N71" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="N71" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22791,18 +23404,18 @@
       <c r="C72" s="69"/>
       <c r="D72" s="254"/>
       <c r="E72" s="69"/>
-      <c r="F72" s="137">
+      <c r="F72" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="134"/>
-      <c r="J72" s="139"/>
-      <c r="K72" s="69"/>
-      <c r="L72" s="148"/>
-      <c r="M72" s="69"/>
-      <c r="N72" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I72" s="356"/>
+      <c r="J72" s="357"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="147"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22811,18 +23424,18 @@
       <c r="C73" s="69"/>
       <c r="D73" s="254"/>
       <c r="E73" s="69"/>
-      <c r="F73" s="137">
+      <c r="F73" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="134"/>
-      <c r="J73" s="139"/>
-      <c r="K73" s="69"/>
-      <c r="L73" s="148"/>
-      <c r="M73" s="69"/>
-      <c r="N73" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I73" s="356"/>
+      <c r="J73" s="357"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="147"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22831,18 +23444,18 @@
       <c r="C74" s="69"/>
       <c r="D74" s="254"/>
       <c r="E74" s="69"/>
-      <c r="F74" s="137">
+      <c r="F74" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I74" s="134"/>
-      <c r="J74" s="139"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="148"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I74" s="356"/>
+      <c r="J74" s="357"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="147"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22851,18 +23464,18 @@
       <c r="C75" s="69"/>
       <c r="D75" s="254"/>
       <c r="E75" s="69"/>
-      <c r="F75" s="137">
+      <c r="F75" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I75" s="134"/>
-      <c r="J75" s="139"/>
-      <c r="K75" s="69"/>
-      <c r="L75" s="148"/>
-      <c r="M75" s="69"/>
-      <c r="N75" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I75" s="356"/>
+      <c r="J75" s="357"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="147"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22871,394 +23484,571 @@
       <c r="C76" s="69"/>
       <c r="D76" s="254"/>
       <c r="E76" s="69"/>
-      <c r="F76" s="137">
+      <c r="F76" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="134"/>
-      <c r="J76" s="139"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="148"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="137">
+      <c r="I76" s="356"/>
+      <c r="J76" s="357"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="147"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="356"/>
+      <c r="B77" s="357"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="356"/>
+      <c r="J77" s="357"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="147"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="134"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="254"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="134"/>
+      <c r="J78" s="139"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="148"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="134"/>
+      <c r="B79" s="139"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="254"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="134"/>
+      <c r="J79" s="139"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="148"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="137" t="e">
+        <f t="shared" ref="N79:N88" si="3">N78+K79-M79</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="134"/>
+      <c r="B80" s="139"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="254"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="134"/>
+      <c r="J80" s="139"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="148"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="137" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="134"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="254"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="137">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="134"/>
+      <c r="B81" s="139"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="254"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="134"/>
-      <c r="J77" s="139"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="148"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="137">
+      <c r="I81" s="134"/>
+      <c r="J81" s="139"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="148"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="137" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="149"/>
-      <c r="B78" s="210"/>
-      <c r="C78" s="34">
-        <v>0</v>
-      </c>
-      <c r="D78" s="255"/>
-      <c r="E78" s="151"/>
-      <c r="F78" s="137">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="134"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="254"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I78" s="149"/>
-      <c r="J78" s="150"/>
-      <c r="K78" s="151">
-        <v>0</v>
-      </c>
-      <c r="L78" s="152"/>
-      <c r="M78" s="151"/>
-      <c r="N78" s="137">
+      <c r="I82" s="134"/>
+      <c r="J82" s="139"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="148"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="137" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="440"/>
-      <c r="C79" s="212">
-        <f>SUM(C3:C78)</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="407"/>
-      <c r="E79" s="395">
-        <f>SUM(E3:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="153">
-        <f>SUM(F3:F78)</f>
-        <v>0</v>
-      </c>
-      <c r="K79" s="209">
-        <f>SUM(K3:K78)</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="478"/>
-      <c r="M79" s="209">
-        <f>SUM(M3:M78)</f>
-        <v>0</v>
-      </c>
-      <c r="N79" s="153">
-        <f>N78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="441"/>
-      <c r="C80" s="214"/>
-      <c r="D80" s="256"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="574" t="s">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="134"/>
+      <c r="B83" s="139"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="254"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="134"/>
+      <c r="J83" s="139"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="148"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="134"/>
+      <c r="B84" s="139"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="254"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="134"/>
+      <c r="J84" s="139"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="148"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="134"/>
+      <c r="B85" s="139"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="254"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="134"/>
+      <c r="J85" s="139"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="148"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="134"/>
+      <c r="B86" s="139"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="254"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="134"/>
+      <c r="J86" s="139"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="148"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="134"/>
+      <c r="B87" s="139"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="254"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="134"/>
+      <c r="J87" s="139"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="148"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="149"/>
+      <c r="B88" s="210"/>
+      <c r="C88" s="34">
+        <v>0</v>
+      </c>
+      <c r="D88" s="255"/>
+      <c r="E88" s="151"/>
+      <c r="F88" s="137">
+        <v>0</v>
+      </c>
+      <c r="I88" s="149"/>
+      <c r="J88" s="150"/>
+      <c r="K88" s="151">
+        <v>0</v>
+      </c>
+      <c r="L88" s="152"/>
+      <c r="M88" s="151"/>
+      <c r="N88" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="440"/>
+      <c r="C89" s="212">
+        <f>SUM(C3:C88)</f>
+        <v>1884975.46</v>
+      </c>
+      <c r="D89" s="407"/>
+      <c r="E89" s="395">
+        <f>SUM(E3:E88)</f>
+        <v>829778.89</v>
+      </c>
+      <c r="F89" s="153">
+        <f>SUM(F3:F88)</f>
+        <v>1055196.5699999998</v>
+      </c>
+      <c r="K89" s="209">
+        <f>SUM(K3:K88)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="478"/>
+      <c r="M89" s="209">
+        <f>SUM(M3:M88)</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="153" t="e">
+        <f>N88</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="441"/>
+      <c r="C90" s="214"/>
+      <c r="D90" s="256"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="583" t="s">
         <v>207</v>
       </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="97"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="163"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="256"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="575"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="97"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="456"/>
-      <c r="B82" s="442"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="504"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="505"/>
-      <c r="M82" s="6"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="456"/>
-      <c r="B83" s="442"/>
-      <c r="I83" s="612" t="s">
+      <c r="K90" s="1"/>
+      <c r="L90" s="97"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="163"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="256"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="584"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="97"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="456"/>
+      <c r="B92" s="442"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="504"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="505"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="456"/>
+      <c r="B93" s="442"/>
+      <c r="I93" s="621" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="613"/>
-    </row>
-    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="456"/>
-      <c r="B84" s="442"/>
-      <c r="I84" s="614"/>
-      <c r="J84" s="615"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="456"/>
-      <c r="B85" s="442"/>
-      <c r="F85"/>
-      <c r="I85"/>
-      <c r="J85" s="194"/>
-      <c r="N85"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="456"/>
-      <c r="B86" s="442"/>
-      <c r="F86"/>
-      <c r="I86"/>
-      <c r="J86" s="194"/>
-      <c r="N86"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="456"/>
-      <c r="B87" s="442"/>
-      <c r="F87"/>
-      <c r="I87"/>
-      <c r="J87" s="194"/>
-      <c r="N87"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="456"/>
-      <c r="B88" s="442"/>
-      <c r="F88"/>
-      <c r="I88"/>
-      <c r="J88" s="194"/>
-      <c r="N88"/>
-    </row>
-    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="493">
-        <v>44648</v>
-      </c>
-      <c r="B89" s="494" t="s">
-        <v>610</v>
-      </c>
-      <c r="C89" s="495">
-        <v>10026.200000000001</v>
-      </c>
-      <c r="F89"/>
-      <c r="I89"/>
-      <c r="J89" s="194"/>
-      <c r="N89"/>
-    </row>
-    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="493">
-        <v>44649</v>
-      </c>
-      <c r="B90" s="496" t="s">
-        <v>611</v>
-      </c>
-      <c r="C90" s="489">
-        <v>94987.44</v>
-      </c>
-      <c r="F90"/>
-      <c r="I90"/>
-      <c r="J90" s="194"/>
-      <c r="N90"/>
-    </row>
-    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="493">
-        <v>44650</v>
-      </c>
-      <c r="B91" s="496" t="s">
-        <v>612</v>
-      </c>
-      <c r="C91" s="489">
-        <v>8900.25</v>
-      </c>
-      <c r="F91"/>
-      <c r="I91"/>
-      <c r="J91" s="194"/>
-      <c r="N91"/>
-    </row>
-    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="493">
-        <v>44650</v>
-      </c>
-      <c r="B92" s="496" t="s">
-        <v>613</v>
-      </c>
-      <c r="C92" s="489">
-        <v>8045.4</v>
-      </c>
-      <c r="F92"/>
-      <c r="I92"/>
-      <c r="J92" s="194"/>
-      <c r="N92"/>
-    </row>
-    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="497">
-        <v>44651</v>
-      </c>
-      <c r="B93" s="496" t="s">
-        <v>614</v>
-      </c>
-      <c r="C93" s="489">
-        <v>41855.9</v>
-      </c>
-      <c r="F93"/>
-      <c r="I93"/>
-      <c r="J93" s="194"/>
-      <c r="N93"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J93" s="622"/>
+    </row>
+    <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
-      <c r="B94" s="442"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="I94"/>
-      <c r="J94" s="194"/>
-      <c r="M94"/>
-      <c r="N94"/>
+      <c r="B94" s="629" t="s">
+        <v>728</v>
+      </c>
+      <c r="C94" s="630"/>
+      <c r="D94" s="631"/>
+      <c r="E94" s="632"/>
+      <c r="I94" s="623"/>
+      <c r="J94" s="624"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
       <c r="B95" s="442"/>
-      <c r="E95"/>
       <c r="F95"/>
       <c r="I95"/>
       <c r="J95" s="194"/>
-      <c r="M95"/>
       <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="456"/>
       <c r="B96" s="442"/>
-      <c r="E96"/>
       <c r="F96"/>
       <c r="I96"/>
       <c r="J96" s="194"/>
-      <c r="M96"/>
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="456"/>
-      <c r="B97" s="442"/>
-      <c r="E97"/>
+      <c r="A97" s="514"/>
+      <c r="B97" s="515"/>
+      <c r="C97" s="129"/>
       <c r="F97"/>
       <c r="I97"/>
       <c r="J97" s="194"/>
-      <c r="M97"/>
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="456"/>
-      <c r="B98" s="442"/>
-      <c r="E98"/>
+      <c r="A98" s="514"/>
+      <c r="B98" s="515"/>
+      <c r="C98" s="129"/>
       <c r="F98"/>
       <c r="I98"/>
       <c r="J98" s="194"/>
-      <c r="M98"/>
       <c r="N98"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="456"/>
-      <c r="B99" s="442"/>
-      <c r="E99"/>
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="516"/>
+      <c r="B99" s="517"/>
+      <c r="C99" s="233"/>
       <c r="F99"/>
       <c r="I99"/>
       <c r="J99" s="194"/>
-      <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="442"/>
-      <c r="E100"/>
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="516"/>
+      <c r="B100" s="517"/>
+      <c r="C100" s="233"/>
+      <c r="F100"/>
+      <c r="I100"/>
       <c r="J100" s="194"/>
-      <c r="M100"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="442"/>
-      <c r="E101"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="516"/>
+      <c r="B101" s="517"/>
+      <c r="C101" s="233"/>
+      <c r="F101"/>
+      <c r="I101"/>
       <c r="J101" s="194"/>
-      <c r="M101"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="442"/>
-      <c r="E102"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="516"/>
+      <c r="B102" s="517"/>
+      <c r="C102" s="233"/>
+      <c r="F102"/>
+      <c r="I102"/>
       <c r="J102" s="194"/>
-      <c r="M102"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="442"/>
-      <c r="E103"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="516"/>
+      <c r="B103" s="517"/>
+      <c r="C103" s="233"/>
+      <c r="F103"/>
+      <c r="I103"/>
       <c r="J103" s="194"/>
-      <c r="M103"/>
+      <c r="N103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="442"/>
+      <c r="A104" s="514"/>
+      <c r="B104" s="515"/>
+      <c r="C104" s="129"/>
       <c r="E104"/>
+      <c r="F104"/>
+      <c r="I104"/>
       <c r="J104" s="194"/>
       <c r="M104"/>
+      <c r="N104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="456"/>
       <c r="B105" s="442"/>
       <c r="E105"/>
+      <c r="F105"/>
+      <c r="I105"/>
       <c r="J105" s="194"/>
       <c r="M105"/>
+      <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="456"/>
       <c r="B106" s="442"/>
       <c r="E106"/>
+      <c r="F106"/>
+      <c r="I106"/>
       <c r="J106" s="194"/>
       <c r="M106"/>
+      <c r="N106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="456"/>
       <c r="B107" s="442"/>
       <c r="E107"/>
+      <c r="F107"/>
+      <c r="I107"/>
       <c r="J107" s="194"/>
       <c r="M107"/>
+      <c r="N107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="456"/>
       <c r="B108" s="442"/>
       <c r="E108"/>
+      <c r="F108"/>
+      <c r="I108"/>
       <c r="J108" s="194"/>
       <c r="M108"/>
+      <c r="N108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="456"/>
       <c r="B109" s="442"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="I109"/>
       <c r="J109" s="194"/>
+      <c r="M109"/>
+      <c r="N109"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B110" s="442"/>
+      <c r="E110"/>
       <c r="J110" s="194"/>
+      <c r="M110"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B111" s="442"/>
+      <c r="E111"/>
       <c r="J111" s="194"/>
+      <c r="M111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" s="442"/>
+      <c r="E112"/>
       <c r="J112" s="194"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M112"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="442"/>
+      <c r="E113"/>
       <c r="J113" s="194"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M113"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="442"/>
+      <c r="E114"/>
       <c r="J114" s="194"/>
-    </row>
-    <row r="115" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C115" s="154"/>
-      <c r="K115" s="154"/>
+      <c r="M114"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="442"/>
+      <c r="E115"/>
+      <c r="J115" s="194"/>
+      <c r="M115"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="442"/>
+      <c r="E116"/>
+      <c r="J116" s="194"/>
+      <c r="M116"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="442"/>
+      <c r="E117"/>
+      <c r="J117" s="194"/>
+      <c r="M117"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="442"/>
+      <c r="E118"/>
+      <c r="J118" s="194"/>
+      <c r="M118"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="442"/>
+      <c r="J119" s="194"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="442"/>
+      <c r="J120" s="194"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="442"/>
+      <c r="J121" s="194"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="442"/>
+      <c r="J122" s="194"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="442"/>
+      <c r="J123" s="194"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="442"/>
+      <c r="J124" s="194"/>
+    </row>
+    <row r="125" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C125" s="154"/>
+      <c r="K125" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="I83:J84"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="I93:J94"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.13" top="0.26" bottom="0.26" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24621,7 +25411,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="547" t="s">
+      <c r="B41" s="556" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -24653,7 +25443,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="548"/>
+      <c r="B42" s="557"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -26249,23 +27039,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="547" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
+      <c r="M1" s="548"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26275,21 +27065,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="566" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
     </row>
@@ -26304,14 +27094,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="543" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="544"/>
-      <c r="H4" s="545" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="546"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -26321,14 +27111,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="567"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="549" t="s">
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="549"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26379,8 +27169,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="549"/>
-      <c r="X5" s="549"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27151,7 +27941,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="553">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -27203,7 +27993,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="554"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -27252,8 +28042,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="555"/>
-      <c r="X21" s="555"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27354,8 +28144,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="556"/>
-      <c r="X23" s="556"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27409,8 +28199,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="556"/>
-      <c r="X24" s="556"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27456,8 +28246,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="557"/>
-      <c r="X25" s="557"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27508,8 +28298,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="557"/>
-      <c r="X26" s="557"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27557,9 +28347,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="550"/>
-      <c r="X27" s="551"/>
-      <c r="Y27" s="552"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27609,9 +28399,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="551"/>
-      <c r="X28" s="551"/>
-      <c r="Y28" s="552"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27946,11 +28736,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="568">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="570">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -27958,7 +28748,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="572">
+      <c r="Q36" s="581">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -27993,13 +28783,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="569"/>
-      <c r="N37" s="571"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="573"/>
+      <c r="Q37" s="582"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -28289,26 +29079,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="523" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="524"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="525">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="558"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="529" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="529"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -28317,29 +29107,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="559" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="559"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="530" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="531"/>
-      <c r="K54" s="532">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="532"/>
-      <c r="M54" s="560" t="s">
+      <c r="L54" s="541"/>
+      <c r="M54" s="569" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="561"/>
-      <c r="O54" s="561"/>
-      <c r="P54" s="561"/>
-      <c r="Q54" s="562"/>
+      <c r="N54" s="570"/>
+      <c r="O54" s="570"/>
+      <c r="P54" s="570"/>
+      <c r="Q54" s="571"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -28353,11 +29143,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="563"/>
-      <c r="N55" s="564"/>
-      <c r="O55" s="564"/>
-      <c r="P55" s="564"/>
-      <c r="Q55" s="565"/>
+      <c r="M55" s="572"/>
+      <c r="N55" s="573"/>
+      <c r="O55" s="573"/>
+      <c r="P55" s="573"/>
+      <c r="Q55" s="574"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -28375,11 +29165,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="534">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="535"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28396,22 +29186,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="512" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="513"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="514" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="515"/>
-      <c r="K58" s="516">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="516"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -31001,7 +31791,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="574" t="s">
+      <c r="F87" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -31014,7 +31804,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="575"/>
+      <c r="F88" s="584"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -31326,23 +32116,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="547" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
+      <c r="M1" s="548"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31352,24 +32142,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="566" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="576" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -31384,14 +32174,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="543" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="544"/>
-      <c r="H4" s="545" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="546"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -31401,15 +32191,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="567"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="577"/>
-      <c r="W4" s="549" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="549"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31470,8 +32260,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="549"/>
-      <c r="X5" s="549"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32228,7 +33018,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="553">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -32280,7 +33070,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="554"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32329,8 +33119,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="555"/>
-      <c r="X21" s="555"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32431,8 +33221,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="556"/>
-      <c r="X23" s="556"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32483,8 +33273,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="556"/>
-      <c r="X24" s="556"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32530,8 +33320,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="557"/>
-      <c r="X25" s="557"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32579,8 +33369,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="557"/>
-      <c r="X26" s="557"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32640,9 +33430,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="550"/>
-      <c r="X27" s="551"/>
-      <c r="Y27" s="552"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32696,9 +33486,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="551"/>
-      <c r="X28" s="551"/>
-      <c r="Y28" s="552"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33014,11 +33804,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="568">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="570">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -33026,7 +33816,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="572">
+      <c r="Q36" s="581">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -33045,13 +33835,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="569"/>
-      <c r="N37" s="571"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="573"/>
+      <c r="Q37" s="582"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -33325,26 +34115,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="523" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="524"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="525">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="558"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="529" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="529"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -33353,29 +34143,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="559" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="559"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="530" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="531"/>
-      <c r="K54" s="532">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="532"/>
-      <c r="M54" s="560" t="s">
+      <c r="L54" s="541"/>
+      <c r="M54" s="569" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="561"/>
-      <c r="O54" s="561"/>
-      <c r="P54" s="561"/>
-      <c r="Q54" s="562"/>
+      <c r="N54" s="570"/>
+      <c r="O54" s="570"/>
+      <c r="P54" s="570"/>
+      <c r="Q54" s="571"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -33389,11 +34179,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="563"/>
-      <c r="N55" s="564"/>
-      <c r="O55" s="564"/>
-      <c r="P55" s="564"/>
-      <c r="Q55" s="565"/>
+      <c r="M55" s="572"/>
+      <c r="N55" s="573"/>
+      <c r="O55" s="573"/>
+      <c r="P55" s="573"/>
+      <c r="Q55" s="574"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -33411,11 +34201,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="534">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="535"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -33432,22 +34222,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="512" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="513"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="514" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="515"/>
-      <c r="K58" s="516">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="516"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -36010,7 +36800,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="574" t="s">
+      <c r="F75" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -36023,7 +36813,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="575"/>
+      <c r="F76" s="584"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -36315,23 +37105,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="578" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="587" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="579"/>
-      <c r="E1" s="579"/>
-      <c r="F1" s="579"/>
-      <c r="G1" s="579"/>
-      <c r="H1" s="579"/>
-      <c r="I1" s="579"/>
-      <c r="J1" s="579"/>
-      <c r="K1" s="579"/>
-      <c r="L1" s="579"/>
-      <c r="M1" s="579"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="588"/>
+      <c r="L1" s="588"/>
+      <c r="M1" s="588"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36341,24 +37131,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="566" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="576" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36373,14 +37163,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="543" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="544"/>
-      <c r="H4" s="545" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="546"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -36390,15 +37180,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="567"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="577"/>
-      <c r="W4" s="549" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="549"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36449,8 +37239,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="549"/>
-      <c r="X5" s="549"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37214,7 +38004,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="553">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -37267,7 +38057,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="554"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -37316,8 +38106,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="555"/>
-      <c r="X21" s="555"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -37417,8 +38207,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="556"/>
-      <c r="X23" s="556"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -37473,8 +38263,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="556"/>
-      <c r="X24" s="556"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37519,8 +38309,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="557"/>
-      <c r="X25" s="557"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37568,8 +38358,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="557"/>
-      <c r="X26" s="557"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37623,9 +38413,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="550"/>
-      <c r="X27" s="551"/>
-      <c r="Y27" s="552"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37679,9 +38469,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="551"/>
-      <c r="X28" s="551"/>
-      <c r="Y28" s="552"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37992,11 +38782,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="568">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="570">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -38004,7 +38794,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="572">
+      <c r="Q36" s="581">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -38029,13 +38819,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="569"/>
-      <c r="N37" s="571"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="573"/>
+      <c r="Q37" s="582"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -38328,26 +39118,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="523" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="524"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="525">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="558"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="529" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="529"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -38356,22 +39146,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="559" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="559"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="530" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="531"/>
-      <c r="K54" s="532">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="532"/>
+      <c r="L54" s="541"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -38412,11 +39202,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="534">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="535"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -38433,22 +39223,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="512" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="513"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="514" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="515"/>
-      <c r="K58" s="516">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="516"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -40317,12 +41107,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="580" t="s">
+      <c r="B43" s="589" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="581"/>
-      <c r="D43" s="581"/>
-      <c r="E43" s="582"/>
+      <c r="C43" s="590"/>
+      <c r="D43" s="590"/>
+      <c r="E43" s="591"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40350,10 +41140,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="583"/>
-      <c r="C44" s="584"/>
-      <c r="D44" s="584"/>
-      <c r="E44" s="585"/>
+      <c r="B44" s="592"/>
+      <c r="C44" s="593"/>
+      <c r="D44" s="593"/>
+      <c r="E44" s="594"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40381,10 +41171,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="586"/>
-      <c r="C45" s="587"/>
-      <c r="D45" s="587"/>
-      <c r="E45" s="588"/>
+      <c r="B45" s="595"/>
+      <c r="C45" s="596"/>
+      <c r="D45" s="596"/>
+      <c r="E45" s="597"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40427,10 +41217,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="595" t="s">
+      <c r="B47" s="604" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="596"/>
+      <c r="C47" s="605"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -40452,8 +41242,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="597"/>
-      <c r="C48" s="598"/>
+      <c r="B48" s="606"/>
+      <c r="C48" s="607"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -40461,11 +41251,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="589" t="s">
+      <c r="J48" s="598" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="590"/>
-      <c r="L48" s="591"/>
+      <c r="K48" s="599"/>
+      <c r="L48" s="600"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -40483,9 +41273,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="592"/>
-      <c r="K49" s="593"/>
-      <c r="L49" s="594"/>
+      <c r="J49" s="601"/>
+      <c r="K49" s="602"/>
+      <c r="L49" s="603"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -40502,10 +41292,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="599" t="s">
+      <c r="I50" s="608" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="600"/>
+      <c r="J50" s="609"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -40526,8 +41316,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="599"/>
-      <c r="J51" s="600"/>
+      <c r="I51" s="608"/>
+      <c r="J51" s="609"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -40546,8 +41336,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="599"/>
-      <c r="J52" s="600"/>
+      <c r="I52" s="608"/>
+      <c r="J52" s="609"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -40566,8 +41356,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="599"/>
-      <c r="J53" s="600"/>
+      <c r="I53" s="608"/>
+      <c r="J53" s="609"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -40586,8 +41376,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="599"/>
-      <c r="J54" s="600"/>
+      <c r="I54" s="608"/>
+      <c r="J54" s="609"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -40606,8 +41396,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="599"/>
-      <c r="J55" s="600"/>
+      <c r="I55" s="608"/>
+      <c r="J55" s="609"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -40626,8 +41416,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="599"/>
-      <c r="J56" s="600"/>
+      <c r="I56" s="608"/>
+      <c r="J56" s="609"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -40646,8 +41436,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="599"/>
-      <c r="J57" s="600"/>
+      <c r="I57" s="608"/>
+      <c r="J57" s="609"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -40666,8 +41456,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="599"/>
-      <c r="J58" s="600"/>
+      <c r="I58" s="608"/>
+      <c r="J58" s="609"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -40686,8 +41476,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="599"/>
-      <c r="J59" s="600"/>
+      <c r="I59" s="608"/>
+      <c r="J59" s="609"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -40706,8 +41496,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="599"/>
-      <c r="J60" s="600"/>
+      <c r="I60" s="608"/>
+      <c r="J60" s="609"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -40726,8 +41516,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="599"/>
-      <c r="J61" s="600"/>
+      <c r="I61" s="608"/>
+      <c r="J61" s="609"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -40746,8 +41536,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="599"/>
-      <c r="J62" s="600"/>
+      <c r="I62" s="608"/>
+      <c r="J62" s="609"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -40766,8 +41556,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="599"/>
-      <c r="J63" s="600"/>
+      <c r="I63" s="608"/>
+      <c r="J63" s="609"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -40786,8 +41576,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="599"/>
-      <c r="J64" s="600"/>
+      <c r="I64" s="608"/>
+      <c r="J64" s="609"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -40806,8 +41596,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="599"/>
-      <c r="J65" s="600"/>
+      <c r="I65" s="608"/>
+      <c r="J65" s="609"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -40826,8 +41616,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="599"/>
-      <c r="J66" s="600"/>
+      <c r="I66" s="608"/>
+      <c r="J66" s="609"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -40846,8 +41636,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="599"/>
-      <c r="J67" s="600"/>
+      <c r="I67" s="608"/>
+      <c r="J67" s="609"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -40866,8 +41656,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="599"/>
-      <c r="J68" s="600"/>
+      <c r="I68" s="608"/>
+      <c r="J68" s="609"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -40886,8 +41676,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="599"/>
-      <c r="J69" s="600"/>
+      <c r="I69" s="608"/>
+      <c r="J69" s="609"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -40906,8 +41696,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="599"/>
-      <c r="J70" s="600"/>
+      <c r="I70" s="608"/>
+      <c r="J70" s="609"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -40926,8 +41716,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="599"/>
-      <c r="J71" s="600"/>
+      <c r="I71" s="608"/>
+      <c r="J71" s="609"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -40946,8 +41736,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="599"/>
-      <c r="J72" s="600"/>
+      <c r="I72" s="608"/>
+      <c r="J72" s="609"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -40966,8 +41756,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="599"/>
-      <c r="J73" s="600"/>
+      <c r="I73" s="608"/>
+      <c r="J73" s="609"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -40986,8 +41776,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="599"/>
-      <c r="J74" s="600"/>
+      <c r="I74" s="608"/>
+      <c r="J74" s="609"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -41006,8 +41796,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="599"/>
-      <c r="J75" s="600"/>
+      <c r="I75" s="608"/>
+      <c r="J75" s="609"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -41026,8 +41816,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="599"/>
-      <c r="J76" s="600"/>
+      <c r="I76" s="608"/>
+      <c r="J76" s="609"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -41046,8 +41836,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="599"/>
-      <c r="J77" s="600"/>
+      <c r="I77" s="608"/>
+      <c r="J77" s="609"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -41068,8 +41858,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="601"/>
-      <c r="J78" s="602"/>
+      <c r="I78" s="610"/>
+      <c r="J78" s="611"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -41114,7 +41904,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="574" t="s">
+      <c r="F80" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -41126,7 +41916,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="575"/>
+      <c r="F81" s="584"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -41414,23 +42204,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="578" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="587" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="579"/>
-      <c r="E1" s="579"/>
-      <c r="F1" s="579"/>
-      <c r="G1" s="579"/>
-      <c r="H1" s="579"/>
-      <c r="I1" s="579"/>
-      <c r="J1" s="579"/>
-      <c r="K1" s="579"/>
-      <c r="L1" s="579"/>
-      <c r="M1" s="579"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="588"/>
+      <c r="L1" s="588"/>
+      <c r="M1" s="588"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41440,24 +42230,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="566" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="576" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -41472,14 +42262,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="543" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="544"/>
-      <c r="H4" s="545" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="546"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41489,15 +42279,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="567"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="577"/>
-      <c r="W4" s="549" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="549"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41548,8 +42338,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="549"/>
-      <c r="X5" s="549"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42310,7 +43100,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="553">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -42362,7 +43152,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="554"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42411,8 +43201,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="555"/>
-      <c r="X21" s="555"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42511,8 +43301,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="556"/>
-      <c r="X23" s="556"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42567,8 +43357,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="556"/>
-      <c r="X24" s="556"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42616,8 +43406,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="557"/>
-      <c r="X25" s="557"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42665,8 +43455,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="557"/>
-      <c r="X26" s="557"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42714,9 +43504,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="550"/>
-      <c r="X27" s="551"/>
-      <c r="Y27" s="552"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42764,9 +43554,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="551"/>
-      <c r="X28" s="551"/>
-      <c r="Y28" s="552"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43107,11 +43897,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="568">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="570">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -43119,7 +43909,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="603">
+      <c r="Q36" s="612">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -43144,13 +43934,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="569"/>
-      <c r="N37" s="571"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="604"/>
+      <c r="Q37" s="613"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -43200,11 +43990,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="605">
+      <c r="M39" s="614">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="606"/>
+      <c r="N39" s="615"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -43452,26 +44242,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="523" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="524"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="525">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="558"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="529" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="529"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -43480,22 +44270,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="559" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="559"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="530" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="531"/>
-      <c r="K54" s="532">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="532"/>
+      <c r="L54" s="541"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -43536,11 +44326,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="534">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="535"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43557,22 +44347,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="512" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="513"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="514" t="s">
+      <c r="I58" s="523" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="515"/>
-      <c r="K58" s="516">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="516"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="758">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2728,6 +2728,93 @@
   </si>
   <si>
     <t>PAGO EL 19 DE ABRIL POR   $  1,740,651.32</t>
+  </si>
+  <si>
+    <t>28-mar-2022</t>
+  </si>
+  <si>
+    <t>29-mar-2022</t>
+  </si>
+  <si>
+    <t>30-mar-2022</t>
+  </si>
+  <si>
+    <t>31-mar-2022</t>
+  </si>
+  <si>
+    <t>1-abr-2022</t>
+  </si>
+  <si>
+    <t>2-abr-2022</t>
+  </si>
+  <si>
+    <t>3-abr-2022</t>
+  </si>
+  <si>
+    <t>4-abr-2022</t>
+  </si>
+  <si>
+    <t>6-abr-2022</t>
+  </si>
+  <si>
+    <t>7-abr-2022</t>
+  </si>
+  <si>
+    <t>8-abr-2022</t>
+  </si>
+  <si>
+    <t>9-abr-2022</t>
+  </si>
+  <si>
+    <t>11-abr-2022</t>
+  </si>
+  <si>
+    <t>12-abr-2022</t>
+  </si>
+  <si>
+    <t>13-abr-2022</t>
+  </si>
+  <si>
+    <t>14-abr-2022</t>
+  </si>
+  <si>
+    <t>16-abr-2022</t>
+  </si>
+  <si>
+    <t>18-abr-2022</t>
+  </si>
+  <si>
+    <t>19-abr-2022</t>
+  </si>
+  <si>
+    <t>20-abr-2022</t>
+  </si>
+  <si>
+    <t>21-abr-2022</t>
+  </si>
+  <si>
+    <t>22-abr-2022</t>
+  </si>
+  <si>
+    <t>23-abr-2022</t>
+  </si>
+  <si>
+    <t>25-abr-2022</t>
+  </si>
+  <si>
+    <t>26-abr-2022</t>
+  </si>
+  <si>
+    <t>27-abr-2022</t>
+  </si>
+  <si>
+    <t>28-abr-2022</t>
+  </si>
+  <si>
+    <t>29-abr-2022</t>
+  </si>
+  <si>
+    <t>30-abr-2022</t>
   </si>
 </sst>
 </file>
@@ -4531,7 +4618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="633">
+  <cellXfs count="638">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5575,6 +5662,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="18" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5899,12 +5992,11 @@
     <xf numFmtId="166" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="18" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9328,23 +9420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="545"/>
-      <c r="C1" s="547" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
-      <c r="L1" s="548"/>
-      <c r="M1" s="548"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="546"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9354,17 +9446,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="549" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="550"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="551" t="s">
+      <c r="H3" s="555" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="551"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9378,14 +9470,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="552" t="s">
+      <c r="E4" s="556" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="553"/>
-      <c r="H4" s="554" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9395,10 +9487,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="526" t="s">
+      <c r="P4" s="530" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="527"/>
+      <c r="Q4" s="531"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10839,11 +10931,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="528">
+      <c r="M39" s="532">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="530">
+      <c r="N39" s="534">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10869,8 +10961,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="529"/>
-      <c r="N40" s="531"/>
+      <c r="M40" s="533"/>
+      <c r="N40" s="535"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -11085,29 +11177,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="532" t="s">
+      <c r="H52" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="533"/>
+      <c r="I52" s="537"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="534">
+      <c r="K52" s="538">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="535"/>
-      <c r="M52" s="536">
+      <c r="L52" s="539"/>
+      <c r="M52" s="540">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="537"/>
+      <c r="N52" s="541"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="538" t="s">
+      <c r="D53" s="542" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="538"/>
+      <c r="E53" s="542"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -11118,22 +11210,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="538" t="s">
+      <c r="D54" s="542" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="538"/>
+      <c r="E54" s="542"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="539" t="s">
+      <c r="I54" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="540"/>
-      <c r="K54" s="541">
+      <c r="J54" s="544"/>
+      <c r="K54" s="545">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="542"/>
+      <c r="L54" s="546"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -11166,11 +11258,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="543">
+      <c r="K56" s="547">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="544"/>
+      <c r="L56" s="548"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -11187,22 +11279,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="521" t="s">
+      <c r="D58" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="522"/>
+      <c r="E58" s="526"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="523" t="s">
+      <c r="I58" s="527" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="524"/>
-      <c r="K58" s="525">
+      <c r="J58" s="528"/>
+      <c r="K58" s="529">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="525"/>
+      <c r="L58" s="529"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13826,10 +13918,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="617" t="s">
+      <c r="I76" s="621" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="618"/>
+      <c r="J76" s="622"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13848,8 +13940,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="619"/>
-      <c r="J77" s="620"/>
+      <c r="I77" s="623"/>
+      <c r="J77" s="624"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -13916,7 +14008,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="583" t="s">
+      <c r="F80" s="587" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -13931,7 +14023,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="584"/>
+      <c r="F81" s="588"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13939,10 +14031,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="616" t="s">
+      <c r="B82" s="620" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="616"/>
+      <c r="C82" s="620"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -14224,23 +14316,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="545"/>
-      <c r="C1" s="587" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="591" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="588"/>
-      <c r="E1" s="588"/>
-      <c r="F1" s="588"/>
-      <c r="G1" s="588"/>
-      <c r="H1" s="588"/>
-      <c r="I1" s="588"/>
-      <c r="J1" s="588"/>
-      <c r="K1" s="588"/>
-      <c r="L1" s="588"/>
-      <c r="M1" s="588"/>
+      <c r="D1" s="592"/>
+      <c r="E1" s="592"/>
+      <c r="F1" s="592"/>
+      <c r="G1" s="592"/>
+      <c r="H1" s="592"/>
+      <c r="I1" s="592"/>
+      <c r="J1" s="592"/>
+      <c r="K1" s="592"/>
+      <c r="L1" s="592"/>
+      <c r="M1" s="592"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="546"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14250,24 +14342,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="549" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="550"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="551" t="s">
+      <c r="H3" s="555" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="551"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="579" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="585" t="s">
+      <c r="R3" s="589" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14282,14 +14374,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="552" t="s">
+      <c r="E4" s="556" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="553"/>
-      <c r="H4" s="554" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14299,15 +14391,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="580"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="586"/>
-      <c r="W4" s="558" t="s">
+      <c r="R4" s="590"/>
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="558"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14358,8 +14450,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="558"/>
-      <c r="X5" s="558"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15122,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="562">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -15174,7 +15266,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="563"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15223,8 +15315,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="564"/>
-      <c r="X21" s="564"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15324,8 +15416,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="565"/>
-      <c r="X23" s="565"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15380,8 +15472,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="565"/>
-      <c r="X24" s="565"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15429,8 +15521,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="566"/>
-      <c r="X25" s="566"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15479,8 +15571,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="566"/>
-      <c r="X26" s="566"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15528,9 +15620,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="559"/>
-      <c r="X27" s="560"/>
-      <c r="Y27" s="561"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15578,9 +15670,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="560"/>
-      <c r="X28" s="560"/>
-      <c r="Y28" s="561"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15912,11 +16004,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="577">
+      <c r="M36" s="581">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="579">
+      <c r="N36" s="583">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15924,7 +16016,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="612">
+      <c r="Q36" s="616">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -15949,13 +16041,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="578"/>
-      <c r="N37" s="580"/>
+      <c r="M37" s="582"/>
+      <c r="N37" s="584"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="613"/>
+      <c r="Q37" s="617"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -16000,11 +16092,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="614">
+      <c r="M39" s="618">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="615"/>
+      <c r="N39" s="619"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -16264,26 +16356,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="532" t="s">
+      <c r="H52" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="533"/>
+      <c r="I52" s="537"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="534">
+      <c r="K52" s="538">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="567"/>
+      <c r="L52" s="571"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="538" t="s">
+      <c r="D53" s="542" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="538"/>
+      <c r="E53" s="542"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -16292,22 +16384,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="568" t="s">
+      <c r="D54" s="572" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="568"/>
+      <c r="E54" s="572"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="539" t="s">
+      <c r="I54" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="540"/>
-      <c r="K54" s="541">
+      <c r="J54" s="544"/>
+      <c r="K54" s="545">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="541"/>
+      <c r="L54" s="545"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16348,11 +16440,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="543">
+      <c r="K56" s="547">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="544"/>
+      <c r="L56" s="548"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16369,22 +16461,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="521" t="s">
+      <c r="D58" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="522"/>
+      <c r="E58" s="526"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="523" t="s">
+      <c r="I58" s="527" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="524"/>
-      <c r="K58" s="525">
+      <c r="J58" s="528"/>
+      <c r="K58" s="529">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="525"/>
+      <c r="L58" s="529"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16573,7 +16665,7 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -18825,7 +18917,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="583" t="s">
+      <c r="F80" s="587" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18838,7 +18930,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="584"/>
+      <c r="F81" s="588"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18858,10 +18950,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="621" t="s">
+      <c r="I83" s="625" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="622"/>
+      <c r="J83" s="626"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="518" t="s">
@@ -18870,8 +18962,8 @@
       <c r="B84" s="519"/>
       <c r="C84" s="520"/>
       <c r="D84" s="492"/>
-      <c r="I84" s="623"/>
-      <c r="J84" s="624"/>
+      <c r="I84" s="627"/>
+      <c r="J84" s="628"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -19113,8 +19205,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19143,23 +19235,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="545"/>
-      <c r="C1" s="587" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="591" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="588"/>
-      <c r="E1" s="588"/>
-      <c r="F1" s="588"/>
-      <c r="G1" s="588"/>
-      <c r="H1" s="588"/>
-      <c r="I1" s="588"/>
-      <c r="J1" s="588"/>
-      <c r="K1" s="588"/>
-      <c r="L1" s="588"/>
-      <c r="M1" s="588"/>
+      <c r="D1" s="592"/>
+      <c r="E1" s="592"/>
+      <c r="F1" s="592"/>
+      <c r="G1" s="592"/>
+      <c r="H1" s="592"/>
+      <c r="I1" s="592"/>
+      <c r="J1" s="592"/>
+      <c r="K1" s="592"/>
+      <c r="L1" s="592"/>
+      <c r="M1" s="592"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="546"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19169,24 +19261,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="549" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="550"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="551" t="s">
+      <c r="H3" s="555" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="551"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="579" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="585" t="s">
+      <c r="R3" s="589" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19201,14 +19293,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="552" t="s">
+      <c r="E4" s="556" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="553"/>
-      <c r="H4" s="554" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19218,15 +19310,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="580"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="586"/>
-      <c r="W4" s="558" t="s">
+      <c r="R4" s="590"/>
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="558"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19277,8 +19369,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="558"/>
-      <c r="X5" s="558"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20037,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="562">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20089,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="563"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20138,8 +20230,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="564"/>
-      <c r="X21" s="564"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20236,8 +20328,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="565"/>
-      <c r="X23" s="565"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20292,8 +20384,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="565"/>
-      <c r="X24" s="565"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20339,8 +20431,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="566"/>
-      <c r="X25" s="566"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20389,8 +20481,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="566"/>
-      <c r="X26" s="566"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20439,9 +20531,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="559"/>
-      <c r="X27" s="560"/>
-      <c r="Y27" s="561"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20489,9 +20581,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="560"/>
-      <c r="X28" s="560"/>
-      <c r="Y28" s="561"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21084,11 +21176,11 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="577">
+      <c r="M41" s="581">
         <f>SUM(M5:M40)</f>
         <v>2409353.6100000003</v>
       </c>
-      <c r="N41" s="577">
+      <c r="N41" s="581">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -21096,7 +21188,7 @@
         <f>SUM(P5:P40)</f>
         <v>4285312.74</v>
       </c>
-      <c r="Q41" s="625">
+      <c r="Q41" s="629">
         <f>SUM(Q5:Q40)</f>
         <v>-135.3700000000099</v>
       </c>
@@ -21120,10 +21212,10 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="578"/>
-      <c r="N42" s="578"/>
+      <c r="M42" s="582"/>
+      <c r="N42" s="582"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="626"/>
+      <c r="Q42" s="630"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -21193,11 +21285,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="627">
+      <c r="M45" s="631">
         <f>M41+N41</f>
         <v>3605020.6100000003</v>
       </c>
-      <c r="N45" s="628"/>
+      <c r="N45" s="632"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -21322,26 +21414,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="532" t="s">
+      <c r="H52" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="533"/>
+      <c r="I52" s="537"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="534">
+      <c r="K52" s="538">
         <f>I50+L50</f>
         <v>289121.83</v>
       </c>
-      <c r="L52" s="567"/>
+      <c r="L52" s="571"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="538" t="s">
+      <c r="D53" s="542" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="538"/>
+      <c r="E53" s="542"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>3402894.67</v>
@@ -21350,22 +21442,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="568" t="s">
+      <c r="D54" s="572" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="568"/>
+      <c r="E54" s="572"/>
       <c r="F54" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I54" s="539" t="s">
+      <c r="I54" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="540"/>
-      <c r="K54" s="541">
+      <c r="J54" s="544"/>
+      <c r="K54" s="545">
         <f>F56+F57+F58</f>
-        <v>1800993.21</v>
-      </c>
-      <c r="L54" s="541"/>
+        <v>3549636.8899999997</v>
+      </c>
+      <c r="L54" s="545"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -21378,7 +21470,7 @@
       </c>
       <c r="E55" s="314"/>
       <c r="F55" s="315">
-        <v>0</v>
+        <v>-363428.24</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
@@ -21399,18 +21491,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1517919.21</v>
+        <v>1154490.97</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="543">
+      <c r="K56" s="547">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="544"/>
+      <c r="L56" s="548"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21424,23 +21516,25 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="112"/>
-      <c r="D58" s="521" t="s">
+      <c r="C58" s="112">
+        <v>44682</v>
+      </c>
+      <c r="D58" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="522"/>
+      <c r="E58" s="526"/>
       <c r="F58" s="113">
-        <v>0</v>
-      </c>
-      <c r="I58" s="523" t="s">
+        <v>2112071.92</v>
+      </c>
+      <c r="I58" s="527" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="524"/>
-      <c r="K58" s="525">
+      <c r="J58" s="528"/>
+      <c r="K58" s="529">
         <f>K54+K56</f>
-        <v>8175.5300000000279</v>
-      </c>
-      <c r="L58" s="525"/>
+        <v>1756819.2099999997</v>
+      </c>
+      <c r="L58" s="529"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21629,9 +21723,9 @@
   </sheetPr>
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21645,7 +21739,7 @@
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" style="456" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -21731,11 +21825,21 @@
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="405"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="392"/>
-      <c r="L3" s="479"/>
-      <c r="M3" s="392"/>
+      <c r="I3" s="498" t="s">
+        <v>729</v>
+      </c>
+      <c r="J3" s="633">
+        <v>8871</v>
+      </c>
+      <c r="K3" s="500">
+        <v>0</v>
+      </c>
+      <c r="L3" s="634" t="s">
+        <v>729</v>
+      </c>
+      <c r="M3" s="500">
+        <v>0</v>
+      </c>
       <c r="N3" s="183">
         <f>K3-M3</f>
         <v>0</v>
@@ -21762,11 +21866,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="476"/>
-      <c r="M4" s="111"/>
+      <c r="I4" s="501" t="s">
+        <v>730</v>
+      </c>
+      <c r="J4" s="635">
+        <v>8877</v>
+      </c>
+      <c r="K4" s="503">
+        <v>16921.599999999999</v>
+      </c>
+      <c r="L4" s="636" t="s">
+        <v>730</v>
+      </c>
+      <c r="M4" s="503">
+        <v>16921.599999999999</v>
+      </c>
       <c r="N4" s="137">
         <f>N3+K4-M4</f>
         <v>0</v>
@@ -21792,11 +21906,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="370"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="476"/>
-      <c r="M5" s="111"/>
+      <c r="I5" s="498" t="s">
+        <v>731</v>
+      </c>
+      <c r="J5" s="633">
+        <v>8883</v>
+      </c>
+      <c r="K5" s="500">
+        <v>24058.799999999999</v>
+      </c>
+      <c r="L5" s="634" t="s">
+        <v>731</v>
+      </c>
+      <c r="M5" s="500">
+        <v>24058.799999999999</v>
+      </c>
       <c r="N5" s="137">
         <f t="shared" ref="N5:N78" si="1">N4+K5-M5</f>
         <v>0</v>
@@ -21822,11 +21946,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="370"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="476"/>
-      <c r="M6" s="111"/>
+      <c r="I6" s="498" t="s">
+        <v>732</v>
+      </c>
+      <c r="J6" s="633">
+        <v>8891</v>
+      </c>
+      <c r="K6" s="500">
+        <v>11335.2</v>
+      </c>
+      <c r="L6" s="634" t="s">
+        <v>732</v>
+      </c>
+      <c r="M6" s="500">
+        <v>11335.2</v>
+      </c>
       <c r="N6" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21852,11 +21986,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="370"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="476"/>
-      <c r="M7" s="111"/>
+      <c r="I7" s="501" t="s">
+        <v>733</v>
+      </c>
+      <c r="J7" s="502">
+        <v>8902</v>
+      </c>
+      <c r="K7" s="503">
+        <v>529</v>
+      </c>
+      <c r="L7" s="636" t="s">
+        <v>733</v>
+      </c>
+      <c r="M7" s="503">
+        <v>529</v>
+      </c>
       <c r="N7" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21882,11 +22026,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="370"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="476"/>
-      <c r="M8" s="111"/>
+      <c r="I8" s="498" t="s">
+        <v>734</v>
+      </c>
+      <c r="J8" s="499">
+        <v>8912</v>
+      </c>
+      <c r="K8" s="500">
+        <v>4369.8</v>
+      </c>
+      <c r="L8" s="634" t="s">
+        <v>734</v>
+      </c>
+      <c r="M8" s="500">
+        <v>4369.8</v>
+      </c>
       <c r="N8" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21912,11 +22066,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="370"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="476"/>
-      <c r="M9" s="111"/>
+      <c r="I9" s="501" t="s">
+        <v>734</v>
+      </c>
+      <c r="J9" s="502">
+        <v>8914</v>
+      </c>
+      <c r="K9" s="503">
+        <v>1236.5999999999999</v>
+      </c>
+      <c r="L9" s="636" t="s">
+        <v>734</v>
+      </c>
+      <c r="M9" s="503">
+        <v>1236.5999999999999</v>
+      </c>
       <c r="N9" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21943,11 +22107,21 @@
         <v>0</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="370"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="476"/>
-      <c r="M10" s="111"/>
+      <c r="I10" s="501" t="s">
+        <v>735</v>
+      </c>
+      <c r="J10" s="502">
+        <v>8918</v>
+      </c>
+      <c r="K10" s="503">
+        <v>450</v>
+      </c>
+      <c r="L10" s="636" t="s">
+        <v>735</v>
+      </c>
+      <c r="M10" s="503">
+        <v>450</v>
+      </c>
       <c r="N10" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21973,11 +22147,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="370"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="476"/>
-      <c r="M11" s="111"/>
+      <c r="I11" s="498" t="s">
+        <v>736</v>
+      </c>
+      <c r="J11" s="499">
+        <v>8920</v>
+      </c>
+      <c r="K11" s="500">
+        <v>1472</v>
+      </c>
+      <c r="L11" s="634" t="s">
+        <v>736</v>
+      </c>
+      <c r="M11" s="500">
+        <v>1472</v>
+      </c>
       <c r="N11" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22003,11 +22187,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="370"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="476"/>
-      <c r="M12" s="111"/>
+      <c r="I12" s="501" t="s">
+        <v>736</v>
+      </c>
+      <c r="J12" s="502">
+        <v>8922</v>
+      </c>
+      <c r="K12" s="503">
+        <v>1584</v>
+      </c>
+      <c r="L12" s="636" t="s">
+        <v>736</v>
+      </c>
+      <c r="M12" s="503">
+        <v>1584</v>
+      </c>
       <c r="N12" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22033,11 +22227,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="370"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="476"/>
-      <c r="M13" s="111"/>
+      <c r="I13" s="498" t="s">
+        <v>737</v>
+      </c>
+      <c r="J13" s="499">
+        <v>8937</v>
+      </c>
+      <c r="K13" s="500">
+        <v>930</v>
+      </c>
+      <c r="L13" s="634" t="s">
+        <v>737</v>
+      </c>
+      <c r="M13" s="500">
+        <v>930</v>
+      </c>
       <c r="N13" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22063,11 +22267,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="370"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="476"/>
-      <c r="M14" s="111"/>
+      <c r="I14" s="501" t="s">
+        <v>738</v>
+      </c>
+      <c r="J14" s="502">
+        <v>8942</v>
+      </c>
+      <c r="K14" s="503">
+        <v>450</v>
+      </c>
+      <c r="L14" s="636" t="s">
+        <v>738</v>
+      </c>
+      <c r="M14" s="503">
+        <v>450</v>
+      </c>
       <c r="N14" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22093,11 +22307,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="370"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="476"/>
-      <c r="M15" s="111"/>
+      <c r="I15" s="498" t="s">
+        <v>738</v>
+      </c>
+      <c r="J15" s="499">
+        <v>8945</v>
+      </c>
+      <c r="K15" s="500">
+        <v>1080</v>
+      </c>
+      <c r="L15" s="634" t="s">
+        <v>738</v>
+      </c>
+      <c r="M15" s="500">
+        <v>1080</v>
+      </c>
       <c r="N15" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22123,11 +22347,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="370"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="476"/>
-      <c r="M16" s="111"/>
+      <c r="I16" s="498" t="s">
+        <v>739</v>
+      </c>
+      <c r="J16" s="499">
+        <v>8957</v>
+      </c>
+      <c r="K16" s="500">
+        <v>21899.8</v>
+      </c>
+      <c r="L16" s="634" t="s">
+        <v>739</v>
+      </c>
+      <c r="M16" s="500">
+        <v>21899.8</v>
+      </c>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22153,11 +22387,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="370"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="476"/>
-      <c r="M17" s="111"/>
+      <c r="I17" s="498" t="s">
+        <v>740</v>
+      </c>
+      <c r="J17" s="499">
+        <v>8964</v>
+      </c>
+      <c r="K17" s="500">
+        <v>1180</v>
+      </c>
+      <c r="L17" s="634" t="s">
+        <v>740</v>
+      </c>
+      <c r="M17" s="500">
+        <v>1180</v>
+      </c>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22183,11 +22427,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="370"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="476"/>
-      <c r="M18" s="111"/>
+      <c r="I18" s="498" t="s">
+        <v>741</v>
+      </c>
+      <c r="J18" s="499">
+        <v>8977</v>
+      </c>
+      <c r="K18" s="500">
+        <v>1200</v>
+      </c>
+      <c r="L18" s="634" t="s">
+        <v>741</v>
+      </c>
+      <c r="M18" s="500">
+        <v>1200</v>
+      </c>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22213,11 +22467,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="370"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="476"/>
-      <c r="M19" s="111"/>
+      <c r="I19" s="498" t="s">
+        <v>741</v>
+      </c>
+      <c r="J19" s="499">
+        <v>8978</v>
+      </c>
+      <c r="K19" s="500">
+        <v>1081</v>
+      </c>
+      <c r="L19" s="634" t="s">
+        <v>741</v>
+      </c>
+      <c r="M19" s="500">
+        <v>1081</v>
+      </c>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22243,11 +22507,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="370"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="476"/>
-      <c r="M20" s="111"/>
+      <c r="I20" s="501" t="s">
+        <v>742</v>
+      </c>
+      <c r="J20" s="502">
+        <v>8987</v>
+      </c>
+      <c r="K20" s="503">
+        <v>270</v>
+      </c>
+      <c r="L20" s="636" t="s">
+        <v>742</v>
+      </c>
+      <c r="M20" s="503">
+        <v>270</v>
+      </c>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22269,11 +22543,21 @@
         <f t="shared" si="0"/>
         <v>67001.67</v>
       </c>
-      <c r="I21" s="370"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="476"/>
-      <c r="M21" s="111"/>
+      <c r="I21" s="501" t="s">
+        <v>743</v>
+      </c>
+      <c r="J21" s="502">
+        <v>8994</v>
+      </c>
+      <c r="K21" s="503">
+        <v>1894.8</v>
+      </c>
+      <c r="L21" s="636" t="s">
+        <v>743</v>
+      </c>
+      <c r="M21" s="503">
+        <v>1894.8</v>
+      </c>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22296,11 +22580,21 @@
         <v>5256</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="370"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="476"/>
-      <c r="M22" s="111"/>
+      <c r="I22" s="498" t="s">
+        <v>743</v>
+      </c>
+      <c r="J22" s="499">
+        <v>8997</v>
+      </c>
+      <c r="K22" s="500">
+        <v>2360</v>
+      </c>
+      <c r="L22" s="634" t="s">
+        <v>743</v>
+      </c>
+      <c r="M22" s="500">
+        <v>2360</v>
+      </c>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22322,11 +22616,21 @@
         <f t="shared" si="0"/>
         <v>40472.6</v>
       </c>
-      <c r="I23" s="370"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="476"/>
-      <c r="M23" s="111"/>
+      <c r="I23" s="498" t="s">
+        <v>744</v>
+      </c>
+      <c r="J23" s="499">
+        <v>9005</v>
+      </c>
+      <c r="K23" s="500">
+        <v>19679.400000000001</v>
+      </c>
+      <c r="L23" s="634" t="s">
+        <v>744</v>
+      </c>
+      <c r="M23" s="500">
+        <v>19679.400000000001</v>
+      </c>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22348,11 +22652,21 @@
         <f t="shared" si="0"/>
         <v>3906</v>
       </c>
-      <c r="I24" s="370"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="476"/>
-      <c r="M24" s="111"/>
+      <c r="I24" s="498" t="s">
+        <v>744</v>
+      </c>
+      <c r="J24" s="499">
+        <v>9007</v>
+      </c>
+      <c r="K24" s="500">
+        <v>36567.599999999999</v>
+      </c>
+      <c r="L24" s="634" t="s">
+        <v>744</v>
+      </c>
+      <c r="M24" s="500">
+        <v>36567.599999999999</v>
+      </c>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22374,11 +22688,21 @@
         <f t="shared" si="0"/>
         <v>33820.800000000003</v>
       </c>
-      <c r="I25" s="245"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="476"/>
-      <c r="M25" s="111"/>
+      <c r="I25" s="498" t="s">
+        <v>745</v>
+      </c>
+      <c r="J25" s="499">
+        <v>9011</v>
+      </c>
+      <c r="K25" s="500">
+        <v>2588.64</v>
+      </c>
+      <c r="L25" s="634" t="s">
+        <v>745</v>
+      </c>
+      <c r="M25" s="500">
+        <v>2588.64</v>
+      </c>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22400,11 +22724,21 @@
         <f t="shared" si="0"/>
         <v>36277.25</v>
       </c>
-      <c r="I26" s="245"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="476"/>
-      <c r="M26" s="111"/>
+      <c r="I26" s="501" t="s">
+        <v>745</v>
+      </c>
+      <c r="J26" s="502">
+        <v>9014</v>
+      </c>
+      <c r="K26" s="503">
+        <v>1080</v>
+      </c>
+      <c r="L26" s="636" t="s">
+        <v>745</v>
+      </c>
+      <c r="M26" s="503">
+        <v>1080</v>
+      </c>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22426,11 +22760,21 @@
         <f t="shared" si="0"/>
         <v>61531.34</v>
       </c>
-      <c r="I27" s="245"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="476"/>
-      <c r="M27" s="111"/>
+      <c r="I27" s="501" t="s">
+        <v>745</v>
+      </c>
+      <c r="J27" s="502">
+        <v>9017</v>
+      </c>
+      <c r="K27" s="503">
+        <v>28960.799999999999</v>
+      </c>
+      <c r="L27" s="636" t="s">
+        <v>745</v>
+      </c>
+      <c r="M27" s="503">
+        <v>28960.799999999999</v>
+      </c>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22452,11 +22796,21 @@
         <f t="shared" si="0"/>
         <v>12189.9</v>
       </c>
-      <c r="I28" s="245"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="476"/>
-      <c r="M28" s="111"/>
+      <c r="I28" s="501" t="s">
+        <v>746</v>
+      </c>
+      <c r="J28" s="502">
+        <v>9033</v>
+      </c>
+      <c r="K28" s="503">
+        <v>2238.5</v>
+      </c>
+      <c r="L28" s="636" t="s">
+        <v>746</v>
+      </c>
+      <c r="M28" s="503">
+        <v>2238.5</v>
+      </c>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22478,11 +22832,21 @@
         <f t="shared" si="0"/>
         <v>64256.75</v>
       </c>
-      <c r="I29" s="245"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="476"/>
-      <c r="M29" s="111"/>
+      <c r="I29" s="498" t="s">
+        <v>746</v>
+      </c>
+      <c r="J29" s="499">
+        <v>9041</v>
+      </c>
+      <c r="K29" s="500">
+        <v>1771.6</v>
+      </c>
+      <c r="L29" s="634" t="s">
+        <v>746</v>
+      </c>
+      <c r="M29" s="500">
+        <v>1771.6</v>
+      </c>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22505,11 +22869,21 @@
         <v>53375.8</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="476"/>
-      <c r="M30" s="69"/>
+      <c r="I30" s="501" t="s">
+        <v>747</v>
+      </c>
+      <c r="J30" s="502">
+        <v>9044</v>
+      </c>
+      <c r="K30" s="503">
+        <v>36114.800000000003</v>
+      </c>
+      <c r="L30" s="636" t="s">
+        <v>747</v>
+      </c>
+      <c r="M30" s="503">
+        <v>36114.800000000003</v>
+      </c>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22531,11 +22905,21 @@
         <f t="shared" si="0"/>
         <v>126366.49</v>
       </c>
-      <c r="I31" s="370"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="476"/>
-      <c r="M31" s="69"/>
+      <c r="I31" s="498" t="s">
+        <v>748</v>
+      </c>
+      <c r="J31" s="499">
+        <v>9049</v>
+      </c>
+      <c r="K31" s="500">
+        <v>744</v>
+      </c>
+      <c r="L31" s="634" t="s">
+        <v>748</v>
+      </c>
+      <c r="M31" s="500">
+        <v>744</v>
+      </c>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22557,11 +22941,21 @@
         <f t="shared" si="0"/>
         <v>6102</v>
       </c>
-      <c r="I32" s="370"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="476"/>
-      <c r="M32" s="69"/>
+      <c r="I32" s="501" t="s">
+        <v>748</v>
+      </c>
+      <c r="J32" s="502">
+        <v>9050</v>
+      </c>
+      <c r="K32" s="503">
+        <v>25869.8</v>
+      </c>
+      <c r="L32" s="636" t="s">
+        <v>748</v>
+      </c>
+      <c r="M32" s="503">
+        <v>25869.8</v>
+      </c>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22583,11 +22977,21 @@
         <f t="shared" si="0"/>
         <v>4812</v>
       </c>
-      <c r="I33" s="370"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="476"/>
-      <c r="M33" s="69"/>
+      <c r="I33" s="498" t="s">
+        <v>749</v>
+      </c>
+      <c r="J33" s="499">
+        <v>9059</v>
+      </c>
+      <c r="K33" s="500">
+        <v>5027</v>
+      </c>
+      <c r="L33" s="634" t="s">
+        <v>749</v>
+      </c>
+      <c r="M33" s="500">
+        <v>5027</v>
+      </c>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22609,11 +23013,21 @@
         <f t="shared" si="0"/>
         <v>10160.6</v>
       </c>
-      <c r="I34" s="370"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="476"/>
-      <c r="M34" s="69"/>
+      <c r="I34" s="501" t="s">
+        <v>750</v>
+      </c>
+      <c r="J34" s="502">
+        <v>9065</v>
+      </c>
+      <c r="K34" s="503">
+        <v>1820.8</v>
+      </c>
+      <c r="L34" s="636" t="s">
+        <v>750</v>
+      </c>
+      <c r="M34" s="503">
+        <v>1820.8</v>
+      </c>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22635,11 +23049,21 @@
         <f t="shared" si="0"/>
         <v>75337.5</v>
       </c>
-      <c r="I35" s="370"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="476"/>
-      <c r="M35" s="69"/>
+      <c r="I35" s="498" t="s">
+        <v>751</v>
+      </c>
+      <c r="J35" s="499">
+        <v>9078</v>
+      </c>
+      <c r="K35" s="500">
+        <v>43759.6</v>
+      </c>
+      <c r="L35" s="634" t="s">
+        <v>751</v>
+      </c>
+      <c r="M35" s="500">
+        <v>43759.6</v>
+      </c>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22661,11 +23085,21 @@
         <f t="shared" si="0"/>
         <v>29920.44</v>
       </c>
-      <c r="I36" s="370"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="476"/>
-      <c r="M36" s="69"/>
+      <c r="I36" s="501" t="s">
+        <v>752</v>
+      </c>
+      <c r="J36" s="502">
+        <v>9090</v>
+      </c>
+      <c r="K36" s="503">
+        <v>1331</v>
+      </c>
+      <c r="L36" s="636" t="s">
+        <v>752</v>
+      </c>
+      <c r="M36" s="503">
+        <v>1331</v>
+      </c>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22687,11 +23121,21 @@
         <f t="shared" si="0"/>
         <v>72246.7</v>
       </c>
-      <c r="I37" s="370"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="476"/>
-      <c r="M37" s="69"/>
+      <c r="I37" s="498" t="s">
+        <v>753</v>
+      </c>
+      <c r="J37" s="499">
+        <v>9104</v>
+      </c>
+      <c r="K37" s="500">
+        <v>32504.400000000001</v>
+      </c>
+      <c r="L37" s="634" t="s">
+        <v>753</v>
+      </c>
+      <c r="M37" s="500">
+        <v>32504.400000000001</v>
+      </c>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22713,11 +23157,21 @@
         <f t="shared" si="0"/>
         <v>3036</v>
       </c>
-      <c r="I38" s="288"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="476"/>
-      <c r="M38" s="69"/>
+      <c r="I38" s="498" t="s">
+        <v>754</v>
+      </c>
+      <c r="J38" s="499">
+        <v>9107</v>
+      </c>
+      <c r="K38" s="500">
+        <v>15257</v>
+      </c>
+      <c r="L38" s="634" t="s">
+        <v>754</v>
+      </c>
+      <c r="M38" s="500">
+        <v>15257</v>
+      </c>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22739,11 +23193,21 @@
         <f t="shared" si="0"/>
         <v>1627.2</v>
       </c>
-      <c r="I39" s="288"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="476"/>
-      <c r="M39" s="69"/>
+      <c r="I39" s="498" t="s">
+        <v>755</v>
+      </c>
+      <c r="J39" s="499">
+        <v>9123</v>
+      </c>
+      <c r="K39" s="500">
+        <v>5516</v>
+      </c>
+      <c r="L39" s="634" t="s">
+        <v>755</v>
+      </c>
+      <c r="M39" s="500">
+        <v>5516</v>
+      </c>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22765,11 +23229,21 @@
         <f t="shared" si="0"/>
         <v>1238.8</v>
       </c>
-      <c r="I40" s="288"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="476"/>
-      <c r="M40" s="69"/>
+      <c r="I40" s="501" t="s">
+        <v>756</v>
+      </c>
+      <c r="J40" s="502">
+        <v>9132</v>
+      </c>
+      <c r="K40" s="503">
+        <v>600</v>
+      </c>
+      <c r="L40" s="636" t="s">
+        <v>756</v>
+      </c>
+      <c r="M40" s="503">
+        <v>600</v>
+      </c>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22791,11 +23265,21 @@
         <f t="shared" si="0"/>
         <v>62762.55</v>
       </c>
-      <c r="I41" s="288"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="476"/>
-      <c r="M41" s="69"/>
+      <c r="I41" s="501" t="s">
+        <v>757</v>
+      </c>
+      <c r="J41" s="502">
+        <v>9138</v>
+      </c>
+      <c r="K41" s="503">
+        <v>6614.7</v>
+      </c>
+      <c r="L41" s="636" t="s">
+        <v>757</v>
+      </c>
+      <c r="M41" s="503">
+        <v>6614.7</v>
+      </c>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22817,11 +23301,21 @@
         <f t="shared" si="0"/>
         <v>46744.6</v>
       </c>
-      <c r="I42" s="288"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="476"/>
-      <c r="M42" s="69"/>
+      <c r="I42" s="501" t="s">
+        <v>757</v>
+      </c>
+      <c r="J42" s="502">
+        <v>9140</v>
+      </c>
+      <c r="K42" s="503">
+        <v>1080</v>
+      </c>
+      <c r="L42" s="636" t="s">
+        <v>757</v>
+      </c>
+      <c r="M42" s="503">
+        <v>1080</v>
+      </c>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -23736,10 +24230,7 @@
       </c>
       <c r="L88" s="152"/>
       <c r="M88" s="151"/>
-      <c r="N88" s="137" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
+      <c r="N88" s="137"/>
     </row>
     <row r="89" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B89" s="440"/>
@@ -23756,18 +24247,18 @@
         <f>SUM(F3:F88)</f>
         <v>1055196.5699999998</v>
       </c>
-      <c r="K89" s="209">
+      <c r="K89" s="637">
         <f>SUM(K3:K88)</f>
-        <v>0</v>
+        <v>363428.24</v>
       </c>
       <c r="L89" s="478"/>
       <c r="M89" s="209">
         <f>SUM(M3:M88)</f>
-        <v>0</v>
-      </c>
-      <c r="N89" s="153" t="e">
+        <v>363428.24</v>
+      </c>
+      <c r="N89" s="153">
         <f>N88</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23775,7 +24266,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="583" t="s">
+      <c r="F90" s="587" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -23788,7 +24279,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="584"/>
+      <c r="F91" s="588"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -23807,21 +24298,21 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="621" t="s">
+      <c r="I93" s="625" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="622"/>
+      <c r="J93" s="626"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
-      <c r="B94" s="629" t="s">
+      <c r="B94" s="521" t="s">
         <v>728</v>
       </c>
-      <c r="C94" s="630"/>
-      <c r="D94" s="631"/>
-      <c r="E94" s="632"/>
-      <c r="I94" s="623"/>
-      <c r="J94" s="624"/>
+      <c r="C94" s="522"/>
+      <c r="D94" s="523"/>
+      <c r="E94" s="524"/>
+      <c r="I94" s="627"/>
+      <c r="J94" s="628"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -25411,7 +25902,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="556" t="s">
+      <c r="B41" s="560" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -25443,7 +25934,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="557"/>
+      <c r="B42" s="561"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -27039,23 +27530,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="545"/>
-      <c r="C1" s="547" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
-      <c r="L1" s="548"/>
-      <c r="M1" s="548"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="546"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -27065,21 +27556,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="549" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="550"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="551" t="s">
+      <c r="H3" s="555" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="551"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="579" t="s">
         <v>6</v>
       </c>
     </row>
@@ -27094,14 +27585,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="552" t="s">
+      <c r="E4" s="556" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="553"/>
-      <c r="H4" s="554" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -27111,14 +27602,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="580"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="558" t="s">
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="558"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27169,8 +27660,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="558"/>
-      <c r="X5" s="558"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27941,7 +28432,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="562">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -27993,7 +28484,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="563"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -28042,8 +28533,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="564"/>
-      <c r="X21" s="564"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -28144,8 +28635,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="565"/>
-      <c r="X23" s="565"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -28199,8 +28690,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="565"/>
-      <c r="X24" s="565"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -28246,8 +28737,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="566"/>
-      <c r="X25" s="566"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -28298,8 +28789,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="566"/>
-      <c r="X26" s="566"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -28347,9 +28838,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="559"/>
-      <c r="X27" s="560"/>
-      <c r="Y27" s="561"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28399,9 +28890,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="560"/>
-      <c r="X28" s="560"/>
-      <c r="Y28" s="561"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28736,11 +29227,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="577">
+      <c r="M36" s="581">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="579">
+      <c r="N36" s="583">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -28748,7 +29239,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="581">
+      <c r="Q36" s="585">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -28783,13 +29274,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="578"/>
-      <c r="N37" s="580"/>
+      <c r="M37" s="582"/>
+      <c r="N37" s="584"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="582"/>
+      <c r="Q37" s="586"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -29079,26 +29570,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="532" t="s">
+      <c r="H52" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="533"/>
+      <c r="I52" s="537"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="534">
+      <c r="K52" s="538">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="567"/>
+      <c r="L52" s="571"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="538" t="s">
+      <c r="D53" s="542" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="538"/>
+      <c r="E53" s="542"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -29107,29 +29598,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="568" t="s">
+      <c r="D54" s="572" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="568"/>
+      <c r="E54" s="572"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="539" t="s">
+      <c r="I54" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="540"/>
-      <c r="K54" s="541">
+      <c r="J54" s="544"/>
+      <c r="K54" s="545">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="541"/>
-      <c r="M54" s="569" t="s">
+      <c r="L54" s="545"/>
+      <c r="M54" s="573" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="570"/>
-      <c r="O54" s="570"/>
-      <c r="P54" s="570"/>
-      <c r="Q54" s="571"/>
+      <c r="N54" s="574"/>
+      <c r="O54" s="574"/>
+      <c r="P54" s="574"/>
+      <c r="Q54" s="575"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -29143,11 +29634,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="572"/>
-      <c r="N55" s="573"/>
-      <c r="O55" s="573"/>
-      <c r="P55" s="573"/>
-      <c r="Q55" s="574"/>
+      <c r="M55" s="576"/>
+      <c r="N55" s="577"/>
+      <c r="O55" s="577"/>
+      <c r="P55" s="577"/>
+      <c r="Q55" s="578"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -29165,11 +29656,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="543">
+      <c r="K56" s="547">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="544"/>
+      <c r="L56" s="548"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -29186,22 +29677,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="521" t="s">
+      <c r="D58" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="522"/>
+      <c r="E58" s="526"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="523" t="s">
+      <c r="I58" s="527" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="524"/>
-      <c r="K58" s="525">
+      <c r="J58" s="528"/>
+      <c r="K58" s="529">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="525"/>
+      <c r="L58" s="529"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -31791,7 +32282,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="583" t="s">
+      <c r="F87" s="587" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -31804,7 +32295,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="584"/>
+      <c r="F88" s="588"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -32116,23 +32607,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="545"/>
-      <c r="C1" s="547" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
-      <c r="L1" s="548"/>
-      <c r="M1" s="548"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="546"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -32142,24 +32633,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="549" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="550"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="551" t="s">
+      <c r="H3" s="555" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="551"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="579" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="585" t="s">
+      <c r="R3" s="589" t="s">
         <v>216</v>
       </c>
     </row>
@@ -32174,14 +32665,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="552" t="s">
+      <c r="E4" s="556" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="553"/>
-      <c r="H4" s="554" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -32191,15 +32682,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="580"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="586"/>
-      <c r="W4" s="558" t="s">
+      <c r="R4" s="590"/>
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="558"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32260,8 +32751,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="558"/>
-      <c r="X5" s="558"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33018,7 +33509,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="562">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -33070,7 +33561,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="563"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -33119,8 +33610,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="564"/>
-      <c r="X21" s="564"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -33221,8 +33712,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="565"/>
-      <c r="X23" s="565"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -33273,8 +33764,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="565"/>
-      <c r="X24" s="565"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -33320,8 +33811,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="566"/>
-      <c r="X25" s="566"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -33369,8 +33860,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="566"/>
-      <c r="X26" s="566"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -33430,9 +33921,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="559"/>
-      <c r="X27" s="560"/>
-      <c r="Y27" s="561"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33486,9 +33977,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="560"/>
-      <c r="X28" s="560"/>
-      <c r="Y28" s="561"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33804,11 +34295,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="577">
+      <c r="M36" s="581">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="579">
+      <c r="N36" s="583">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -33816,7 +34307,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="581">
+      <c r="Q36" s="585">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -33835,13 +34326,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="578"/>
-      <c r="N37" s="580"/>
+      <c r="M37" s="582"/>
+      <c r="N37" s="584"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="582"/>
+      <c r="Q37" s="586"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -34115,26 +34606,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="532" t="s">
+      <c r="H52" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="533"/>
+      <c r="I52" s="537"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="534">
+      <c r="K52" s="538">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="567"/>
+      <c r="L52" s="571"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="538" t="s">
+      <c r="D53" s="542" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="538"/>
+      <c r="E53" s="542"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -34143,29 +34634,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="568" t="s">
+      <c r="D54" s="572" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="568"/>
+      <c r="E54" s="572"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="539" t="s">
+      <c r="I54" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="540"/>
-      <c r="K54" s="541">
+      <c r="J54" s="544"/>
+      <c r="K54" s="545">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="541"/>
-      <c r="M54" s="569" t="s">
+      <c r="L54" s="545"/>
+      <c r="M54" s="573" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="570"/>
-      <c r="O54" s="570"/>
-      <c r="P54" s="570"/>
-      <c r="Q54" s="571"/>
+      <c r="N54" s="574"/>
+      <c r="O54" s="574"/>
+      <c r="P54" s="574"/>
+      <c r="Q54" s="575"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -34179,11 +34670,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="572"/>
-      <c r="N55" s="573"/>
-      <c r="O55" s="573"/>
-      <c r="P55" s="573"/>
-      <c r="Q55" s="574"/>
+      <c r="M55" s="576"/>
+      <c r="N55" s="577"/>
+      <c r="O55" s="577"/>
+      <c r="P55" s="577"/>
+      <c r="Q55" s="578"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -34201,11 +34692,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="543">
+      <c r="K56" s="547">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="544"/>
+      <c r="L56" s="548"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -34222,22 +34713,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="521" t="s">
+      <c r="D58" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="522"/>
+      <c r="E58" s="526"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="523" t="s">
+      <c r="I58" s="527" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="524"/>
-      <c r="K58" s="525">
+      <c r="J58" s="528"/>
+      <c r="K58" s="529">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="525"/>
+      <c r="L58" s="529"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -36800,7 +37291,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="583" t="s">
+      <c r="F75" s="587" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -36813,7 +37304,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="584"/>
+      <c r="F76" s="588"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -37105,23 +37596,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="545"/>
-      <c r="C1" s="587" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="591" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="588"/>
-      <c r="E1" s="588"/>
-      <c r="F1" s="588"/>
-      <c r="G1" s="588"/>
-      <c r="H1" s="588"/>
-      <c r="I1" s="588"/>
-      <c r="J1" s="588"/>
-      <c r="K1" s="588"/>
-      <c r="L1" s="588"/>
-      <c r="M1" s="588"/>
+      <c r="D1" s="592"/>
+      <c r="E1" s="592"/>
+      <c r="F1" s="592"/>
+      <c r="G1" s="592"/>
+      <c r="H1" s="592"/>
+      <c r="I1" s="592"/>
+      <c r="J1" s="592"/>
+      <c r="K1" s="592"/>
+      <c r="L1" s="592"/>
+      <c r="M1" s="592"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="546"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -37131,24 +37622,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="549" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="550"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="551" t="s">
+      <c r="H3" s="555" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="551"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="579" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="585" t="s">
+      <c r="R3" s="589" t="s">
         <v>216</v>
       </c>
     </row>
@@ -37163,14 +37654,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="552" t="s">
+      <c r="E4" s="556" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="553"/>
-      <c r="H4" s="554" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -37180,15 +37671,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="580"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="586"/>
-      <c r="W4" s="558" t="s">
+      <c r="R4" s="590"/>
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="558"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37239,8 +37730,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="558"/>
-      <c r="X5" s="558"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38004,7 +38495,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="562">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -38057,7 +38548,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="563"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -38106,8 +38597,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="564"/>
-      <c r="X21" s="564"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -38207,8 +38698,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="565"/>
-      <c r="X23" s="565"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -38263,8 +38754,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="565"/>
-      <c r="X24" s="565"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -38309,8 +38800,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="566"/>
-      <c r="X25" s="566"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -38358,8 +38849,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="566"/>
-      <c r="X26" s="566"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -38413,9 +38904,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="559"/>
-      <c r="X27" s="560"/>
-      <c r="Y27" s="561"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38469,9 +38960,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="560"/>
-      <c r="X28" s="560"/>
-      <c r="Y28" s="561"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38782,11 +39273,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="577">
+      <c r="M36" s="581">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="579">
+      <c r="N36" s="583">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -38794,7 +39285,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="581">
+      <c r="Q36" s="585">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -38819,13 +39310,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="578"/>
-      <c r="N37" s="580"/>
+      <c r="M37" s="582"/>
+      <c r="N37" s="584"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="582"/>
+      <c r="Q37" s="586"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -39118,26 +39609,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="532" t="s">
+      <c r="H52" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="533"/>
+      <c r="I52" s="537"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="534">
+      <c r="K52" s="538">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="567"/>
+      <c r="L52" s="571"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="538" t="s">
+      <c r="D53" s="542" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="538"/>
+      <c r="E53" s="542"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -39146,22 +39637,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="568" t="s">
+      <c r="D54" s="572" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="568"/>
+      <c r="E54" s="572"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="539" t="s">
+      <c r="I54" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="540"/>
-      <c r="K54" s="541">
+      <c r="J54" s="544"/>
+      <c r="K54" s="545">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="541"/>
+      <c r="L54" s="545"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -39202,11 +39693,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="543">
+      <c r="K56" s="547">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="544"/>
+      <c r="L56" s="548"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -39223,22 +39714,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="521" t="s">
+      <c r="D58" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="522"/>
+      <c r="E58" s="526"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="523" t="s">
+      <c r="I58" s="527" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="524"/>
-      <c r="K58" s="525">
+      <c r="J58" s="528"/>
+      <c r="K58" s="529">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="525"/>
+      <c r="L58" s="529"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -41107,12 +41598,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="589" t="s">
+      <c r="B43" s="593" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="590"/>
-      <c r="D43" s="590"/>
-      <c r="E43" s="591"/>
+      <c r="C43" s="594"/>
+      <c r="D43" s="594"/>
+      <c r="E43" s="595"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41140,10 +41631,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="592"/>
-      <c r="C44" s="593"/>
-      <c r="D44" s="593"/>
-      <c r="E44" s="594"/>
+      <c r="B44" s="596"/>
+      <c r="C44" s="597"/>
+      <c r="D44" s="597"/>
+      <c r="E44" s="598"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41171,10 +41662,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="595"/>
-      <c r="C45" s="596"/>
-      <c r="D45" s="596"/>
-      <c r="E45" s="597"/>
+      <c r="B45" s="599"/>
+      <c r="C45" s="600"/>
+      <c r="D45" s="600"/>
+      <c r="E45" s="601"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41217,10 +41708,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="604" t="s">
+      <c r="B47" s="608" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="605"/>
+      <c r="C47" s="609"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -41242,8 +41733,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="606"/>
-      <c r="C48" s="607"/>
+      <c r="B48" s="610"/>
+      <c r="C48" s="611"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -41251,11 +41742,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="598" t="s">
+      <c r="J48" s="602" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="599"/>
-      <c r="L48" s="600"/>
+      <c r="K48" s="603"/>
+      <c r="L48" s="604"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -41273,9 +41764,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="601"/>
-      <c r="K49" s="602"/>
-      <c r="L49" s="603"/>
+      <c r="J49" s="605"/>
+      <c r="K49" s="606"/>
+      <c r="L49" s="607"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -41292,10 +41783,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="608" t="s">
+      <c r="I50" s="612" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="609"/>
+      <c r="J50" s="613"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -41316,8 +41807,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="608"/>
-      <c r="J51" s="609"/>
+      <c r="I51" s="612"/>
+      <c r="J51" s="613"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -41336,8 +41827,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="608"/>
-      <c r="J52" s="609"/>
+      <c r="I52" s="612"/>
+      <c r="J52" s="613"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -41356,8 +41847,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="608"/>
-      <c r="J53" s="609"/>
+      <c r="I53" s="612"/>
+      <c r="J53" s="613"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -41376,8 +41867,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="608"/>
-      <c r="J54" s="609"/>
+      <c r="I54" s="612"/>
+      <c r="J54" s="613"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -41396,8 +41887,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="608"/>
-      <c r="J55" s="609"/>
+      <c r="I55" s="612"/>
+      <c r="J55" s="613"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -41416,8 +41907,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="608"/>
-      <c r="J56" s="609"/>
+      <c r="I56" s="612"/>
+      <c r="J56" s="613"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -41436,8 +41927,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="608"/>
-      <c r="J57" s="609"/>
+      <c r="I57" s="612"/>
+      <c r="J57" s="613"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -41456,8 +41947,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="608"/>
-      <c r="J58" s="609"/>
+      <c r="I58" s="612"/>
+      <c r="J58" s="613"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -41476,8 +41967,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="608"/>
-      <c r="J59" s="609"/>
+      <c r="I59" s="612"/>
+      <c r="J59" s="613"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -41496,8 +41987,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="608"/>
-      <c r="J60" s="609"/>
+      <c r="I60" s="612"/>
+      <c r="J60" s="613"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -41516,8 +42007,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="608"/>
-      <c r="J61" s="609"/>
+      <c r="I61" s="612"/>
+      <c r="J61" s="613"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -41536,8 +42027,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="608"/>
-      <c r="J62" s="609"/>
+      <c r="I62" s="612"/>
+      <c r="J62" s="613"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -41556,8 +42047,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="608"/>
-      <c r="J63" s="609"/>
+      <c r="I63" s="612"/>
+      <c r="J63" s="613"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -41576,8 +42067,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="608"/>
-      <c r="J64" s="609"/>
+      <c r="I64" s="612"/>
+      <c r="J64" s="613"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -41596,8 +42087,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="608"/>
-      <c r="J65" s="609"/>
+      <c r="I65" s="612"/>
+      <c r="J65" s="613"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -41616,8 +42107,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="608"/>
-      <c r="J66" s="609"/>
+      <c r="I66" s="612"/>
+      <c r="J66" s="613"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -41636,8 +42127,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="608"/>
-      <c r="J67" s="609"/>
+      <c r="I67" s="612"/>
+      <c r="J67" s="613"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -41656,8 +42147,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="608"/>
-      <c r="J68" s="609"/>
+      <c r="I68" s="612"/>
+      <c r="J68" s="613"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -41676,8 +42167,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="608"/>
-      <c r="J69" s="609"/>
+      <c r="I69" s="612"/>
+      <c r="J69" s="613"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -41696,8 +42187,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="608"/>
-      <c r="J70" s="609"/>
+      <c r="I70" s="612"/>
+      <c r="J70" s="613"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -41716,8 +42207,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="608"/>
-      <c r="J71" s="609"/>
+      <c r="I71" s="612"/>
+      <c r="J71" s="613"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -41736,8 +42227,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="608"/>
-      <c r="J72" s="609"/>
+      <c r="I72" s="612"/>
+      <c r="J72" s="613"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -41756,8 +42247,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="608"/>
-      <c r="J73" s="609"/>
+      <c r="I73" s="612"/>
+      <c r="J73" s="613"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -41776,8 +42267,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="608"/>
-      <c r="J74" s="609"/>
+      <c r="I74" s="612"/>
+      <c r="J74" s="613"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -41796,8 +42287,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="608"/>
-      <c r="J75" s="609"/>
+      <c r="I75" s="612"/>
+      <c r="J75" s="613"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -41816,8 +42307,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="608"/>
-      <c r="J76" s="609"/>
+      <c r="I76" s="612"/>
+      <c r="J76" s="613"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -41836,8 +42327,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="608"/>
-      <c r="J77" s="609"/>
+      <c r="I77" s="612"/>
+      <c r="J77" s="613"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -41858,8 +42349,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="610"/>
-      <c r="J78" s="611"/>
+      <c r="I78" s="614"/>
+      <c r="J78" s="615"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -41904,7 +42395,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="583" t="s">
+      <c r="F80" s="587" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -41916,7 +42407,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="584"/>
+      <c r="F81" s="588"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -42204,23 +42695,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="545"/>
-      <c r="C1" s="587" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="591" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="588"/>
-      <c r="E1" s="588"/>
-      <c r="F1" s="588"/>
-      <c r="G1" s="588"/>
-      <c r="H1" s="588"/>
-      <c r="I1" s="588"/>
-      <c r="J1" s="588"/>
-      <c r="K1" s="588"/>
-      <c r="L1" s="588"/>
-      <c r="M1" s="588"/>
+      <c r="D1" s="592"/>
+      <c r="E1" s="592"/>
+      <c r="F1" s="592"/>
+      <c r="G1" s="592"/>
+      <c r="H1" s="592"/>
+      <c r="I1" s="592"/>
+      <c r="J1" s="592"/>
+      <c r="K1" s="592"/>
+      <c r="L1" s="592"/>
+      <c r="M1" s="592"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="546"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42230,24 +42721,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="549" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="550"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="551" t="s">
+      <c r="H3" s="555" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="551"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="579" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="585" t="s">
+      <c r="R3" s="589" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42262,14 +42753,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="552" t="s">
+      <c r="E4" s="556" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="553"/>
-      <c r="H4" s="554" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -42279,15 +42770,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="580"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="586"/>
-      <c r="W4" s="558" t="s">
+      <c r="R4" s="590"/>
+      <c r="W4" s="562" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="558"/>
+      <c r="X4" s="562"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42338,8 +42829,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="558"/>
-      <c r="X5" s="558"/>
+      <c r="W5" s="562"/>
+      <c r="X5" s="562"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43100,7 +43591,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="562">
+      <c r="W19" s="566">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -43152,7 +43643,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="563"/>
+      <c r="W20" s="567"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -43201,8 +43692,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="564"/>
-      <c r="X21" s="564"/>
+      <c r="W21" s="568"/>
+      <c r="X21" s="568"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -43301,8 +43792,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="565"/>
-      <c r="X23" s="565"/>
+      <c r="W23" s="569"/>
+      <c r="X23" s="569"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -43357,8 +43848,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="565"/>
-      <c r="X24" s="565"/>
+      <c r="W24" s="569"/>
+      <c r="X24" s="569"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -43406,8 +43897,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="566"/>
-      <c r="X25" s="566"/>
+      <c r="W25" s="570"/>
+      <c r="X25" s="570"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -43455,8 +43946,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="566"/>
-      <c r="X26" s="566"/>
+      <c r="W26" s="570"/>
+      <c r="X26" s="570"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -43504,9 +43995,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="559"/>
-      <c r="X27" s="560"/>
-      <c r="Y27" s="561"/>
+      <c r="W27" s="563"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="565"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43554,9 +44045,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="560"/>
-      <c r="X28" s="560"/>
-      <c r="Y28" s="561"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="565"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43897,11 +44388,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="577">
+      <c r="M36" s="581">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="579">
+      <c r="N36" s="583">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -43909,7 +44400,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="612">
+      <c r="Q36" s="616">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -43934,13 +44425,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="578"/>
-      <c r="N37" s="580"/>
+      <c r="M37" s="582"/>
+      <c r="N37" s="584"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="613"/>
+      <c r="Q37" s="617"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -43990,11 +44481,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="614">
+      <c r="M39" s="618">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="615"/>
+      <c r="N39" s="619"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -44242,26 +44733,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="532" t="s">
+      <c r="H52" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="533"/>
+      <c r="I52" s="537"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="534">
+      <c r="K52" s="538">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="567"/>
+      <c r="L52" s="571"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="538" t="s">
+      <c r="D53" s="542" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="538"/>
+      <c r="E53" s="542"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -44270,22 +44761,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="568" t="s">
+      <c r="D54" s="572" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="568"/>
+      <c r="E54" s="572"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="539" t="s">
+      <c r="I54" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="540"/>
-      <c r="K54" s="541">
+      <c r="J54" s="544"/>
+      <c r="K54" s="545">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="541"/>
+      <c r="L54" s="545"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -44326,11 +44817,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="543">
+      <c r="K56" s="547">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="544"/>
+      <c r="L56" s="548"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -44347,22 +44838,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="521" t="s">
+      <c r="D58" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="522"/>
+      <c r="E58" s="526"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="523" t="s">
+      <c r="I58" s="527" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="524"/>
-      <c r="K58" s="525">
+      <c r="J58" s="528"/>
+      <c r="K58" s="529">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="525"/>
+      <c r="L58" s="529"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="COMPRAS     MARZO     2022    " sheetId="15" r:id="rId12"/>
     <sheet name="     A B R I L     2 0 2 2     " sheetId="16" r:id="rId13"/>
     <sheet name="   COMPRAS    ABRIL    2 02 2 2" sheetId="9" r:id="rId14"/>
-    <sheet name="Hoja1" sheetId="17" r:id="rId15"/>
+    <sheet name="DEPOSITOS A NLP" sheetId="17" r:id="rId15"/>
     <sheet name="Hoja2" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="765">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2815,6 +2815,27 @@
   </si>
   <si>
     <t>30-abr-2022</t>
+  </si>
+  <si>
+    <t>nlp</t>
+  </si>
+  <si>
+    <t>fecha de deposito</t>
+  </si>
+  <si>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>VENTAS ZAVALETA</t>
+  </si>
+  <si>
+    <t>CUENTA BBVA  NLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFERENCIA </t>
+  </si>
+  <si>
+    <t>FICHA</t>
   </si>
 </sst>
 </file>
@@ -2830,7 +2851,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3321,6 +3342,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4618,7 +4647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="638">
+  <cellXfs count="649">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5668,6 +5697,27 @@
     <xf numFmtId="44" fontId="11" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="18" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5992,11 +6042,19 @@
     <xf numFmtId="166" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="21" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="62" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6006,15 +6064,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC3399"/>
       <color rgb="FF990033"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF800000"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF6600FF"/>
     </mruColors>
   </colors>
@@ -9420,23 +9478,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9446,17 +9504,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="566" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9470,14 +9528,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="567" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="568"/>
+      <c r="H4" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="570"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9487,10 +9545,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="530" t="s">
+      <c r="P4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="531"/>
+      <c r="Q4" s="542"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10931,11 +10989,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="532">
+      <c r="M39" s="543">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="534">
+      <c r="N39" s="545">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10961,8 +11019,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="533"/>
-      <c r="N40" s="535"/>
+      <c r="M40" s="544"/>
+      <c r="N40" s="546"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -11177,29 +11235,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="536" t="s">
+      <c r="H52" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="537"/>
+      <c r="I52" s="548"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="538">
+      <c r="K52" s="549">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="539"/>
-      <c r="M52" s="540">
+      <c r="L52" s="550"/>
+      <c r="M52" s="551">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="541"/>
+      <c r="N52" s="552"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="542" t="s">
+      <c r="D53" s="553" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="542"/>
+      <c r="E53" s="553"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -11210,22 +11268,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="542" t="s">
+      <c r="D54" s="553" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="542"/>
+      <c r="E54" s="553"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="543" t="s">
+      <c r="I54" s="554" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="544"/>
-      <c r="K54" s="545">
+      <c r="J54" s="555"/>
+      <c r="K54" s="556">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="546"/>
+      <c r="L54" s="557"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -11258,11 +11316,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="547">
+      <c r="K56" s="558">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="548"/>
+      <c r="L56" s="559"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -11279,22 +11337,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="525" t="s">
+      <c r="D58" s="536" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="526"/>
+      <c r="E58" s="537"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="527" t="s">
+      <c r="I58" s="538" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="528"/>
-      <c r="K58" s="529">
+      <c r="J58" s="539"/>
+      <c r="K58" s="540">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="529"/>
+      <c r="L58" s="540"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13918,10 +13976,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="621" t="s">
+      <c r="I76" s="632" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="622"/>
+      <c r="J76" s="633"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13940,8 +13998,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="623"/>
-      <c r="J77" s="624"/>
+      <c r="I77" s="634"/>
+      <c r="J77" s="635"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -14008,7 +14066,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="587" t="s">
+      <c r="F80" s="598" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -14023,7 +14081,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="588"/>
+      <c r="F81" s="599"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -14031,10 +14089,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="620" t="s">
+      <c r="B82" s="631" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="620"/>
+      <c r="C82" s="631"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -14316,23 +14374,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="591" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="602" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="592"/>
-      <c r="E1" s="592"/>
-      <c r="F1" s="592"/>
-      <c r="G1" s="592"/>
-      <c r="H1" s="592"/>
-      <c r="I1" s="592"/>
-      <c r="J1" s="592"/>
-      <c r="K1" s="592"/>
-      <c r="L1" s="592"/>
-      <c r="M1" s="592"/>
+      <c r="D1" s="603"/>
+      <c r="E1" s="603"/>
+      <c r="F1" s="603"/>
+      <c r="G1" s="603"/>
+      <c r="H1" s="603"/>
+      <c r="I1" s="603"/>
+      <c r="J1" s="603"/>
+      <c r="K1" s="603"/>
+      <c r="L1" s="603"/>
+      <c r="M1" s="603"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14342,24 +14400,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="566" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="579" t="s">
+      <c r="P3" s="590" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="589" t="s">
+      <c r="R3" s="600" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14374,14 +14432,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="567" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="568"/>
+      <c r="H4" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="570"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14391,15 +14449,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="580"/>
+      <c r="P4" s="591"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="590"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="601"/>
+      <c r="W4" s="573" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="573"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14450,8 +14508,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="573"/>
+      <c r="X5" s="573"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15214,7 +15272,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="577">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -15266,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="578"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15315,8 +15373,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="579"/>
+      <c r="X21" s="579"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15416,8 +15474,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="580"/>
+      <c r="X23" s="580"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15472,8 +15530,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="580"/>
+      <c r="X24" s="580"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15521,8 +15579,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="581"/>
+      <c r="X25" s="581"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15571,8 +15629,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="581"/>
+      <c r="X26" s="581"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15620,9 +15678,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="574"/>
+      <c r="X27" s="575"/>
+      <c r="Y27" s="576"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15670,9 +15728,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="575"/>
+      <c r="X28" s="575"/>
+      <c r="Y28" s="576"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16004,11 +16062,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="581">
+      <c r="M36" s="592">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="583">
+      <c r="N36" s="594">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -16016,7 +16074,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="616">
+      <c r="Q36" s="627">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -16041,13 +16099,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="582"/>
-      <c r="N37" s="584"/>
+      <c r="M37" s="593"/>
+      <c r="N37" s="595"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="617"/>
+      <c r="Q37" s="628"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -16092,11 +16150,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="618">
+      <c r="M39" s="629">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="619"/>
+      <c r="N39" s="630"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -16356,26 +16414,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="536" t="s">
+      <c r="H52" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="537"/>
+      <c r="I52" s="548"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="538">
+      <c r="K52" s="549">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="571"/>
+      <c r="L52" s="582"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="542" t="s">
+      <c r="D53" s="553" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="542"/>
+      <c r="E53" s="553"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -16384,22 +16442,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="572" t="s">
+      <c r="D54" s="583" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="572"/>
+      <c r="E54" s="583"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="543" t="s">
+      <c r="I54" s="554" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="544"/>
-      <c r="K54" s="545">
+      <c r="J54" s="555"/>
+      <c r="K54" s="556">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="545"/>
+      <c r="L54" s="556"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16440,11 +16498,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="547">
+      <c r="K56" s="558">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="548"/>
+      <c r="L56" s="559"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16461,22 +16519,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="525" t="s">
+      <c r="D58" s="536" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="526"/>
+      <c r="E58" s="537"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="527" t="s">
+      <c r="I58" s="538" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="528"/>
-      <c r="K58" s="529">
+      <c r="J58" s="539"/>
+      <c r="K58" s="540">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="529"/>
+      <c r="L58" s="540"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18917,7 +18975,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="587" t="s">
+      <c r="F80" s="598" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18930,7 +18988,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="588"/>
+      <c r="F81" s="599"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18950,10 +19008,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="625" t="s">
+      <c r="I83" s="636" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="626"/>
+      <c r="J83" s="637"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="518" t="s">
@@ -18962,8 +19020,8 @@
       <c r="B84" s="519"/>
       <c r="C84" s="520"/>
       <c r="D84" s="492"/>
-      <c r="I84" s="627"/>
-      <c r="J84" s="628"/>
+      <c r="I84" s="638"/>
+      <c r="J84" s="639"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -19205,8 +19263,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19235,23 +19293,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="591" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="602" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="592"/>
-      <c r="E1" s="592"/>
-      <c r="F1" s="592"/>
-      <c r="G1" s="592"/>
-      <c r="H1" s="592"/>
-      <c r="I1" s="592"/>
-      <c r="J1" s="592"/>
-      <c r="K1" s="592"/>
-      <c r="L1" s="592"/>
-      <c r="M1" s="592"/>
+      <c r="D1" s="603"/>
+      <c r="E1" s="603"/>
+      <c r="F1" s="603"/>
+      <c r="G1" s="603"/>
+      <c r="H1" s="603"/>
+      <c r="I1" s="603"/>
+      <c r="J1" s="603"/>
+      <c r="K1" s="603"/>
+      <c r="L1" s="603"/>
+      <c r="M1" s="603"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19261,24 +19319,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="566" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="579" t="s">
+      <c r="P3" s="590" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="589" t="s">
+      <c r="R3" s="600" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19293,14 +19351,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="567" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="568"/>
+      <c r="H4" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="570"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19310,15 +19368,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="580"/>
+      <c r="P4" s="591"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="590"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="601"/>
+      <c r="W4" s="573" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="573"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19369,8 +19427,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="573"/>
+      <c r="X5" s="573"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20129,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="577">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20181,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="578"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20230,8 +20288,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="579"/>
+      <c r="X21" s="579"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20328,8 +20386,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="580"/>
+      <c r="X23" s="580"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20384,8 +20442,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="580"/>
+      <c r="X24" s="580"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20431,8 +20489,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="581"/>
+      <c r="X25" s="581"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20470,7 +20528,9 @@
       <c r="N26" s="33">
         <v>57122</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>758</v>
+      </c>
       <c r="P26" s="284">
         <f t="shared" si="1"/>
         <v>719814.6100000001</v>
@@ -20481,8 +20541,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="581"/>
+      <c r="X26" s="581"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20531,9 +20591,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="574"/>
+      <c r="X27" s="575"/>
+      <c r="Y27" s="576"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20581,9 +20641,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="575"/>
+      <c r="X28" s="575"/>
+      <c r="Y28" s="576"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21176,11 +21236,11 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="581">
+      <c r="M41" s="592">
         <f>SUM(M5:M40)</f>
         <v>2409353.6100000003</v>
       </c>
-      <c r="N41" s="581">
+      <c r="N41" s="592">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -21188,7 +21248,7 @@
         <f>SUM(P5:P40)</f>
         <v>4285312.74</v>
       </c>
-      <c r="Q41" s="629">
+      <c r="Q41" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>-135.3700000000099</v>
       </c>
@@ -21212,10 +21272,10 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="582"/>
-      <c r="N42" s="582"/>
+      <c r="M42" s="593"/>
+      <c r="N42" s="593"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="630"/>
+      <c r="Q42" s="641"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -21285,11 +21345,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="631">
+      <c r="M45" s="642">
         <f>M41+N41</f>
         <v>3605020.6100000003</v>
       </c>
-      <c r="N45" s="632"/>
+      <c r="N45" s="643"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -21414,26 +21474,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="536" t="s">
+      <c r="H52" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="537"/>
+      <c r="I52" s="548"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="538">
+      <c r="K52" s="549">
         <f>I50+L50</f>
         <v>289121.83</v>
       </c>
-      <c r="L52" s="571"/>
+      <c r="L52" s="582"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="542" t="s">
+      <c r="D53" s="553" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="542"/>
+      <c r="E53" s="553"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>3402894.67</v>
@@ -21442,22 +21502,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="572" t="s">
+      <c r="D54" s="583" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="572"/>
+      <c r="E54" s="583"/>
       <c r="F54" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I54" s="543" t="s">
+      <c r="I54" s="554" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="544"/>
-      <c r="K54" s="545">
+      <c r="J54" s="555"/>
+      <c r="K54" s="556">
         <f>F56+F57+F58</f>
         <v>3549636.8899999997</v>
       </c>
-      <c r="L54" s="545"/>
+      <c r="L54" s="556"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -21498,11 +21558,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="547">
+      <c r="K56" s="558">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="548"/>
+      <c r="L56" s="559"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21519,22 +21579,22 @@
       <c r="C58" s="112">
         <v>44682</v>
       </c>
-      <c r="D58" s="525" t="s">
+      <c r="D58" s="536" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="526"/>
+      <c r="E58" s="537"/>
       <c r="F58" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I58" s="527" t="s">
+      <c r="I58" s="538" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="528"/>
-      <c r="K58" s="529">
+      <c r="J58" s="539"/>
+      <c r="K58" s="540">
         <f>K54+K56</f>
         <v>1756819.2099999997</v>
       </c>
-      <c r="L58" s="529"/>
+      <c r="L58" s="540"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21724,8 +21784,8 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M95" sqref="M95"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21828,13 +21888,13 @@
       <c r="I3" s="498" t="s">
         <v>729</v>
       </c>
-      <c r="J3" s="633">
+      <c r="J3" s="525">
         <v>8871</v>
       </c>
       <c r="K3" s="500">
         <v>0</v>
       </c>
-      <c r="L3" s="634" t="s">
+      <c r="L3" s="526" t="s">
         <v>729</v>
       </c>
       <c r="M3" s="500">
@@ -21869,13 +21929,13 @@
       <c r="I4" s="501" t="s">
         <v>730</v>
       </c>
-      <c r="J4" s="635">
+      <c r="J4" s="527">
         <v>8877</v>
       </c>
       <c r="K4" s="503">
         <v>16921.599999999999</v>
       </c>
-      <c r="L4" s="636" t="s">
+      <c r="L4" s="528" t="s">
         <v>730</v>
       </c>
       <c r="M4" s="503">
@@ -21909,13 +21969,13 @@
       <c r="I5" s="498" t="s">
         <v>731</v>
       </c>
-      <c r="J5" s="633">
+      <c r="J5" s="525">
         <v>8883</v>
       </c>
       <c r="K5" s="500">
         <v>24058.799999999999</v>
       </c>
-      <c r="L5" s="634" t="s">
+      <c r="L5" s="526" t="s">
         <v>731</v>
       </c>
       <c r="M5" s="500">
@@ -21949,13 +22009,13 @@
       <c r="I6" s="498" t="s">
         <v>732</v>
       </c>
-      <c r="J6" s="633">
+      <c r="J6" s="525">
         <v>8891</v>
       </c>
       <c r="K6" s="500">
         <v>11335.2</v>
       </c>
-      <c r="L6" s="634" t="s">
+      <c r="L6" s="526" t="s">
         <v>732</v>
       </c>
       <c r="M6" s="500">
@@ -21995,7 +22055,7 @@
       <c r="K7" s="503">
         <v>529</v>
       </c>
-      <c r="L7" s="636" t="s">
+      <c r="L7" s="528" t="s">
         <v>733</v>
       </c>
       <c r="M7" s="503">
@@ -22035,7 +22095,7 @@
       <c r="K8" s="500">
         <v>4369.8</v>
       </c>
-      <c r="L8" s="634" t="s">
+      <c r="L8" s="526" t="s">
         <v>734</v>
       </c>
       <c r="M8" s="500">
@@ -22075,7 +22135,7 @@
       <c r="K9" s="503">
         <v>1236.5999999999999</v>
       </c>
-      <c r="L9" s="636" t="s">
+      <c r="L9" s="528" t="s">
         <v>734</v>
       </c>
       <c r="M9" s="503">
@@ -22116,7 +22176,7 @@
       <c r="K10" s="503">
         <v>450</v>
       </c>
-      <c r="L10" s="636" t="s">
+      <c r="L10" s="528" t="s">
         <v>735</v>
       </c>
       <c r="M10" s="503">
@@ -22156,7 +22216,7 @@
       <c r="K11" s="500">
         <v>1472</v>
       </c>
-      <c r="L11" s="634" t="s">
+      <c r="L11" s="526" t="s">
         <v>736</v>
       </c>
       <c r="M11" s="500">
@@ -22196,7 +22256,7 @@
       <c r="K12" s="503">
         <v>1584</v>
       </c>
-      <c r="L12" s="636" t="s">
+      <c r="L12" s="528" t="s">
         <v>736</v>
       </c>
       <c r="M12" s="503">
@@ -22236,7 +22296,7 @@
       <c r="K13" s="500">
         <v>930</v>
       </c>
-      <c r="L13" s="634" t="s">
+      <c r="L13" s="526" t="s">
         <v>737</v>
       </c>
       <c r="M13" s="500">
@@ -22276,7 +22336,7 @@
       <c r="K14" s="503">
         <v>450</v>
       </c>
-      <c r="L14" s="636" t="s">
+      <c r="L14" s="528" t="s">
         <v>738</v>
       </c>
       <c r="M14" s="503">
@@ -22316,7 +22376,7 @@
       <c r="K15" s="500">
         <v>1080</v>
       </c>
-      <c r="L15" s="634" t="s">
+      <c r="L15" s="526" t="s">
         <v>738</v>
       </c>
       <c r="M15" s="500">
@@ -22356,7 +22416,7 @@
       <c r="K16" s="500">
         <v>21899.8</v>
       </c>
-      <c r="L16" s="634" t="s">
+      <c r="L16" s="526" t="s">
         <v>739</v>
       </c>
       <c r="M16" s="500">
@@ -22396,7 +22456,7 @@
       <c r="K17" s="500">
         <v>1180</v>
       </c>
-      <c r="L17" s="634" t="s">
+      <c r="L17" s="526" t="s">
         <v>740</v>
       </c>
       <c r="M17" s="500">
@@ -22436,7 +22496,7 @@
       <c r="K18" s="500">
         <v>1200</v>
       </c>
-      <c r="L18" s="634" t="s">
+      <c r="L18" s="526" t="s">
         <v>741</v>
       </c>
       <c r="M18" s="500">
@@ -22476,7 +22536,7 @@
       <c r="K19" s="500">
         <v>1081</v>
       </c>
-      <c r="L19" s="634" t="s">
+      <c r="L19" s="526" t="s">
         <v>741</v>
       </c>
       <c r="M19" s="500">
@@ -22516,7 +22576,7 @@
       <c r="K20" s="503">
         <v>270</v>
       </c>
-      <c r="L20" s="636" t="s">
+      <c r="L20" s="528" t="s">
         <v>742</v>
       </c>
       <c r="M20" s="503">
@@ -22552,7 +22612,7 @@
       <c r="K21" s="503">
         <v>1894.8</v>
       </c>
-      <c r="L21" s="636" t="s">
+      <c r="L21" s="528" t="s">
         <v>743</v>
       </c>
       <c r="M21" s="503">
@@ -22589,7 +22649,7 @@
       <c r="K22" s="500">
         <v>2360</v>
       </c>
-      <c r="L22" s="634" t="s">
+      <c r="L22" s="526" t="s">
         <v>743</v>
       </c>
       <c r="M22" s="500">
@@ -22625,7 +22685,7 @@
       <c r="K23" s="500">
         <v>19679.400000000001</v>
       </c>
-      <c r="L23" s="634" t="s">
+      <c r="L23" s="526" t="s">
         <v>744</v>
       </c>
       <c r="M23" s="500">
@@ -22661,7 +22721,7 @@
       <c r="K24" s="500">
         <v>36567.599999999999</v>
       </c>
-      <c r="L24" s="634" t="s">
+      <c r="L24" s="526" t="s">
         <v>744</v>
       </c>
       <c r="M24" s="500">
@@ -22697,7 +22757,7 @@
       <c r="K25" s="500">
         <v>2588.64</v>
       </c>
-      <c r="L25" s="634" t="s">
+      <c r="L25" s="526" t="s">
         <v>745</v>
       </c>
       <c r="M25" s="500">
@@ -22733,7 +22793,7 @@
       <c r="K26" s="503">
         <v>1080</v>
       </c>
-      <c r="L26" s="636" t="s">
+      <c r="L26" s="528" t="s">
         <v>745</v>
       </c>
       <c r="M26" s="503">
@@ -22769,7 +22829,7 @@
       <c r="K27" s="503">
         <v>28960.799999999999</v>
       </c>
-      <c r="L27" s="636" t="s">
+      <c r="L27" s="528" t="s">
         <v>745</v>
       </c>
       <c r="M27" s="503">
@@ -22805,7 +22865,7 @@
       <c r="K28" s="503">
         <v>2238.5</v>
       </c>
-      <c r="L28" s="636" t="s">
+      <c r="L28" s="528" t="s">
         <v>746</v>
       </c>
       <c r="M28" s="503">
@@ -22841,7 +22901,7 @@
       <c r="K29" s="500">
         <v>1771.6</v>
       </c>
-      <c r="L29" s="634" t="s">
+      <c r="L29" s="526" t="s">
         <v>746</v>
       </c>
       <c r="M29" s="500">
@@ -22878,7 +22938,7 @@
       <c r="K30" s="503">
         <v>36114.800000000003</v>
       </c>
-      <c r="L30" s="636" t="s">
+      <c r="L30" s="528" t="s">
         <v>747</v>
       </c>
       <c r="M30" s="503">
@@ -22914,7 +22974,7 @@
       <c r="K31" s="500">
         <v>744</v>
       </c>
-      <c r="L31" s="634" t="s">
+      <c r="L31" s="526" t="s">
         <v>748</v>
       </c>
       <c r="M31" s="500">
@@ -22950,7 +23010,7 @@
       <c r="K32" s="503">
         <v>25869.8</v>
       </c>
-      <c r="L32" s="636" t="s">
+      <c r="L32" s="528" t="s">
         <v>748</v>
       </c>
       <c r="M32" s="503">
@@ -22986,7 +23046,7 @@
       <c r="K33" s="500">
         <v>5027</v>
       </c>
-      <c r="L33" s="634" t="s">
+      <c r="L33" s="526" t="s">
         <v>749</v>
       </c>
       <c r="M33" s="500">
@@ -23022,7 +23082,7 @@
       <c r="K34" s="503">
         <v>1820.8</v>
       </c>
-      <c r="L34" s="636" t="s">
+      <c r="L34" s="528" t="s">
         <v>750</v>
       </c>
       <c r="M34" s="503">
@@ -23058,7 +23118,7 @@
       <c r="K35" s="500">
         <v>43759.6</v>
       </c>
-      <c r="L35" s="634" t="s">
+      <c r="L35" s="526" t="s">
         <v>751</v>
       </c>
       <c r="M35" s="500">
@@ -23094,7 +23154,7 @@
       <c r="K36" s="503">
         <v>1331</v>
       </c>
-      <c r="L36" s="636" t="s">
+      <c r="L36" s="528" t="s">
         <v>752</v>
       </c>
       <c r="M36" s="503">
@@ -23130,7 +23190,7 @@
       <c r="K37" s="500">
         <v>32504.400000000001</v>
       </c>
-      <c r="L37" s="634" t="s">
+      <c r="L37" s="526" t="s">
         <v>753</v>
       </c>
       <c r="M37" s="500">
@@ -23166,7 +23226,7 @@
       <c r="K38" s="500">
         <v>15257</v>
       </c>
-      <c r="L38" s="634" t="s">
+      <c r="L38" s="526" t="s">
         <v>754</v>
       </c>
       <c r="M38" s="500">
@@ -23202,7 +23262,7 @@
       <c r="K39" s="500">
         <v>5516</v>
       </c>
-      <c r="L39" s="634" t="s">
+      <c r="L39" s="526" t="s">
         <v>755</v>
       </c>
       <c r="M39" s="500">
@@ -23238,7 +23298,7 @@
       <c r="K40" s="503">
         <v>600</v>
       </c>
-      <c r="L40" s="636" t="s">
+      <c r="L40" s="528" t="s">
         <v>756</v>
       </c>
       <c r="M40" s="503">
@@ -23274,7 +23334,7 @@
       <c r="K41" s="503">
         <v>6614.7</v>
       </c>
-      <c r="L41" s="636" t="s">
+      <c r="L41" s="528" t="s">
         <v>757</v>
       </c>
       <c r="M41" s="503">
@@ -23310,7 +23370,7 @@
       <c r="K42" s="503">
         <v>1080</v>
       </c>
-      <c r="L42" s="636" t="s">
+      <c r="L42" s="528" t="s">
         <v>757</v>
       </c>
       <c r="M42" s="503">
@@ -24048,7 +24108,7 @@
       <c r="L79" s="148"/>
       <c r="M79" s="69"/>
       <c r="N79" s="137" t="e">
-        <f t="shared" ref="N79:N88" si="3">N78+K79-M79</f>
+        <f t="shared" ref="N79:N87" si="3">N78+K79-M79</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -24247,7 +24307,7 @@
         <f>SUM(F3:F88)</f>
         <v>1055196.5699999998</v>
       </c>
-      <c r="K89" s="637">
+      <c r="K89" s="529">
         <f>SUM(K3:K88)</f>
         <v>363428.24</v>
       </c>
@@ -24266,7 +24326,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="587" t="s">
+      <c r="F90" s="598" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -24279,7 +24339,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="588"/>
+      <c r="F91" s="599"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -24298,10 +24358,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="625" t="s">
+      <c r="I93" s="636" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="626"/>
+      <c r="J93" s="637"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -24311,8 +24371,8 @@
       <c r="C94" s="522"/>
       <c r="D94" s="523"/>
       <c r="E94" s="524"/>
-      <c r="I94" s="627"/>
-      <c r="J94" s="628"/>
+      <c r="I94" s="638"/>
+      <c r="J94" s="639"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -24548,13 +24608,159 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F12:F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="14.42578125" style="256" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="644" t="s">
+        <v>761</v>
+      </c>
+      <c r="C3" s="645"/>
+      <c r="D3" s="646"/>
+    </row>
+    <row r="4" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="530" t="s">
+        <v>760</v>
+      </c>
+      <c r="C4" s="532" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" s="531" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="98" customFormat="1" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="118">
+        <v>44669</v>
+      </c>
+      <c r="C5" s="118">
+        <v>44674</v>
+      </c>
+      <c r="D5" s="1">
+        <v>26691</v>
+      </c>
+      <c r="E5" s="533" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="254">
+        <v>44670</v>
+      </c>
+      <c r="C6" s="254">
+        <v>44674</v>
+      </c>
+      <c r="D6" s="327">
+        <v>39942</v>
+      </c>
+      <c r="E6" s="533" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="254">
+        <v>44671</v>
+      </c>
+      <c r="C7" s="254">
+        <v>44674</v>
+      </c>
+      <c r="D7" s="327">
+        <v>46851.5</v>
+      </c>
+      <c r="E7" s="533" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="254">
+        <v>44672</v>
+      </c>
+      <c r="C8" s="254">
+        <v>44674</v>
+      </c>
+      <c r="D8" s="327">
+        <v>55917</v>
+      </c>
+      <c r="E8" s="533" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="254">
+        <v>44673</v>
+      </c>
+      <c r="C9" s="254">
+        <v>44674</v>
+      </c>
+      <c r="D9" s="327">
+        <v>95058.5</v>
+      </c>
+      <c r="E9" s="533" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="98" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="534" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="535">
+        <f>SUM(D5:D10)</f>
+        <v>264460</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="648" t="s">
+        <v>764</v>
+      </c>
+      <c r="D13" s="154">
+        <v>334337</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="648"/>
+    </row>
+    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="648" t="s">
+        <v>763</v>
+      </c>
+      <c r="D15" s="647">
+        <f>D11-D13</f>
+        <v>-69877</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="648"/>
+    </row>
+    <row r="17" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="648"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25902,7 +26108,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="560" t="s">
+      <c r="B41" s="571" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -25934,7 +26140,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="561"/>
+      <c r="B42" s="572"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -27530,23 +27736,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -27556,21 +27762,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="566" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="579" t="s">
+      <c r="P3" s="590" t="s">
         <v>6</v>
       </c>
     </row>
@@ -27585,14 +27791,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="567" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="568"/>
+      <c r="H4" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="570"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -27602,14 +27808,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="580"/>
+      <c r="P4" s="591"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="562" t="s">
+      <c r="W4" s="573" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="573"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27660,8 +27866,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="573"/>
+      <c r="X5" s="573"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28432,7 +28638,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="577">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -28484,7 +28690,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="578"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -28533,8 +28739,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="579"/>
+      <c r="X21" s="579"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -28635,8 +28841,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="580"/>
+      <c r="X23" s="580"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -28690,8 +28896,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="580"/>
+      <c r="X24" s="580"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -28737,8 +28943,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="581"/>
+      <c r="X25" s="581"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -28789,8 +28995,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="581"/>
+      <c r="X26" s="581"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -28838,9 +29044,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="574"/>
+      <c r="X27" s="575"/>
+      <c r="Y27" s="576"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28890,9 +29096,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="575"/>
+      <c r="X28" s="575"/>
+      <c r="Y28" s="576"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29227,11 +29433,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="581">
+      <c r="M36" s="592">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="583">
+      <c r="N36" s="594">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -29239,7 +29445,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="585">
+      <c r="Q36" s="596">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -29274,13 +29480,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="582"/>
-      <c r="N37" s="584"/>
+      <c r="M37" s="593"/>
+      <c r="N37" s="595"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="586"/>
+      <c r="Q37" s="597"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -29570,26 +29776,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="536" t="s">
+      <c r="H52" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="537"/>
+      <c r="I52" s="548"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="538">
+      <c r="K52" s="549">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="571"/>
+      <c r="L52" s="582"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="542" t="s">
+      <c r="D53" s="553" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="542"/>
+      <c r="E53" s="553"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -29598,29 +29804,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="572" t="s">
+      <c r="D54" s="583" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="572"/>
+      <c r="E54" s="583"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="543" t="s">
+      <c r="I54" s="554" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="544"/>
-      <c r="K54" s="545">
+      <c r="J54" s="555"/>
+      <c r="K54" s="556">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="545"/>
-      <c r="M54" s="573" t="s">
+      <c r="L54" s="556"/>
+      <c r="M54" s="584" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="574"/>
-      <c r="O54" s="574"/>
-      <c r="P54" s="574"/>
-      <c r="Q54" s="575"/>
+      <c r="N54" s="585"/>
+      <c r="O54" s="585"/>
+      <c r="P54" s="585"/>
+      <c r="Q54" s="586"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -29634,11 +29840,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="576"/>
-      <c r="N55" s="577"/>
-      <c r="O55" s="577"/>
-      <c r="P55" s="577"/>
-      <c r="Q55" s="578"/>
+      <c r="M55" s="587"/>
+      <c r="N55" s="588"/>
+      <c r="O55" s="588"/>
+      <c r="P55" s="588"/>
+      <c r="Q55" s="589"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -29656,11 +29862,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="547">
+      <c r="K56" s="558">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="548"/>
+      <c r="L56" s="559"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -29677,22 +29883,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="525" t="s">
+      <c r="D58" s="536" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="526"/>
+      <c r="E58" s="537"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="527" t="s">
+      <c r="I58" s="538" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="528"/>
-      <c r="K58" s="529">
+      <c r="J58" s="539"/>
+      <c r="K58" s="540">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="529"/>
+      <c r="L58" s="540"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -32282,7 +32488,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="587" t="s">
+      <c r="F87" s="598" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -32295,7 +32501,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="588"/>
+      <c r="F88" s="599"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -32607,23 +32813,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -32633,24 +32839,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="566" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="579" t="s">
+      <c r="P3" s="590" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="589" t="s">
+      <c r="R3" s="600" t="s">
         <v>216</v>
       </c>
     </row>
@@ -32665,14 +32871,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="567" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="568"/>
+      <c r="H4" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="570"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -32682,15 +32888,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="580"/>
+      <c r="P4" s="591"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="590"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="601"/>
+      <c r="W4" s="573" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="573"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32751,8 +32957,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="573"/>
+      <c r="X5" s="573"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33509,7 +33715,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="577">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -33561,7 +33767,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="578"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -33610,8 +33816,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="579"/>
+      <c r="X21" s="579"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -33712,8 +33918,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="580"/>
+      <c r="X23" s="580"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -33764,8 +33970,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="580"/>
+      <c r="X24" s="580"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -33811,8 +34017,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="581"/>
+      <c r="X25" s="581"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -33860,8 +34066,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="581"/>
+      <c r="X26" s="581"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -33921,9 +34127,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="574"/>
+      <c r="X27" s="575"/>
+      <c r="Y27" s="576"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33977,9 +34183,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="575"/>
+      <c r="X28" s="575"/>
+      <c r="Y28" s="576"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34295,11 +34501,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="581">
+      <c r="M36" s="592">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="583">
+      <c r="N36" s="594">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -34307,7 +34513,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="585">
+      <c r="Q36" s="596">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -34326,13 +34532,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="582"/>
-      <c r="N37" s="584"/>
+      <c r="M37" s="593"/>
+      <c r="N37" s="595"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="586"/>
+      <c r="Q37" s="597"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -34606,26 +34812,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="536" t="s">
+      <c r="H52" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="537"/>
+      <c r="I52" s="548"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="538">
+      <c r="K52" s="549">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="571"/>
+      <c r="L52" s="582"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="542" t="s">
+      <c r="D53" s="553" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="542"/>
+      <c r="E53" s="553"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -34634,29 +34840,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="572" t="s">
+      <c r="D54" s="583" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="572"/>
+      <c r="E54" s="583"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="543" t="s">
+      <c r="I54" s="554" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="544"/>
-      <c r="K54" s="545">
+      <c r="J54" s="555"/>
+      <c r="K54" s="556">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="545"/>
-      <c r="M54" s="573" t="s">
+      <c r="L54" s="556"/>
+      <c r="M54" s="584" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="574"/>
-      <c r="O54" s="574"/>
-      <c r="P54" s="574"/>
-      <c r="Q54" s="575"/>
+      <c r="N54" s="585"/>
+      <c r="O54" s="585"/>
+      <c r="P54" s="585"/>
+      <c r="Q54" s="586"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -34670,11 +34876,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="576"/>
-      <c r="N55" s="577"/>
-      <c r="O55" s="577"/>
-      <c r="P55" s="577"/>
-      <c r="Q55" s="578"/>
+      <c r="M55" s="587"/>
+      <c r="N55" s="588"/>
+      <c r="O55" s="588"/>
+      <c r="P55" s="588"/>
+      <c r="Q55" s="589"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -34692,11 +34898,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="547">
+      <c r="K56" s="558">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="548"/>
+      <c r="L56" s="559"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -34713,22 +34919,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="525" t="s">
+      <c r="D58" s="536" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="526"/>
+      <c r="E58" s="537"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="527" t="s">
+      <c r="I58" s="538" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="528"/>
-      <c r="K58" s="529">
+      <c r="J58" s="539"/>
+      <c r="K58" s="540">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="529"/>
+      <c r="L58" s="540"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -37291,7 +37497,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="587" t="s">
+      <c r="F75" s="598" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -37304,7 +37510,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="588"/>
+      <c r="F76" s="599"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -37596,23 +37802,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="591" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="602" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="592"/>
-      <c r="E1" s="592"/>
-      <c r="F1" s="592"/>
-      <c r="G1" s="592"/>
-      <c r="H1" s="592"/>
-      <c r="I1" s="592"/>
-      <c r="J1" s="592"/>
-      <c r="K1" s="592"/>
-      <c r="L1" s="592"/>
-      <c r="M1" s="592"/>
+      <c r="D1" s="603"/>
+      <c r="E1" s="603"/>
+      <c r="F1" s="603"/>
+      <c r="G1" s="603"/>
+      <c r="H1" s="603"/>
+      <c r="I1" s="603"/>
+      <c r="J1" s="603"/>
+      <c r="K1" s="603"/>
+      <c r="L1" s="603"/>
+      <c r="M1" s="603"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -37622,24 +37828,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="566" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="579" t="s">
+      <c r="P3" s="590" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="589" t="s">
+      <c r="R3" s="600" t="s">
         <v>216</v>
       </c>
     </row>
@@ -37654,14 +37860,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="567" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="568"/>
+      <c r="H4" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="570"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -37671,15 +37877,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="580"/>
+      <c r="P4" s="591"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="590"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="601"/>
+      <c r="W4" s="573" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="573"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37730,8 +37936,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="573"/>
+      <c r="X5" s="573"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38495,7 +38701,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="577">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -38548,7 +38754,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="578"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -38597,8 +38803,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="579"/>
+      <c r="X21" s="579"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -38698,8 +38904,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="580"/>
+      <c r="X23" s="580"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -38754,8 +38960,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="580"/>
+      <c r="X24" s="580"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -38800,8 +39006,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="581"/>
+      <c r="X25" s="581"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -38849,8 +39055,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="581"/>
+      <c r="X26" s="581"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -38904,9 +39110,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="574"/>
+      <c r="X27" s="575"/>
+      <c r="Y27" s="576"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38960,9 +39166,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="575"/>
+      <c r="X28" s="575"/>
+      <c r="Y28" s="576"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39273,11 +39479,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="581">
+      <c r="M36" s="592">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="583">
+      <c r="N36" s="594">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -39285,7 +39491,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="585">
+      <c r="Q36" s="596">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -39310,13 +39516,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="582"/>
-      <c r="N37" s="584"/>
+      <c r="M37" s="593"/>
+      <c r="N37" s="595"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="586"/>
+      <c r="Q37" s="597"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -39609,26 +39815,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="536" t="s">
+      <c r="H52" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="537"/>
+      <c r="I52" s="548"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="538">
+      <c r="K52" s="549">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="571"/>
+      <c r="L52" s="582"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="542" t="s">
+      <c r="D53" s="553" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="542"/>
+      <c r="E53" s="553"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -39637,22 +39843,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="572" t="s">
+      <c r="D54" s="583" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="572"/>
+      <c r="E54" s="583"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="543" t="s">
+      <c r="I54" s="554" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="544"/>
-      <c r="K54" s="545">
+      <c r="J54" s="555"/>
+      <c r="K54" s="556">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="545"/>
+      <c r="L54" s="556"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -39693,11 +39899,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="547">
+      <c r="K56" s="558">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="548"/>
+      <c r="L56" s="559"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -39714,22 +39920,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="525" t="s">
+      <c r="D58" s="536" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="526"/>
+      <c r="E58" s="537"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="527" t="s">
+      <c r="I58" s="538" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="528"/>
-      <c r="K58" s="529">
+      <c r="J58" s="539"/>
+      <c r="K58" s="540">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="529"/>
+      <c r="L58" s="540"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -41598,12 +41804,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="593" t="s">
+      <c r="B43" s="604" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="594"/>
-      <c r="D43" s="594"/>
-      <c r="E43" s="595"/>
+      <c r="C43" s="605"/>
+      <c r="D43" s="605"/>
+      <c r="E43" s="606"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41631,10 +41837,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="596"/>
-      <c r="C44" s="597"/>
-      <c r="D44" s="597"/>
-      <c r="E44" s="598"/>
+      <c r="B44" s="607"/>
+      <c r="C44" s="608"/>
+      <c r="D44" s="608"/>
+      <c r="E44" s="609"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41662,10 +41868,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="599"/>
-      <c r="C45" s="600"/>
-      <c r="D45" s="600"/>
-      <c r="E45" s="601"/>
+      <c r="B45" s="610"/>
+      <c r="C45" s="611"/>
+      <c r="D45" s="611"/>
+      <c r="E45" s="612"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41708,10 +41914,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="608" t="s">
+      <c r="B47" s="619" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="609"/>
+      <c r="C47" s="620"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -41733,8 +41939,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="610"/>
-      <c r="C48" s="611"/>
+      <c r="B48" s="621"/>
+      <c r="C48" s="622"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -41742,11 +41948,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="602" t="s">
+      <c r="J48" s="613" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="603"/>
-      <c r="L48" s="604"/>
+      <c r="K48" s="614"/>
+      <c r="L48" s="615"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -41764,9 +41970,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="605"/>
-      <c r="K49" s="606"/>
-      <c r="L49" s="607"/>
+      <c r="J49" s="616"/>
+      <c r="K49" s="617"/>
+      <c r="L49" s="618"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -41783,10 +41989,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="612" t="s">
+      <c r="I50" s="623" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="613"/>
+      <c r="J50" s="624"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -41807,8 +42013,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="612"/>
-      <c r="J51" s="613"/>
+      <c r="I51" s="623"/>
+      <c r="J51" s="624"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -41827,8 +42033,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="612"/>
-      <c r="J52" s="613"/>
+      <c r="I52" s="623"/>
+      <c r="J52" s="624"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -41847,8 +42053,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="612"/>
-      <c r="J53" s="613"/>
+      <c r="I53" s="623"/>
+      <c r="J53" s="624"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -41867,8 +42073,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="612"/>
-      <c r="J54" s="613"/>
+      <c r="I54" s="623"/>
+      <c r="J54" s="624"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -41887,8 +42093,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="612"/>
-      <c r="J55" s="613"/>
+      <c r="I55" s="623"/>
+      <c r="J55" s="624"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -41907,8 +42113,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="612"/>
-      <c r="J56" s="613"/>
+      <c r="I56" s="623"/>
+      <c r="J56" s="624"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -41927,8 +42133,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="612"/>
-      <c r="J57" s="613"/>
+      <c r="I57" s="623"/>
+      <c r="J57" s="624"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -41947,8 +42153,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="612"/>
-      <c r="J58" s="613"/>
+      <c r="I58" s="623"/>
+      <c r="J58" s="624"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -41967,8 +42173,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="612"/>
-      <c r="J59" s="613"/>
+      <c r="I59" s="623"/>
+      <c r="J59" s="624"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -41987,8 +42193,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="612"/>
-      <c r="J60" s="613"/>
+      <c r="I60" s="623"/>
+      <c r="J60" s="624"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -42007,8 +42213,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="612"/>
-      <c r="J61" s="613"/>
+      <c r="I61" s="623"/>
+      <c r="J61" s="624"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -42027,8 +42233,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="612"/>
-      <c r="J62" s="613"/>
+      <c r="I62" s="623"/>
+      <c r="J62" s="624"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -42047,8 +42253,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="612"/>
-      <c r="J63" s="613"/>
+      <c r="I63" s="623"/>
+      <c r="J63" s="624"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -42067,8 +42273,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="612"/>
-      <c r="J64" s="613"/>
+      <c r="I64" s="623"/>
+      <c r="J64" s="624"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -42087,8 +42293,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="612"/>
-      <c r="J65" s="613"/>
+      <c r="I65" s="623"/>
+      <c r="J65" s="624"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -42107,8 +42313,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="612"/>
-      <c r="J66" s="613"/>
+      <c r="I66" s="623"/>
+      <c r="J66" s="624"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -42127,8 +42333,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="612"/>
-      <c r="J67" s="613"/>
+      <c r="I67" s="623"/>
+      <c r="J67" s="624"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -42147,8 +42353,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="612"/>
-      <c r="J68" s="613"/>
+      <c r="I68" s="623"/>
+      <c r="J68" s="624"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -42167,8 +42373,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="612"/>
-      <c r="J69" s="613"/>
+      <c r="I69" s="623"/>
+      <c r="J69" s="624"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -42187,8 +42393,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="612"/>
-      <c r="J70" s="613"/>
+      <c r="I70" s="623"/>
+      <c r="J70" s="624"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -42207,8 +42413,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="612"/>
-      <c r="J71" s="613"/>
+      <c r="I71" s="623"/>
+      <c r="J71" s="624"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -42227,8 +42433,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="612"/>
-      <c r="J72" s="613"/>
+      <c r="I72" s="623"/>
+      <c r="J72" s="624"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -42247,8 +42453,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="612"/>
-      <c r="J73" s="613"/>
+      <c r="I73" s="623"/>
+      <c r="J73" s="624"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -42267,8 +42473,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="612"/>
-      <c r="J74" s="613"/>
+      <c r="I74" s="623"/>
+      <c r="J74" s="624"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -42287,8 +42493,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="612"/>
-      <c r="J75" s="613"/>
+      <c r="I75" s="623"/>
+      <c r="J75" s="624"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -42307,8 +42513,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="612"/>
-      <c r="J76" s="613"/>
+      <c r="I76" s="623"/>
+      <c r="J76" s="624"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -42327,8 +42533,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="612"/>
-      <c r="J77" s="613"/>
+      <c r="I77" s="623"/>
+      <c r="J77" s="624"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -42349,8 +42555,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="614"/>
-      <c r="J78" s="615"/>
+      <c r="I78" s="625"/>
+      <c r="J78" s="626"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -42395,7 +42601,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="587" t="s">
+      <c r="F80" s="598" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -42407,7 +42613,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="588"/>
+      <c r="F81" s="599"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -42695,23 +42901,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="591" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="602" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="592"/>
-      <c r="E1" s="592"/>
-      <c r="F1" s="592"/>
-      <c r="G1" s="592"/>
-      <c r="H1" s="592"/>
-      <c r="I1" s="592"/>
-      <c r="J1" s="592"/>
-      <c r="K1" s="592"/>
-      <c r="L1" s="592"/>
-      <c r="M1" s="592"/>
+      <c r="D1" s="603"/>
+      <c r="E1" s="603"/>
+      <c r="F1" s="603"/>
+      <c r="G1" s="603"/>
+      <c r="H1" s="603"/>
+      <c r="I1" s="603"/>
+      <c r="J1" s="603"/>
+      <c r="K1" s="603"/>
+      <c r="L1" s="603"/>
+      <c r="M1" s="603"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42721,24 +42927,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="566" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="579" t="s">
+      <c r="P3" s="590" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="589" t="s">
+      <c r="R3" s="600" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42753,14 +42959,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="567" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="568"/>
+      <c r="H4" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="570"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -42770,15 +42976,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="580"/>
+      <c r="P4" s="591"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="590"/>
-      <c r="W4" s="562" t="s">
+      <c r="R4" s="601"/>
+      <c r="W4" s="573" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="562"/>
+      <c r="X4" s="573"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42829,8 +43035,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="562"/>
+      <c r="W5" s="573"/>
+      <c r="X5" s="573"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43591,7 +43797,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="566">
+      <c r="W19" s="577">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -43643,7 +43849,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="567"/>
+      <c r="W20" s="578"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -43692,8 +43898,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="568"/>
-      <c r="X21" s="568"/>
+      <c r="W21" s="579"/>
+      <c r="X21" s="579"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -43792,8 +43998,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="569"/>
-      <c r="X23" s="569"/>
+      <c r="W23" s="580"/>
+      <c r="X23" s="580"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -43848,8 +44054,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="569"/>
-      <c r="X24" s="569"/>
+      <c r="W24" s="580"/>
+      <c r="X24" s="580"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -43897,8 +44103,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="570"/>
-      <c r="X25" s="570"/>
+      <c r="W25" s="581"/>
+      <c r="X25" s="581"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -43946,8 +44152,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="570"/>
-      <c r="X26" s="570"/>
+      <c r="W26" s="581"/>
+      <c r="X26" s="581"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -43995,9 +44201,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
+      <c r="W27" s="574"/>
+      <c r="X27" s="575"/>
+      <c r="Y27" s="576"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44045,9 +44251,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="564"/>
-      <c r="X28" s="564"/>
-      <c r="Y28" s="565"/>
+      <c r="W28" s="575"/>
+      <c r="X28" s="575"/>
+      <c r="Y28" s="576"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44388,11 +44594,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="581">
+      <c r="M36" s="592">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="583">
+      <c r="N36" s="594">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -44400,7 +44606,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="616">
+      <c r="Q36" s="627">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -44425,13 +44631,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="582"/>
-      <c r="N37" s="584"/>
+      <c r="M37" s="593"/>
+      <c r="N37" s="595"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="617"/>
+      <c r="Q37" s="628"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -44481,11 +44687,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="618">
+      <c r="M39" s="629">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="619"/>
+      <c r="N39" s="630"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -44733,26 +44939,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="536" t="s">
+      <c r="H52" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="537"/>
+      <c r="I52" s="548"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="538">
+      <c r="K52" s="549">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="571"/>
+      <c r="L52" s="582"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="542" t="s">
+      <c r="D53" s="553" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="542"/>
+      <c r="E53" s="553"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -44761,22 +44967,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="572" t="s">
+      <c r="D54" s="583" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="572"/>
+      <c r="E54" s="583"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="543" t="s">
+      <c r="I54" s="554" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="544"/>
-      <c r="K54" s="545">
+      <c r="J54" s="555"/>
+      <c r="K54" s="556">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="545"/>
+      <c r="L54" s="556"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -44817,11 +45023,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="547">
+      <c r="K56" s="558">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="548"/>
+      <c r="L56" s="559"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -44838,22 +45044,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="525" t="s">
+      <c r="D58" s="536" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="526"/>
+      <c r="E58" s="537"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="527" t="s">
+      <c r="I58" s="538" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="528"/>
-      <c r="K58" s="529">
+      <c r="J58" s="539"/>
+      <c r="K58" s="540">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="529"/>
+      <c r="L58" s="540"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE    ZAVALETA   ABRIL  2022.xlsx
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="768">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2836,6 +2836,15 @@
   </si>
   <si>
     <t>FICHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPOSITOS DE REPOSICION PARA  ZAVALETA </t>
+  </si>
+  <si>
+    <t>DEBE ZAVALETA</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3482,8 +3491,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="94">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -4642,12 +4657,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="649">
+  <cellXfs count="669">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5718,6 +5786,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6030,10 +6117,10 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="61" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="61" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="61" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="61" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6041,6 +6128,9 @@
     </xf>
     <xf numFmtId="166" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="22" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="62" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6051,9 +6141,41 @@
     <xf numFmtId="165" fontId="62" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="62" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="61" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="61" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6064,16 +6186,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF00FF99"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FF00FF99"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC3399"/>
       <color rgb="FF990033"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FF800000"/>
-      <color rgb="FF6600FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9184,6 +9306,106 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="3695700"/>
+          <a:ext cx="1628775" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3924300" y="3943350"/>
+          <a:ext cx="2190750" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -9478,23 +9700,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="569"/>
+      <c r="C1" s="571" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="572"/>
+      <c r="E1" s="572"/>
+      <c r="F1" s="572"/>
+      <c r="G1" s="572"/>
+      <c r="H1" s="572"/>
+      <c r="I1" s="572"/>
+      <c r="J1" s="572"/>
+      <c r="K1" s="572"/>
+      <c r="L1" s="572"/>
+      <c r="M1" s="572"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="570"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9504,17 +9726,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="574"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="575"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9528,14 +9750,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="567" t="s">
+      <c r="E4" s="576" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="568"/>
-      <c r="H4" s="569" t="s">
+      <c r="F4" s="577"/>
+      <c r="H4" s="578" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="570"/>
+      <c r="I4" s="579"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9545,10 +9767,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="541" t="s">
+      <c r="P4" s="550" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="542"/>
+      <c r="Q4" s="551"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10989,11 +11211,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="543">
+      <c r="M39" s="552">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="545">
+      <c r="N39" s="554">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -11019,8 +11241,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="544"/>
-      <c r="N40" s="546"/>
+      <c r="M40" s="553"/>
+      <c r="N40" s="555"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -11235,29 +11457,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="547" t="s">
+      <c r="H52" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="548"/>
+      <c r="I52" s="557"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="549">
+      <c r="K52" s="558">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="550"/>
-      <c r="M52" s="551">
+      <c r="L52" s="559"/>
+      <c r="M52" s="560">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="552"/>
+      <c r="N52" s="561"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="553" t="s">
+      <c r="D53" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="553"/>
+      <c r="E53" s="562"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -11268,22 +11490,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="553" t="s">
+      <c r="D54" s="562" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="553"/>
+      <c r="E54" s="562"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="554" t="s">
+      <c r="I54" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="555"/>
-      <c r="K54" s="556">
+      <c r="J54" s="564"/>
+      <c r="K54" s="565">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="557"/>
+      <c r="L54" s="566"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -11316,11 +11538,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="558">
+      <c r="K56" s="567">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="559"/>
+      <c r="L56" s="568"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -11337,22 +11559,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="536" t="s">
+      <c r="D58" s="545" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="537"/>
+      <c r="E58" s="546"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="538" t="s">
+      <c r="I58" s="547" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="539"/>
-      <c r="K58" s="540">
+      <c r="J58" s="548"/>
+      <c r="K58" s="549">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="540"/>
+      <c r="L58" s="549"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13976,10 +14198,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="632" t="s">
+      <c r="I76" s="641" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="633"/>
+      <c r="J76" s="642"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13998,8 +14220,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="634"/>
-      <c r="J77" s="635"/>
+      <c r="I77" s="643"/>
+      <c r="J77" s="644"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -14066,7 +14288,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="598" t="s">
+      <c r="F80" s="607" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -14081,7 +14303,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="599"/>
+      <c r="F81" s="608"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -14089,10 +14311,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="631" t="s">
+      <c r="B82" s="640" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="631"/>
+      <c r="C82" s="640"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -14374,23 +14596,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="602" t="s">
+      <c r="B1" s="569"/>
+      <c r="C1" s="611" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="603"/>
-      <c r="E1" s="603"/>
-      <c r="F1" s="603"/>
-      <c r="G1" s="603"/>
-      <c r="H1" s="603"/>
-      <c r="I1" s="603"/>
-      <c r="J1" s="603"/>
-      <c r="K1" s="603"/>
-      <c r="L1" s="603"/>
-      <c r="M1" s="603"/>
+      <c r="D1" s="612"/>
+      <c r="E1" s="612"/>
+      <c r="F1" s="612"/>
+      <c r="G1" s="612"/>
+      <c r="H1" s="612"/>
+      <c r="I1" s="612"/>
+      <c r="J1" s="612"/>
+      <c r="K1" s="612"/>
+      <c r="L1" s="612"/>
+      <c r="M1" s="612"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="570"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14400,24 +14622,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="574"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="575"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="590" t="s">
+      <c r="P3" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="600" t="s">
+      <c r="R3" s="609" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14432,14 +14654,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="567" t="s">
+      <c r="E4" s="576" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="568"/>
-      <c r="H4" s="569" t="s">
+      <c r="F4" s="577"/>
+      <c r="H4" s="578" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="570"/>
+      <c r="I4" s="579"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14449,15 +14671,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="591"/>
+      <c r="P4" s="600"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="601"/>
-      <c r="W4" s="573" t="s">
+      <c r="R4" s="610"/>
+      <c r="W4" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="573"/>
+      <c r="X4" s="582"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14508,8 +14730,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="573"/>
-      <c r="X5" s="573"/>
+      <c r="W5" s="582"/>
+      <c r="X5" s="582"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15272,7 +15494,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="577">
+      <c r="W19" s="586">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -15324,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="578"/>
+      <c r="W20" s="587"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15373,8 +15595,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="579"/>
-      <c r="X21" s="579"/>
+      <c r="W21" s="588"/>
+      <c r="X21" s="588"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15474,8 +15696,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="580"/>
-      <c r="X23" s="580"/>
+      <c r="W23" s="589"/>
+      <c r="X23" s="589"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15530,8 +15752,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="580"/>
-      <c r="X24" s="580"/>
+      <c r="W24" s="589"/>
+      <c r="X24" s="589"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15579,8 +15801,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="581"/>
-      <c r="X25" s="581"/>
+      <c r="W25" s="590"/>
+      <c r="X25" s="590"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15629,8 +15851,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="581"/>
-      <c r="X26" s="581"/>
+      <c r="W26" s="590"/>
+      <c r="X26" s="590"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15678,9 +15900,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="574"/>
-      <c r="X27" s="575"/>
-      <c r="Y27" s="576"/>
+      <c r="W27" s="583"/>
+      <c r="X27" s="584"/>
+      <c r="Y27" s="585"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15728,9 +15950,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="575"/>
-      <c r="X28" s="575"/>
-      <c r="Y28" s="576"/>
+      <c r="W28" s="584"/>
+      <c r="X28" s="584"/>
+      <c r="Y28" s="585"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16062,11 +16284,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="592">
+      <c r="M36" s="601">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="594">
+      <c r="N36" s="603">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -16074,7 +16296,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="627">
+      <c r="Q36" s="636">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -16099,13 +16321,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="593"/>
-      <c r="N37" s="595"/>
+      <c r="M37" s="602"/>
+      <c r="N37" s="604"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="628"/>
+      <c r="Q37" s="637"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -16150,11 +16372,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="629">
+      <c r="M39" s="638">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="630"/>
+      <c r="N39" s="639"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -16414,26 +16636,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="547" t="s">
+      <c r="H52" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="548"/>
+      <c r="I52" s="557"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="549">
+      <c r="K52" s="558">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="582"/>
+      <c r="L52" s="591"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="553" t="s">
+      <c r="D53" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="553"/>
+      <c r="E53" s="562"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -16442,22 +16664,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="583" t="s">
+      <c r="D54" s="592" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="583"/>
+      <c r="E54" s="592"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="554" t="s">
+      <c r="I54" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="555"/>
-      <c r="K54" s="556">
+      <c r="J54" s="564"/>
+      <c r="K54" s="565">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="556"/>
+      <c r="L54" s="565"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16498,11 +16720,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="558">
+      <c r="K56" s="567">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="559"/>
+      <c r="L56" s="568"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16519,22 +16741,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="536" t="s">
+      <c r="D58" s="545" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="537"/>
+      <c r="E58" s="546"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="538" t="s">
+      <c r="I58" s="547" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="539"/>
-      <c r="K58" s="540">
+      <c r="J58" s="548"/>
+      <c r="K58" s="549">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="540"/>
+      <c r="L58" s="549"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18975,7 +19197,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="598" t="s">
+      <c r="F80" s="607" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18988,7 +19210,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="599"/>
+      <c r="F81" s="608"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19008,10 +19230,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="636" t="s">
+      <c r="I83" s="645" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="637"/>
+      <c r="J83" s="646"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="518" t="s">
@@ -19020,8 +19242,8 @@
       <c r="B84" s="519"/>
       <c r="C84" s="520"/>
       <c r="D84" s="492"/>
-      <c r="I84" s="638"/>
-      <c r="J84" s="639"/>
+      <c r="I84" s="647"/>
+      <c r="J84" s="648"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -19263,8 +19485,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19293,23 +19515,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="602" t="s">
+      <c r="B1" s="569"/>
+      <c r="C1" s="611" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="603"/>
-      <c r="E1" s="603"/>
-      <c r="F1" s="603"/>
-      <c r="G1" s="603"/>
-      <c r="H1" s="603"/>
-      <c r="I1" s="603"/>
-      <c r="J1" s="603"/>
-      <c r="K1" s="603"/>
-      <c r="L1" s="603"/>
-      <c r="M1" s="603"/>
+      <c r="D1" s="612"/>
+      <c r="E1" s="612"/>
+      <c r="F1" s="612"/>
+      <c r="G1" s="612"/>
+      <c r="H1" s="612"/>
+      <c r="I1" s="612"/>
+      <c r="J1" s="612"/>
+      <c r="K1" s="612"/>
+      <c r="L1" s="612"/>
+      <c r="M1" s="612"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="570"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19319,24 +19541,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="574"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="575"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="590" t="s">
+      <c r="P3" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="600" t="s">
+      <c r="R3" s="609" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19351,14 +19573,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="567" t="s">
+      <c r="E4" s="576" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="568"/>
-      <c r="H4" s="569" t="s">
+      <c r="F4" s="577"/>
+      <c r="H4" s="578" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="570"/>
+      <c r="I4" s="579"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19368,15 +19590,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="591"/>
+      <c r="P4" s="600"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="601"/>
-      <c r="W4" s="573" t="s">
+      <c r="R4" s="610"/>
+      <c r="W4" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="573"/>
+      <c r="X4" s="582"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19427,8 +19649,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="573"/>
-      <c r="X5" s="573"/>
+      <c r="W5" s="582"/>
+      <c r="X5" s="582"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20187,7 +20409,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="577">
+      <c r="W19" s="586">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20239,7 +20461,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="578"/>
+      <c r="W20" s="587"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20288,8 +20510,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="579"/>
-      <c r="X21" s="579"/>
+      <c r="W21" s="588"/>
+      <c r="X21" s="588"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20386,8 +20608,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="580"/>
-      <c r="X23" s="580"/>
+      <c r="W23" s="589"/>
+      <c r="X23" s="589"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20442,8 +20664,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="580"/>
-      <c r="X24" s="580"/>
+      <c r="W24" s="589"/>
+      <c r="X24" s="589"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20489,8 +20711,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="581"/>
-      <c r="X25" s="581"/>
+      <c r="W25" s="590"/>
+      <c r="X25" s="590"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20521,28 +20743,28 @@
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="32">
-        <f>26691+51054.31+554929.3</f>
-        <v>632674.6100000001</v>
+      <c r="M26" s="540">
+        <f>51054.31+554929.3</f>
+        <v>605983.6100000001</v>
       </c>
       <c r="N26" s="33">
         <v>57122</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="541" t="s">
         <v>758</v>
       </c>
       <c r="P26" s="284">
         <f t="shared" si="1"/>
-        <v>719814.6100000001</v>
-      </c>
-      <c r="Q26" s="325">
-        <v>0</v>
+        <v>693123.6100000001</v>
+      </c>
+      <c r="Q26" s="386">
+        <v>-26691</v>
       </c>
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="581"/>
-      <c r="X26" s="581"/>
+      <c r="W26" s="590"/>
+      <c r="X26" s="590"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20573,27 +20795,29 @@
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="32">
-        <v>39942</v>
+      <c r="M27" s="540">
+        <v>0</v>
       </c>
       <c r="N27" s="33">
         <v>24965</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" s="541" t="s">
+        <v>758</v>
+      </c>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
-        <v>87063</v>
-      </c>
-      <c r="Q27" s="325">
-        <f t="shared" si="0"/>
-        <v>-281</v>
+        <v>47121</v>
+      </c>
+      <c r="Q27" s="386">
+        <f t="shared" si="0"/>
+        <v>-40223</v>
       </c>
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="574"/>
-      <c r="X27" s="575"/>
-      <c r="Y27" s="576"/>
+      <c r="W27" s="583"/>
+      <c r="X27" s="584"/>
+      <c r="Y27" s="585"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20623,27 +20847,29 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="32">
-        <v>46851.5</v>
+      <c r="M28" s="540">
+        <v>0</v>
       </c>
       <c r="N28" s="33">
         <v>27562</v>
       </c>
-      <c r="O28" s="2"/>
+      <c r="O28" s="541" t="s">
+        <v>758</v>
+      </c>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
-        <v>83354</v>
-      </c>
-      <c r="Q28" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36502.5</v>
+      </c>
+      <c r="Q28" s="386">
+        <f t="shared" si="0"/>
+        <v>-46851.5</v>
       </c>
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="575"/>
-      <c r="X28" s="575"/>
-      <c r="Y28" s="576"/>
+      <c r="W28" s="584"/>
+      <c r="X28" s="584"/>
+      <c r="Y28" s="585"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20673,20 +20899,22 @@
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
-      <c r="M29" s="32">
-        <v>55917</v>
+      <c r="M29" s="540">
+        <v>0</v>
       </c>
       <c r="N29" s="33">
         <v>22200</v>
       </c>
-      <c r="O29" s="425"/>
+      <c r="O29" s="542" t="s">
+        <v>758</v>
+      </c>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
-        <v>88600</v>
-      </c>
-      <c r="Q29" s="325">
-        <f t="shared" si="0"/>
-        <v>282</v>
+        <v>32683</v>
+      </c>
+      <c r="Q29" s="386">
+        <f t="shared" si="0"/>
+        <v>-55635</v>
       </c>
       <c r="R29" s="319">
         <v>0</v>
@@ -20727,8 +20955,9 @@
       <c r="J30" s="60"/>
       <c r="K30" s="41"/>
       <c r="L30" s="61"/>
-      <c r="M30" s="32">
-        <v>95058.5</v>
+      <c r="M30" s="540">
+        <f>166000+20000+59220+70000+19117</f>
+        <v>334337</v>
       </c>
       <c r="N30" s="33">
         <v>40800</v>
@@ -20736,11 +20965,11 @@
       <c r="O30" s="426"/>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
-        <v>146405</v>
+        <v>385683.5</v>
       </c>
       <c r="Q30" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>239278.5</v>
       </c>
       <c r="R30" s="319">
         <v>0</v>
@@ -20998,7 +21227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="23"/>
       <c r="B36" s="24">
         <v>44679</v>
@@ -21025,7 +21254,7 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="267">
+      <c r="M36" s="544">
         <v>99132</v>
       </c>
       <c r="N36" s="268">
@@ -21042,6 +21271,9 @@
       </c>
       <c r="R36" s="319">
         <v>0</v>
+      </c>
+      <c r="S36" s="543" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -21236,21 +21468,21 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="592">
+      <c r="M41" s="601">
         <f>SUM(M5:M40)</f>
-        <v>2409353.6100000003</v>
-      </c>
-      <c r="N41" s="592">
+        <v>2479230.6100000003</v>
+      </c>
+      <c r="N41" s="601">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
       <c r="P41" s="509">
         <f>SUM(P5:P40)</f>
-        <v>4285312.74</v>
-      </c>
-      <c r="Q41" s="640">
+        <v>4355189.74</v>
+      </c>
+      <c r="Q41" s="649">
         <f>SUM(Q5:Q40)</f>
-        <v>-135.3700000000099</v>
+        <v>69741.629999999976</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21272,10 +21504,10 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="593"/>
-      <c r="N42" s="593"/>
+      <c r="M42" s="602"/>
+      <c r="N42" s="602"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="641"/>
+      <c r="Q42" s="650"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -21345,11 +21577,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="642">
+      <c r="M45" s="651">
         <f>M41+N41</f>
-        <v>3605020.6100000003</v>
-      </c>
-      <c r="N45" s="643"/>
+        <v>3674897.6100000003</v>
+      </c>
+      <c r="N45" s="652"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -21474,26 +21706,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="547" t="s">
+      <c r="H52" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="548"/>
+      <c r="I52" s="557"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="549">
+      <c r="K52" s="558">
         <f>I50+L50</f>
         <v>289121.83</v>
       </c>
-      <c r="L52" s="582"/>
+      <c r="L52" s="591"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="553" t="s">
+      <c r="D53" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="553"/>
+      <c r="E53" s="562"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>3402894.67</v>
@@ -21502,22 +21734,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="583" t="s">
+      <c r="D54" s="592" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="583"/>
+      <c r="E54" s="592"/>
       <c r="F54" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I54" s="554" t="s">
+      <c r="I54" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="555"/>
-      <c r="K54" s="556">
+      <c r="J54" s="564"/>
+      <c r="K54" s="565">
         <f>F56+F57+F58</f>
         <v>3549636.8899999997</v>
       </c>
-      <c r="L54" s="556"/>
+      <c r="L54" s="565"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -21558,11 +21790,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="558">
+      <c r="K56" s="567">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="559"/>
+      <c r="L56" s="568"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21579,22 +21811,22 @@
       <c r="C58" s="112">
         <v>44682</v>
       </c>
-      <c r="D58" s="536" t="s">
+      <c r="D58" s="545" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="537"/>
+      <c r="E58" s="546"/>
       <c r="F58" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I58" s="538" t="s">
+      <c r="I58" s="547" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="539"/>
-      <c r="K58" s="540">
+      <c r="J58" s="548"/>
+      <c r="K58" s="549">
         <f>K54+K56</f>
         <v>1756819.2099999997</v>
       </c>
-      <c r="L58" s="540"/>
+      <c r="L58" s="549"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21783,8 +22015,8 @@
   </sheetPr>
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
@@ -24326,7 +24558,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="598" t="s">
+      <c r="F90" s="607" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -24339,7 +24571,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="599"/>
+      <c r="F91" s="608"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -24358,10 +24590,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="636" t="s">
+      <c r="I93" s="645" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="637"/>
+      <c r="J93" s="646"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -24371,8 +24603,8 @@
       <c r="C94" s="522"/>
       <c r="D94" s="523"/>
       <c r="E94" s="524"/>
-      <c r="I94" s="638"/>
-      <c r="J94" s="639"/>
+      <c r="I94" s="647"/>
+      <c r="J94" s="648"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -24611,28 +24843,40 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:E17"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="3" width="14.42578125" style="256" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="644" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="657" t="s">
+        <v>765</v>
+      </c>
+      <c r="G2" s="658"/>
+      <c r="H2" s="659"/>
+    </row>
+    <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="654" t="s">
         <v>761</v>
       </c>
-      <c r="C3" s="645"/>
-      <c r="D3" s="646"/>
-    </row>
-    <row r="4" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="655"/>
+      <c r="D3" s="656"/>
+      <c r="F3" s="660"/>
+      <c r="G3" s="661"/>
+      <c r="H3" s="662"/>
+    </row>
+    <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="530" t="s">
         <v>760</v>
       </c>
@@ -24642,8 +24886,17 @@
       <c r="D4" s="531" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" s="98" customFormat="1" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="537" t="s">
+        <v>760</v>
+      </c>
+      <c r="G4" s="538" t="s">
+        <v>759</v>
+      </c>
+      <c r="H4" s="539" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="98" customFormat="1" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="118">
         <v>44669</v>
       </c>
@@ -24656,8 +24909,15 @@
       <c r="E5" s="533" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F5" s="254">
+        <v>44673</v>
+      </c>
+      <c r="G5" s="254"/>
+      <c r="H5" s="327">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="254">
         <v>44670</v>
       </c>
@@ -24670,8 +24930,15 @@
       <c r="E6" s="533" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="254">
+        <v>44673</v>
+      </c>
+      <c r="G6" s="254"/>
+      <c r="H6" s="327">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="254">
         <v>44671</v>
       </c>
@@ -24684,8 +24951,15 @@
       <c r="E7" s="533" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F7" s="254">
+        <v>44673</v>
+      </c>
+      <c r="G7" s="254"/>
+      <c r="H7" s="327">
+        <v>59220</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="254">
         <v>44672</v>
       </c>
@@ -24698,8 +24972,15 @@
       <c r="E8" s="533" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F8" s="254">
+        <v>44673</v>
+      </c>
+      <c r="G8" s="254"/>
+      <c r="H8" s="327">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="98" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="254">
         <v>44673</v>
       </c>
@@ -24712,15 +24993,25 @@
       <c r="E9" s="533" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" s="98" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="254">
+        <v>44673</v>
+      </c>
+      <c r="G9" s="254"/>
+      <c r="H9" s="327">
+        <v>19117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="98" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="118"/>
       <c r="C10" s="118"/>
       <c r="D10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="534" t="s">
         <v>8</v>
       </c>
@@ -24728,39 +25019,57 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="648" t="s">
+      <c r="G11" s="663">
+        <f>SUM(H5:H10)</f>
+        <v>334337</v>
+      </c>
+      <c r="H11" s="664"/>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="536" t="s">
+        <v>594</v>
+      </c>
+      <c r="C13" s="536" t="s">
         <v>764</v>
       </c>
       <c r="D13" s="154">
         <v>334337</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="648"/>
-    </row>
-    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="C15" s="648" t="s">
+    <row r="14" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="536"/>
+    </row>
+    <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="667" t="s">
         <v>763</v>
       </c>
-      <c r="D15" s="647">
+      <c r="D15" s="665">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="648"/>
-    </row>
-    <row r="17" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="648"/>
+    <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="668"/>
+      <c r="D16" s="666"/>
+    </row>
+    <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="653" t="s">
+        <v>766</v>
+      </c>
+      <c r="D17" s="653"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.19" right="0.13" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26108,7 +26417,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="571" t="s">
+      <c r="B41" s="580" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -26140,7 +26449,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="572"/>
+      <c r="B42" s="581"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -27736,23 +28045,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="569"/>
+      <c r="C1" s="571" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="572"/>
+      <c r="E1" s="572"/>
+      <c r="F1" s="572"/>
+      <c r="G1" s="572"/>
+      <c r="H1" s="572"/>
+      <c r="I1" s="572"/>
+      <c r="J1" s="572"/>
+      <c r="K1" s="572"/>
+      <c r="L1" s="572"/>
+      <c r="M1" s="572"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="570"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -27762,21 +28071,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="574"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="575"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="590" t="s">
+      <c r="P3" s="599" t="s">
         <v>6</v>
       </c>
     </row>
@@ -27791,14 +28100,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="567" t="s">
+      <c r="E4" s="576" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="568"/>
-      <c r="H4" s="569" t="s">
+      <c r="F4" s="577"/>
+      <c r="H4" s="578" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="570"/>
+      <c r="I4" s="579"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -27808,14 +28117,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="591"/>
+      <c r="P4" s="600"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="573" t="s">
+      <c r="W4" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="573"/>
+      <c r="X4" s="582"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27866,8 +28175,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="573"/>
-      <c r="X5" s="573"/>
+      <c r="W5" s="582"/>
+      <c r="X5" s="582"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28638,7 +28947,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="577">
+      <c r="W19" s="586">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -28690,7 +28999,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="578"/>
+      <c r="W20" s="587"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -28739,8 +29048,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="579"/>
-      <c r="X21" s="579"/>
+      <c r="W21" s="588"/>
+      <c r="X21" s="588"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -28841,8 +29150,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="580"/>
-      <c r="X23" s="580"/>
+      <c r="W23" s="589"/>
+      <c r="X23" s="589"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -28896,8 +29205,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="580"/>
-      <c r="X24" s="580"/>
+      <c r="W24" s="589"/>
+      <c r="X24" s="589"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -28943,8 +29252,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="581"/>
-      <c r="X25" s="581"/>
+      <c r="W25" s="590"/>
+      <c r="X25" s="590"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -28995,8 +29304,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="581"/>
-      <c r="X26" s="581"/>
+      <c r="W26" s="590"/>
+      <c r="X26" s="590"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29044,9 +29353,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="574"/>
-      <c r="X27" s="575"/>
-      <c r="Y27" s="576"/>
+      <c r="W27" s="583"/>
+      <c r="X27" s="584"/>
+      <c r="Y27" s="585"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29096,9 +29405,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="575"/>
-      <c r="X28" s="575"/>
-      <c r="Y28" s="576"/>
+      <c r="W28" s="584"/>
+      <c r="X28" s="584"/>
+      <c r="Y28" s="585"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29433,11 +29742,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="592">
+      <c r="M36" s="601">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="594">
+      <c r="N36" s="603">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -29445,7 +29754,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="596">
+      <c r="Q36" s="605">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -29480,13 +29789,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="593"/>
-      <c r="N37" s="595"/>
+      <c r="M37" s="602"/>
+      <c r="N37" s="604"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="597"/>
+      <c r="Q37" s="606"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -29776,26 +30085,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="547" t="s">
+      <c r="H52" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="548"/>
+      <c r="I52" s="557"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="549">
+      <c r="K52" s="558">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="582"/>
+      <c r="L52" s="591"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="553" t="s">
+      <c r="D53" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="553"/>
+      <c r="E53" s="562"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -29804,29 +30113,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="583" t="s">
+      <c r="D54" s="592" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="583"/>
+      <c r="E54" s="592"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="554" t="s">
+      <c r="I54" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="555"/>
-      <c r="K54" s="556">
+      <c r="J54" s="564"/>
+      <c r="K54" s="565">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="556"/>
-      <c r="M54" s="584" t="s">
+      <c r="L54" s="565"/>
+      <c r="M54" s="593" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="585"/>
-      <c r="O54" s="585"/>
-      <c r="P54" s="585"/>
-      <c r="Q54" s="586"/>
+      <c r="N54" s="594"/>
+      <c r="O54" s="594"/>
+      <c r="P54" s="594"/>
+      <c r="Q54" s="595"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -29840,11 +30149,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="587"/>
-      <c r="N55" s="588"/>
-      <c r="O55" s="588"/>
-      <c r="P55" s="588"/>
-      <c r="Q55" s="589"/>
+      <c r="M55" s="596"/>
+      <c r="N55" s="597"/>
+      <c r="O55" s="597"/>
+      <c r="P55" s="597"/>
+      <c r="Q55" s="598"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -29862,11 +30171,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="558">
+      <c r="K56" s="567">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="559"/>
+      <c r="L56" s="568"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -29883,22 +30192,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="536" t="s">
+      <c r="D58" s="545" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="537"/>
+      <c r="E58" s="546"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="538" t="s">
+      <c r="I58" s="547" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="539"/>
-      <c r="K58" s="540">
+      <c r="J58" s="548"/>
+      <c r="K58" s="549">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="540"/>
+      <c r="L58" s="549"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -32488,7 +32797,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="598" t="s">
+      <c r="F87" s="607" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -32501,7 +32810,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="599"/>
+      <c r="F88" s="608"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -32813,23 +33122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="569"/>
+      <c r="C1" s="571" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="572"/>
+      <c r="E1" s="572"/>
+      <c r="F1" s="572"/>
+      <c r="G1" s="572"/>
+      <c r="H1" s="572"/>
+      <c r="I1" s="572"/>
+      <c r="J1" s="572"/>
+      <c r="K1" s="572"/>
+      <c r="L1" s="572"/>
+      <c r="M1" s="572"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="570"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -32839,24 +33148,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="574"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="575"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="590" t="s">
+      <c r="P3" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="600" t="s">
+      <c r="R3" s="609" t="s">
         <v>216</v>
       </c>
     </row>
@@ -32871,14 +33180,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="567" t="s">
+      <c r="E4" s="576" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="568"/>
-      <c r="H4" s="569" t="s">
+      <c r="F4" s="577"/>
+      <c r="H4" s="578" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="570"/>
+      <c r="I4" s="579"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -32888,15 +33197,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="591"/>
+      <c r="P4" s="600"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="601"/>
-      <c r="W4" s="573" t="s">
+      <c r="R4" s="610"/>
+      <c r="W4" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="573"/>
+      <c r="X4" s="582"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32957,8 +33266,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="573"/>
-      <c r="X5" s="573"/>
+      <c r="W5" s="582"/>
+      <c r="X5" s="582"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33715,7 +34024,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="577">
+      <c r="W19" s="586">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -33767,7 +34076,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="578"/>
+      <c r="W20" s="587"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -33816,8 +34125,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="579"/>
-      <c r="X21" s="579"/>
+      <c r="W21" s="588"/>
+      <c r="X21" s="588"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -33918,8 +34227,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="580"/>
-      <c r="X23" s="580"/>
+      <c r="W23" s="589"/>
+      <c r="X23" s="589"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -33970,8 +34279,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="580"/>
-      <c r="X24" s="580"/>
+      <c r="W24" s="589"/>
+      <c r="X24" s="589"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34017,8 +34326,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="581"/>
-      <c r="X25" s="581"/>
+      <c r="W25" s="590"/>
+      <c r="X25" s="590"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34066,8 +34375,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="581"/>
-      <c r="X26" s="581"/>
+      <c r="W26" s="590"/>
+      <c r="X26" s="590"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34127,9 +34436,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="574"/>
-      <c r="X27" s="575"/>
-      <c r="Y27" s="576"/>
+      <c r="W27" s="583"/>
+      <c r="X27" s="584"/>
+      <c r="Y27" s="585"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34183,9 +34492,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="575"/>
-      <c r="X28" s="575"/>
-      <c r="Y28" s="576"/>
+      <c r="W28" s="584"/>
+      <c r="X28" s="584"/>
+      <c r="Y28" s="585"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34501,11 +34810,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="592">
+      <c r="M36" s="601">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="594">
+      <c r="N36" s="603">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -34513,7 +34822,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="596">
+      <c r="Q36" s="605">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -34532,13 +34841,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="593"/>
-      <c r="N37" s="595"/>
+      <c r="M37" s="602"/>
+      <c r="N37" s="604"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="597"/>
+      <c r="Q37" s="606"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -34812,26 +35121,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="547" t="s">
+      <c r="H52" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="548"/>
+      <c r="I52" s="557"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="549">
+      <c r="K52" s="558">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="582"/>
+      <c r="L52" s="591"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="553" t="s">
+      <c r="D53" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="553"/>
+      <c r="E53" s="562"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -34840,29 +35149,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="583" t="s">
+      <c r="D54" s="592" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="583"/>
+      <c r="E54" s="592"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="554" t="s">
+      <c r="I54" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="555"/>
-      <c r="K54" s="556">
+      <c r="J54" s="564"/>
+      <c r="K54" s="565">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="556"/>
-      <c r="M54" s="584" t="s">
+      <c r="L54" s="565"/>
+      <c r="M54" s="593" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="585"/>
-      <c r="O54" s="585"/>
-      <c r="P54" s="585"/>
-      <c r="Q54" s="586"/>
+      <c r="N54" s="594"/>
+      <c r="O54" s="594"/>
+      <c r="P54" s="594"/>
+      <c r="Q54" s="595"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -34876,11 +35185,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="587"/>
-      <c r="N55" s="588"/>
-      <c r="O55" s="588"/>
-      <c r="P55" s="588"/>
-      <c r="Q55" s="589"/>
+      <c r="M55" s="596"/>
+      <c r="N55" s="597"/>
+      <c r="O55" s="597"/>
+      <c r="P55" s="597"/>
+      <c r="Q55" s="598"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -34898,11 +35207,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="558">
+      <c r="K56" s="567">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="559"/>
+      <c r="L56" s="568"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -34919,22 +35228,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="536" t="s">
+      <c r="D58" s="545" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="537"/>
+      <c r="E58" s="546"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="538" t="s">
+      <c r="I58" s="547" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="539"/>
-      <c r="K58" s="540">
+      <c r="J58" s="548"/>
+      <c r="K58" s="549">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="540"/>
+      <c r="L58" s="549"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -37497,7 +37806,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="598" t="s">
+      <c r="F75" s="607" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -37510,7 +37819,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="599"/>
+      <c r="F76" s="608"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -37802,23 +38111,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="602" t="s">
+      <c r="B1" s="569"/>
+      <c r="C1" s="611" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="603"/>
-      <c r="E1" s="603"/>
-      <c r="F1" s="603"/>
-      <c r="G1" s="603"/>
-      <c r="H1" s="603"/>
-      <c r="I1" s="603"/>
-      <c r="J1" s="603"/>
-      <c r="K1" s="603"/>
-      <c r="L1" s="603"/>
-      <c r="M1" s="603"/>
+      <c r="D1" s="612"/>
+      <c r="E1" s="612"/>
+      <c r="F1" s="612"/>
+      <c r="G1" s="612"/>
+      <c r="H1" s="612"/>
+      <c r="I1" s="612"/>
+      <c r="J1" s="612"/>
+      <c r="K1" s="612"/>
+      <c r="L1" s="612"/>
+      <c r="M1" s="612"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="570"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -37828,24 +38137,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="574"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="575"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="590" t="s">
+      <c r="P3" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="600" t="s">
+      <c r="R3" s="609" t="s">
         <v>216</v>
       </c>
     </row>
@@ -37860,14 +38169,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="567" t="s">
+      <c r="E4" s="576" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="568"/>
-      <c r="H4" s="569" t="s">
+      <c r="F4" s="577"/>
+      <c r="H4" s="578" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="570"/>
+      <c r="I4" s="579"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -37877,15 +38186,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="591"/>
+      <c r="P4" s="600"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="601"/>
-      <c r="W4" s="573" t="s">
+      <c r="R4" s="610"/>
+      <c r="W4" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="573"/>
+      <c r="X4" s="582"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37936,8 +38245,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="573"/>
-      <c r="X5" s="573"/>
+      <c r="W5" s="582"/>
+      <c r="X5" s="582"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38701,7 +39010,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="577">
+      <c r="W19" s="586">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -38754,7 +39063,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="578"/>
+      <c r="W20" s="587"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -38803,8 +39112,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="579"/>
-      <c r="X21" s="579"/>
+      <c r="W21" s="588"/>
+      <c r="X21" s="588"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -38904,8 +39213,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="580"/>
-      <c r="X23" s="580"/>
+      <c r="W23" s="589"/>
+      <c r="X23" s="589"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -38960,8 +39269,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="580"/>
-      <c r="X24" s="580"/>
+      <c r="W24" s="589"/>
+      <c r="X24" s="589"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -39006,8 +39315,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="581"/>
-      <c r="X25" s="581"/>
+      <c r="W25" s="590"/>
+      <c r="X25" s="590"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -39055,8 +39364,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="581"/>
-      <c r="X26" s="581"/>
+      <c r="W26" s="590"/>
+      <c r="X26" s="590"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -39110,9 +39419,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="574"/>
-      <c r="X27" s="575"/>
-      <c r="Y27" s="576"/>
+      <c r="W27" s="583"/>
+      <c r="X27" s="584"/>
+      <c r="Y27" s="585"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39166,9 +39475,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="575"/>
-      <c r="X28" s="575"/>
-      <c r="Y28" s="576"/>
+      <c r="W28" s="584"/>
+      <c r="X28" s="584"/>
+      <c r="Y28" s="585"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39479,11 +39788,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="592">
+      <c r="M36" s="601">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="594">
+      <c r="N36" s="603">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -39491,7 +39800,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="596">
+      <c r="Q36" s="605">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -39516,13 +39825,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="593"/>
-      <c r="N37" s="595"/>
+      <c r="M37" s="602"/>
+      <c r="N37" s="604"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="597"/>
+      <c r="Q37" s="606"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -39815,26 +40124,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="547" t="s">
+      <c r="H52" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="548"/>
+      <c r="I52" s="557"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="549">
+      <c r="K52" s="558">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="582"/>
+      <c r="L52" s="591"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="553" t="s">
+      <c r="D53" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="553"/>
+      <c r="E53" s="562"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -39843,22 +40152,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="583" t="s">
+      <c r="D54" s="592" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="583"/>
+      <c r="E54" s="592"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="554" t="s">
+      <c r="I54" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="555"/>
-      <c r="K54" s="556">
+      <c r="J54" s="564"/>
+      <c r="K54" s="565">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="556"/>
+      <c r="L54" s="565"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -39899,11 +40208,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="558">
+      <c r="K56" s="567">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="559"/>
+      <c r="L56" s="568"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -39920,22 +40229,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="536" t="s">
+      <c r="D58" s="545" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="537"/>
+      <c r="E58" s="546"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="538" t="s">
+      <c r="I58" s="547" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="539"/>
-      <c r="K58" s="540">
+      <c r="J58" s="548"/>
+      <c r="K58" s="549">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="540"/>
+      <c r="L58" s="549"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -41804,12 +42113,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="604" t="s">
+      <c r="B43" s="613" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="605"/>
-      <c r="D43" s="605"/>
-      <c r="E43" s="606"/>
+      <c r="C43" s="614"/>
+      <c r="D43" s="614"/>
+      <c r="E43" s="615"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41837,10 +42146,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="607"/>
-      <c r="C44" s="608"/>
-      <c r="D44" s="608"/>
-      <c r="E44" s="609"/>
+      <c r="B44" s="616"/>
+      <c r="C44" s="617"/>
+      <c r="D44" s="617"/>
+      <c r="E44" s="618"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41868,10 +42177,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="610"/>
-      <c r="C45" s="611"/>
-      <c r="D45" s="611"/>
-      <c r="E45" s="612"/>
+      <c r="B45" s="619"/>
+      <c r="C45" s="620"/>
+      <c r="D45" s="620"/>
+      <c r="E45" s="621"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -41914,10 +42223,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="619" t="s">
+      <c r="B47" s="628" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="620"/>
+      <c r="C47" s="629"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -41939,8 +42248,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="621"/>
-      <c r="C48" s="622"/>
+      <c r="B48" s="630"/>
+      <c r="C48" s="631"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -41948,11 +42257,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="613" t="s">
+      <c r="J48" s="622" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="614"/>
-      <c r="L48" s="615"/>
+      <c r="K48" s="623"/>
+      <c r="L48" s="624"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -41970,9 +42279,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="616"/>
-      <c r="K49" s="617"/>
-      <c r="L49" s="618"/>
+      <c r="J49" s="625"/>
+      <c r="K49" s="626"/>
+      <c r="L49" s="627"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -41989,10 +42298,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="623" t="s">
+      <c r="I50" s="632" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="624"/>
+      <c r="J50" s="633"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -42013,8 +42322,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="623"/>
-      <c r="J51" s="624"/>
+      <c r="I51" s="632"/>
+      <c r="J51" s="633"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -42033,8 +42342,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="623"/>
-      <c r="J52" s="624"/>
+      <c r="I52" s="632"/>
+      <c r="J52" s="633"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -42053,8 +42362,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="623"/>
-      <c r="J53" s="624"/>
+      <c r="I53" s="632"/>
+      <c r="J53" s="633"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -42073,8 +42382,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="623"/>
-      <c r="J54" s="624"/>
+      <c r="I54" s="632"/>
+      <c r="J54" s="633"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -42093,8 +42402,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="623"/>
-      <c r="J55" s="624"/>
+      <c r="I55" s="632"/>
+      <c r="J55" s="633"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -42113,8 +42422,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="623"/>
-      <c r="J56" s="624"/>
+      <c r="I56" s="632"/>
+      <c r="J56" s="633"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -42133,8 +42442,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="623"/>
-      <c r="J57" s="624"/>
+      <c r="I57" s="632"/>
+      <c r="J57" s="633"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -42153,8 +42462,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="623"/>
-      <c r="J58" s="624"/>
+      <c r="I58" s="632"/>
+      <c r="J58" s="633"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -42173,8 +42482,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="623"/>
-      <c r="J59" s="624"/>
+      <c r="I59" s="632"/>
+      <c r="J59" s="633"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -42193,8 +42502,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="623"/>
-      <c r="J60" s="624"/>
+      <c r="I60" s="632"/>
+      <c r="J60" s="633"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -42213,8 +42522,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="623"/>
-      <c r="J61" s="624"/>
+      <c r="I61" s="632"/>
+      <c r="J61" s="633"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -42233,8 +42542,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="623"/>
-      <c r="J62" s="624"/>
+      <c r="I62" s="632"/>
+      <c r="J62" s="633"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -42253,8 +42562,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="623"/>
-      <c r="J63" s="624"/>
+      <c r="I63" s="632"/>
+      <c r="J63" s="633"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -42273,8 +42582,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="623"/>
-      <c r="J64" s="624"/>
+      <c r="I64" s="632"/>
+      <c r="J64" s="633"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -42293,8 +42602,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="623"/>
-      <c r="J65" s="624"/>
+      <c r="I65" s="632"/>
+      <c r="J65" s="633"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -42313,8 +42622,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="623"/>
-      <c r="J66" s="624"/>
+      <c r="I66" s="632"/>
+      <c r="J66" s="633"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -42333,8 +42642,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="623"/>
-      <c r="J67" s="624"/>
+      <c r="I67" s="632"/>
+      <c r="J67" s="633"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -42353,8 +42662,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="623"/>
-      <c r="J68" s="624"/>
+      <c r="I68" s="632"/>
+      <c r="J68" s="633"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -42373,8 +42682,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="623"/>
-      <c r="J69" s="624"/>
+      <c r="I69" s="632"/>
+      <c r="J69" s="633"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -42393,8 +42702,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="623"/>
-      <c r="J70" s="624"/>
+      <c r="I70" s="632"/>
+      <c r="J70" s="633"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -42413,8 +42722,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="623"/>
-      <c r="J71" s="624"/>
+      <c r="I71" s="632"/>
+      <c r="J71" s="633"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -42433,8 +42742,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="623"/>
-      <c r="J72" s="624"/>
+      <c r="I72" s="632"/>
+      <c r="J72" s="633"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -42453,8 +42762,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="623"/>
-      <c r="J73" s="624"/>
+      <c r="I73" s="632"/>
+      <c r="J73" s="633"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -42473,8 +42782,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="623"/>
-      <c r="J74" s="624"/>
+      <c r="I74" s="632"/>
+      <c r="J74" s="633"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -42493,8 +42802,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="623"/>
-      <c r="J75" s="624"/>
+      <c r="I75" s="632"/>
+      <c r="J75" s="633"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -42513,8 +42822,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="623"/>
-      <c r="J76" s="624"/>
+      <c r="I76" s="632"/>
+      <c r="J76" s="633"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -42533,8 +42842,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="623"/>
-      <c r="J77" s="624"/>
+      <c r="I77" s="632"/>
+      <c r="J77" s="633"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -42555,8 +42864,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="625"/>
-      <c r="J78" s="626"/>
+      <c r="I78" s="634"/>
+      <c r="J78" s="635"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -42601,7 +42910,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="598" t="s">
+      <c r="F80" s="607" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -42613,7 +42922,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="599"/>
+      <c r="F81" s="608"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -42901,23 +43210,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="602" t="s">
+      <c r="B1" s="569"/>
+      <c r="C1" s="611" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="603"/>
-      <c r="E1" s="603"/>
-      <c r="F1" s="603"/>
-      <c r="G1" s="603"/>
-      <c r="H1" s="603"/>
-      <c r="I1" s="603"/>
-      <c r="J1" s="603"/>
-      <c r="K1" s="603"/>
-      <c r="L1" s="603"/>
-      <c r="M1" s="603"/>
+      <c r="D1" s="612"/>
+      <c r="E1" s="612"/>
+      <c r="F1" s="612"/>
+      <c r="G1" s="612"/>
+      <c r="H1" s="612"/>
+      <c r="I1" s="612"/>
+      <c r="J1" s="612"/>
+      <c r="K1" s="612"/>
+      <c r="L1" s="612"/>
+      <c r="M1" s="612"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="570"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42927,24 +43236,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="574"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="575"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="590" t="s">
+      <c r="P3" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="600" t="s">
+      <c r="R3" s="609" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42959,14 +43268,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="567" t="s">
+      <c r="E4" s="576" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="568"/>
-      <c r="H4" s="569" t="s">
+      <c r="F4" s="577"/>
+      <c r="H4" s="578" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="570"/>
+      <c r="I4" s="579"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -42976,15 +43285,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="591"/>
+      <c r="P4" s="600"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="601"/>
-      <c r="W4" s="573" t="s">
+      <c r="R4" s="610"/>
+      <c r="W4" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="573"/>
+      <c r="X4" s="582"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43035,8 +43344,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="573"/>
-      <c r="X5" s="573"/>
+      <c r="W5" s="582"/>
+      <c r="X5" s="582"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43797,7 +44106,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="577">
+      <c r="W19" s="586">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -43849,7 +44158,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="578"/>
+      <c r="W20" s="587"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -43898,8 +44207,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="579"/>
-      <c r="X21" s="579"/>
+      <c r="W21" s="588"/>
+      <c r="X21" s="588"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -43998,8 +44307,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="580"/>
-      <c r="X23" s="580"/>
+      <c r="W23" s="589"/>
+      <c r="X23" s="589"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -44054,8 +44363,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="580"/>
-      <c r="X24" s="580"/>
+      <c r="W24" s="589"/>
+      <c r="X24" s="589"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -44103,8 +44412,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="581"/>
-      <c r="X25" s="581"/>
+      <c r="W25" s="590"/>
+      <c r="X25" s="590"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -44152,8 +44461,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="581"/>
-      <c r="X26" s="581"/>
+      <c r="W26" s="590"/>
+      <c r="X26" s="590"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -44201,9 +44510,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="574"/>
-      <c r="X27" s="575"/>
-      <c r="Y27" s="576"/>
+      <c r="W27" s="583"/>
+      <c r="X27" s="584"/>
+      <c r="Y27" s="585"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44251,9 +44560,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="575"/>
-      <c r="X28" s="575"/>
-      <c r="Y28" s="576"/>
+      <c r="W28" s="584"/>
+      <c r="X28" s="584"/>
+      <c r="Y28" s="585"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44594,11 +44903,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="592">
+      <c r="M36" s="601">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="594">
+      <c r="N36" s="603">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -44606,7 +44915,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="627">
+      <c r="Q36" s="636">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -44631,13 +44940,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="593"/>
-      <c r="N37" s="595"/>
+      <c r="M37" s="602"/>
+      <c r="N37" s="604"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="628"/>
+      <c r="Q37" s="637"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -44687,11 +44996,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="629">
+      <c r="M39" s="638">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="630"/>
+      <c r="N39" s="639"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -44939,26 +45248,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="547" t="s">
+      <c r="H52" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="548"/>
+      <c r="I52" s="557"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="549">
+      <c r="K52" s="558">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="582"/>
+      <c r="L52" s="591"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="553" t="s">
+      <c r="D53" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="553"/>
+      <c r="E53" s="562"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -44967,22 +45276,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="583" t="s">
+      <c r="D54" s="592" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="583"/>
+      <c r="E54" s="592"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="554" t="s">
+      <c r="I54" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="555"/>
-      <c r="K54" s="556">
+      <c r="J54" s="564"/>
+      <c r="K54" s="565">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="556"/>
+      <c r="L54" s="565"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -45023,11 +45332,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="558">
+      <c r="K56" s="567">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="559"/>
+      <c r="L56" s="568"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -45044,22 +45353,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="536" t="s">
+      <c r="D58" s="545" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="537"/>
+      <c r="E58" s="546"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="538" t="s">
+      <c r="I58" s="547" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="539"/>
-      <c r="K58" s="540">
+      <c r="J58" s="548"/>
+      <c r="K58" s="549">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="540"/>
+      <c r="L58" s="549"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
